--- a/finansiele berekeninge 2015.xlsx
+++ b/finansiele berekeninge 2015.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shizuka\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C56230-815F-4953-AF77-F8FE2343D0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C1660C-C716-4942-90B4-F4FEAB8BE941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="695" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-4680" windowWidth="29040" windowHeight="15840" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SALARIS" sheetId="22" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="663">
   <si>
     <t>Maandlikse salaris</t>
   </si>
@@ -1959,6 +1959,81 @@
   </si>
   <si>
     <t>Mrt</t>
+  </si>
+  <si>
+    <t>SHARES ZERO ACCOUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 May 2023 </t>
+  </si>
+  <si>
+    <t>BUY 40 OMU @ 11.56 - ORDER# 1</t>
+  </si>
+  <si>
+    <t>BUY 10 GLN @ 103.40 - ORDER# 2</t>
+  </si>
+  <si>
+    <t>BUY 29 APETNC @ 14.88 - ORDER# 3</t>
+  </si>
+  <si>
+    <t>BUY 40 SRETNQ @ 9.38 - ORDER# 4</t>
+  </si>
+  <si>
+    <t>Percentages</t>
+  </si>
+  <si>
+    <t>Geld in betaal</t>
+  </si>
+  <si>
+    <t>Koste van aandele</t>
+  </si>
+  <si>
+    <t>my rek</t>
+  </si>
+  <si>
+    <t>Belegging uitbetaling</t>
+  </si>
+  <si>
+    <t>69k</t>
+  </si>
+  <si>
+    <t>Skuld</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
+  <si>
+    <t>Vakansie</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>NODIGE UITGAWES</t>
+  </si>
+  <si>
+    <t>Nuwe slot vir garage</t>
+  </si>
+  <si>
+    <t>Nog sekuritetis beam</t>
+  </si>
+  <si>
+    <t>Hek motor herstel</t>
+  </si>
+  <si>
+    <t>Hek motor solar</t>
+  </si>
+  <si>
+    <t>Lang termyn</t>
+  </si>
+  <si>
+    <t>Moet 6k hou vir kar regmaak (koppelaar)</t>
+  </si>
+  <si>
+    <t>9k</t>
+  </si>
+  <si>
+    <t>Bêre vir die volgende lendevrug</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +2045,7 @@
     <numFmt numFmtId="164" formatCode="[$ZAR]\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$R-1C09]#,##0.00"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="53">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2339,6 +2414,14 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="25">
@@ -3313,7 +3396,7 @@
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="357">
+  <cellXfs count="359">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="3" applyBorder="1"/>
@@ -3707,6 +3790,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="51" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" xfId="13" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4265,7 +4350,7 @@
                   <c:v>48929.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51000</c:v>
+                  <c:v>48929.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>54500</c:v>
@@ -5147,9 +5232,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5187,9 +5272,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5222,26 +5307,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5274,26 +5342,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5467,15 +5518,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D37CFB-3750-4140-B070-A288E4BD3B86}">
-  <dimension ref="B2:Z40"/>
+  <dimension ref="B2:Z53"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Z15" sqref="W14:Z15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -5502,6 +5555,9 @@
       <c r="C3" s="180">
         <v>5000</v>
       </c>
+      <c r="P3" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="4" spans="2:26">
       <c r="B4">
@@ -5510,6 +5566,21 @@
       <c r="C4" s="42">
         <v>11800</v>
       </c>
+      <c r="P4" t="s">
+        <v>649</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>661</v>
+      </c>
+      <c r="R4" t="s">
+        <v>650</v>
+      </c>
+      <c r="T4" t="s">
+        <v>651</v>
+      </c>
+      <c r="U4" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="5" spans="2:26">
       <c r="B5">
@@ -5518,6 +5589,15 @@
       <c r="C5" s="42">
         <v>12500</v>
       </c>
+      <c r="Q5" t="s">
+        <v>651</v>
+      </c>
+      <c r="R5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T5" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="6" spans="2:26">
       <c r="B6">
@@ -5526,6 +5606,12 @@
       <c r="C6" s="42">
         <v>15000</v>
       </c>
+      <c r="Q6" t="s">
+        <v>653</v>
+      </c>
+      <c r="R6" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="7" spans="2:26">
       <c r="B7">
@@ -5534,6 +5620,12 @@
       <c r="C7" s="42">
         <v>18000</v>
       </c>
+      <c r="Q7" t="s">
+        <v>653</v>
+      </c>
+      <c r="R7" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="8" spans="2:26">
       <c r="B8">
@@ -5542,6 +5634,9 @@
       <c r="C8" s="42">
         <v>19000</v>
       </c>
+      <c r="R8" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="9" spans="2:26">
       <c r="B9">
@@ -5550,6 +5645,9 @@
       <c r="C9" s="42">
         <v>21000</v>
       </c>
+      <c r="R9" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="10" spans="2:26">
       <c r="B10">
@@ -5558,6 +5656,9 @@
       <c r="C10">
         <v>22802.21</v>
       </c>
+      <c r="R10" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="11" spans="2:26">
       <c r="B11">
@@ -5566,6 +5667,9 @@
       <c r="C11">
         <v>24571.22</v>
       </c>
+      <c r="R11" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="12" spans="2:26">
       <c r="B12">
@@ -5574,6 +5678,9 @@
       <c r="C12">
         <v>31519.33</v>
       </c>
+      <c r="R12" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="13" spans="2:26">
       <c r="B13">
@@ -5643,8 +5750,8 @@
       <c r="B18">
         <v>2023</v>
       </c>
-      <c r="C18" s="42">
-        <v>51000</v>
+      <c r="C18">
+        <v>48929.4</v>
       </c>
     </row>
     <row r="19" spans="2:26">
@@ -5706,18 +5813,18 @@
       </c>
     </row>
     <row r="24" spans="2:26" ht="23.25">
-      <c r="B24" s="249" t="s">
+      <c r="B24" s="251" t="s">
         <v>602</v>
       </c>
-      <c r="C24" s="249"/>
-      <c r="D24" s="249"/>
-      <c r="E24" s="249"/>
-      <c r="F24" s="249"/>
-      <c r="M24" s="250" t="s">
+      <c r="C24" s="251"/>
+      <c r="D24" s="251"/>
+      <c r="E24" s="251"/>
+      <c r="F24" s="251"/>
+      <c r="M24" s="252" t="s">
         <v>606</v>
       </c>
-      <c r="N24" s="250"/>
-      <c r="O24" s="250"/>
+      <c r="N24" s="252"/>
+      <c r="O24" s="252"/>
       <c r="S24" s="243" t="s">
         <v>613</v>
       </c>
@@ -6093,7 +6200,7 @@
         <v>33400</v>
       </c>
     </row>
-    <row r="33" spans="3:26">
+    <row r="33" spans="2:26">
       <c r="G33" s="126">
         <v>74000</v>
       </c>
@@ -6118,12 +6225,15 @@
         <v>37400</v>
       </c>
     </row>
-    <row r="37" spans="3:26">
+    <row r="37" spans="2:26">
+      <c r="C37" s="169" t="s">
+        <v>644</v>
+      </c>
       <c r="D37" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="38" spans="3:26">
+    <row r="38" spans="2:26">
       <c r="C38">
         <v>1</v>
       </c>
@@ -6131,7 +6241,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="39" spans="3:26">
+    <row r="39" spans="2:26">
       <c r="C39">
         <v>14</v>
       </c>
@@ -6139,12 +6249,115 @@
         <v>631</v>
       </c>
     </row>
-    <row r="40" spans="3:26">
+    <row r="40" spans="2:26">
       <c r="C40">
         <v>85</v>
       </c>
       <c r="D40" t="s">
         <v>632</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26">
+      <c r="D43">
+        <f>SUM(C46:C1048576)</f>
+        <v>3000</v>
+      </c>
+      <c r="G43">
+        <f>2976.76+121.59</f>
+        <v>3098.3500000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26">
+      <c r="B44" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26">
+      <c r="C45" t="s">
+        <v>645</v>
+      </c>
+      <c r="E45" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26">
+      <c r="B46" t="s">
+        <v>639</v>
+      </c>
+      <c r="C46">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26">
+      <c r="B47" t="s">
+        <v>639</v>
+      </c>
+      <c r="C47">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26">
+      <c r="B48" s="250">
+        <v>45050</v>
+      </c>
+      <c r="D48" s="44" t="s">
+        <v>640</v>
+      </c>
+      <c r="E48">
+        <f>40*11.56</f>
+        <v>462.40000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="250">
+        <v>45050</v>
+      </c>
+      <c r="C49">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="250">
+        <v>45054</v>
+      </c>
+      <c r="D50" s="44" t="s">
+        <v>641</v>
+      </c>
+      <c r="E50">
+        <f>10*103.4</f>
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="250">
+        <v>45055</v>
+      </c>
+      <c r="D51" s="44" t="s">
+        <v>642</v>
+      </c>
+      <c r="E51">
+        <f>29*14.88</f>
+        <v>431.52000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="250">
+        <v>45085</v>
+      </c>
+      <c r="D52" s="44" t="s">
+        <v>643</v>
+      </c>
+      <c r="E52">
+        <f>40*9.38</f>
+        <v>375.20000000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="250">
+        <v>45110</v>
+      </c>
+      <c r="C53">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -6181,10 +6394,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="268" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="267"/>
+      <c r="B1" s="269"/>
       <c r="C1" s="138" t="s">
         <v>1</v>
       </c>
@@ -6194,11 +6407,11 @@
       <c r="G1" s="47"/>
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
-      <c r="J1" s="319" t="s">
+      <c r="J1" s="321" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="319"/>
-      <c r="L1" s="320"/>
+      <c r="K1" s="321"/>
+      <c r="L1" s="322"/>
       <c r="M1" s="50" t="s">
         <v>44</v>
       </c>
@@ -6337,11 +6550,11 @@
       <c r="G3" s="47"/>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
-      <c r="J3" s="270" t="s">
+      <c r="J3" s="272" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="270"/>
-      <c r="L3" s="271"/>
+      <c r="K3" s="272"/>
+      <c r="L3" s="273"/>
       <c r="M3" s="56">
         <v>401.56</v>
       </c>
@@ -6384,11 +6597,11 @@
         <f t="shared" ref="Z3:Z23" si="1">AVERAGE(M3:X3)</f>
         <v>478.15909090909082</v>
       </c>
-      <c r="AA3" s="270" t="s">
+      <c r="AA3" s="272" t="s">
         <v>63</v>
       </c>
-      <c r="AB3" s="270"/>
-      <c r="AC3" s="271"/>
+      <c r="AB3" s="272"/>
+      <c r="AC3" s="273"/>
     </row>
     <row r="4" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="47"/>
@@ -6409,11 +6622,11 @@
         <f>AVERAGE(M3:V3)</f>
         <v>481.21799999999996</v>
       </c>
-      <c r="J4" s="316" t="s">
+      <c r="J4" s="318" t="s">
         <v>239</v>
       </c>
-      <c r="K4" s="317"/>
-      <c r="L4" s="318"/>
+      <c r="K4" s="319"/>
+      <c r="L4" s="320"/>
       <c r="M4" s="58">
         <v>-27536.13</v>
       </c>
@@ -6468,11 +6681,11 @@
         <f t="shared" si="1"/>
         <v>-33579.255000000005</v>
       </c>
-      <c r="AA4" s="316" t="s">
+      <c r="AA4" s="318" t="s">
         <v>239</v>
       </c>
-      <c r="AB4" s="317"/>
-      <c r="AC4" s="318"/>
+      <c r="AB4" s="319"/>
+      <c r="AC4" s="320"/>
     </row>
     <row r="5" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" t="s">
@@ -6494,11 +6707,11 @@
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
-      <c r="J5" s="255" t="s">
+      <c r="J5" s="257" t="s">
         <v>149</v>
       </c>
-      <c r="K5" s="255"/>
-      <c r="L5" s="255"/>
+      <c r="K5" s="257"/>
+      <c r="L5" s="257"/>
       <c r="M5">
         <f>D10+D14</f>
         <v>7500</v>
@@ -6555,11 +6768,11 @@
         <f t="shared" si="1"/>
         <v>13246.675833333333</v>
       </c>
-      <c r="AA5" s="255" t="s">
+      <c r="AA5" s="257" t="s">
         <v>149</v>
       </c>
-      <c r="AB5" s="255"/>
-      <c r="AC5" s="255"/>
+      <c r="AB5" s="257"/>
+      <c r="AC5" s="257"/>
     </row>
     <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="47"/>
@@ -6579,11 +6792,11 @@
       <c r="G6" s="47"/>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
-      <c r="J6" s="256" t="s">
+      <c r="J6" s="258" t="s">
         <v>388</v>
       </c>
-      <c r="K6" s="256"/>
-      <c r="L6" s="256"/>
+      <c r="K6" s="258"/>
+      <c r="L6" s="258"/>
       <c r="N6">
         <f>-129</f>
         <v>-129</v>
@@ -6629,11 +6842,11 @@
         <f t="shared" si="1"/>
         <v>-1335.9590000000001</v>
       </c>
-      <c r="AA6" s="256" t="s">
+      <c r="AA6" s="258" t="s">
         <v>276</v>
       </c>
-      <c r="AB6" s="256"/>
-      <c r="AC6" s="256"/>
+      <c r="AB6" s="258"/>
+      <c r="AC6" s="258"/>
     </row>
     <row r="7" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="47"/>
@@ -6652,11 +6865,11 @@
       </c>
       <c r="G7" s="47"/>
       <c r="H7" s="47"/>
-      <c r="J7" s="256" t="s">
+      <c r="J7" s="258" t="s">
         <v>386</v>
       </c>
-      <c r="K7" s="257"/>
-      <c r="L7" s="257"/>
+      <c r="K7" s="259"/>
+      <c r="L7" s="259"/>
       <c r="P7">
         <v>-359</v>
       </c>
@@ -6672,11 +6885,11 @@
         <f t="shared" si="1"/>
         <v>-394.15</v>
       </c>
-      <c r="AA7" s="257" t="s">
+      <c r="AA7" s="259" t="s">
         <v>65</v>
       </c>
-      <c r="AB7" s="257"/>
-      <c r="AC7" s="257"/>
+      <c r="AB7" s="259"/>
+      <c r="AC7" s="259"/>
     </row>
     <row r="8" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="47"/>
@@ -6696,11 +6909,11 @@
       <c r="G8" s="47"/>
       <c r="H8" s="47"/>
       <c r="I8" s="47"/>
-      <c r="J8" s="257" t="s">
+      <c r="J8" s="259" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="257"/>
-      <c r="L8" s="289"/>
+      <c r="K8" s="259"/>
+      <c r="L8" s="291"/>
       <c r="M8">
         <f>-140-127.8-460-178-615-39-119.8-592</f>
         <v>-2271.6</v>
@@ -6753,11 +6966,11 @@
         <f t="shared" si="1"/>
         <v>-1703.7800000000002</v>
       </c>
-      <c r="AA8" s="257" t="s">
+      <c r="AA8" s="259" t="s">
         <v>105</v>
       </c>
-      <c r="AB8" s="257"/>
-      <c r="AC8" s="289"/>
+      <c r="AB8" s="259"/>
+      <c r="AC8" s="291"/>
     </row>
     <row r="9" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="47"/>
@@ -6775,11 +6988,11 @@
       <c r="G9" s="47"/>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
-      <c r="J9" s="256" t="s">
+      <c r="J9" s="258" t="s">
         <v>291</v>
       </c>
-      <c r="K9" s="256"/>
-      <c r="L9" s="288"/>
+      <c r="K9" s="258"/>
+      <c r="L9" s="290"/>
       <c r="O9">
         <f>-58.79</f>
         <v>-58.79</v>
@@ -6806,11 +7019,11 @@
         <f t="shared" si="1"/>
         <v>-517.43200000000002</v>
       </c>
-      <c r="AA9" s="256" t="s">
+      <c r="AA9" s="258" t="s">
         <v>291</v>
       </c>
-      <c r="AB9" s="256"/>
-      <c r="AC9" s="288"/>
+      <c r="AB9" s="258"/>
+      <c r="AC9" s="290"/>
     </row>
     <row r="10" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="47"/>
@@ -6830,11 +7043,11 @@
       <c r="G10" s="47"/>
       <c r="H10" s="47"/>
       <c r="I10" s="125"/>
-      <c r="J10" s="256" t="s">
+      <c r="J10" s="258" t="s">
         <v>269</v>
       </c>
-      <c r="K10" s="256"/>
-      <c r="L10" s="288"/>
+      <c r="K10" s="258"/>
+      <c r="L10" s="290"/>
       <c r="M10">
         <f>-164.97-724.74-276-123.96-161.51-179.05-612-544.58-437.46-418.98-130.97</f>
         <v>-3774.22</v>
@@ -6889,11 +7102,11 @@
         <f t="shared" si="1"/>
         <v>-1878.0074999999999</v>
       </c>
-      <c r="AA10" s="256" t="s">
+      <c r="AA10" s="258" t="s">
         <v>269</v>
       </c>
-      <c r="AB10" s="256"/>
-      <c r="AC10" s="288"/>
+      <c r="AB10" s="258"/>
+      <c r="AC10" s="290"/>
     </row>
     <row r="11" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="47"/>
@@ -6913,11 +7126,11 @@
       <c r="G11" s="47"/>
       <c r="H11" s="47"/>
       <c r="I11" s="126"/>
-      <c r="J11" s="256" t="s">
+      <c r="J11" s="258" t="s">
         <v>301</v>
       </c>
-      <c r="K11" s="256"/>
-      <c r="L11" s="288"/>
+      <c r="K11" s="258"/>
+      <c r="L11" s="290"/>
       <c r="M11">
         <f>-846.02-566.69</f>
         <v>-1412.71</v>
@@ -6966,11 +7179,11 @@
         <f t="shared" si="1"/>
         <v>-1317.1645454545453</v>
       </c>
-      <c r="AA11" s="256" t="s">
+      <c r="AA11" s="258" t="s">
         <v>301</v>
       </c>
-      <c r="AB11" s="256"/>
-      <c r="AC11" s="288"/>
+      <c r="AB11" s="258"/>
+      <c r="AC11" s="290"/>
     </row>
     <row r="12" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="47"/>
@@ -6991,11 +7204,11 @@
       <c r="G12" s="47"/>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
-      <c r="J12" s="257" t="s">
+      <c r="J12" s="259" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="257"/>
-      <c r="L12" s="257"/>
+      <c r="K12" s="259"/>
+      <c r="L12" s="259"/>
       <c r="O12">
         <f>-240.1-170-42.8-90-219.65-57.97</f>
         <v>-820.5200000000001</v>
@@ -7011,11 +7224,11 @@
         <f t="shared" si="1"/>
         <v>-1287.76</v>
       </c>
-      <c r="AA12" s="257" t="s">
+      <c r="AA12" s="259" t="s">
         <v>95</v>
       </c>
-      <c r="AB12" s="257"/>
-      <c r="AC12" s="257"/>
+      <c r="AB12" s="259"/>
+      <c r="AC12" s="259"/>
     </row>
     <row r="13" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="47" t="s">
@@ -7035,11 +7248,11 @@
       <c r="G13" s="47"/>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
-      <c r="J13" s="256" t="s">
+      <c r="J13" s="258" t="s">
         <v>444</v>
       </c>
-      <c r="K13" s="257"/>
-      <c r="L13" s="257"/>
+      <c r="K13" s="259"/>
+      <c r="L13" s="259"/>
       <c r="N13">
         <f>-228</f>
         <v>-228</v>
@@ -7080,11 +7293,11 @@
         <f t="shared" si="1"/>
         <v>-688.14333333333343</v>
       </c>
-      <c r="AA13" s="257" t="s">
+      <c r="AA13" s="259" t="s">
         <v>67</v>
       </c>
-      <c r="AB13" s="257"/>
-      <c r="AC13" s="257"/>
+      <c r="AB13" s="259"/>
+      <c r="AC13" s="259"/>
     </row>
     <row r="14" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="47"/>
@@ -7104,11 +7317,11 @@
       <c r="G14" s="47"/>
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
-      <c r="J14" s="256" t="s">
+      <c r="J14" s="258" t="s">
         <v>299</v>
       </c>
-      <c r="K14" s="256"/>
-      <c r="L14" s="256"/>
+      <c r="K14" s="258"/>
+      <c r="L14" s="258"/>
       <c r="M14">
         <f>-350-52.99</f>
         <v>-402.99</v>
@@ -7148,11 +7361,11 @@
         <f t="shared" si="1"/>
         <v>-981.47124999999994</v>
       </c>
-      <c r="AA14" s="256" t="s">
+      <c r="AA14" s="258" t="s">
         <v>299</v>
       </c>
-      <c r="AB14" s="256"/>
-      <c r="AC14" s="256"/>
+      <c r="AB14" s="258"/>
+      <c r="AC14" s="258"/>
     </row>
     <row r="15" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="47"/>
@@ -7173,11 +7386,11 @@
       <c r="G15" s="47"/>
       <c r="H15" s="47"/>
       <c r="I15" s="47"/>
-      <c r="J15" s="256" t="s">
+      <c r="J15" s="258" t="s">
         <v>264</v>
       </c>
-      <c r="K15" s="256"/>
-      <c r="L15" s="288"/>
+      <c r="K15" s="258"/>
+      <c r="L15" s="290"/>
       <c r="M15">
         <f>-139</f>
         <v>-139</v>
@@ -7226,11 +7439,11 @@
         <f t="shared" si="1"/>
         <v>-870.29090909090894</v>
       </c>
-      <c r="AA15" s="256" t="s">
+      <c r="AA15" s="258" t="s">
         <v>264</v>
       </c>
-      <c r="AB15" s="256"/>
-      <c r="AC15" s="288"/>
+      <c r="AB15" s="258"/>
+      <c r="AC15" s="290"/>
     </row>
     <row r="16" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="47"/>
@@ -7250,11 +7463,11 @@
       <c r="G16" s="47"/>
       <c r="H16" s="47"/>
       <c r="I16" s="47"/>
-      <c r="J16" s="256" t="s">
+      <c r="J16" s="258" t="s">
         <v>387</v>
       </c>
-      <c r="K16" s="257"/>
-      <c r="L16" s="289"/>
+      <c r="K16" s="259"/>
+      <c r="L16" s="291"/>
       <c r="N16">
         <f>-144.94-49.98-74.9</f>
         <v>-269.82</v>
@@ -7283,11 +7496,11 @@
         <f t="shared" si="1"/>
         <v>-4653.376666666667</v>
       </c>
-      <c r="AA16" s="257" t="s">
+      <c r="AA16" s="259" t="s">
         <v>58</v>
       </c>
-      <c r="AB16" s="257"/>
-      <c r="AC16" s="289"/>
+      <c r="AB16" s="259"/>
+      <c r="AC16" s="291"/>
     </row>
     <row r="17" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="47"/>
@@ -7307,11 +7520,11 @@
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
       <c r="I17" s="47"/>
-      <c r="J17" s="256" t="s">
+      <c r="J17" s="258" t="s">
         <v>250</v>
       </c>
-      <c r="K17" s="256"/>
-      <c r="L17" s="288"/>
+      <c r="K17" s="258"/>
+      <c r="L17" s="290"/>
       <c r="M17">
         <f>-445-445-1416.49-86-75-69.99-588.25</f>
         <v>-3125.7299999999996</v>
@@ -7368,11 +7581,11 @@
         <f t="shared" si="1"/>
         <v>-1801.6158333333335</v>
       </c>
-      <c r="AA17" s="256" t="s">
+      <c r="AA17" s="258" t="s">
         <v>250</v>
       </c>
-      <c r="AB17" s="256"/>
-      <c r="AC17" s="288"/>
+      <c r="AB17" s="258"/>
+      <c r="AC17" s="290"/>
     </row>
     <row r="18" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="47"/>
@@ -7392,11 +7605,11 @@
       <c r="G18" s="47"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
-      <c r="J18" s="256" t="s">
+      <c r="J18" s="258" t="s">
         <v>268</v>
       </c>
-      <c r="K18" s="256"/>
-      <c r="L18" s="288"/>
+      <c r="K18" s="258"/>
+      <c r="L18" s="290"/>
       <c r="Q18">
         <f>-200-200-200-200-200-200-200-200</f>
         <v>-1600</v>
@@ -7437,11 +7650,11 @@
         <f t="shared" si="1"/>
         <v>-1886</v>
       </c>
-      <c r="AA18" s="256" t="s">
+      <c r="AA18" s="258" t="s">
         <v>268</v>
       </c>
-      <c r="AB18" s="256"/>
-      <c r="AC18" s="288"/>
+      <c r="AB18" s="258"/>
+      <c r="AC18" s="290"/>
     </row>
     <row r="19" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="47"/>
@@ -7463,11 +7676,11 @@
       </c>
       <c r="G19" s="47"/>
       <c r="I19" s="47"/>
-      <c r="J19" s="263" t="s">
+      <c r="J19" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="263"/>
-      <c r="L19" s="299"/>
+      <c r="K19" s="265"/>
+      <c r="L19" s="301"/>
       <c r="M19">
         <f>-821.85-653.85-740-787.15</f>
         <v>-3002.85</v>
@@ -7522,11 +7735,11 @@
         <f t="shared" si="1"/>
         <v>-2289.8108333333334</v>
       </c>
-      <c r="AA19" s="263" t="s">
+      <c r="AA19" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="AB19" s="263"/>
-      <c r="AC19" s="299"/>
+      <c r="AB19" s="265"/>
+      <c r="AC19" s="301"/>
     </row>
     <row r="20" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="47"/>
@@ -7546,11 +7759,11 @@
       <c r="G20" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="J20" s="301" t="s">
+      <c r="J20" s="303" t="s">
         <v>60</v>
       </c>
-      <c r="K20" s="301"/>
-      <c r="L20" s="301"/>
+      <c r="K20" s="303"/>
+      <c r="L20" s="303"/>
       <c r="N20">
         <v>-2040</v>
       </c>
@@ -7579,11 +7792,11 @@
         <f t="shared" si="1"/>
         <v>-2364.8283333333334</v>
       </c>
-      <c r="AA20" s="301" t="s">
+      <c r="AA20" s="303" t="s">
         <v>60</v>
       </c>
-      <c r="AB20" s="301"/>
-      <c r="AC20" s="301"/>
+      <c r="AB20" s="303"/>
+      <c r="AC20" s="303"/>
     </row>
     <row r="21" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="47"/>
@@ -7605,11 +7818,11 @@
       </c>
       <c r="G21" s="179"/>
       <c r="H21" s="47"/>
-      <c r="J21" s="322" t="s">
+      <c r="J21" s="324" t="s">
         <v>443</v>
       </c>
-      <c r="K21" s="323"/>
-      <c r="L21" s="324"/>
+      <c r="K21" s="325"/>
+      <c r="L21" s="326"/>
       <c r="U21">
         <f>-15-15-20-20</f>
         <v>-70</v>
@@ -7643,11 +7856,11 @@
       </c>
       <c r="G22" s="47"/>
       <c r="H22" s="47"/>
-      <c r="J22" s="295" t="s">
+      <c r="J22" s="297" t="s">
         <v>298</v>
       </c>
-      <c r="K22" s="295"/>
-      <c r="L22" s="295"/>
+      <c r="K22" s="297"/>
+      <c r="L22" s="297"/>
       <c r="P22">
         <v>-46.96</v>
       </c>
@@ -7671,11 +7884,11 @@
         <f t="shared" si="1"/>
         <v>-564.58749999999998</v>
       </c>
-      <c r="AA22" s="295" t="s">
+      <c r="AA22" s="297" t="s">
         <v>298</v>
       </c>
-      <c r="AB22" s="295"/>
-      <c r="AC22" s="295"/>
+      <c r="AB22" s="297"/>
+      <c r="AC22" s="297"/>
     </row>
     <row r="23" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="47"/>
@@ -7691,11 +7904,11 @@
       <c r="G23" s="47"/>
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
-      <c r="J23" s="256" t="s">
+      <c r="J23" s="258" t="s">
         <v>297</v>
       </c>
-      <c r="K23" s="256"/>
-      <c r="L23" s="256"/>
+      <c r="K23" s="258"/>
+      <c r="L23" s="258"/>
       <c r="P23">
         <f>-390-430-260-250</f>
         <v>-1330</v>
@@ -7715,11 +7928,11 @@
         <f t="shared" si="1"/>
         <v>-756.66666666666663</v>
       </c>
-      <c r="AA23" s="256" t="s">
+      <c r="AA23" s="258" t="s">
         <v>297</v>
       </c>
-      <c r="AB23" s="256"/>
-      <c r="AC23" s="256"/>
+      <c r="AB23" s="258"/>
+      <c r="AC23" s="258"/>
     </row>
     <row r="24" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="47"/>
@@ -7735,11 +7948,11 @@
       <c r="G24" s="47"/>
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="321" t="s">
+      <c r="J24" s="323" t="s">
         <v>300</v>
       </c>
-      <c r="K24" s="321"/>
-      <c r="L24" s="321"/>
+      <c r="K24" s="323"/>
+      <c r="L24" s="323"/>
       <c r="M24" s="115">
         <f t="shared" ref="M24:X24" si="2">SUM(M5:M23)</f>
         <v>-6629.1</v>
@@ -7815,11 +8028,11 @@
       <c r="G25" s="47"/>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
-      <c r="J25" s="258" t="s">
+      <c r="J25" s="260" t="s">
         <v>61</v>
       </c>
-      <c r="K25" s="258"/>
-      <c r="L25" s="259"/>
+      <c r="K25" s="260"/>
+      <c r="L25" s="261"/>
       <c r="M25" s="140">
         <f>M2+SUM(M4:M23)-M3</f>
         <v>-2109.0300000000047</v>
@@ -7883,11 +8096,11 @@
       <c r="G26" s="47"/>
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
-      <c r="J26" s="251" t="s">
+      <c r="J26" s="253" t="s">
         <v>62</v>
       </c>
-      <c r="K26" s="251"/>
-      <c r="L26" s="251"/>
+      <c r="K26" s="253"/>
+      <c r="L26" s="253"/>
       <c r="M26" s="61">
         <f>M25</f>
         <v>-2109.0300000000047</v>
@@ -8562,8 +8775,8 @@
       <c r="M41" s="47"/>
       <c r="N41" s="47"/>
       <c r="O41" s="47"/>
-      <c r="P41" s="308"/>
-      <c r="Q41" s="308"/>
+      <c r="P41" s="310"/>
+      <c r="Q41" s="310"/>
       <c r="U41" s="47"/>
       <c r="V41" s="47"/>
       <c r="W41" s="47"/>
@@ -8968,15 +9181,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" thickBot="1">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="268" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="338" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="273"/>
-      <c r="E1" s="267"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="340" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="275"/>
+      <c r="E1" s="269"/>
       <c r="M1" s="50" t="s">
         <v>44</v>
       </c>
@@ -9019,10 +9232,10 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickTop="1">
-      <c r="A2" s="339">
+      <c r="A2" s="341">
         <v>36617.354166666672</v>
       </c>
-      <c r="B2" s="339"/>
+      <c r="B2" s="341"/>
       <c r="C2" s="132">
         <v>2500</v>
       </c>
@@ -9099,10 +9312,10 @@
         <v>2</v>
       </c>
       <c r="J3"/>
-      <c r="K3" s="340" t="s">
+      <c r="K3" s="342" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="341"/>
+      <c r="L3" s="343"/>
       <c r="M3" s="56">
         <v>365.5</v>
       </c>
@@ -9158,10 +9371,10 @@
         <v>201</v>
       </c>
       <c r="J4"/>
-      <c r="K4" s="342" t="s">
+      <c r="K4" s="344" t="s">
         <v>239</v>
       </c>
-      <c r="L4" s="343"/>
+      <c r="L4" s="345"/>
       <c r="M4" s="58">
         <f>C30*-1</f>
         <v>-24909</v>
@@ -9229,10 +9442,10 @@
         <v>249</v>
       </c>
       <c r="J5" s="49"/>
-      <c r="K5" s="325" t="s">
+      <c r="K5" s="327" t="s">
         <v>149</v>
       </c>
-      <c r="L5" s="326"/>
+      <c r="L5" s="328"/>
       <c r="M5" s="59"/>
       <c r="N5" s="1"/>
       <c r="O5" s="60"/>
@@ -9265,10 +9478,10 @@
         <v>66</v>
       </c>
       <c r="J6" s="49"/>
-      <c r="K6" s="330" t="s">
+      <c r="K6" s="332" t="s">
         <v>276</v>
       </c>
-      <c r="L6" s="326"/>
+      <c r="L6" s="328"/>
       <c r="M6" s="118">
         <v>-350</v>
       </c>
@@ -9303,10 +9516,10 @@
       <c r="J7" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="325" t="s">
+      <c r="K7" s="327" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="326"/>
+      <c r="L7" s="328"/>
       <c r="M7" s="68"/>
       <c r="N7" s="24"/>
       <c r="Q7" s="42">
@@ -9345,10 +9558,10 @@
       <c r="G8" s="47">
         <v>865</v>
       </c>
-      <c r="K8" s="325" t="s">
+      <c r="K8" s="327" t="s">
         <v>105</v>
       </c>
-      <c r="L8" s="331"/>
+      <c r="L8" s="333"/>
       <c r="M8" s="117">
         <f>-747.09-234.95-158.46-140-378.95-43.98-37.98-123.47</f>
         <v>-1864.88</v>
@@ -9412,10 +9625,10 @@
       <c r="E9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="330" t="s">
+      <c r="K9" s="332" t="s">
         <v>263</v>
       </c>
-      <c r="L9" s="331"/>
+      <c r="L9" s="333"/>
       <c r="M9" s="117"/>
       <c r="N9" s="42"/>
       <c r="P9" s="42"/>
@@ -9461,10 +9674,10 @@
         <v>256</v>
       </c>
       <c r="I10"/>
-      <c r="K10" s="330" t="s">
+      <c r="K10" s="332" t="s">
         <v>269</v>
       </c>
-      <c r="L10" s="331"/>
+      <c r="L10" s="333"/>
       <c r="M10" s="117"/>
       <c r="N10" s="42"/>
       <c r="P10" s="42"/>
@@ -9525,10 +9738,10 @@
       <c r="H11" s="126" t="s">
         <v>262</v>
       </c>
-      <c r="K11" s="333" t="s">
+      <c r="K11" s="335" t="s">
         <v>247</v>
       </c>
-      <c r="L11" s="334"/>
+      <c r="L11" s="336"/>
       <c r="M11" s="68">
         <f>-388.51-194.57</f>
         <v>-583.07999999999993</v>
@@ -9574,10 +9787,10 @@
       <c r="E12" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="325" t="s">
+      <c r="K12" s="327" t="s">
         <v>95</v>
       </c>
-      <c r="L12" s="326"/>
+      <c r="L12" s="328"/>
       <c r="M12" s="68">
         <f>-275-1496</f>
         <v>-1771</v>
@@ -9613,10 +9826,10 @@
       <c r="E13" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="325" t="s">
+      <c r="K13" s="327" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="326"/>
+      <c r="L13" s="328"/>
       <c r="M13" s="68"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24">
@@ -9672,10 +9885,10 @@
       <c r="E14" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="K14" s="325" t="s">
+      <c r="K14" s="327" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="326"/>
+      <c r="L14" s="328"/>
       <c r="M14" s="68"/>
       <c r="N14" s="24"/>
       <c r="Q14" s="47">
@@ -9715,10 +9928,10 @@
       <c r="E15" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="330" t="s">
+      <c r="K15" s="332" t="s">
         <v>264</v>
       </c>
-      <c r="L15" s="331"/>
+      <c r="L15" s="333"/>
       <c r="M15" s="116">
         <v>-210</v>
       </c>
@@ -9762,10 +9975,10 @@
       <c r="E16" t="s">
         <v>248</v>
       </c>
-      <c r="K16" s="325" t="s">
+      <c r="K16" s="327" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="331"/>
+      <c r="L16" s="333"/>
       <c r="M16" s="120">
         <v>-612.29999999999995</v>
       </c>
@@ -9790,10 +10003,10 @@
       <c r="E17" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="332" t="s">
+      <c r="K17" s="334" t="s">
         <v>250</v>
       </c>
-      <c r="L17" s="289"/>
+      <c r="L17" s="291"/>
       <c r="M17" s="121">
         <f>-534.85-164.85</f>
         <v>-699.7</v>
@@ -9857,10 +10070,10 @@
       <c r="G18" t="s">
         <v>259</v>
       </c>
-      <c r="K18" s="330" t="s">
+      <c r="K18" s="332" t="s">
         <v>268</v>
       </c>
-      <c r="L18" s="337"/>
+      <c r="L18" s="339"/>
       <c r="O18" s="122">
         <f>-1500</f>
         <v>-1500</v>
@@ -9909,10 +10122,10 @@
       <c r="G19" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="K19" s="335" t="s">
+      <c r="K19" s="337" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="336"/>
+      <c r="L19" s="338"/>
       <c r="M19" s="68">
         <f>-803-812.8</f>
         <v>-1615.8</v>
@@ -9987,10 +10200,10 @@
       <c r="H20" t="s">
         <v>279</v>
       </c>
-      <c r="K20" s="325" t="s">
+      <c r="K20" s="327" t="s">
         <v>60</v>
       </c>
-      <c r="L20" s="326"/>
+      <c r="L20" s="328"/>
       <c r="M20" s="68">
         <v>-285</v>
       </c>
@@ -10038,10 +10251,10 @@
       <c r="E21" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="327" t="s">
+      <c r="K21" s="329" t="s">
         <v>61</v>
       </c>
-      <c r="L21" s="328"/>
+      <c r="L21" s="330"/>
       <c r="M21" s="127">
         <f>M2+SUM(M4:M20)-M3</f>
         <v>3271.3100000000049</v>
@@ -10102,10 +10315,10 @@
       <c r="E22" t="s">
         <v>241</v>
       </c>
-      <c r="K22" s="329" t="s">
+      <c r="K22" s="331" t="s">
         <v>62</v>
       </c>
-      <c r="L22" s="329"/>
+      <c r="L22" s="331"/>
       <c r="M22" s="61">
         <f>M21</f>
         <v>3271.3100000000049</v>
@@ -10553,8 +10766,8 @@
       <c r="T35"/>
     </row>
     <row r="36" spans="3:23">
-      <c r="P36" s="308"/>
-      <c r="Q36" s="308"/>
+      <c r="P36" s="310"/>
+      <c r="Q36" s="310"/>
       <c r="R36"/>
       <c r="S36"/>
       <c r="T36"/>
@@ -10840,20 +11053,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A1" s="267" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="338" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="267"/>
+      <c r="A1" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="269"/>
+      <c r="C1" s="340" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="269"/>
     </row>
     <row r="2" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="339">
+      <c r="A2" s="341">
         <v>31519.33</v>
       </c>
-      <c r="B2" s="339"/>
+      <c r="B2" s="341"/>
       <c r="C2" s="48">
         <v>3000</v>
       </c>
@@ -10913,10 +11126,10 @@
         <f>C9+C10+C11+C13</f>
         <v>6617</v>
       </c>
-      <c r="J3" s="340" t="s">
+      <c r="J3" s="342" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="341"/>
+      <c r="K3" s="343"/>
       <c r="L3" s="56">
         <v>301.55</v>
       </c>
@@ -10968,10 +11181,10 @@
         <f>C9+C11+C13</f>
         <v>5897</v>
       </c>
-      <c r="J4" s="347" t="s">
+      <c r="J4" s="349" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="343"/>
+      <c r="K4" s="345"/>
       <c r="L4" s="58">
         <f>D30</f>
         <v>4927.3300000000017</v>
@@ -11029,10 +11242,10 @@
         <v>66</v>
       </c>
       <c r="I5" s="49"/>
-      <c r="J5" s="325" t="s">
+      <c r="J5" s="327" t="s">
         <v>149</v>
       </c>
-      <c r="K5" s="326"/>
+      <c r="K5" s="328"/>
       <c r="L5" s="59">
         <v>0</v>
       </c>
@@ -11074,10 +11287,10 @@
         <v>4</v>
       </c>
       <c r="I6" s="49"/>
-      <c r="J6" s="348" t="s">
+      <c r="J6" s="350" t="s">
         <v>178</v>
       </c>
-      <c r="K6" s="348"/>
+      <c r="K6" s="350"/>
       <c r="L6" s="63"/>
       <c r="M6" s="64"/>
       <c r="N6" s="63"/>
@@ -11119,10 +11332,10 @@
       <c r="I7" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="325" t="s">
+      <c r="J7" s="327" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="326"/>
+      <c r="K7" s="328"/>
       <c r="L7" s="68"/>
       <c r="R7" s="47">
         <v>-354.7</v>
@@ -11139,10 +11352,10 @@
       <c r="D8" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="325" t="s">
+      <c r="J8" s="327" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="326"/>
+      <c r="K8" s="328"/>
       <c r="L8" s="68"/>
       <c r="W8" s="69"/>
     </row>
@@ -11159,10 +11372,10 @@
       <c r="G9" s="70">
         <v>0.3</v>
       </c>
-      <c r="J9" s="325" t="s">
+      <c r="J9" s="327" t="s">
         <v>105</v>
       </c>
-      <c r="K9" s="331"/>
+      <c r="K9" s="333"/>
       <c r="L9" s="68"/>
       <c r="O9" s="47">
         <f>-260-155-173-85.8</f>
@@ -11216,10 +11429,10 @@
       <c r="H10" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="J10" s="325" t="s">
+      <c r="J10" s="327" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="326"/>
+      <c r="K10" s="328"/>
       <c r="L10" s="68"/>
       <c r="N10" s="47">
         <f>-700-500</f>
@@ -11249,10 +11462,10 @@
       <c r="F11" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="J11" s="325" t="s">
+      <c r="J11" s="327" t="s">
         <v>95</v>
       </c>
-      <c r="K11" s="326"/>
+      <c r="K11" s="328"/>
       <c r="L11" s="68"/>
       <c r="M11" s="72"/>
       <c r="P11" s="47">
@@ -11284,10 +11497,10 @@
       <c r="D12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="325" t="s">
+      <c r="J12" s="327" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="326"/>
+      <c r="K12" s="328"/>
       <c r="L12" s="68"/>
       <c r="S12" s="47">
         <v>-245</v>
@@ -11314,10 +11527,10 @@
       <c r="D13" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="J13" s="325" t="s">
+      <c r="J13" s="327" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="326"/>
+      <c r="K13" s="328"/>
       <c r="L13" s="68">
         <v>-881.49</v>
       </c>
@@ -11367,10 +11580,10 @@
       <c r="D14" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="325" t="s">
+      <c r="J14" s="327" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="326"/>
+      <c r="K14" s="328"/>
       <c r="L14" s="68"/>
       <c r="O14" s="47">
         <f>-615.58-139.8</f>
@@ -11404,10 +11617,10 @@
       <c r="F15" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="J15" s="325" t="s">
+      <c r="J15" s="327" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="326"/>
+      <c r="K15" s="328"/>
       <c r="L15" s="68"/>
       <c r="P15" s="47">
         <v>-379.99</v>
@@ -11424,10 +11637,10 @@
       <c r="D16" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="J16" s="325" t="s">
+      <c r="J16" s="327" t="s">
         <v>59</v>
       </c>
-      <c r="K16" s="326"/>
+      <c r="K16" s="328"/>
       <c r="L16" s="68"/>
       <c r="Q16" s="47">
         <v>-400</v>
@@ -11441,10 +11654,10 @@
       <c r="D17" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="325" t="s">
+      <c r="J17" s="327" t="s">
         <v>215</v>
       </c>
-      <c r="K17" s="331"/>
+      <c r="K17" s="333"/>
       <c r="L17" s="68"/>
       <c r="O17" s="47">
         <v>-5000</v>
@@ -11476,10 +11689,10 @@
       <c r="F18" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="J18" s="325" t="s">
+      <c r="J18" s="327" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="326"/>
+      <c r="K18" s="328"/>
       <c r="L18" s="75"/>
       <c r="M18" s="76"/>
       <c r="N18" s="76">
@@ -11515,10 +11728,10 @@
       <c r="D19" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="J19" s="327" t="s">
+      <c r="J19" s="329" t="s">
         <v>61</v>
       </c>
-      <c r="K19" s="327"/>
+      <c r="K19" s="329"/>
       <c r="L19" s="79">
         <f>SUM(L4:L18)-13000-L3</f>
         <v>-9255.7099999999973</v>
@@ -11578,10 +11791,10 @@
       <c r="D20" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="329" t="s">
+      <c r="J20" s="331" t="s">
         <v>62</v>
       </c>
-      <c r="K20" s="329"/>
+      <c r="K20" s="331"/>
       <c r="L20" s="61">
         <f>L19</f>
         <v>-9255.7099999999973</v>
@@ -12079,10 +12292,10 @@
       <c r="E34" s="47">
         <v>18000</v>
       </c>
-      <c r="O34" s="344" t="s">
+      <c r="O34" s="346" t="s">
         <v>170</v>
       </c>
-      <c r="P34" s="344"/>
+      <c r="P34" s="346"/>
       <c r="Q34" s="88">
         <v>24300</v>
       </c>
@@ -12443,7 +12656,7 @@
     </row>
     <row r="65" spans="8:9" ht="15.75" thickTop="1">
       <c r="H65" s="111"/>
-      <c r="I65" s="345">
+      <c r="I65" s="347">
         <v>-35.5</v>
       </c>
     </row>
@@ -12451,7 +12664,7 @@
       <c r="H66" s="112" t="s">
         <v>231</v>
       </c>
-      <c r="I66" s="346"/>
+      <c r="I66" s="348"/>
     </row>
     <row r="67" spans="8:9" ht="15.75" thickTop="1">
       <c r="H67"/>
@@ -12517,31 +12730,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="349" t="s">
+      <c r="A1" s="351" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="349"/>
-      <c r="C1" s="349"/>
-      <c r="D1" s="349"/>
-      <c r="E1" s="349"/>
-      <c r="F1" s="349"/>
-      <c r="G1" s="349"/>
+      <c r="B1" s="351"/>
+      <c r="C1" s="351"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="351"/>
+      <c r="F1" s="351"/>
+      <c r="G1" s="351"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A2" s="266" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="351" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="266"/>
+      <c r="A2" s="268" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="268"/>
+      <c r="C2" s="353" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="268"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickTop="1">
-      <c r="A3" s="352">
+      <c r="A3" s="354">
         <v>31519.33</v>
       </c>
-      <c r="B3" s="352"/>
+      <c r="B3" s="354"/>
       <c r="C3" s="6">
         <v>3600</v>
       </c>
@@ -12598,10 +12811,10 @@
         <v>3</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="353" t="s">
+      <c r="J4" s="355" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="302"/>
+      <c r="K4" s="304"/>
       <c r="L4" s="28">
         <v>301.55</v>
       </c>
@@ -12629,10 +12842,10 @@
         <v>141</v>
       </c>
       <c r="I5" s="26"/>
-      <c r="J5" s="342" t="s">
+      <c r="J5" s="344" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="354"/>
+      <c r="K5" s="356"/>
       <c r="L5" s="29">
         <f>D31</f>
         <v>1681.3300000000017</v>
@@ -12690,10 +12903,10 @@
         <v>66</v>
       </c>
       <c r="I6" s="26"/>
-      <c r="J6" s="330" t="s">
+      <c r="J6" s="332" t="s">
         <v>149</v>
       </c>
-      <c r="K6" s="350"/>
+      <c r="K6" s="352"/>
       <c r="L6" s="1">
         <v>0</v>
       </c>
@@ -12719,10 +12932,10 @@
       <c r="I7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="330" t="s">
+      <c r="J7" s="332" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="350"/>
+      <c r="K7" s="352"/>
       <c r="L7" s="33"/>
       <c r="M7" s="34"/>
       <c r="N7" s="34"/>
@@ -12743,10 +12956,10 @@
       <c r="D8" t="s">
         <v>138</v>
       </c>
-      <c r="J8" s="330" t="s">
+      <c r="J8" s="332" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="350"/>
+      <c r="K8" s="352"/>
       <c r="L8" s="36"/>
       <c r="W8" s="37"/>
     </row>
@@ -12757,10 +12970,10 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="330" t="s">
+      <c r="J9" s="332" t="s">
         <v>105</v>
       </c>
-      <c r="K9" s="337"/>
+      <c r="K9" s="339"/>
       <c r="L9" s="36"/>
       <c r="W9" s="37"/>
     </row>
@@ -12774,10 +12987,10 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="330" t="s">
+      <c r="J10" s="332" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="350"/>
+      <c r="K10" s="352"/>
       <c r="L10" s="36"/>
       <c r="N10">
         <f>-700-500</f>
@@ -12795,10 +13008,10 @@
       <c r="F11" t="s">
         <v>143</v>
       </c>
-      <c r="J11" s="330" t="s">
+      <c r="J11" s="332" t="s">
         <v>95</v>
       </c>
-      <c r="K11" s="350"/>
+      <c r="K11" s="352"/>
       <c r="L11" s="36"/>
       <c r="M11" s="41"/>
       <c r="W11" s="37"/>
@@ -12816,10 +13029,10 @@
       <c r="F12" t="s">
         <v>152</v>
       </c>
-      <c r="J12" s="330" t="s">
+      <c r="J12" s="332" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="350"/>
+      <c r="K12" s="352"/>
       <c r="L12" s="36"/>
       <c r="W12" s="37"/>
     </row>
@@ -12833,10 +13046,10 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="330" t="s">
+      <c r="J13" s="332" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="350"/>
+      <c r="K13" s="352"/>
       <c r="L13" s="36">
         <v>-881.49</v>
       </c>
@@ -12855,10 +13068,10 @@
       <c r="D14" t="s">
         <v>144</v>
       </c>
-      <c r="J14" s="330" t="s">
+      <c r="J14" s="332" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="350"/>
+      <c r="K14" s="352"/>
       <c r="L14" s="36"/>
       <c r="W14" s="37"/>
     </row>
@@ -12869,10 +13082,10 @@
       <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="330" t="s">
+      <c r="J15" s="332" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="350"/>
+      <c r="K15" s="352"/>
       <c r="L15" s="36"/>
       <c r="W15" s="37"/>
     </row>
@@ -12884,10 +13097,10 @@
       <c r="F16" t="s">
         <v>148</v>
       </c>
-      <c r="J16" s="330" t="s">
+      <c r="J16" s="332" t="s">
         <v>59</v>
       </c>
-      <c r="K16" s="350"/>
+      <c r="K16" s="352"/>
       <c r="L16" s="36"/>
       <c r="W16" s="37"/>
     </row>
@@ -12898,10 +13111,10 @@
       <c r="D17" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="330" t="s">
+      <c r="J17" s="332" t="s">
         <v>60</v>
       </c>
-      <c r="K17" s="350"/>
+      <c r="K17" s="352"/>
       <c r="L17" s="38"/>
       <c r="M17" s="39"/>
       <c r="N17" s="39">
@@ -12925,10 +13138,10 @@
       <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="356" t="s">
+      <c r="J18" s="358" t="s">
         <v>61</v>
       </c>
-      <c r="K18" s="356"/>
+      <c r="K18" s="358"/>
       <c r="L18" s="4">
         <f>SUM(L4:L17)-13000</f>
         <v>-11898.609999999999</v>
@@ -12988,10 +13201,10 @@
       <c r="F19" t="s">
         <v>137</v>
       </c>
-      <c r="J19" s="355" t="s">
+      <c r="J19" s="357" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="355"/>
+      <c r="K19" s="357"/>
       <c r="L19" s="16">
         <f>L18</f>
         <v>-11898.609999999999</v>
@@ -13349,9 +13562,9 @@
       </c>
     </row>
     <row r="32" spans="2:23">
-      <c r="Q32" s="308"/>
-      <c r="R32" s="308"/>
-      <c r="S32" s="308"/>
+      <c r="Q32" s="310"/>
+      <c r="R32" s="310"/>
+      <c r="S32" s="310"/>
     </row>
     <row r="34" spans="8:20">
       <c r="H34" s="24" t="s">
@@ -13592,20 +13805,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A1" s="266" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="266"/>
-      <c r="C1" s="351" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="266"/>
+      <c r="A1" s="268" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="268"/>
+      <c r="C1" s="353" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="268"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickTop="1">
-      <c r="A2" s="352">
+      <c r="A2" s="354">
         <v>24571.22</v>
       </c>
-      <c r="B2" s="352"/>
+      <c r="B2" s="354"/>
       <c r="C2" s="6">
         <v>3300</v>
       </c>
@@ -13662,10 +13875,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="353" t="s">
+      <c r="J3" s="355" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="302"/>
+      <c r="K3" s="304"/>
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
       <c r="N3" s="28"/>
@@ -13682,10 +13895,10 @@
     <row r="4" spans="1:23">
       <c r="C4" s="3"/>
       <c r="I4" s="26"/>
-      <c r="J4" s="342" t="s">
+      <c r="J4" s="344" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="354"/>
+      <c r="K4" s="356"/>
       <c r="L4" s="29">
         <f>D29</f>
         <v>3185.2200000000012</v>
@@ -13743,10 +13956,10 @@
         <v>66</v>
       </c>
       <c r="I5" s="26"/>
-      <c r="J5" s="330" t="s">
+      <c r="J5" s="332" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="350"/>
+      <c r="K5" s="352"/>
       <c r="L5" s="1"/>
       <c r="M5" s="32">
         <v>3361.63</v>
@@ -13791,10 +14004,10 @@
       <c r="I6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="330" t="s">
+      <c r="J6" s="332" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="350"/>
+      <c r="K6" s="352"/>
       <c r="L6" s="33"/>
       <c r="M6" s="34"/>
       <c r="N6" s="34">
@@ -13819,10 +14032,10 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="330" t="s">
+      <c r="J7" s="332" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="350"/>
+      <c r="K7" s="352"/>
       <c r="L7" s="36"/>
       <c r="W7" s="37"/>
     </row>
@@ -13833,10 +14046,10 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="330" t="s">
+      <c r="J8" s="332" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="337"/>
+      <c r="K8" s="339"/>
       <c r="L8" s="36"/>
       <c r="O8">
         <v>-680</v>
@@ -13857,10 +14070,10 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="330" t="s">
+      <c r="J9" s="332" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="350"/>
+      <c r="K9" s="352"/>
       <c r="L9" s="36"/>
       <c r="N9">
         <v>-1000</v>
@@ -13880,10 +14093,10 @@
       <c r="D10" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="330" t="s">
+      <c r="J10" s="332" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="350"/>
+      <c r="K10" s="352"/>
       <c r="L10" s="36"/>
       <c r="M10" s="41">
         <v>-1535.71</v>
@@ -13909,10 +14122,10 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="330" t="s">
+      <c r="J11" s="332" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="350"/>
+      <c r="K11" s="352"/>
       <c r="L11" s="36"/>
       <c r="O11">
         <v>-1108</v>
@@ -13933,10 +14146,10 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="330" t="s">
+      <c r="J12" s="332" t="s">
         <v>91</v>
       </c>
-      <c r="K12" s="350"/>
+      <c r="K12" s="352"/>
       <c r="L12" s="36"/>
       <c r="O12">
         <f>-800-399</f>
@@ -13954,10 +14167,10 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="330" t="s">
+      <c r="J13" s="332" t="s">
         <v>57</v>
       </c>
-      <c r="K13" s="350"/>
+      <c r="K13" s="352"/>
       <c r="L13" s="36"/>
       <c r="M13">
         <f>-1486*2</f>
@@ -13987,10 +14200,10 @@
       <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="330" t="s">
+      <c r="J14" s="332" t="s">
         <v>58</v>
       </c>
-      <c r="K14" s="350"/>
+      <c r="K14" s="352"/>
       <c r="L14" s="36">
         <v>-2000</v>
       </c>
@@ -14009,10 +14222,10 @@
       <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="330" t="s">
+      <c r="J15" s="332" t="s">
         <v>59</v>
       </c>
-      <c r="K15" s="350"/>
+      <c r="K15" s="352"/>
       <c r="L15" s="36"/>
       <c r="N15">
         <v>-600</v>
@@ -14036,10 +14249,10 @@
         <f>SUM(L17:W17)</f>
         <v>3110.9100000000144</v>
       </c>
-      <c r="J16" s="330" t="s">
+      <c r="J16" s="332" t="s">
         <v>60</v>
       </c>
-      <c r="K16" s="350"/>
+      <c r="K16" s="352"/>
       <c r="L16" s="38">
         <v>-10500</v>
       </c>
@@ -14072,10 +14285,10 @@
       <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="356" t="s">
+      <c r="J17" s="358" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="356"/>
+      <c r="K17" s="358"/>
       <c r="L17" s="4">
         <f t="shared" ref="L17:W17" si="0">SUM(L3:L16)</f>
         <v>-9314.7799999999988</v>
@@ -14132,10 +14345,10 @@
       <c r="D18" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="355" t="s">
+      <c r="J18" s="357" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="355"/>
+      <c r="K18" s="357"/>
       <c r="L18" s="16">
         <f>L17</f>
         <v>-9314.7799999999988</v>
@@ -14541,9 +14754,9 @@
       </c>
     </row>
     <row r="30" spans="2:23">
-      <c r="Q30" s="308"/>
-      <c r="R30" s="308"/>
-      <c r="S30" s="308"/>
+      <c r="Q30" s="310"/>
+      <c r="R30" s="310"/>
+      <c r="S30" s="310"/>
     </row>
     <row r="31" spans="2:23">
       <c r="L31" t="s">
@@ -14625,20 +14838,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A1" s="266" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="266"/>
-      <c r="C1" s="351" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="266"/>
+      <c r="A1" s="268" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="268"/>
+      <c r="C1" s="353" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="268"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickTop="1">
-      <c r="A2" s="352">
+      <c r="A2" s="354">
         <v>22802.21</v>
       </c>
-      <c r="B2" s="352"/>
+      <c r="B2" s="354"/>
       <c r="C2" s="6">
         <v>3000</v>
       </c>
@@ -14695,10 +14908,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="353" t="s">
+      <c r="J3" s="355" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="302"/>
+      <c r="K3" s="304"/>
       <c r="L3" s="28"/>
       <c r="M3" s="28">
         <v>521.47</v>
@@ -14717,10 +14930,10 @@
     <row r="4" spans="1:23">
       <c r="C4" s="3"/>
       <c r="I4" s="26"/>
-      <c r="J4" s="342" t="s">
+      <c r="J4" s="344" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="354"/>
+      <c r="K4" s="356"/>
       <c r="L4" s="29">
         <f>D27</f>
         <v>18477</v>
@@ -14778,10 +14991,10 @@
         <v>66</v>
       </c>
       <c r="I5" s="26"/>
-      <c r="J5" s="330" t="s">
+      <c r="J5" s="332" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="350"/>
+      <c r="K5" s="352"/>
       <c r="L5" s="1">
         <v>-1480.88</v>
       </c>
@@ -14816,10 +15029,10 @@
       <c r="I6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="330" t="s">
+      <c r="J6" s="332" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="350"/>
+      <c r="K6" s="352"/>
       <c r="L6" s="33"/>
       <c r="M6" s="34"/>
       <c r="N6" s="34"/>
@@ -14850,10 +15063,10 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="330" t="s">
+      <c r="J7" s="332" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="350"/>
+      <c r="K7" s="352"/>
       <c r="L7" s="36"/>
       <c r="V7">
         <v>623.71</v>
@@ -14867,10 +15080,10 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="330" t="s">
+      <c r="J8" s="332" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="350"/>
+      <c r="K8" s="352"/>
       <c r="L8" s="36">
         <v>1053.8499999999999</v>
       </c>
@@ -14889,10 +15102,10 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="330" t="s">
+      <c r="J9" s="332" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="350"/>
+      <c r="K9" s="352"/>
       <c r="L9" s="36"/>
       <c r="W9" s="37"/>
     </row>
@@ -14903,10 +15116,10 @@
       <c r="D10" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="330" t="s">
+      <c r="J10" s="332" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="350"/>
+      <c r="K10" s="352"/>
       <c r="L10" s="36">
         <v>750</v>
       </c>
@@ -14925,10 +15138,10 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="330" t="s">
+      <c r="J11" s="332" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="350"/>
+      <c r="K11" s="352"/>
       <c r="L11" s="36"/>
       <c r="W11" s="37"/>
     </row>
@@ -14942,10 +15155,10 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="330" t="s">
+      <c r="J12" s="332" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="350"/>
+      <c r="K12" s="352"/>
       <c r="L12" s="36"/>
       <c r="M12">
         <v>1460</v>
@@ -14962,10 +15175,10 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="330" t="s">
+      <c r="J13" s="332" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="350"/>
+      <c r="K13" s="352"/>
       <c r="L13" s="36"/>
       <c r="W13" s="37"/>
     </row>
@@ -14976,10 +15189,10 @@
       <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="330" t="s">
+      <c r="J14" s="332" t="s">
         <v>59</v>
       </c>
-      <c r="K14" s="350"/>
+      <c r="K14" s="352"/>
       <c r="L14" s="36"/>
       <c r="V14">
         <v>5565</v>
@@ -14993,10 +15206,10 @@
       <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="330" t="s">
+      <c r="J15" s="332" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="350"/>
+      <c r="K15" s="352"/>
       <c r="L15" s="38">
         <v>1620</v>
       </c>
@@ -15023,10 +15236,10 @@
       <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="356" t="s">
+      <c r="J16" s="358" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="356"/>
+      <c r="K16" s="358"/>
       <c r="L16" s="4">
         <f t="shared" ref="L16:W16" si="0">SUM(L3:L15)</f>
         <v>20419.969999999998</v>
@@ -15083,10 +15296,10 @@
       <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="355" t="s">
+      <c r="J17" s="357" t="s">
         <v>62</v>
       </c>
-      <c r="K17" s="355"/>
+      <c r="K17" s="357"/>
       <c r="L17" s="16">
         <f>A2-L16</f>
         <v>2382.2400000000016</v>
@@ -15458,9 +15671,9 @@
       <c r="O28">
         <v>-10000</v>
       </c>
-      <c r="Q28" s="308"/>
-      <c r="R28" s="308"/>
-      <c r="S28" s="308"/>
+      <c r="Q28" s="310"/>
+      <c r="R28" s="310"/>
+      <c r="S28" s="310"/>
       <c r="T28">
         <v>-15000</v>
       </c>
@@ -15752,11 +15965,11 @@
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="349" t="s">
+      <c r="B17" s="351" t="s">
         <v>432</v>
       </c>
-      <c r="C17" s="349"/>
-      <c r="D17" s="349"/>
+      <c r="C17" s="351"/>
+      <c r="D17" s="351"/>
       <c r="K17">
         <f>K12-I12</f>
         <v>8398.8000000002794</v>
@@ -15886,11 +16099,11 @@
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="349" t="s">
+      <c r="B28" s="351" t="s">
         <v>433</v>
       </c>
-      <c r="C28" s="349"/>
-      <c r="D28" s="349"/>
+      <c r="C28" s="351"/>
+      <c r="D28" s="351"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="172" t="s">
@@ -17928,10 +18141,10 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="15.75" thickBot="1">
-      <c r="B2" s="266" t="s">
+      <c r="B2" s="268" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="267"/>
+      <c r="C2" s="269"/>
       <c r="D2" s="138" t="s">
         <v>1</v>
       </c>
@@ -17998,12 +18211,12 @@
       </c>
       <c r="F3" s="47"/>
       <c r="G3" s="47"/>
-      <c r="H3" s="252" t="s">
+      <c r="H3" s="254" t="s">
         <v>236</v>
       </c>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
       <c r="L3" s="148"/>
       <c r="M3" s="148"/>
       <c r="N3" s="148"/>
@@ -18048,12 +18261,12 @@
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
-      <c r="H4" s="253" t="s">
+      <c r="H4" s="255" t="s">
         <v>239</v>
       </c>
-      <c r="I4" s="253"/>
-      <c r="J4" s="253"/>
-      <c r="K4" s="254"/>
+      <c r="I4" s="255"/>
+      <c r="J4" s="255"/>
+      <c r="K4" s="256"/>
       <c r="L4" s="160"/>
       <c r="M4" s="58"/>
       <c r="N4" s="58"/>
@@ -18092,11 +18305,11 @@
         <f t="shared" ref="Y4:Y22" si="1">AVERAGE(L4:W4)</f>
         <v>-1100</v>
       </c>
-      <c r="Z4" s="253" t="s">
+      <c r="Z4" s="255" t="s">
         <v>239</v>
       </c>
-      <c r="AA4" s="253"/>
-      <c r="AB4" s="253"/>
+      <c r="AA4" s="255"/>
+      <c r="AB4" s="255"/>
     </row>
     <row r="5" spans="2:28" ht="15.75">
       <c r="C5" s="147"/>
@@ -18106,12 +18319,12 @@
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
-      <c r="H5" s="255" t="s">
+      <c r="H5" s="257" t="s">
         <v>149</v>
       </c>
-      <c r="I5" s="255"/>
-      <c r="J5" s="255"/>
-      <c r="K5" s="255"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
+      <c r="K5" s="257"/>
       <c r="W5">
         <v>0</v>
       </c>
@@ -18123,11 +18336,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="255" t="s">
+      <c r="Z5" s="257" t="s">
         <v>149</v>
       </c>
-      <c r="AA5" s="255"/>
-      <c r="AB5" s="255"/>
+      <c r="AA5" s="257"/>
+      <c r="AB5" s="257"/>
     </row>
     <row r="6" spans="2:28" ht="15.75">
       <c r="B6" s="47"/>
@@ -18140,12 +18353,12 @@
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
-      <c r="H6" s="256" t="s">
+      <c r="H6" s="258" t="s">
         <v>276</v>
       </c>
-      <c r="I6" s="256"/>
-      <c r="J6" s="256"/>
-      <c r="K6" s="256"/>
+      <c r="I6" s="258"/>
+      <c r="J6" s="258"/>
+      <c r="K6" s="258"/>
       <c r="W6">
         <v>0</v>
       </c>
@@ -18157,11 +18370,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="256" t="s">
+      <c r="Z6" s="258" t="s">
         <v>276</v>
       </c>
-      <c r="AA6" s="256"/>
-      <c r="AB6" s="256"/>
+      <c r="AA6" s="258"/>
+      <c r="AB6" s="258"/>
     </row>
     <row r="7" spans="2:28">
       <c r="B7" s="47"/>
@@ -18171,12 +18384,12 @@
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
-      <c r="H7" s="257" t="s">
+      <c r="H7" s="259" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="257"/>
-      <c r="J7" s="257"/>
-      <c r="K7" s="257"/>
+      <c r="I7" s="259"/>
+      <c r="J7" s="259"/>
+      <c r="K7" s="259"/>
       <c r="W7">
         <v>0</v>
       </c>
@@ -18188,11 +18401,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="257" t="s">
+      <c r="Z7" s="259" t="s">
         <v>65</v>
       </c>
-      <c r="AA7" s="257"/>
-      <c r="AB7" s="257"/>
+      <c r="AA7" s="259"/>
+      <c r="AB7" s="259"/>
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="47"/>
@@ -18202,12 +18415,12 @@
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="47"/>
-      <c r="H8" s="257" t="s">
+      <c r="H8" s="259" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="257"/>
-      <c r="J8" s="257"/>
-      <c r="K8" s="257"/>
+      <c r="I8" s="259"/>
+      <c r="J8" s="259"/>
+      <c r="K8" s="259"/>
       <c r="W8">
         <v>0</v>
       </c>
@@ -18219,11 +18432,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="257" t="s">
+      <c r="Z8" s="259" t="s">
         <v>105</v>
       </c>
-      <c r="AA8" s="257"/>
-      <c r="AB8" s="257"/>
+      <c r="AA8" s="259"/>
+      <c r="AB8" s="259"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="47"/>
@@ -18236,10 +18449,10 @@
       </c>
       <c r="F9" s="47"/>
       <c r="G9" s="47"/>
-      <c r="H9" s="256"/>
-      <c r="I9" s="256"/>
-      <c r="J9" s="256"/>
-      <c r="K9" s="256"/>
+      <c r="H9" s="258"/>
+      <c r="I9" s="258"/>
+      <c r="J9" s="258"/>
+      <c r="K9" s="258"/>
       <c r="W9">
         <v>0</v>
       </c>
@@ -18251,11 +18464,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="256" t="s">
+      <c r="Z9" s="258" t="s">
         <v>291</v>
       </c>
-      <c r="AA9" s="256"/>
-      <c r="AB9" s="256"/>
+      <c r="AA9" s="258"/>
+      <c r="AB9" s="258"/>
     </row>
     <row r="10" spans="2:28">
       <c r="B10" s="47"/>
@@ -18267,12 +18480,12 @@
         <v>306</v>
       </c>
       <c r="G10" s="47"/>
-      <c r="H10" s="256" t="s">
+      <c r="H10" s="258" t="s">
         <v>269</v>
       </c>
-      <c r="I10" s="256"/>
-      <c r="J10" s="256"/>
-      <c r="K10" s="256"/>
+      <c r="I10" s="258"/>
+      <c r="J10" s="258"/>
+      <c r="K10" s="258"/>
       <c r="W10">
         <v>0</v>
       </c>
@@ -18284,11 +18497,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="256" t="s">
+      <c r="Z10" s="258" t="s">
         <v>269</v>
       </c>
-      <c r="AA10" s="256"/>
-      <c r="AB10" s="256"/>
+      <c r="AA10" s="258"/>
+      <c r="AB10" s="258"/>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="47"/>
@@ -18297,12 +18510,12 @@
       </c>
       <c r="D11" s="47"/>
       <c r="G11" s="47"/>
-      <c r="H11" s="256" t="s">
+      <c r="H11" s="258" t="s">
         <v>301</v>
       </c>
-      <c r="I11" s="256"/>
-      <c r="J11" s="256"/>
-      <c r="K11" s="256"/>
+      <c r="I11" s="258"/>
+      <c r="J11" s="258"/>
+      <c r="K11" s="258"/>
       <c r="W11">
         <v>0</v>
       </c>
@@ -18314,11 +18527,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="256" t="s">
+      <c r="Z11" s="258" t="s">
         <v>301</v>
       </c>
-      <c r="AA11" s="256"/>
-      <c r="AB11" s="256"/>
+      <c r="AA11" s="258"/>
+      <c r="AB11" s="258"/>
     </row>
     <row r="12" spans="2:28">
       <c r="B12" s="47"/>
@@ -18330,12 +18543,12 @@
         <v>0</v>
       </c>
       <c r="G12" s="47"/>
-      <c r="H12" s="257" t="s">
+      <c r="H12" s="259" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="257"/>
-      <c r="J12" s="257"/>
-      <c r="K12" s="257"/>
+      <c r="I12" s="259"/>
+      <c r="J12" s="259"/>
+      <c r="K12" s="259"/>
       <c r="W12">
         <v>0</v>
       </c>
@@ -18347,11 +18560,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="257" t="s">
+      <c r="Z12" s="259" t="s">
         <v>95</v>
       </c>
-      <c r="AA12" s="257"/>
-      <c r="AB12" s="257"/>
+      <c r="AA12" s="259"/>
+      <c r="AB12" s="259"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="47"/>
@@ -18363,12 +18576,12 @@
         <v>7400</v>
       </c>
       <c r="G13" s="47"/>
-      <c r="H13" s="257" t="s">
+      <c r="H13" s="259" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="257"/>
-      <c r="J13" s="257"/>
-      <c r="K13" s="257"/>
+      <c r="I13" s="259"/>
+      <c r="J13" s="259"/>
+      <c r="K13" s="259"/>
       <c r="W13">
         <v>0</v>
       </c>
@@ -18380,11 +18593,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="257" t="s">
+      <c r="Z13" s="259" t="s">
         <v>67</v>
       </c>
-      <c r="AA13" s="257"/>
-      <c r="AB13" s="257"/>
+      <c r="AA13" s="259"/>
+      <c r="AB13" s="259"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="47"/>
@@ -18396,12 +18609,12 @@
         <v>0</v>
       </c>
       <c r="G14" s="47"/>
-      <c r="H14" s="256" t="s">
+      <c r="H14" s="258" t="s">
         <v>299</v>
       </c>
-      <c r="I14" s="256"/>
-      <c r="J14" s="256"/>
-      <c r="K14" s="256"/>
+      <c r="I14" s="258"/>
+      <c r="J14" s="258"/>
+      <c r="K14" s="258"/>
       <c r="R14" s="114"/>
       <c r="W14">
         <v>0</v>
@@ -18414,11 +18627,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="256" t="s">
+      <c r="Z14" s="258" t="s">
         <v>299</v>
       </c>
-      <c r="AA14" s="256"/>
-      <c r="AB14" s="256"/>
+      <c r="AA14" s="258"/>
+      <c r="AB14" s="258"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="47"/>
@@ -18430,12 +18643,12 @@
         <v>0</v>
       </c>
       <c r="G15" s="47"/>
-      <c r="H15" s="256" t="s">
+      <c r="H15" s="258" t="s">
         <v>313</v>
       </c>
-      <c r="I15" s="256"/>
-      <c r="J15" s="256"/>
-      <c r="K15" s="256"/>
+      <c r="I15" s="258"/>
+      <c r="J15" s="258"/>
+      <c r="K15" s="258"/>
       <c r="R15" s="114"/>
       <c r="W15">
         <v>0</v>
@@ -18448,11 +18661,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="256" t="s">
+      <c r="Z15" s="258" t="s">
         <v>264</v>
       </c>
-      <c r="AA15" s="256"/>
-      <c r="AB15" s="256"/>
+      <c r="AA15" s="258"/>
+      <c r="AB15" s="258"/>
     </row>
     <row r="16" spans="2:28" ht="19.5" thickBot="1">
       <c r="B16" s="47"/>
@@ -18464,12 +18677,12 @@
         <v>7400</v>
       </c>
       <c r="G16" s="47"/>
-      <c r="H16" s="257" t="s">
+      <c r="H16" s="259" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="257"/>
-      <c r="J16" s="257"/>
-      <c r="K16" s="257"/>
+      <c r="I16" s="259"/>
+      <c r="J16" s="259"/>
+      <c r="K16" s="259"/>
       <c r="W16">
         <v>0</v>
       </c>
@@ -18481,11 +18694,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="257" t="s">
+      <c r="Z16" s="259" t="s">
         <v>58</v>
       </c>
-      <c r="AA16" s="257"/>
-      <c r="AB16" s="257"/>
+      <c r="AA16" s="259"/>
+      <c r="AB16" s="259"/>
     </row>
     <row r="17" spans="2:28" ht="19.5" thickBot="1">
       <c r="B17" s="47"/>
@@ -18497,12 +18710,12 @@
         <v>1100</v>
       </c>
       <c r="G17" s="47"/>
-      <c r="H17" s="256" t="s">
+      <c r="H17" s="258" t="s">
         <v>250</v>
       </c>
-      <c r="I17" s="256"/>
-      <c r="J17" s="256"/>
-      <c r="K17" s="256"/>
+      <c r="I17" s="258"/>
+      <c r="J17" s="258"/>
+      <c r="K17" s="258"/>
       <c r="W17">
         <v>0</v>
       </c>
@@ -18514,21 +18727,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="256" t="s">
+      <c r="Z17" s="258" t="s">
         <v>250</v>
       </c>
-      <c r="AA17" s="256"/>
-      <c r="AB17" s="256"/>
+      <c r="AA17" s="258"/>
+      <c r="AB17" s="258"/>
     </row>
     <row r="18" spans="2:28">
       <c r="B18" s="47"/>
       <c r="G18" s="47"/>
-      <c r="H18" s="256" t="s">
+      <c r="H18" s="258" t="s">
         <v>263</v>
       </c>
-      <c r="I18" s="256"/>
-      <c r="J18" s="256"/>
-      <c r="K18" s="256"/>
+      <c r="I18" s="258"/>
+      <c r="J18" s="258"/>
+      <c r="K18" s="258"/>
       <c r="W18">
         <v>0</v>
       </c>
@@ -18540,20 +18753,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="256" t="s">
+      <c r="Z18" s="258" t="s">
         <v>268</v>
       </c>
-      <c r="AA18" s="256"/>
-      <c r="AB18" s="256"/>
+      <c r="AA18" s="258"/>
+      <c r="AB18" s="258"/>
     </row>
     <row r="19" spans="2:28">
       <c r="B19" s="47"/>
-      <c r="H19" s="263" t="s">
+      <c r="H19" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="263"/>
-      <c r="J19" s="263"/>
-      <c r="K19" s="263"/>
+      <c r="I19" s="265"/>
+      <c r="J19" s="265"/>
+      <c r="K19" s="265"/>
       <c r="W19">
         <v>0</v>
       </c>
@@ -18565,20 +18778,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="263" t="s">
+      <c r="Z19" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="AA19" s="263"/>
-      <c r="AB19" s="263"/>
+      <c r="AA19" s="265"/>
+      <c r="AB19" s="265"/>
     </row>
     <row r="20" spans="2:28">
       <c r="B20" s="47"/>
-      <c r="H20" s="264" t="s">
+      <c r="H20" s="266" t="s">
         <v>60</v>
       </c>
-      <c r="I20" s="264"/>
-      <c r="J20" s="264"/>
-      <c r="K20" s="264"/>
+      <c r="I20" s="266"/>
+      <c r="J20" s="266"/>
+      <c r="K20" s="266"/>
       <c r="W20">
         <v>0</v>
       </c>
@@ -18590,20 +18803,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="264" t="s">
+      <c r="Z20" s="266" t="s">
         <v>60</v>
       </c>
-      <c r="AA20" s="264"/>
-      <c r="AB20" s="264"/>
+      <c r="AA20" s="266"/>
+      <c r="AB20" s="266"/>
     </row>
     <row r="21" spans="2:28">
       <c r="B21" s="47"/>
-      <c r="H21" s="260" t="s">
+      <c r="H21" s="262" t="s">
         <v>298</v>
       </c>
-      <c r="I21" s="260"/>
-      <c r="J21" s="260"/>
-      <c r="K21" s="260"/>
+      <c r="I21" s="262"/>
+      <c r="J21" s="262"/>
+      <c r="K21" s="262"/>
       <c r="W21">
         <v>0</v>
       </c>
@@ -18615,20 +18828,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="260" t="s">
+      <c r="Z21" s="262" t="s">
         <v>298</v>
       </c>
-      <c r="AA21" s="260"/>
-      <c r="AB21" s="260"/>
+      <c r="AA21" s="262"/>
+      <c r="AB21" s="262"/>
     </row>
     <row r="22" spans="2:28">
       <c r="B22" s="47"/>
-      <c r="H22" s="256" t="s">
+      <c r="H22" s="258" t="s">
         <v>297</v>
       </c>
-      <c r="I22" s="256"/>
-      <c r="J22" s="256"/>
-      <c r="K22" s="256"/>
+      <c r="I22" s="258"/>
+      <c r="J22" s="258"/>
+      <c r="K22" s="258"/>
       <c r="W22">
         <v>0</v>
       </c>
@@ -18640,20 +18853,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="256" t="s">
+      <c r="Z22" s="258" t="s">
         <v>297</v>
       </c>
-      <c r="AA22" s="256"/>
-      <c r="AB22" s="256"/>
+      <c r="AA22" s="258"/>
+      <c r="AB22" s="258"/>
     </row>
     <row r="23" spans="2:28" ht="15.75" thickBot="1">
       <c r="B23" s="47"/>
-      <c r="H23" s="261" t="s">
+      <c r="H23" s="263" t="s">
         <v>300</v>
       </c>
-      <c r="I23" s="261"/>
-      <c r="J23" s="261"/>
-      <c r="K23" s="262"/>
+      <c r="I23" s="263"/>
+      <c r="J23" s="263"/>
+      <c r="K23" s="264"/>
       <c r="L23" s="115">
         <f>SUM(L5:L22)</f>
         <v>0</v>
@@ -18713,12 +18926,12 @@
     </row>
     <row r="24" spans="2:28" ht="15.75" thickBot="1">
       <c r="B24" s="47"/>
-      <c r="H24" s="258" t="s">
+      <c r="H24" s="260" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="258"/>
-      <c r="J24" s="258"/>
-      <c r="K24" s="259"/>
+      <c r="I24" s="260"/>
+      <c r="J24" s="260"/>
+      <c r="K24" s="261"/>
       <c r="L24" s="140">
         <f>L3+SUM(L4:L22)</f>
         <v>0</v>
@@ -18770,12 +18983,12 @@
     </row>
     <row r="25" spans="2:28">
       <c r="B25" s="47"/>
-      <c r="H25" s="251" t="s">
+      <c r="H25" s="253" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="251"/>
-      <c r="J25" s="251"/>
-      <c r="K25" s="251"/>
+      <c r="I25" s="253"/>
+      <c r="J25" s="253"/>
+      <c r="K25" s="253"/>
       <c r="L25" s="61">
         <f>L24</f>
         <v>0</v>
@@ -19166,13 +19379,13 @@
       <c r="F44" s="47"/>
     </row>
     <row r="47" spans="2:27" ht="26.25">
-      <c r="B47" s="265" t="s">
+      <c r="B47" s="267" t="s">
         <v>553</v>
       </c>
-      <c r="C47" s="265"/>
-      <c r="D47" s="265"/>
-      <c r="E47" s="265"/>
-      <c r="F47" s="265"/>
+      <c r="C47" s="267"/>
+      <c r="D47" s="267"/>
+      <c r="E47" s="267"/>
+      <c r="F47" s="267"/>
     </row>
     <row r="49" spans="2:6">
       <c r="E49" t="s">
@@ -19294,8 +19507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33331D36-B2E1-4FAB-B650-B9E2B082374C}">
   <dimension ref="A1:AF111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19319,10 +19532,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="272" t="s">
+      <c r="A1" s="274" t="s">
         <v>624</v>
       </c>
-      <c r="B1" s="273"/>
+      <c r="B1" s="275"/>
       <c r="C1" s="138" t="s">
         <v>1</v>
       </c>
@@ -19334,12 +19547,12 @@
       </c>
       <c r="I1" s="180"/>
       <c r="J1" s="180"/>
-      <c r="K1" s="274" t="s">
+      <c r="K1" s="276" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="274"/>
-      <c r="M1" s="274"/>
-      <c r="N1" s="275"/>
+      <c r="L1" s="276"/>
+      <c r="M1" s="276"/>
+      <c r="N1" s="277"/>
       <c r="O1" s="50" t="s">
         <v>44</v>
       </c>
@@ -19384,13 +19597,11 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="279">
+      <c r="A2" s="281">
         <v>48929.4</v>
       </c>
-      <c r="B2" s="280"/>
-      <c r="C2" s="191">
-        <v>373.56</v>
-      </c>
+      <c r="B2" s="282"/>
+      <c r="C2" s="191"/>
       <c r="D2" s="191">
         <v>373.56</v>
       </c>
@@ -19402,16 +19613,16 @@
       </c>
       <c r="H2" s="180">
         <f>C33+C34</f>
-        <v>25817.88</v>
+        <v>25499.699999999997</v>
       </c>
       <c r="I2" s="180"/>
       <c r="J2" s="180"/>
-      <c r="K2" s="276" t="s">
+      <c r="K2" s="278" t="s">
         <v>543</v>
       </c>
-      <c r="L2" s="276"/>
-      <c r="M2" s="276"/>
-      <c r="N2" s="276"/>
+      <c r="L2" s="278"/>
+      <c r="M2" s="278"/>
+      <c r="N2" s="278"/>
       <c r="O2" s="47">
         <v>46239.28</v>
       </c>
@@ -19493,11 +19704,11 @@
       <c r="Z3" s="47"/>
       <c r="AA3" s="118"/>
       <c r="AB3" s="20"/>
-      <c r="AC3" s="277" t="s">
+      <c r="AC3" s="279" t="s">
         <v>480</v>
       </c>
-      <c r="AD3" s="278"/>
-      <c r="AE3" s="278"/>
+      <c r="AD3" s="280"/>
+      <c r="AE3" s="280"/>
     </row>
     <row r="4" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="47"/>
@@ -19520,12 +19731,12 @@
         <f>A2*0.3</f>
         <v>14678.82</v>
       </c>
-      <c r="K4" s="268" t="s">
+      <c r="K4" s="270" t="s">
         <v>504</v>
       </c>
-      <c r="L4" s="268"/>
-      <c r="M4" s="268"/>
-      <c r="N4" s="269"/>
+      <c r="L4" s="270"/>
+      <c r="M4" s="270"/>
+      <c r="N4" s="271"/>
       <c r="O4" s="56">
         <v>2009</v>
       </c>
@@ -19561,11 +19772,11 @@
         <f>AVERAGE(O4:Z4)</f>
         <v>5583.6120000000001</v>
       </c>
-      <c r="AC4" s="270" t="s">
+      <c r="AC4" s="272" t="s">
         <v>63</v>
       </c>
-      <c r="AD4" s="270"/>
-      <c r="AE4" s="271"/>
+      <c r="AD4" s="272"/>
+      <c r="AE4" s="273"/>
     </row>
     <row r="5" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="C5" s="191">
@@ -19580,12 +19791,12 @@
       <c r="F5" s="191" t="s">
         <v>576</v>
       </c>
-      <c r="K5" s="281" t="s">
+      <c r="K5" s="283" t="s">
         <v>149</v>
       </c>
-      <c r="L5" s="281"/>
-      <c r="M5" s="281"/>
-      <c r="N5" s="282"/>
+      <c r="L5" s="283"/>
+      <c r="M5" s="283"/>
+      <c r="N5" s="284"/>
       <c r="O5" s="202"/>
       <c r="Z5">
         <v>1</v>
@@ -19598,9 +19809,9 @@
         <f>AVERAGE(O5:Z5)</f>
         <v>1</v>
       </c>
-      <c r="AC5" s="255"/>
-      <c r="AD5" s="255"/>
-      <c r="AE5" s="255"/>
+      <c r="AC5" s="257"/>
+      <c r="AD5" s="257"/>
+      <c r="AE5" s="257"/>
     </row>
     <row r="6" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="C6" s="191">
@@ -19627,9 +19838,9 @@
       </c>
       <c r="AA6" s="118"/>
       <c r="AB6" s="20"/>
-      <c r="AC6" s="283"/>
-      <c r="AD6" s="255"/>
-      <c r="AE6" s="255"/>
+      <c r="AC6" s="285"/>
+      <c r="AD6" s="257"/>
+      <c r="AE6" s="257"/>
     </row>
     <row r="7" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="47"/>
@@ -19719,9 +19930,7 @@
     <row r="10" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
-      <c r="C10" s="191">
-        <v>610</v>
-      </c>
+      <c r="C10" s="191"/>
       <c r="D10" s="191">
         <v>610</v>
       </c>
@@ -19809,7 +20018,8 @@
       <c r="A13" s="47"/>
       <c r="B13" s="47"/>
       <c r="C13" s="192">
-        <v>230</v>
+        <f>230+69</f>
+        <v>299</v>
       </c>
       <c r="D13" s="192">
         <v>3000</v>
@@ -19841,7 +20051,7 @@
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="134">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="D14" s="134">
         <v>500</v>
@@ -19897,9 +20107,7 @@
     <row r="16" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="47"/>
       <c r="B16" s="47"/>
-      <c r="C16" s="134">
-        <v>1000</v>
-      </c>
+      <c r="C16" s="134"/>
       <c r="D16" s="134"/>
       <c r="E16" s="134">
         <v>1000</v>
@@ -19926,8 +20134,7 @@
     <row r="17" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="47"/>
       <c r="C17" s="134">
-        <f>C49</f>
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="D17" s="134">
         <v>1000</v>
@@ -20040,9 +20247,7 @@
     <row r="21" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="47"/>
       <c r="B21" s="47"/>
-      <c r="C21" s="194">
-        <v>1200</v>
-      </c>
+      <c r="C21" s="194"/>
       <c r="D21" s="194">
         <v>1200</v>
       </c>
@@ -20125,11 +20330,11 @@
       </c>
       <c r="AA23" s="118"/>
       <c r="AB23" s="20"/>
-      <c r="AC23" s="284" t="s">
+      <c r="AC23" s="286" t="s">
         <v>471</v>
       </c>
-      <c r="AD23" s="256"/>
-      <c r="AE23" s="256"/>
+      <c r="AD23" s="258"/>
+      <c r="AE23" s="258"/>
     </row>
     <row r="24" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="47"/>
@@ -20203,12 +20408,12 @@
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
       <c r="J26" s="47"/>
-      <c r="K26" s="285" t="s">
+      <c r="K26" s="287" t="s">
         <v>586</v>
       </c>
-      <c r="L26" s="285"/>
-      <c r="M26" s="285"/>
-      <c r="N26" s="286"/>
+      <c r="L26" s="287"/>
+      <c r="M26" s="287"/>
+      <c r="N26" s="288"/>
       <c r="Z26">
         <v>1</v>
       </c>
@@ -20220,15 +20425,15 @@
         <f>AVERAGE(O26:Z26)</f>
         <v>1</v>
       </c>
-      <c r="AC26" s="256" t="s">
+      <c r="AC26" s="258" t="s">
         <v>276</v>
       </c>
-      <c r="AD26" s="256"/>
-      <c r="AE26" s="256"/>
-    </row>
-    <row r="27" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
+      <c r="AD26" s="258"/>
+      <c r="AE26" s="258"/>
+    </row>
+    <row r="27" spans="1:31" ht="20.25" thickTop="1" thickBot="1">
       <c r="C27" s="231">
-        <v>19736.29</v>
+        <v>20332.669999999998</v>
       </c>
       <c r="D27" s="231">
         <v>19170.88</v>
@@ -20236,7 +20441,7 @@
       <c r="E27" s="231">
         <v>15771.47</v>
       </c>
-      <c r="F27" s="232" t="s">
+      <c r="F27" s="249" t="s">
         <v>412</v>
       </c>
       <c r="K27" s="208"/>
@@ -20285,14 +20490,14 @@
       <c r="F29" s="230"/>
       <c r="H29">
         <f>C27-B54</f>
-        <v>4784.8600000000006</v>
-      </c>
-      <c r="K29" s="285" t="s">
+        <v>5381.239999999998</v>
+      </c>
+      <c r="K29" s="287" t="s">
         <v>386</v>
       </c>
-      <c r="L29" s="285"/>
-      <c r="M29" s="285"/>
-      <c r="N29" s="286"/>
+      <c r="L29" s="287"/>
+      <c r="M29" s="287"/>
+      <c r="N29" s="288"/>
       <c r="O29" s="202"/>
       <c r="Z29">
         <v>1</v>
@@ -20305,11 +20510,11 @@
         <f>AVERAGE(O29:Z29)</f>
         <v>1</v>
       </c>
-      <c r="AC29" s="257" t="s">
+      <c r="AC29" s="259" t="s">
         <v>65</v>
       </c>
-      <c r="AD29" s="257"/>
-      <c r="AE29" s="257"/>
+      <c r="AD29" s="259"/>
+      <c r="AE29" s="259"/>
     </row>
     <row r="30" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="47"/>
@@ -20317,7 +20522,7 @@
         <v>461</v>
       </c>
       <c r="C30" s="206">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D30" s="206">
         <v>1500</v>
@@ -20349,7 +20554,7 @@
       </c>
       <c r="C31" s="134">
         <f>SUM(C14:C18)</f>
-        <v>8750</v>
+        <v>8830</v>
       </c>
       <c r="D31" s="134">
         <f>SUM(D14:D18)</f>
@@ -20382,7 +20587,7 @@
       </c>
       <c r="C32" s="196">
         <f>SUM(C19:C26)</f>
-        <v>8700</v>
+        <v>7500</v>
       </c>
       <c r="D32" s="196">
         <f>SUM(D19:D26)</f>
@@ -20421,7 +20626,7 @@
       </c>
       <c r="C33" s="200">
         <f>SUM(C2:C13)</f>
-        <v>6081.59</v>
+        <v>5167.03</v>
       </c>
       <c r="D33" s="200">
         <f>SUM(D2:D13)</f>
@@ -20436,16 +20641,16 @@
       </c>
       <c r="H33" s="180">
         <f>C33+C34</f>
-        <v>25817.88</v>
+        <v>25499.699999999997</v>
       </c>
       <c r="I33" s="180"/>
       <c r="J33" s="180"/>
-      <c r="K33" s="285" t="s">
+      <c r="K33" s="287" t="s">
         <v>500</v>
       </c>
-      <c r="L33" s="285"/>
-      <c r="M33" s="285"/>
-      <c r="N33" s="286"/>
+      <c r="L33" s="287"/>
+      <c r="M33" s="287"/>
+      <c r="N33" s="288"/>
       <c r="O33" s="202"/>
       <c r="Z33">
         <v>1</v>
@@ -20463,7 +20668,7 @@
       </c>
       <c r="C34" s="234">
         <f>C27</f>
-        <v>19736.29</v>
+        <v>20332.669999999998</v>
       </c>
       <c r="D34" s="234">
         <f>D27</f>
@@ -20475,7 +20680,7 @@
       </c>
       <c r="F34" s="247">
         <f>C27-B54</f>
-        <v>4784.8600000000006</v>
+        <v>5381.239999999998</v>
       </c>
       <c r="H34" s="47"/>
       <c r="I34" s="47"/>
@@ -20529,7 +20734,7 @@
       </c>
       <c r="C36" s="245">
         <f>SUM(C30:C35)</f>
-        <v>44767.880000000005</v>
+        <v>43829.7</v>
       </c>
       <c r="D36" s="245">
         <f>SUM(D30:D35)</f>
@@ -20565,7 +20770,7 @@
       </c>
       <c r="C37" s="154">
         <f>A2-C36</f>
-        <v>4161.5199999999968</v>
+        <v>5099.7000000000044</v>
       </c>
       <c r="D37" s="154">
         <f>A2-D36</f>
@@ -20578,12 +20783,12 @@
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
       <c r="J37" s="47"/>
-      <c r="K37" s="276" t="s">
+      <c r="K37" s="278" t="s">
         <v>489</v>
       </c>
-      <c r="L37" s="276"/>
-      <c r="M37" s="276"/>
-      <c r="N37" s="286"/>
+      <c r="L37" s="278"/>
+      <c r="M37" s="278"/>
+      <c r="N37" s="288"/>
       <c r="O37" s="202"/>
       <c r="Z37">
         <v>1</v>
@@ -20596,11 +20801,11 @@
         <f>AVERAGE(O37:Z37)</f>
         <v>1</v>
       </c>
-      <c r="AC37" s="257" t="s">
+      <c r="AC37" s="259" t="s">
         <v>105</v>
       </c>
-      <c r="AD37" s="257"/>
-      <c r="AE37" s="289"/>
+      <c r="AD37" s="259"/>
+      <c r="AE37" s="291"/>
     </row>
     <row r="38" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
       <c r="A38" s="47"/>
@@ -20639,7 +20844,7 @@
       <c r="F39" s="47"/>
       <c r="G39" s="47">
         <f>C27-G38</f>
-        <v>1462.6800000000003</v>
+        <v>2059.0599999999977</v>
       </c>
       <c r="H39" s="47"/>
       <c r="I39" s="47"/>
@@ -20662,6 +20867,9 @@
     </row>
     <row r="40" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
       <c r="A40" s="47"/>
+      <c r="B40" t="s">
+        <v>647</v>
+      </c>
       <c r="F40" s="47"/>
       <c r="G40" s="47"/>
       <c r="H40" s="47"/>
@@ -20732,11 +20940,11 @@
       </c>
       <c r="AA42" s="118"/>
       <c r="AB42" s="20"/>
-      <c r="AC42" s="284" t="s">
+      <c r="AC42" s="286" t="s">
         <v>499</v>
       </c>
-      <c r="AD42" s="256"/>
-      <c r="AE42" s="288"/>
+      <c r="AD42" s="258"/>
+      <c r="AE42" s="290"/>
     </row>
     <row r="43" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
       <c r="A43" s="47"/>
@@ -20749,12 +20957,12 @@
       <c r="H43" s="47"/>
       <c r="I43" s="47"/>
       <c r="J43" s="47"/>
-      <c r="K43" s="285" t="s">
+      <c r="K43" s="287" t="s">
         <v>263</v>
       </c>
-      <c r="L43" s="285"/>
-      <c r="M43" s="285"/>
-      <c r="N43" s="285"/>
+      <c r="L43" s="287"/>
+      <c r="M43" s="287"/>
+      <c r="N43" s="287"/>
       <c r="O43" s="202"/>
       <c r="Z43">
         <v>1</v>
@@ -20767,11 +20975,11 @@
         <f>AVERAGE(O43:Z43)</f>
         <v>1</v>
       </c>
-      <c r="AC43" s="256" t="s">
+      <c r="AC43" s="258" t="s">
         <v>291</v>
       </c>
-      <c r="AD43" s="256"/>
-      <c r="AE43" s="288"/>
+      <c r="AD43" s="258"/>
+      <c r="AE43" s="290"/>
     </row>
     <row r="44" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" t="s">
@@ -20804,7 +21012,9 @@
       <c r="A45" t="s">
         <v>514</v>
       </c>
-      <c r="B45" s="47"/>
+      <c r="B45" s="47">
+        <v>27834235396</v>
+      </c>
       <c r="C45" t="s">
         <v>516</v>
       </c>
@@ -20922,12 +21132,12 @@
         <v>524</v>
       </c>
       <c r="J48" s="47"/>
-      <c r="K48" s="285" t="s">
+      <c r="K48" s="287" t="s">
         <v>475</v>
       </c>
-      <c r="L48" s="285"/>
-      <c r="M48" s="285"/>
-      <c r="N48" s="285"/>
+      <c r="L48" s="287"/>
+      <c r="M48" s="287"/>
+      <c r="N48" s="287"/>
       <c r="O48" s="202"/>
       <c r="Z48">
         <v>1</v>
@@ -20940,11 +21150,11 @@
         <f t="shared" ref="AB48:AB86" si="1">AVERAGE(O48:Z48)</f>
         <v>1</v>
       </c>
-      <c r="AC48" s="256" t="s">
+      <c r="AC48" s="258" t="s">
         <v>475</v>
       </c>
-      <c r="AD48" s="256"/>
-      <c r="AE48" s="288"/>
+      <c r="AD48" s="258"/>
+      <c r="AE48" s="290"/>
       <c r="AF48">
         <f>V22+V23+V33+V48+V55+V49+V47+V10</f>
         <v>0</v>
@@ -20952,11 +21162,11 @@
     </row>
     <row r="49" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="B49" s="47">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="C49" s="47">
         <f>B49*C46</f>
-        <v>1000</v>
+        <v>1080</v>
       </c>
       <c r="D49" s="47"/>
       <c r="E49" s="47"/>
@@ -20965,12 +21175,12 @@
         <v>523</v>
       </c>
       <c r="J49" s="47"/>
-      <c r="K49" s="287" t="s">
+      <c r="K49" s="289" t="s">
         <v>476</v>
       </c>
-      <c r="L49" s="287"/>
-      <c r="M49" s="287"/>
-      <c r="N49" s="287"/>
+      <c r="L49" s="289"/>
+      <c r="M49" s="289"/>
+      <c r="N49" s="289"/>
       <c r="O49" s="202"/>
       <c r="Z49">
         <v>1</v>
@@ -20983,11 +21193,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC49" s="256" t="s">
+      <c r="AC49" s="258" t="s">
         <v>477</v>
       </c>
-      <c r="AD49" s="256"/>
-      <c r="AE49" s="288"/>
+      <c r="AD49" s="258"/>
+      <c r="AE49" s="290"/>
     </row>
     <row r="50" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="B50" s="47"/>
@@ -21022,12 +21232,12 @@
         <v>1620</v>
       </c>
       <c r="J51" s="47"/>
-      <c r="K51" s="290" t="s">
+      <c r="K51" s="292" t="s">
         <v>301</v>
       </c>
-      <c r="L51" s="290"/>
-      <c r="M51" s="290"/>
-      <c r="N51" s="290"/>
+      <c r="L51" s="292"/>
+      <c r="M51" s="292"/>
+      <c r="N51" s="292"/>
       <c r="O51" s="202"/>
       <c r="Z51">
         <v>1</v>
@@ -21040,11 +21250,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC51" s="256" t="s">
+      <c r="AC51" s="258" t="s">
         <v>301</v>
       </c>
-      <c r="AD51" s="256"/>
-      <c r="AE51" s="288"/>
+      <c r="AD51" s="258"/>
+      <c r="AE51" s="290"/>
     </row>
     <row r="52" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="C52" s="47"/>
@@ -21166,12 +21376,12 @@
         <v>17149.34</v>
       </c>
       <c r="J56" s="47"/>
-      <c r="K56" s="291" t="s">
+      <c r="K56" s="293" t="s">
         <v>95</v>
       </c>
-      <c r="L56" s="291"/>
-      <c r="M56" s="291"/>
-      <c r="N56" s="291"/>
+      <c r="L56" s="293"/>
+      <c r="M56" s="293"/>
+      <c r="N56" s="293"/>
       <c r="O56" s="202"/>
       <c r="Z56">
         <v>1</v>
@@ -21184,23 +21394,23 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC56" s="257" t="s">
+      <c r="AC56" s="259" t="s">
         <v>95</v>
       </c>
-      <c r="AD56" s="257"/>
-      <c r="AE56" s="257"/>
+      <c r="AD56" s="259"/>
+      <c r="AE56" s="259"/>
     </row>
     <row r="57" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="B57" s="231">
         <v>18002.72</v>
       </c>
       <c r="J57" s="47"/>
-      <c r="K57" s="285" t="s">
+      <c r="K57" s="287" t="s">
         <v>67</v>
       </c>
-      <c r="L57" s="285"/>
-      <c r="M57" s="285"/>
-      <c r="N57" s="285"/>
+      <c r="L57" s="287"/>
+      <c r="M57" s="287"/>
+      <c r="N57" s="287"/>
       <c r="O57" s="202"/>
       <c r="Z57">
         <v>1</v>
@@ -21213,23 +21423,23 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC57" s="257" t="s">
+      <c r="AC57" s="259" t="s">
         <v>67</v>
       </c>
-      <c r="AD57" s="257"/>
-      <c r="AE57" s="257"/>
+      <c r="AD57" s="259"/>
+      <c r="AE57" s="259"/>
     </row>
     <row r="58" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="B58" s="231">
         <v>18858.91</v>
       </c>
       <c r="J58" s="47"/>
-      <c r="K58" s="285" t="s">
+      <c r="K58" s="287" t="s">
         <v>299</v>
       </c>
-      <c r="L58" s="285"/>
-      <c r="M58" s="285"/>
-      <c r="N58" s="285"/>
+      <c r="L58" s="287"/>
+      <c r="M58" s="287"/>
+      <c r="N58" s="287"/>
       <c r="O58" s="202"/>
       <c r="U58" s="114"/>
       <c r="Z58">
@@ -21243,11 +21453,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC58" s="256" t="s">
+      <c r="AC58" s="258" t="s">
         <v>299</v>
       </c>
-      <c r="AD58" s="256"/>
-      <c r="AE58" s="256"/>
+      <c r="AD58" s="258"/>
+      <c r="AE58" s="258"/>
     </row>
     <row r="59" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="B59" s="231">
@@ -21299,13 +21509,19 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC60" s="284" t="s">
+      <c r="AC60" s="286" t="s">
         <v>479</v>
       </c>
-      <c r="AD60" s="256"/>
-      <c r="AE60" s="256"/>
+      <c r="AD60" s="258"/>
+      <c r="AE60" s="258"/>
     </row>
     <row r="61" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B61" s="231">
+        <v>20332.669999999998</v>
+      </c>
+      <c r="C61" s="190">
+        <v>45079</v>
+      </c>
       <c r="D61" s="239"/>
       <c r="K61" s="208"/>
       <c r="L61" s="208"/>
@@ -21332,12 +21548,12 @@
     </row>
     <row r="62" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="D62" s="44"/>
-      <c r="K62" s="285" t="s">
+      <c r="K62" s="287" t="s">
         <v>481</v>
       </c>
-      <c r="L62" s="285"/>
-      <c r="M62" s="285"/>
-      <c r="N62" s="285"/>
+      <c r="L62" s="287"/>
+      <c r="M62" s="287"/>
+      <c r="N62" s="287"/>
       <c r="O62" s="202"/>
       <c r="U62" s="114"/>
       <c r="Z62">
@@ -21351,22 +21567,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC62" s="256" t="s">
+      <c r="AC62" s="258" t="s">
         <v>264</v>
       </c>
-      <c r="AD62" s="256"/>
-      <c r="AE62" s="288"/>
+      <c r="AD62" s="258"/>
+      <c r="AE62" s="290"/>
     </row>
     <row r="63" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="C63" s="190">
         <v>45057</v>
       </c>
-      <c r="K63" s="285" t="s">
+      <c r="K63" s="287" t="s">
         <v>387</v>
       </c>
-      <c r="L63" s="285"/>
-      <c r="M63" s="285"/>
-      <c r="N63" s="285"/>
+      <c r="L63" s="287"/>
+      <c r="M63" s="287"/>
+      <c r="N63" s="287"/>
       <c r="O63" s="202"/>
       <c r="Z63">
         <v>1</v>
@@ -21379,11 +21595,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC63" s="257" t="s">
+      <c r="AC63" s="259" t="s">
         <v>58</v>
       </c>
-      <c r="AD63" s="257"/>
-      <c r="AE63" s="289"/>
+      <c r="AD63" s="259"/>
+      <c r="AE63" s="291"/>
     </row>
     <row r="64" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="K64" s="208"/>
@@ -21409,12 +21625,12 @@
       <c r="AE64" s="209"/>
     </row>
     <row r="65" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K65" s="285" t="s">
+      <c r="K65" s="287" t="s">
         <v>469</v>
       </c>
-      <c r="L65" s="285"/>
-      <c r="M65" s="285"/>
-      <c r="N65" s="286"/>
+      <c r="L65" s="287"/>
+      <c r="M65" s="287"/>
+      <c r="N65" s="288"/>
       <c r="O65" s="202"/>
       <c r="Z65">
         <v>1</v>
@@ -21434,12 +21650,12 @@
       <c r="AE65" s="209"/>
     </row>
     <row r="66" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K66" s="290" t="s">
+      <c r="K66" s="292" t="s">
         <v>527</v>
       </c>
-      <c r="L66" s="290"/>
-      <c r="M66" s="290"/>
-      <c r="N66" s="292"/>
+      <c r="L66" s="292"/>
+      <c r="M66" s="292"/>
+      <c r="N66" s="294"/>
       <c r="O66" s="202"/>
       <c r="Z66">
         <v>1</v>
@@ -21459,12 +21675,12 @@
       <c r="AE66" s="209"/>
     </row>
     <row r="67" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K67" s="290" t="s">
+      <c r="K67" s="292" t="s">
         <v>246</v>
       </c>
-      <c r="L67" s="290"/>
-      <c r="M67" s="290"/>
-      <c r="N67" s="292"/>
+      <c r="L67" s="292"/>
+      <c r="M67" s="292"/>
+      <c r="N67" s="294"/>
       <c r="O67" s="202"/>
       <c r="Z67">
         <v>1</v>
@@ -21477,11 +21693,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC67" s="293" t="s">
+      <c r="AC67" s="295" t="s">
         <v>246</v>
       </c>
-      <c r="AD67" s="293"/>
-      <c r="AE67" s="294"/>
+      <c r="AD67" s="295"/>
+      <c r="AE67" s="296"/>
     </row>
     <row r="68" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="K68" s="208"/>
@@ -21530,12 +21746,12 @@
       <c r="AE69" s="216"/>
     </row>
     <row r="70" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K70" s="285" t="s">
+      <c r="K70" s="287" t="s">
         <v>268</v>
       </c>
-      <c r="L70" s="285"/>
-      <c r="M70" s="285"/>
-      <c r="N70" s="285"/>
+      <c r="L70" s="287"/>
+      <c r="M70" s="287"/>
+      <c r="N70" s="287"/>
       <c r="O70" s="202"/>
       <c r="Z70">
         <v>1</v>
@@ -21548,11 +21764,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC70" s="293" t="s">
+      <c r="AC70" s="295" t="s">
         <v>268</v>
       </c>
-      <c r="AD70" s="293"/>
-      <c r="AE70" s="294"/>
+      <c r="AD70" s="295"/>
+      <c r="AE70" s="296"/>
     </row>
     <row r="71" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="K71" s="208"/>
@@ -21657,12 +21873,12 @@
       <c r="AE76" s="216"/>
     </row>
     <row r="77" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K77" s="298" t="s">
+      <c r="K77" s="300" t="s">
         <v>6</v>
       </c>
-      <c r="L77" s="298"/>
-      <c r="M77" s="298"/>
-      <c r="N77" s="298"/>
+      <c r="L77" s="300"/>
+      <c r="M77" s="300"/>
+      <c r="N77" s="300"/>
       <c r="O77" s="202"/>
       <c r="Z77">
         <v>1</v>
@@ -21675,11 +21891,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC77" s="263" t="s">
+      <c r="AC77" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="AD77" s="263"/>
-      <c r="AE77" s="299"/>
+      <c r="AD77" s="265"/>
+      <c r="AE77" s="301"/>
     </row>
     <row r="78" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="K78" s="237"/>
@@ -21707,12 +21923,12 @@
     <row r="79" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="H79" s="62"/>
       <c r="I79" s="158"/>
-      <c r="K79" s="300" t="s">
+      <c r="K79" s="302" t="s">
         <v>60</v>
       </c>
-      <c r="L79" s="300"/>
-      <c r="M79" s="300"/>
-      <c r="N79" s="300"/>
+      <c r="L79" s="302"/>
+      <c r="M79" s="302"/>
+      <c r="N79" s="302"/>
       <c r="R79">
         <v>1650</v>
       </c>
@@ -21727,19 +21943,19 @@
         <f t="shared" si="1"/>
         <v>825.5</v>
       </c>
-      <c r="AC79" s="301" t="s">
+      <c r="AC79" s="303" t="s">
         <v>60</v>
       </c>
-      <c r="AD79" s="301"/>
-      <c r="AE79" s="301"/>
+      <c r="AD79" s="303"/>
+      <c r="AE79" s="303"/>
     </row>
     <row r="80" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K80" s="298" t="s">
+      <c r="K80" s="300" t="s">
         <v>443</v>
       </c>
-      <c r="L80" s="298"/>
-      <c r="M80" s="298"/>
-      <c r="N80" s="298"/>
+      <c r="L80" s="300"/>
+      <c r="M80" s="300"/>
+      <c r="N80" s="300"/>
       <c r="O80" s="202"/>
       <c r="Z80">
         <v>1</v>
@@ -21757,12 +21973,12 @@
       <c r="AE80" s="187"/>
     </row>
     <row r="81" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K81" s="302" t="s">
+      <c r="K81" s="304" t="s">
         <v>539</v>
       </c>
-      <c r="L81" s="303"/>
-      <c r="M81" s="303"/>
-      <c r="N81" s="304"/>
+      <c r="L81" s="305"/>
+      <c r="M81" s="305"/>
+      <c r="N81" s="306"/>
       <c r="O81" s="202"/>
       <c r="Z81">
         <v>1</v>
@@ -21780,12 +21996,12 @@
       <c r="AE81" s="187"/>
     </row>
     <row r="82" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K82" s="309" t="s">
+      <c r="K82" s="311" t="s">
         <v>540</v>
       </c>
-      <c r="L82" s="309"/>
-      <c r="M82" s="309"/>
-      <c r="N82" s="310"/>
+      <c r="L82" s="311"/>
+      <c r="M82" s="311"/>
+      <c r="N82" s="312"/>
       <c r="O82" s="202"/>
       <c r="Z82">
         <v>1</v>
@@ -21803,12 +22019,12 @@
       <c r="AE82" s="187"/>
     </row>
     <row r="83" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K83" s="311" t="s">
+      <c r="K83" s="313" t="s">
         <v>298</v>
       </c>
-      <c r="L83" s="311"/>
-      <c r="M83" s="311"/>
-      <c r="N83" s="311"/>
+      <c r="L83" s="313"/>
+      <c r="M83" s="313"/>
+      <c r="N83" s="313"/>
       <c r="O83" s="202"/>
       <c r="Z83">
         <v>1</v>
@@ -21821,11 +22037,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC83" s="295" t="s">
+      <c r="AC83" s="297" t="s">
         <v>298</v>
       </c>
-      <c r="AD83" s="295"/>
-      <c r="AE83" s="295"/>
+      <c r="AD83" s="297"/>
+      <c r="AE83" s="297"/>
     </row>
     <row r="84" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="K84" s="215"/>
@@ -21853,12 +22069,12 @@
     <row r="85" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="H85" s="62"/>
       <c r="I85" s="158"/>
-      <c r="K85" s="285" t="s">
+      <c r="K85" s="287" t="s">
         <v>297</v>
       </c>
-      <c r="L85" s="285"/>
-      <c r="M85" s="285"/>
-      <c r="N85" s="285"/>
+      <c r="L85" s="287"/>
+      <c r="M85" s="287"/>
+      <c r="N85" s="287"/>
       <c r="O85" s="203"/>
       <c r="Z85">
         <v>1</v>
@@ -21871,11 +22087,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC85" s="256" t="s">
+      <c r="AC85" s="258" t="s">
         <v>297</v>
       </c>
-      <c r="AD85" s="256"/>
-      <c r="AE85" s="256"/>
+      <c r="AD85" s="258"/>
+      <c r="AE85" s="258"/>
     </row>
     <row r="86" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="K86" s="208"/>
@@ -21911,7 +22127,7 @@
       </c>
       <c r="V86" s="235">
         <f>C2+E3+C4+C5+C26+C10+C11+C12+C17+C16+C22+C8+C6+C34</f>
-        <v>34199.760000000002</v>
+        <v>32892.58</v>
       </c>
       <c r="W86" s="235" t="e">
         <f>E2+#REF!+E4+E7+E26+E10+E11+E12+E13+E15+E17+E23+E8+E6+E27</f>
@@ -21939,12 +22155,12 @@
       <c r="AE86" s="207"/>
     </row>
     <row r="87" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K87" s="296" t="s">
+      <c r="K87" s="298" t="s">
         <v>300</v>
       </c>
-      <c r="L87" s="296"/>
-      <c r="M87" s="296"/>
-      <c r="N87" s="297"/>
+      <c r="L87" s="298"/>
+      <c r="M87" s="298"/>
+      <c r="N87" s="299"/>
       <c r="O87" s="115">
         <f>SUM(O6:O86)</f>
         <v>0</v>
@@ -21975,7 +22191,7 @@
       </c>
       <c r="V87" s="115">
         <f>SUM(V5:V86)</f>
-        <v>34199.760000000002</v>
+        <v>32892.58</v>
       </c>
       <c r="W87" s="115">
         <f>SUM(W5:W85)</f>
@@ -22003,12 +22219,12 @@
       </c>
     </row>
     <row r="88" spans="8:31" ht="15.75" thickBot="1">
-      <c r="K88" s="305" t="s">
+      <c r="K88" s="307" t="s">
         <v>61</v>
       </c>
-      <c r="L88" s="305"/>
-      <c r="M88" s="305"/>
-      <c r="N88" s="306"/>
+      <c r="L88" s="307"/>
+      <c r="M88" s="307"/>
+      <c r="N88" s="308"/>
       <c r="O88" s="141">
         <f>O2+O3-SUM(O5:O85)-O4</f>
         <v>45106.879999999997</v>
@@ -22039,7 +22255,7 @@
       </c>
       <c r="V88" s="141">
         <f>V2-V87-V4+V3</f>
-        <v>107.57999999999811</v>
+        <v>1414.7599999999984</v>
       </c>
       <c r="W88" s="141">
         <f>W2+SUM(W5:W85)-W4</f>
@@ -22059,12 +22275,12 @@
       </c>
     </row>
     <row r="89" spans="8:31">
-      <c r="K89" s="307" t="s">
+      <c r="K89" s="309" t="s">
         <v>62</v>
       </c>
-      <c r="L89" s="307"/>
-      <c r="M89" s="307"/>
-      <c r="N89" s="307"/>
+      <c r="L89" s="309"/>
+      <c r="M89" s="309"/>
+      <c r="N89" s="309"/>
       <c r="O89" s="61">
         <f>O88</f>
         <v>45106.879999999997</v>
@@ -22095,23 +22311,23 @@
       </c>
       <c r="V89" s="61">
         <f>SUM(O88:V88)</f>
-        <v>309386.57</v>
+        <v>310693.75</v>
       </c>
       <c r="W89" s="61">
         <f>SUM(O88:W88)</f>
-        <v>358315.97000000003</v>
+        <v>359623.15</v>
       </c>
       <c r="X89" s="61">
         <f>SUM(O88:X88)</f>
-        <v>407245.37000000005</v>
+        <v>408552.55000000005</v>
       </c>
       <c r="Y89" s="61">
         <f>SUM(O88:Y88)</f>
-        <v>456174.77000000008</v>
+        <v>457481.95000000007</v>
       </c>
       <c r="Z89" s="61">
         <f>SUM(O88:Z88)</f>
-        <v>505179.1700000001</v>
+        <v>506486.35000000009</v>
       </c>
     </row>
     <row r="90" spans="8:31">
@@ -22143,22 +22359,22 @@
       <c r="L92" s="47"/>
       <c r="M92" s="47"/>
       <c r="N92" s="47"/>
-      <c r="P92" s="308"/>
-      <c r="Q92" s="308"/>
-      <c r="R92" s="308"/>
-      <c r="S92" s="308"/>
-      <c r="T92" s="308"/>
+      <c r="P92" s="310"/>
+      <c r="Q92" s="310"/>
+      <c r="R92" s="310"/>
+      <c r="S92" s="310"/>
+      <c r="T92" s="310"/>
     </row>
     <row r="93" spans="8:31">
       <c r="K93" s="47"/>
       <c r="L93" s="47"/>
       <c r="M93" s="47"/>
       <c r="N93" s="47"/>
-      <c r="P93" s="308"/>
-      <c r="Q93" s="308"/>
-      <c r="R93" s="308"/>
-      <c r="S93" s="308"/>
-      <c r="T93" s="308"/>
+      <c r="P93" s="310"/>
+      <c r="Q93" s="310"/>
+      <c r="R93" s="310"/>
+      <c r="S93" s="310"/>
+      <c r="T93" s="310"/>
     </row>
     <row r="94" spans="8:31">
       <c r="K94" s="47"/>
@@ -22696,10 +22912,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="268" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="267"/>
+      <c r="B1" s="269"/>
       <c r="C1" s="138" t="s">
         <v>1</v>
       </c>
@@ -22711,12 +22927,12 @@
       </c>
       <c r="H1" s="180"/>
       <c r="I1" s="180"/>
-      <c r="J1" s="274" t="s">
+      <c r="J1" s="276" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="274"/>
-      <c r="L1" s="274"/>
-      <c r="M1" s="275"/>
+      <c r="K1" s="276"/>
+      <c r="L1" s="276"/>
+      <c r="M1" s="277"/>
       <c r="N1" s="50" t="s">
         <v>44</v>
       </c>
@@ -22775,18 +22991,18 @@
       <c r="F2" s="191" t="s">
         <v>465</v>
       </c>
-      <c r="G2" s="272">
+      <c r="G2" s="274">
         <f>C33+C34</f>
         <v>30018.85</v>
       </c>
-      <c r="H2" s="272"/>
-      <c r="I2" s="272"/>
-      <c r="J2" s="276" t="s">
+      <c r="H2" s="274"/>
+      <c r="I2" s="274"/>
+      <c r="J2" s="278" t="s">
         <v>543</v>
       </c>
-      <c r="K2" s="276"/>
-      <c r="L2" s="276"/>
-      <c r="M2" s="276"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="278"/>
+      <c r="M2" s="278"/>
       <c r="N2" s="47">
         <v>46239.28</v>
       </c>
@@ -22881,11 +23097,11 @@
       </c>
       <c r="Z3" s="118"/>
       <c r="AA3" s="20"/>
-      <c r="AB3" s="277" t="s">
+      <c r="AB3" s="279" t="s">
         <v>480</v>
       </c>
-      <c r="AC3" s="278"/>
-      <c r="AD3" s="278"/>
+      <c r="AC3" s="280"/>
+      <c r="AD3" s="280"/>
     </row>
     <row r="4" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="47"/>
@@ -22902,12 +23118,12 @@
       <c r="F4" s="191" t="s">
         <v>453</v>
       </c>
-      <c r="J4" s="268" t="s">
+      <c r="J4" s="270" t="s">
         <v>504</v>
       </c>
-      <c r="K4" s="312"/>
-      <c r="L4" s="312"/>
-      <c r="M4" s="313"/>
+      <c r="K4" s="314"/>
+      <c r="L4" s="314"/>
+      <c r="M4" s="315"/>
       <c r="N4" s="56">
         <v>2009</v>
       </c>
@@ -22943,11 +23159,11 @@
         <f>AVERAGE(N4:Y4)</f>
         <v>5583.6120000000001</v>
       </c>
-      <c r="AB4" s="270" t="s">
+      <c r="AB4" s="272" t="s">
         <v>63</v>
       </c>
-      <c r="AC4" s="270"/>
-      <c r="AD4" s="271"/>
+      <c r="AC4" s="272"/>
+      <c r="AD4" s="273"/>
     </row>
     <row r="5" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="125" t="s">
@@ -22967,12 +23183,12 @@
       <c r="F5" s="191" t="s">
         <v>576</v>
       </c>
-      <c r="J5" s="281" t="s">
+      <c r="J5" s="283" t="s">
         <v>149</v>
       </c>
-      <c r="K5" s="281"/>
-      <c r="L5" s="281"/>
-      <c r="M5" s="281"/>
+      <c r="K5" s="283"/>
+      <c r="L5" s="283"/>
+      <c r="M5" s="283"/>
       <c r="N5" s="202"/>
       <c r="Y5">
         <v>1</v>
@@ -22985,9 +23201,9 @@
         <f>AVERAGE(N5:Y5)</f>
         <v>1</v>
       </c>
-      <c r="AB5" s="255"/>
-      <c r="AC5" s="255"/>
-      <c r="AD5" s="255"/>
+      <c r="AB5" s="257"/>
+      <c r="AC5" s="257"/>
+      <c r="AD5" s="257"/>
     </row>
     <row r="6" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="125"/>
@@ -23008,9 +23224,9 @@
       </c>
       <c r="Z6" s="118"/>
       <c r="AA6" s="20"/>
-      <c r="AB6" s="283"/>
-      <c r="AC6" s="255"/>
-      <c r="AD6" s="255"/>
+      <c r="AB6" s="285"/>
+      <c r="AC6" s="257"/>
+      <c r="AD6" s="257"/>
     </row>
     <row r="7" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="47"/>
@@ -23500,11 +23716,11 @@
       </c>
       <c r="Z23" s="118"/>
       <c r="AA23" s="20"/>
-      <c r="AB23" s="284" t="s">
+      <c r="AB23" s="286" t="s">
         <v>471</v>
       </c>
-      <c r="AC23" s="256"/>
-      <c r="AD23" s="256"/>
+      <c r="AC23" s="258"/>
+      <c r="AD23" s="258"/>
     </row>
     <row r="24" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="47"/>
@@ -23577,12 +23793,12 @@
       </c>
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
-      <c r="J26" s="285" t="s">
+      <c r="J26" s="287" t="s">
         <v>586</v>
       </c>
-      <c r="K26" s="285"/>
-      <c r="L26" s="285"/>
-      <c r="M26" s="286"/>
+      <c r="K26" s="287"/>
+      <c r="L26" s="287"/>
+      <c r="M26" s="288"/>
       <c r="U26">
         <v>69.900000000000006</v>
       </c>
@@ -23597,11 +23813,11 @@
         <f>AVERAGE(N26:Y26)</f>
         <v>35.450000000000003</v>
       </c>
-      <c r="AB26" s="256" t="s">
+      <c r="AB26" s="258" t="s">
         <v>276</v>
       </c>
-      <c r="AC26" s="256"/>
-      <c r="AD26" s="256"/>
+      <c r="AC26" s="258"/>
+      <c r="AD26" s="258"/>
     </row>
     <row r="27" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="231">
@@ -23670,12 +23886,12 @@
         <f>C27-E27</f>
         <v>3087.4400000000005</v>
       </c>
-      <c r="J29" s="285" t="s">
+      <c r="J29" s="287" t="s">
         <v>386</v>
       </c>
-      <c r="K29" s="285"/>
-      <c r="L29" s="285"/>
-      <c r="M29" s="285"/>
+      <c r="K29" s="287"/>
+      <c r="L29" s="287"/>
+      <c r="M29" s="287"/>
       <c r="N29" s="202"/>
       <c r="Y29">
         <v>1</v>
@@ -23688,11 +23904,11 @@
         <f>AVERAGE(N29:Y29)</f>
         <v>1</v>
       </c>
-      <c r="AB29" s="257" t="s">
+      <c r="AB29" s="259" t="s">
         <v>65</v>
       </c>
-      <c r="AC29" s="257"/>
-      <c r="AD29" s="257"/>
+      <c r="AC29" s="259"/>
+      <c r="AD29" s="259"/>
     </row>
     <row r="30" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="47"/>
@@ -23803,18 +24019,18 @@
         <f>SUM(E2:E13)</f>
         <v>8645</v>
       </c>
-      <c r="G33" s="272">
+      <c r="G33" s="274">
         <f>C33+C34</f>
         <v>30018.85</v>
       </c>
-      <c r="H33" s="272"/>
-      <c r="I33" s="272"/>
-      <c r="J33" s="285" t="s">
+      <c r="H33" s="274"/>
+      <c r="I33" s="274"/>
+      <c r="J33" s="287" t="s">
         <v>500</v>
       </c>
-      <c r="K33" s="291"/>
-      <c r="L33" s="291"/>
-      <c r="M33" s="291"/>
+      <c r="K33" s="293"/>
+      <c r="L33" s="293"/>
+      <c r="M33" s="293"/>
       <c r="N33" s="202"/>
       <c r="U33">
         <v>230</v>
@@ -23953,12 +24169,12 @@
       <c r="F37" s="47"/>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
-      <c r="J37" s="276" t="s">
+      <c r="J37" s="278" t="s">
         <v>489</v>
       </c>
-      <c r="K37" s="276"/>
-      <c r="L37" s="276"/>
-      <c r="M37" s="286"/>
+      <c r="K37" s="278"/>
+      <c r="L37" s="278"/>
+      <c r="M37" s="288"/>
       <c r="N37" s="202"/>
       <c r="Y37">
         <v>1</v>
@@ -23971,11 +24187,11 @@
         <f>AVERAGE(N37:Y37)</f>
         <v>1</v>
       </c>
-      <c r="AB37" s="257" t="s">
+      <c r="AB37" s="259" t="s">
         <v>105</v>
       </c>
-      <c r="AC37" s="257"/>
-      <c r="AD37" s="289"/>
+      <c r="AC37" s="259"/>
+      <c r="AD37" s="291"/>
     </row>
     <row r="38" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A38" s="47"/>
@@ -24105,11 +24321,11 @@
       </c>
       <c r="Z42" s="118"/>
       <c r="AA42" s="20"/>
-      <c r="AB42" s="284" t="s">
+      <c r="AB42" s="286" t="s">
         <v>499</v>
       </c>
-      <c r="AC42" s="256"/>
-      <c r="AD42" s="288"/>
+      <c r="AC42" s="258"/>
+      <c r="AD42" s="290"/>
     </row>
     <row r="43" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A43" s="47"/>
@@ -24121,12 +24337,12 @@
       <c r="G43" s="47"/>
       <c r="H43" s="47"/>
       <c r="I43" s="47"/>
-      <c r="J43" s="285" t="s">
+      <c r="J43" s="287" t="s">
         <v>263</v>
       </c>
-      <c r="K43" s="285"/>
-      <c r="L43" s="285"/>
-      <c r="M43" s="285"/>
+      <c r="K43" s="287"/>
+      <c r="L43" s="287"/>
+      <c r="M43" s="287"/>
       <c r="N43" s="202"/>
       <c r="U43">
         <v>384.98</v>
@@ -24142,11 +24358,11 @@
         <f>AVERAGE(N43:Y43)</f>
         <v>192.99</v>
       </c>
-      <c r="AB43" s="256" t="s">
+      <c r="AB43" s="258" t="s">
         <v>291</v>
       </c>
-      <c r="AC43" s="256"/>
-      <c r="AD43" s="288"/>
+      <c r="AC43" s="258"/>
+      <c r="AD43" s="290"/>
     </row>
     <row r="44" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" t="s">
@@ -24297,12 +24513,12 @@
         <v>524</v>
       </c>
       <c r="I48" s="47"/>
-      <c r="J48" s="285" t="s">
+      <c r="J48" s="287" t="s">
         <v>475</v>
       </c>
-      <c r="K48" s="285"/>
-      <c r="L48" s="285"/>
-      <c r="M48" s="285"/>
+      <c r="K48" s="287"/>
+      <c r="L48" s="287"/>
+      <c r="M48" s="287"/>
       <c r="N48" s="202"/>
       <c r="U48">
         <f>95.11+60.96+74.98</f>
@@ -24319,11 +24535,11 @@
         <f t="shared" ref="AA48:AA61" si="1">AVERAGE(N48:Y48)</f>
         <v>116.02500000000001</v>
       </c>
-      <c r="AB48" s="256" t="s">
+      <c r="AB48" s="258" t="s">
         <v>475</v>
       </c>
-      <c r="AC48" s="256"/>
-      <c r="AD48" s="288"/>
+      <c r="AC48" s="258"/>
+      <c r="AD48" s="290"/>
       <c r="AE48">
         <f>U22+U23+U33+U48+U55+U49+U47+U10</f>
         <v>5579.6</v>
@@ -24344,12 +24560,12 @@
         <v>523</v>
       </c>
       <c r="I49" s="47"/>
-      <c r="J49" s="287" t="s">
+      <c r="J49" s="289" t="s">
         <v>476</v>
       </c>
-      <c r="K49" s="287"/>
-      <c r="L49" s="287"/>
-      <c r="M49" s="287"/>
+      <c r="K49" s="289"/>
+      <c r="L49" s="289"/>
+      <c r="M49" s="289"/>
       <c r="N49" s="202"/>
       <c r="U49">
         <f>148.96+124.99</f>
@@ -24366,11 +24582,11 @@
         <f t="shared" si="1"/>
         <v>137.47499999999999</v>
       </c>
-      <c r="AB49" s="256" t="s">
+      <c r="AB49" s="258" t="s">
         <v>477</v>
       </c>
-      <c r="AC49" s="256"/>
-      <c r="AD49" s="288"/>
+      <c r="AC49" s="258"/>
+      <c r="AD49" s="290"/>
     </row>
     <row r="50" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="B50" s="47"/>
@@ -24405,12 +24621,12 @@
         <v>1620</v>
       </c>
       <c r="I51" s="47"/>
-      <c r="J51" s="290" t="s">
+      <c r="J51" s="292" t="s">
         <v>301</v>
       </c>
-      <c r="K51" s="290"/>
-      <c r="L51" s="290"/>
-      <c r="M51" s="290"/>
+      <c r="K51" s="292"/>
+      <c r="L51" s="292"/>
+      <c r="M51" s="292"/>
       <c r="N51" s="202"/>
       <c r="U51">
         <v>922.33</v>
@@ -24426,11 +24642,11 @@
         <f t="shared" si="1"/>
         <v>461.66500000000002</v>
       </c>
-      <c r="AB51" s="256" t="s">
+      <c r="AB51" s="258" t="s">
         <v>301</v>
       </c>
-      <c r="AC51" s="256"/>
-      <c r="AD51" s="288"/>
+      <c r="AC51" s="258"/>
+      <c r="AD51" s="290"/>
     </row>
     <row r="52" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="B52" s="47"/>
@@ -24537,12 +24753,12 @@
     </row>
     <row r="56" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I56" s="47"/>
-      <c r="J56" s="291" t="s">
+      <c r="J56" s="293" t="s">
         <v>95</v>
       </c>
-      <c r="K56" s="291"/>
-      <c r="L56" s="291"/>
-      <c r="M56" s="291"/>
+      <c r="K56" s="293"/>
+      <c r="L56" s="293"/>
+      <c r="M56" s="293"/>
       <c r="N56" s="202"/>
       <c r="Y56">
         <v>1</v>
@@ -24555,20 +24771,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AB56" s="257" t="s">
+      <c r="AB56" s="259" t="s">
         <v>95</v>
       </c>
-      <c r="AC56" s="257"/>
-      <c r="AD56" s="257"/>
+      <c r="AC56" s="259"/>
+      <c r="AD56" s="259"/>
     </row>
     <row r="57" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I57" s="47"/>
-      <c r="J57" s="285" t="s">
+      <c r="J57" s="287" t="s">
         <v>67</v>
       </c>
-      <c r="K57" s="285"/>
-      <c r="L57" s="285"/>
-      <c r="M57" s="285"/>
+      <c r="K57" s="287"/>
+      <c r="L57" s="287"/>
+      <c r="M57" s="287"/>
       <c r="N57" s="202"/>
       <c r="U57">
         <v>700</v>
@@ -24584,20 +24800,20 @@
         <f t="shared" si="1"/>
         <v>350.5</v>
       </c>
-      <c r="AB57" s="257" t="s">
+      <c r="AB57" s="259" t="s">
         <v>67</v>
       </c>
-      <c r="AC57" s="257"/>
-      <c r="AD57" s="257"/>
+      <c r="AC57" s="259"/>
+      <c r="AD57" s="259"/>
     </row>
     <row r="58" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I58" s="47"/>
-      <c r="J58" s="285" t="s">
+      <c r="J58" s="287" t="s">
         <v>299</v>
       </c>
-      <c r="K58" s="285"/>
-      <c r="L58" s="285"/>
-      <c r="M58" s="285"/>
+      <c r="K58" s="287"/>
+      <c r="L58" s="287"/>
+      <c r="M58" s="287"/>
       <c r="N58" s="202"/>
       <c r="T58" s="114"/>
       <c r="Y58">
@@ -24611,11 +24827,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AB58" s="256" t="s">
+      <c r="AB58" s="258" t="s">
         <v>299</v>
       </c>
-      <c r="AC58" s="256"/>
-      <c r="AD58" s="256"/>
+      <c r="AC58" s="258"/>
+      <c r="AD58" s="258"/>
     </row>
     <row r="59" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J59" s="208"/>
@@ -24661,11 +24877,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AB60" s="284" t="s">
+      <c r="AB60" s="286" t="s">
         <v>479</v>
       </c>
-      <c r="AC60" s="256"/>
-      <c r="AD60" s="256"/>
+      <c r="AC60" s="258"/>
+      <c r="AD60" s="258"/>
     </row>
     <row r="61" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="D61" s="239"/>
@@ -24694,12 +24910,12 @@
     </row>
     <row r="62" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="D62" s="44"/>
-      <c r="J62" s="285" t="s">
+      <c r="J62" s="287" t="s">
         <v>481</v>
       </c>
-      <c r="K62" s="285"/>
-      <c r="L62" s="285"/>
-      <c r="M62" s="285"/>
+      <c r="K62" s="287"/>
+      <c r="L62" s="287"/>
+      <c r="M62" s="287"/>
       <c r="N62" s="202"/>
       <c r="T62" s="114"/>
       <c r="U62">
@@ -24717,19 +24933,19 @@
         <f t="shared" ref="AA62:AA86" si="3">AVERAGE(N62:Y62)</f>
         <v>146.5</v>
       </c>
-      <c r="AB62" s="256" t="s">
+      <c r="AB62" s="258" t="s">
         <v>264</v>
       </c>
-      <c r="AC62" s="256"/>
-      <c r="AD62" s="288"/>
+      <c r="AC62" s="258"/>
+      <c r="AD62" s="290"/>
     </row>
     <row r="63" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J63" s="285" t="s">
+      <c r="J63" s="287" t="s">
         <v>387</v>
       </c>
-      <c r="K63" s="285"/>
-      <c r="L63" s="285"/>
-      <c r="M63" s="285"/>
+      <c r="K63" s="287"/>
+      <c r="L63" s="287"/>
+      <c r="M63" s="287"/>
       <c r="N63" s="202"/>
       <c r="U63">
         <v>97.6</v>
@@ -24745,11 +24961,11 @@
         <f t="shared" si="3"/>
         <v>49.3</v>
       </c>
-      <c r="AB63" s="257" t="s">
+      <c r="AB63" s="259" t="s">
         <v>58</v>
       </c>
-      <c r="AC63" s="257"/>
-      <c r="AD63" s="289"/>
+      <c r="AC63" s="259"/>
+      <c r="AD63" s="291"/>
     </row>
     <row r="64" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J64" s="208"/>
@@ -24775,12 +24991,12 @@
       <c r="AD64" s="209"/>
     </row>
     <row r="65" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J65" s="285" t="s">
+      <c r="J65" s="287" t="s">
         <v>469</v>
       </c>
-      <c r="K65" s="285"/>
-      <c r="L65" s="285"/>
-      <c r="M65" s="286"/>
+      <c r="K65" s="287"/>
+      <c r="L65" s="287"/>
+      <c r="M65" s="288"/>
       <c r="N65" s="202"/>
       <c r="Y65">
         <v>1</v>
@@ -24800,12 +25016,12 @@
       <c r="AD65" s="209"/>
     </row>
     <row r="66" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J66" s="290" t="s">
+      <c r="J66" s="292" t="s">
         <v>527</v>
       </c>
-      <c r="K66" s="290"/>
-      <c r="L66" s="290"/>
-      <c r="M66" s="292"/>
+      <c r="K66" s="292"/>
+      <c r="L66" s="292"/>
+      <c r="M66" s="294"/>
       <c r="N66" s="202"/>
       <c r="U66">
         <v>272.39</v>
@@ -24828,12 +25044,12 @@
       <c r="AD66" s="209"/>
     </row>
     <row r="67" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J67" s="290" t="s">
+      <c r="J67" s="292" t="s">
         <v>246</v>
       </c>
-      <c r="K67" s="290"/>
-      <c r="L67" s="290"/>
-      <c r="M67" s="292"/>
+      <c r="K67" s="292"/>
+      <c r="L67" s="292"/>
+      <c r="M67" s="294"/>
       <c r="N67" s="202"/>
       <c r="U67">
         <f>323.75+568.73</f>
@@ -24850,11 +25066,11 @@
         <f t="shared" si="3"/>
         <v>446.74</v>
       </c>
-      <c r="AB67" s="293" t="s">
+      <c r="AB67" s="295" t="s">
         <v>246</v>
       </c>
-      <c r="AC67" s="293"/>
-      <c r="AD67" s="294"/>
+      <c r="AC67" s="295"/>
+      <c r="AD67" s="296"/>
     </row>
     <row r="68" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J68" s="208"/>
@@ -24903,12 +25119,12 @@
       <c r="AD69" s="216"/>
     </row>
     <row r="70" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J70" s="285" t="s">
+      <c r="J70" s="287" t="s">
         <v>268</v>
       </c>
-      <c r="K70" s="285"/>
-      <c r="L70" s="285"/>
-      <c r="M70" s="285"/>
+      <c r="K70" s="287"/>
+      <c r="L70" s="287"/>
+      <c r="M70" s="287"/>
       <c r="N70" s="202"/>
       <c r="Y70">
         <v>1</v>
@@ -24921,11 +25137,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AB70" s="293" t="s">
+      <c r="AB70" s="295" t="s">
         <v>268</v>
       </c>
-      <c r="AC70" s="293"/>
-      <c r="AD70" s="294"/>
+      <c r="AC70" s="295"/>
+      <c r="AD70" s="296"/>
     </row>
     <row r="71" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J71" s="208"/>
@@ -25042,12 +25258,12 @@
       <c r="AD76" s="216"/>
     </row>
     <row r="77" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J77" s="298" t="s">
+      <c r="J77" s="300" t="s">
         <v>6</v>
       </c>
-      <c r="K77" s="298"/>
-      <c r="L77" s="298"/>
-      <c r="M77" s="298"/>
+      <c r="K77" s="300"/>
+      <c r="L77" s="300"/>
+      <c r="M77" s="300"/>
       <c r="N77" s="202"/>
       <c r="U77">
         <f>157.99+1236.88+32+54.9+58.9+44</f>
@@ -25064,11 +25280,11 @@
         <f t="shared" si="3"/>
         <v>792.83500000000015</v>
       </c>
-      <c r="AB77" s="263" t="s">
+      <c r="AB77" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="AC77" s="263"/>
-      <c r="AD77" s="299"/>
+      <c r="AC77" s="265"/>
+      <c r="AD77" s="301"/>
     </row>
     <row r="78" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J78" s="237"/>
@@ -25095,12 +25311,12 @@
     </row>
     <row r="79" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="H79" s="62"/>
-      <c r="J79" s="300" t="s">
+      <c r="J79" s="302" t="s">
         <v>60</v>
       </c>
-      <c r="K79" s="300"/>
-      <c r="L79" s="300"/>
-      <c r="M79" s="300"/>
+      <c r="K79" s="302"/>
+      <c r="L79" s="302"/>
+      <c r="M79" s="302"/>
       <c r="Y79">
         <v>1</v>
       </c>
@@ -25112,19 +25328,19 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AB79" s="301" t="s">
+      <c r="AB79" s="303" t="s">
         <v>60</v>
       </c>
-      <c r="AC79" s="301"/>
-      <c r="AD79" s="301"/>
+      <c r="AC79" s="303"/>
+      <c r="AD79" s="303"/>
     </row>
     <row r="80" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J80" s="298" t="s">
+      <c r="J80" s="300" t="s">
         <v>443</v>
       </c>
-      <c r="K80" s="298"/>
-      <c r="L80" s="298"/>
-      <c r="M80" s="298"/>
+      <c r="K80" s="300"/>
+      <c r="L80" s="300"/>
+      <c r="M80" s="300"/>
       <c r="N80" s="202"/>
       <c r="Y80">
         <v>1</v>
@@ -25142,12 +25358,12 @@
       <c r="AD80" s="187"/>
     </row>
     <row r="81" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J81" s="302" t="s">
+      <c r="J81" s="304" t="s">
         <v>539</v>
       </c>
-      <c r="K81" s="303"/>
-      <c r="L81" s="303"/>
-      <c r="M81" s="304"/>
+      <c r="K81" s="305"/>
+      <c r="L81" s="305"/>
+      <c r="M81" s="306"/>
       <c r="N81" s="202"/>
       <c r="U81">
         <f>75.3+9.2</f>
@@ -25169,12 +25385,12 @@
       <c r="AD81" s="187"/>
     </row>
     <row r="82" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J82" s="309" t="s">
+      <c r="J82" s="311" t="s">
         <v>540</v>
       </c>
-      <c r="K82" s="309"/>
-      <c r="L82" s="309"/>
-      <c r="M82" s="310"/>
+      <c r="K82" s="311"/>
+      <c r="L82" s="311"/>
+      <c r="M82" s="312"/>
       <c r="N82" s="202"/>
       <c r="Y82">
         <v>1</v>
@@ -25192,12 +25408,12 @@
       <c r="AD82" s="187"/>
     </row>
     <row r="83" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J83" s="311" t="s">
+      <c r="J83" s="313" t="s">
         <v>298</v>
       </c>
-      <c r="K83" s="311"/>
-      <c r="L83" s="311"/>
-      <c r="M83" s="311"/>
+      <c r="K83" s="313"/>
+      <c r="L83" s="313"/>
+      <c r="M83" s="313"/>
       <c r="N83" s="202"/>
       <c r="Y83">
         <v>1</v>
@@ -25210,11 +25426,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AB83" s="295" t="s">
+      <c r="AB83" s="297" t="s">
         <v>298</v>
       </c>
-      <c r="AC83" s="295"/>
-      <c r="AD83" s="295"/>
+      <c r="AC83" s="297"/>
+      <c r="AD83" s="297"/>
     </row>
     <row r="84" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J84" s="215"/>
@@ -25244,12 +25460,12 @@
     </row>
     <row r="85" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="H85" s="62"/>
-      <c r="J85" s="285" t="s">
+      <c r="J85" s="287" t="s">
         <v>297</v>
       </c>
-      <c r="K85" s="285"/>
-      <c r="L85" s="285"/>
-      <c r="M85" s="285"/>
+      <c r="K85" s="287"/>
+      <c r="L85" s="287"/>
+      <c r="M85" s="287"/>
       <c r="N85" s="203"/>
       <c r="Y85">
         <v>1</v>
@@ -25262,11 +25478,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AB85" s="256" t="s">
+      <c r="AB85" s="258" t="s">
         <v>297</v>
       </c>
-      <c r="AC85" s="256"/>
-      <c r="AD85" s="256"/>
+      <c r="AC85" s="258"/>
+      <c r="AD85" s="258"/>
     </row>
     <row r="86" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J86" s="208"/>
@@ -25330,12 +25546,12 @@
       <c r="AD86" s="207"/>
     </row>
     <row r="87" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J87" s="296" t="s">
+      <c r="J87" s="298" t="s">
         <v>300</v>
       </c>
-      <c r="K87" s="296"/>
-      <c r="L87" s="296"/>
-      <c r="M87" s="297"/>
+      <c r="K87" s="298"/>
+      <c r="L87" s="298"/>
+      <c r="M87" s="299"/>
       <c r="N87" s="115">
         <f>SUM(N6:N86)</f>
         <v>0</v>
@@ -25394,12 +25610,12 @@
       </c>
     </row>
     <row r="88" spans="8:30" ht="15.75" thickBot="1">
-      <c r="J88" s="305" t="s">
+      <c r="J88" s="307" t="s">
         <v>61</v>
       </c>
-      <c r="K88" s="305"/>
-      <c r="L88" s="305"/>
-      <c r="M88" s="306"/>
+      <c r="K88" s="307"/>
+      <c r="L88" s="307"/>
+      <c r="M88" s="308"/>
       <c r="N88" s="141">
         <f>N2+N3-SUM(N5:N85)-N4</f>
         <v>44230.28</v>
@@ -25450,12 +25666,12 @@
       </c>
     </row>
     <row r="89" spans="8:30">
-      <c r="J89" s="307" t="s">
+      <c r="J89" s="309" t="s">
         <v>62</v>
       </c>
-      <c r="K89" s="307"/>
-      <c r="L89" s="307"/>
-      <c r="M89" s="307"/>
+      <c r="K89" s="309"/>
+      <c r="L89" s="309"/>
+      <c r="M89" s="309"/>
       <c r="N89" s="61">
         <f>N88</f>
         <v>44230.28</v>
@@ -25534,22 +25750,22 @@
       <c r="K92" s="47"/>
       <c r="L92" s="47"/>
       <c r="M92" s="47"/>
-      <c r="O92" s="308"/>
-      <c r="P92" s="308"/>
-      <c r="Q92" s="308"/>
-      <c r="R92" s="308"/>
-      <c r="S92" s="308"/>
+      <c r="O92" s="310"/>
+      <c r="P92" s="310"/>
+      <c r="Q92" s="310"/>
+      <c r="R92" s="310"/>
+      <c r="S92" s="310"/>
     </row>
     <row r="93" spans="8:30">
       <c r="J93" s="47"/>
       <c r="K93" s="47"/>
       <c r="L93" s="47"/>
       <c r="M93" s="47"/>
-      <c r="O93" s="308"/>
-      <c r="P93" s="308"/>
-      <c r="Q93" s="308"/>
-      <c r="R93" s="308"/>
-      <c r="S93" s="308"/>
+      <c r="O93" s="310"/>
+      <c r="P93" s="310"/>
+      <c r="Q93" s="310"/>
+      <c r="R93" s="310"/>
+      <c r="S93" s="310"/>
     </row>
     <row r="94" spans="8:30">
       <c r="J94" s="47"/>
@@ -26103,10 +26319,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="268" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="267"/>
+      <c r="B1" s="269"/>
       <c r="C1" s="138" t="s">
         <v>1</v>
       </c>
@@ -26116,12 +26332,12 @@
       <c r="G1" s="47"/>
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
-      <c r="J1" s="274" t="s">
+      <c r="J1" s="276" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="274"/>
-      <c r="L1" s="274"/>
-      <c r="M1" s="275"/>
+      <c r="K1" s="276"/>
+      <c r="L1" s="276"/>
+      <c r="M1" s="277"/>
       <c r="N1" s="50" t="s">
         <v>44</v>
       </c>
@@ -26184,12 +26400,12 @@
       </c>
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
-      <c r="J2" s="276" t="s">
+      <c r="J2" s="278" t="s">
         <v>543</v>
       </c>
-      <c r="K2" s="276"/>
-      <c r="L2" s="276"/>
-      <c r="M2" s="276"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="278"/>
+      <c r="M2" s="278"/>
       <c r="N2" s="47">
         <f>43178.75</f>
         <v>43178.75</v>
@@ -26238,12 +26454,12 @@
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
-      <c r="J3" s="268" t="s">
+      <c r="J3" s="270" t="s">
         <v>504</v>
       </c>
-      <c r="K3" s="312"/>
-      <c r="L3" s="312"/>
-      <c r="M3" s="313"/>
+      <c r="K3" s="314"/>
+      <c r="L3" s="314"/>
+      <c r="M3" s="315"/>
       <c r="N3" s="56">
         <v>3929</v>
       </c>
@@ -26270,11 +26486,11 @@
         <f>AVERAGE(N3:Y3)</f>
         <v>2675.3333333333335</v>
       </c>
-      <c r="AB3" s="270" t="s">
+      <c r="AB3" s="272" t="s">
         <v>63</v>
       </c>
-      <c r="AC3" s="270"/>
-      <c r="AD3" s="271"/>
+      <c r="AC3" s="272"/>
+      <c r="AD3" s="273"/>
     </row>
     <row r="4" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="47"/>
@@ -26294,12 +26510,12 @@
       <c r="F4" s="191" t="s">
         <v>453</v>
       </c>
-      <c r="J4" s="281" t="s">
+      <c r="J4" s="283" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="281"/>
-      <c r="L4" s="281"/>
-      <c r="M4" s="281"/>
+      <c r="K4" s="283"/>
+      <c r="L4" s="283"/>
+      <c r="M4" s="283"/>
       <c r="N4" s="202"/>
       <c r="O4" s="118">
         <v>55000</v>
@@ -26312,11 +26528,11 @@
         <f>AVERAGE(N4:Y4)</f>
         <v>55000</v>
       </c>
-      <c r="AB4" s="255" t="s">
+      <c r="AB4" s="257" t="s">
         <v>149</v>
       </c>
-      <c r="AC4" s="255"/>
-      <c r="AD4" s="255"/>
+      <c r="AC4" s="257"/>
+      <c r="AD4" s="257"/>
     </row>
     <row r="5" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="125" t="s">
@@ -26344,11 +26560,11 @@
       </c>
       <c r="Z5" s="118"/>
       <c r="AA5" s="20"/>
-      <c r="AB5" s="283" t="s">
+      <c r="AB5" s="285" t="s">
         <v>480</v>
       </c>
-      <c r="AC5" s="255"/>
-      <c r="AD5" s="255"/>
+      <c r="AC5" s="257"/>
+      <c r="AD5" s="257"/>
     </row>
     <row r="6" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="47"/>
@@ -26758,11 +26974,11 @@
       </c>
       <c r="Z20" s="118"/>
       <c r="AA20" s="20"/>
-      <c r="AB20" s="284" t="s">
+      <c r="AB20" s="286" t="s">
         <v>471</v>
       </c>
-      <c r="AC20" s="256"/>
-      <c r="AD20" s="256"/>
+      <c r="AC20" s="258"/>
+      <c r="AD20" s="258"/>
     </row>
     <row r="21" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="47"/>
@@ -26832,12 +27048,12 @@
       </c>
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
-      <c r="J23" s="285" t="s">
+      <c r="J23" s="287" t="s">
         <v>498</v>
       </c>
-      <c r="K23" s="285"/>
-      <c r="L23" s="285"/>
-      <c r="M23" s="286"/>
+      <c r="K23" s="287"/>
+      <c r="L23" s="287"/>
+      <c r="M23" s="288"/>
       <c r="Z23" s="118">
         <f>SUM(N23:Y23)</f>
         <v>0</v>
@@ -26846,11 +27062,11 @@
         <f>AVERAGE(N23:Y23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB23" s="256" t="s">
+      <c r="AB23" s="258" t="s">
         <v>276</v>
       </c>
-      <c r="AC23" s="256"/>
-      <c r="AD23" s="256"/>
+      <c r="AC23" s="258"/>
+      <c r="AD23" s="258"/>
     </row>
     <row r="24" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="47"/>
@@ -26927,12 +27143,12 @@
       <c r="F26" s="204" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="285" t="s">
+      <c r="J26" s="287" t="s">
         <v>386</v>
       </c>
-      <c r="K26" s="285"/>
-      <c r="L26" s="285"/>
-      <c r="M26" s="285"/>
+      <c r="K26" s="287"/>
+      <c r="L26" s="287"/>
+      <c r="M26" s="287"/>
       <c r="N26" s="202"/>
       <c r="Z26" s="118">
         <f>SUM(N26:Y26)</f>
@@ -26942,11 +27158,11 @@
         <f>AVERAGE(N26:Y26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB26" s="257" t="s">
+      <c r="AB26" s="259" t="s">
         <v>65</v>
       </c>
-      <c r="AC26" s="257"/>
-      <c r="AD26" s="257"/>
+      <c r="AC26" s="259"/>
+      <c r="AD26" s="259"/>
     </row>
     <row r="27" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="47"/>
@@ -27043,12 +27259,12 @@
       <c r="F30" s="193" t="s">
         <v>546</v>
       </c>
-      <c r="J30" s="285" t="s">
+      <c r="J30" s="287" t="s">
         <v>500</v>
       </c>
-      <c r="K30" s="291"/>
-      <c r="L30" s="291"/>
-      <c r="M30" s="291"/>
+      <c r="K30" s="293"/>
+      <c r="L30" s="293"/>
+      <c r="M30" s="293"/>
       <c r="N30" s="202"/>
       <c r="Z30" s="118"/>
       <c r="AA30" s="20"/>
@@ -27144,12 +27360,12 @@
         <v>500</v>
       </c>
       <c r="F34" s="47"/>
-      <c r="J34" s="276" t="s">
+      <c r="J34" s="278" t="s">
         <v>489</v>
       </c>
-      <c r="K34" s="276"/>
-      <c r="L34" s="276"/>
-      <c r="M34" s="286"/>
+      <c r="K34" s="278"/>
+      <c r="L34" s="278"/>
+      <c r="M34" s="288"/>
       <c r="N34" s="202"/>
       <c r="Z34" s="118">
         <f>SUM(N34:Y34)</f>
@@ -27159,11 +27375,11 @@
         <f>AVERAGE(N34:Y34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB34" s="257" t="s">
+      <c r="AB34" s="259" t="s">
         <v>105</v>
       </c>
-      <c r="AC34" s="257"/>
-      <c r="AD34" s="289"/>
+      <c r="AC34" s="259"/>
+      <c r="AD34" s="291"/>
     </row>
     <row r="35" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="47"/>
@@ -27296,11 +27512,11 @@
       <c r="N39" s="202"/>
       <c r="Z39" s="118"/>
       <c r="AA39" s="20"/>
-      <c r="AB39" s="284" t="s">
+      <c r="AB39" s="286" t="s">
         <v>499</v>
       </c>
-      <c r="AC39" s="256"/>
-      <c r="AD39" s="288"/>
+      <c r="AC39" s="258"/>
+      <c r="AD39" s="290"/>
     </row>
     <row r="40" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A40" s="47"/>
@@ -27319,12 +27535,12 @@
       <c r="F40" s="47"/>
       <c r="H40" s="47"/>
       <c r="I40" s="47"/>
-      <c r="J40" s="285" t="s">
+      <c r="J40" s="287" t="s">
         <v>263</v>
       </c>
-      <c r="K40" s="285"/>
-      <c r="L40" s="285"/>
-      <c r="M40" s="285"/>
+      <c r="K40" s="287"/>
+      <c r="L40" s="287"/>
+      <c r="M40" s="287"/>
       <c r="N40" s="202"/>
       <c r="Z40" s="118">
         <f>SUM(N40:Y40)</f>
@@ -27334,11 +27550,11 @@
         <f>AVERAGE(N40:Y40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB40" s="256" t="s">
+      <c r="AB40" s="258" t="s">
         <v>291</v>
       </c>
-      <c r="AC40" s="256"/>
-      <c r="AD40" s="288"/>
+      <c r="AC40" s="258"/>
+      <c r="AD40" s="290"/>
     </row>
     <row r="41" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A41" s="47"/>
@@ -27468,12 +27684,12 @@
       <c r="G45" s="47"/>
       <c r="H45" s="47"/>
       <c r="I45" s="47"/>
-      <c r="J45" s="285" t="s">
+      <c r="J45" s="287" t="s">
         <v>475</v>
       </c>
-      <c r="K45" s="285"/>
-      <c r="L45" s="285"/>
-      <c r="M45" s="285"/>
+      <c r="K45" s="287"/>
+      <c r="L45" s="287"/>
+      <c r="M45" s="287"/>
       <c r="N45" s="202"/>
       <c r="Z45" s="118">
         <f t="shared" ref="Z45:Z56" si="0">SUM(N45:Y45)</f>
@@ -27483,11 +27699,11 @@
         <f t="shared" ref="AA45:AA56" si="1">AVERAGE(N45:Y45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB45" s="256" t="s">
+      <c r="AB45" s="258" t="s">
         <v>475</v>
       </c>
-      <c r="AC45" s="256"/>
-      <c r="AD45" s="288"/>
+      <c r="AC45" s="258"/>
+      <c r="AD45" s="290"/>
     </row>
     <row r="46" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A46" s="47"/>
@@ -27504,12 +27720,12 @@
       <c r="G46" s="47"/>
       <c r="H46" s="47"/>
       <c r="I46" s="47"/>
-      <c r="J46" s="287" t="s">
+      <c r="J46" s="289" t="s">
         <v>476</v>
       </c>
-      <c r="K46" s="287"/>
-      <c r="L46" s="287"/>
-      <c r="M46" s="287"/>
+      <c r="K46" s="289"/>
+      <c r="L46" s="289"/>
+      <c r="M46" s="289"/>
       <c r="N46" s="202">
         <f>251.67+67.98+997.69</f>
         <v>1317.3400000000001</v>
@@ -27530,11 +27746,11 @@
         <f t="shared" si="1"/>
         <v>602.93333333333339</v>
       </c>
-      <c r="AB46" s="256" t="s">
+      <c r="AB46" s="258" t="s">
         <v>477</v>
       </c>
-      <c r="AC46" s="256"/>
-      <c r="AD46" s="288"/>
+      <c r="AC46" s="258"/>
+      <c r="AD46" s="290"/>
     </row>
     <row r="47" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A47" s="47"/>
@@ -27573,12 +27789,12 @@
       <c r="G48" s="47"/>
       <c r="H48" s="47"/>
       <c r="I48" s="47"/>
-      <c r="J48" s="290" t="s">
+      <c r="J48" s="292" t="s">
         <v>301</v>
       </c>
-      <c r="K48" s="290"/>
-      <c r="L48" s="290"/>
-      <c r="M48" s="290"/>
+      <c r="K48" s="292"/>
+      <c r="L48" s="292"/>
+      <c r="M48" s="292"/>
       <c r="N48" s="202">
         <f>599.4+394.27</f>
         <v>993.67</v>
@@ -27595,11 +27811,11 @@
         <f t="shared" si="1"/>
         <v>765.71</v>
       </c>
-      <c r="AB48" s="256" t="s">
+      <c r="AB48" s="258" t="s">
         <v>301</v>
       </c>
-      <c r="AC48" s="256"/>
-      <c r="AD48" s="288"/>
+      <c r="AC48" s="258"/>
+      <c r="AD48" s="290"/>
     </row>
     <row r="49" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A49" s="47"/>
@@ -27741,12 +27957,12 @@
       </c>
       <c r="H53" s="47"/>
       <c r="I53" s="47"/>
-      <c r="J53" s="291" t="s">
+      <c r="J53" s="293" t="s">
         <v>95</v>
       </c>
-      <c r="K53" s="291"/>
-      <c r="L53" s="291"/>
-      <c r="M53" s="291"/>
+      <c r="K53" s="293"/>
+      <c r="L53" s="293"/>
+      <c r="M53" s="293"/>
       <c r="N53" s="202">
         <v>600</v>
       </c>
@@ -27758,11 +27974,11 @@
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="AB53" s="257" t="s">
+      <c r="AB53" s="259" t="s">
         <v>95</v>
       </c>
-      <c r="AC53" s="257"/>
-      <c r="AD53" s="257"/>
+      <c r="AC53" s="259"/>
+      <c r="AD53" s="259"/>
     </row>
     <row r="54" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="B54" s="47">
@@ -27783,12 +27999,12 @@
       </c>
       <c r="H54" s="47"/>
       <c r="I54" s="47"/>
-      <c r="J54" s="285" t="s">
+      <c r="J54" s="287" t="s">
         <v>67</v>
       </c>
-      <c r="K54" s="285"/>
-      <c r="L54" s="285"/>
-      <c r="M54" s="285"/>
+      <c r="K54" s="287"/>
+      <c r="L54" s="287"/>
+      <c r="M54" s="287"/>
       <c r="N54" s="202"/>
       <c r="Z54" s="118">
         <f t="shared" si="0"/>
@@ -27798,11 +28014,11 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB54" s="257" t="s">
+      <c r="AB54" s="259" t="s">
         <v>67</v>
       </c>
-      <c r="AC54" s="257"/>
-      <c r="AD54" s="257"/>
+      <c r="AC54" s="259"/>
+      <c r="AD54" s="259"/>
     </row>
     <row r="55" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="B55" s="24">
@@ -27825,12 +28041,12 @@
         <v>524</v>
       </c>
       <c r="I55" s="47"/>
-      <c r="J55" s="285" t="s">
+      <c r="J55" s="287" t="s">
         <v>299</v>
       </c>
-      <c r="K55" s="285"/>
-      <c r="L55" s="285"/>
-      <c r="M55" s="285"/>
+      <c r="K55" s="287"/>
+      <c r="L55" s="287"/>
+      <c r="M55" s="287"/>
       <c r="N55" s="202"/>
       <c r="T55" s="114"/>
       <c r="Z55" s="118">
@@ -27841,11 +28057,11 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB55" s="256" t="s">
+      <c r="AB55" s="258" t="s">
         <v>299</v>
       </c>
-      <c r="AC55" s="256"/>
-      <c r="AD55" s="256"/>
+      <c r="AC55" s="258"/>
+      <c r="AD55" s="258"/>
     </row>
     <row r="56" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="B56" s="47">
@@ -27898,11 +28114,11 @@
       <c r="T57" s="114"/>
       <c r="Z57" s="118"/>
       <c r="AA57" s="20"/>
-      <c r="AB57" s="284" t="s">
+      <c r="AB57" s="286" t="s">
         <v>479</v>
       </c>
-      <c r="AC57" s="256"/>
-      <c r="AD57" s="256"/>
+      <c r="AC57" s="258"/>
+      <c r="AD57" s="258"/>
     </row>
     <row r="58" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="B58" s="47"/>
@@ -27932,12 +28148,12 @@
       <c r="B59" s="47"/>
       <c r="C59" s="47"/>
       <c r="I59" s="47"/>
-      <c r="J59" s="285" t="s">
+      <c r="J59" s="287" t="s">
         <v>481</v>
       </c>
-      <c r="K59" s="285"/>
-      <c r="L59" s="285"/>
-      <c r="M59" s="285"/>
+      <c r="K59" s="287"/>
+      <c r="L59" s="287"/>
+      <c r="M59" s="287"/>
       <c r="N59" s="202"/>
       <c r="T59" s="114"/>
       <c r="Z59" s="118">
@@ -27948,22 +28164,22 @@
         <f>AVERAGE(N59:Y59)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB59" s="256" t="s">
+      <c r="AB59" s="258" t="s">
         <v>264</v>
       </c>
-      <c r="AC59" s="256"/>
-      <c r="AD59" s="288"/>
+      <c r="AC59" s="258"/>
+      <c r="AD59" s="290"/>
     </row>
     <row r="60" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="B60" s="47"/>
       <c r="C60" s="47"/>
       <c r="I60" s="47"/>
-      <c r="J60" s="285" t="s">
+      <c r="J60" s="287" t="s">
         <v>387</v>
       </c>
-      <c r="K60" s="285"/>
-      <c r="L60" s="285"/>
-      <c r="M60" s="285"/>
+      <c r="K60" s="287"/>
+      <c r="L60" s="287"/>
+      <c r="M60" s="287"/>
       <c r="N60" s="202"/>
       <c r="Z60" s="118">
         <f>SUM(N60:Y60)</f>
@@ -27973,11 +28189,11 @@
         <f>AVERAGE(N60:Y60)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB60" s="257" t="s">
+      <c r="AB60" s="259" t="s">
         <v>58</v>
       </c>
-      <c r="AC60" s="257"/>
-      <c r="AD60" s="289"/>
+      <c r="AC60" s="259"/>
+      <c r="AD60" s="291"/>
     </row>
     <row r="61" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I61" s="47"/>
@@ -27996,12 +28212,12 @@
     </row>
     <row r="62" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I62" s="47"/>
-      <c r="J62" s="285" t="s">
+      <c r="J62" s="287" t="s">
         <v>469</v>
       </c>
-      <c r="K62" s="285"/>
-      <c r="L62" s="285"/>
-      <c r="M62" s="286"/>
+      <c r="K62" s="287"/>
+      <c r="L62" s="287"/>
+      <c r="M62" s="288"/>
       <c r="N62" s="202"/>
       <c r="Z62" s="118"/>
       <c r="AA62" s="20"/>
@@ -28013,12 +28229,12 @@
     </row>
     <row r="63" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I63" s="47"/>
-      <c r="J63" s="290" t="s">
+      <c r="J63" s="292" t="s">
         <v>527</v>
       </c>
-      <c r="K63" s="290"/>
-      <c r="L63" s="290"/>
-      <c r="M63" s="292"/>
+      <c r="K63" s="292"/>
+      <c r="L63" s="292"/>
+      <c r="M63" s="294"/>
       <c r="N63" s="202">
         <v>368.22</v>
       </c>
@@ -28036,12 +28252,12 @@
     </row>
     <row r="64" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I64" s="47"/>
-      <c r="J64" s="290" t="s">
+      <c r="J64" s="292" t="s">
         <v>246</v>
       </c>
-      <c r="K64" s="290"/>
-      <c r="L64" s="290"/>
-      <c r="M64" s="292"/>
+      <c r="K64" s="292"/>
+      <c r="L64" s="292"/>
+      <c r="M64" s="294"/>
       <c r="N64" s="202">
         <f>74.98+709.15</f>
         <v>784.13</v>
@@ -28058,11 +28274,11 @@
         <f>AVERAGE(N64:Y64)</f>
         <v>472.03999999999996</v>
       </c>
-      <c r="AB64" s="293" t="s">
+      <c r="AB64" s="295" t="s">
         <v>246</v>
       </c>
-      <c r="AC64" s="293"/>
-      <c r="AD64" s="294"/>
+      <c r="AC64" s="295"/>
+      <c r="AD64" s="296"/>
     </row>
     <row r="65" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I65" s="47"/>
@@ -28094,12 +28310,12 @@
       <c r="AD66" s="216"/>
     </row>
     <row r="67" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J67" s="285" t="s">
+      <c r="J67" s="287" t="s">
         <v>268</v>
       </c>
-      <c r="K67" s="285"/>
-      <c r="L67" s="285"/>
-      <c r="M67" s="285"/>
+      <c r="K67" s="287"/>
+      <c r="L67" s="287"/>
+      <c r="M67" s="287"/>
       <c r="N67" s="202"/>
       <c r="Z67" s="118">
         <f>SUM(N67:Y67)</f>
@@ -28109,11 +28325,11 @@
         <f>AVERAGE(N67:Y67)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB67" s="293" t="s">
+      <c r="AB67" s="295" t="s">
         <v>268</v>
       </c>
-      <c r="AC67" s="293"/>
-      <c r="AD67" s="294"/>
+      <c r="AC67" s="295"/>
+      <c r="AD67" s="296"/>
     </row>
     <row r="68" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J68" s="208"/>
@@ -28148,12 +28364,12 @@
       <c r="AD69" s="216"/>
     </row>
     <row r="70" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J70" s="298" t="s">
+      <c r="J70" s="300" t="s">
         <v>6</v>
       </c>
-      <c r="K70" s="298"/>
-      <c r="L70" s="298"/>
-      <c r="M70" s="298"/>
+      <c r="K70" s="300"/>
+      <c r="L70" s="300"/>
+      <c r="M70" s="300"/>
       <c r="N70" s="202">
         <f>511.2+827.63</f>
         <v>1338.83</v>
@@ -28170,11 +28386,11 @@
         <f>AVERAGE(N70:Y70)</f>
         <v>1186.155</v>
       </c>
-      <c r="AB70" s="263" t="s">
+      <c r="AB70" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="AC70" s="263"/>
-      <c r="AD70" s="299"/>
+      <c r="AC70" s="265"/>
+      <c r="AD70" s="301"/>
     </row>
     <row r="71" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J71" s="237"/>
@@ -28193,12 +28409,12 @@
       <c r="AD71" s="236"/>
     </row>
     <row r="72" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J72" s="300" t="s">
+      <c r="J72" s="302" t="s">
         <v>60</v>
       </c>
-      <c r="K72" s="300"/>
-      <c r="L72" s="300"/>
-      <c r="M72" s="300"/>
+      <c r="K72" s="302"/>
+      <c r="L72" s="302"/>
+      <c r="M72" s="302"/>
       <c r="Z72" s="118">
         <f>SUM(N72:Y72)</f>
         <v>0</v>
@@ -28207,19 +28423,19 @@
         <f>AVERAGE(N72:Y72)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB72" s="301" t="s">
+      <c r="AB72" s="303" t="s">
         <v>60</v>
       </c>
-      <c r="AC72" s="301"/>
-      <c r="AD72" s="301"/>
+      <c r="AC72" s="303"/>
+      <c r="AD72" s="303"/>
     </row>
     <row r="73" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J73" s="298" t="s">
+      <c r="J73" s="300" t="s">
         <v>443</v>
       </c>
-      <c r="K73" s="298"/>
-      <c r="L73" s="298"/>
-      <c r="M73" s="298"/>
+      <c r="K73" s="300"/>
+      <c r="L73" s="300"/>
+      <c r="M73" s="300"/>
       <c r="N73" s="202"/>
       <c r="O73">
         <f>58+58+12.5</f>
@@ -28232,12 +28448,12 @@
       <c r="AD73" s="187"/>
     </row>
     <row r="74" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J74" s="302" t="s">
+      <c r="J74" s="304" t="s">
         <v>539</v>
       </c>
-      <c r="K74" s="303"/>
-      <c r="L74" s="303"/>
-      <c r="M74" s="304"/>
+      <c r="K74" s="305"/>
+      <c r="L74" s="305"/>
+      <c r="M74" s="306"/>
       <c r="N74" s="202"/>
       <c r="Z74" s="118"/>
       <c r="AA74" s="20"/>
@@ -28246,12 +28462,12 @@
       <c r="AD74" s="187"/>
     </row>
     <row r="75" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J75" s="309" t="s">
+      <c r="J75" s="311" t="s">
         <v>540</v>
       </c>
-      <c r="K75" s="309"/>
-      <c r="L75" s="309"/>
-      <c r="M75" s="310"/>
+      <c r="K75" s="311"/>
+      <c r="L75" s="311"/>
+      <c r="M75" s="312"/>
       <c r="N75" s="202"/>
       <c r="Z75" s="118"/>
       <c r="AA75" s="20"/>
@@ -28260,12 +28476,12 @@
       <c r="AD75" s="187"/>
     </row>
     <row r="76" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J76" s="311" t="s">
+      <c r="J76" s="313" t="s">
         <v>298</v>
       </c>
-      <c r="K76" s="311"/>
-      <c r="L76" s="311"/>
-      <c r="M76" s="311"/>
+      <c r="K76" s="313"/>
+      <c r="L76" s="313"/>
+      <c r="M76" s="313"/>
       <c r="N76" s="202">
         <f>69+209</f>
         <v>278</v>
@@ -28282,11 +28498,11 @@
         <f>AVERAGE(N76:Y76)</f>
         <v>278</v>
       </c>
-      <c r="AB76" s="295" t="s">
+      <c r="AB76" s="297" t="s">
         <v>298</v>
       </c>
-      <c r="AC76" s="295"/>
-      <c r="AD76" s="295"/>
+      <c r="AC76" s="297"/>
+      <c r="AD76" s="297"/>
     </row>
     <row r="77" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J77" s="215"/>
@@ -28305,12 +28521,12 @@
       <c r="AD77" s="214"/>
     </row>
     <row r="78" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J78" s="285" t="s">
+      <c r="J78" s="287" t="s">
         <v>297</v>
       </c>
-      <c r="K78" s="285"/>
-      <c r="L78" s="285"/>
-      <c r="M78" s="285"/>
+      <c r="K78" s="287"/>
+      <c r="L78" s="287"/>
+      <c r="M78" s="287"/>
       <c r="N78" s="203"/>
       <c r="O78">
         <v>250</v>
@@ -28323,11 +28539,11 @@
         <f>AVERAGE(N78:Y78)</f>
         <v>250</v>
       </c>
-      <c r="AB78" s="256" t="s">
+      <c r="AB78" s="258" t="s">
         <v>297</v>
       </c>
-      <c r="AC78" s="256"/>
-      <c r="AD78" s="256"/>
+      <c r="AC78" s="258"/>
+      <c r="AD78" s="258"/>
     </row>
     <row r="79" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J79" s="208"/>
@@ -28391,12 +28607,12 @@
       <c r="AD79" s="207"/>
     </row>
     <row r="80" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J80" s="296" t="s">
+      <c r="J80" s="298" t="s">
         <v>300</v>
       </c>
-      <c r="K80" s="296"/>
-      <c r="L80" s="296"/>
-      <c r="M80" s="297"/>
+      <c r="K80" s="298"/>
+      <c r="L80" s="298"/>
+      <c r="M80" s="299"/>
       <c r="N80" s="115">
         <f>SUM(N5:N78)</f>
         <v>24594.769999999997</v>
@@ -28455,12 +28671,12 @@
       </c>
     </row>
     <row r="81" spans="8:27" ht="15.75" thickBot="1">
-      <c r="J81" s="305" t="s">
+      <c r="J81" s="307" t="s">
         <v>61</v>
       </c>
-      <c r="K81" s="305"/>
-      <c r="L81" s="305"/>
-      <c r="M81" s="306"/>
+      <c r="K81" s="307"/>
+      <c r="L81" s="307"/>
+      <c r="M81" s="308"/>
       <c r="N81" s="140">
         <f>N2-SUM(N4:N79)-N3</f>
         <v>-14526.629999999997</v>
@@ -28511,12 +28727,12 @@
       </c>
     </row>
     <row r="82" spans="8:27">
-      <c r="J82" s="307" t="s">
+      <c r="J82" s="309" t="s">
         <v>62</v>
       </c>
-      <c r="K82" s="307"/>
-      <c r="L82" s="307"/>
-      <c r="M82" s="307"/>
+      <c r="K82" s="309"/>
+      <c r="L82" s="309"/>
+      <c r="M82" s="309"/>
       <c r="N82" s="61">
         <f>N81</f>
         <v>-14526.629999999997</v>
@@ -28602,13 +28818,13 @@
       <c r="L85" s="47"/>
       <c r="M85" s="47"/>
       <c r="N85" s="16"/>
-      <c r="O85" s="314" t="s">
+      <c r="O85" s="316" t="s">
         <v>556</v>
       </c>
-      <c r="P85" s="253"/>
-      <c r="Q85" s="253"/>
-      <c r="R85" s="253"/>
-      <c r="S85" s="253"/>
+      <c r="P85" s="255"/>
+      <c r="Q85" s="255"/>
+      <c r="R85" s="255"/>
+      <c r="S85" s="255"/>
     </row>
     <row r="86" spans="8:27">
       <c r="H86" s="62">
@@ -28618,13 +28834,13 @@
       <c r="K86" s="47"/>
       <c r="L86" s="47"/>
       <c r="M86" s="47"/>
-      <c r="O86" s="314" t="s">
+      <c r="O86" s="316" t="s">
         <v>564</v>
       </c>
-      <c r="P86" s="253"/>
-      <c r="Q86" s="253"/>
-      <c r="R86" s="253"/>
-      <c r="S86" s="253"/>
+      <c r="P86" s="255"/>
+      <c r="Q86" s="255"/>
+      <c r="R86" s="255"/>
+      <c r="S86" s="255"/>
     </row>
     <row r="87" spans="8:27">
       <c r="J87" s="47"/>
@@ -29191,10 +29407,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="266" t="s">
+      <c r="A1" s="268" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="267"/>
+      <c r="B1" s="269"/>
       <c r="C1" s="138" t="s">
         <v>1</v>
       </c>
@@ -29204,12 +29420,12 @@
       <c r="G1" s="47"/>
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
-      <c r="J1" s="274" t="s">
+      <c r="J1" s="276" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="274"/>
-      <c r="L1" s="274"/>
-      <c r="M1" s="275"/>
+      <c r="K1" s="276"/>
+      <c r="L1" s="276"/>
+      <c r="M1" s="277"/>
       <c r="N1" s="50" t="s">
         <v>44</v>
       </c>
@@ -29274,12 +29490,12 @@
       </c>
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
-      <c r="J2" s="276" t="s">
+      <c r="J2" s="278" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="276"/>
-      <c r="L2" s="276"/>
-      <c r="M2" s="276"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="278"/>
+      <c r="M2" s="278"/>
       <c r="N2" s="47">
         <v>13553.12</v>
       </c>
@@ -29350,12 +29566,12 @@
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
-      <c r="J3" s="268" t="s">
+      <c r="J3" s="270" t="s">
         <v>504</v>
       </c>
-      <c r="K3" s="312"/>
-      <c r="L3" s="312"/>
-      <c r="M3" s="313"/>
+      <c r="K3" s="314"/>
+      <c r="L3" s="314"/>
+      <c r="M3" s="315"/>
       <c r="N3" s="56">
         <v>2808</v>
       </c>
@@ -29392,11 +29608,11 @@
         <f>AVERAGE(N3:Y3)</f>
         <v>3597.125</v>
       </c>
-      <c r="AB3" s="270" t="s">
+      <c r="AB3" s="272" t="s">
         <v>63</v>
       </c>
-      <c r="AC3" s="270"/>
-      <c r="AD3" s="271"/>
+      <c r="AC3" s="272"/>
+      <c r="AD3" s="273"/>
     </row>
     <row r="4" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="47"/>
@@ -29418,12 +29634,12 @@
       <c r="F4" s="191" t="s">
         <v>453</v>
       </c>
-      <c r="J4" s="281" t="s">
+      <c r="J4" s="283" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="281"/>
-      <c r="L4" s="281"/>
-      <c r="M4" s="281"/>
+      <c r="K4" s="283"/>
+      <c r="L4" s="283"/>
+      <c r="M4" s="283"/>
       <c r="N4">
         <v>0</v>
       </c>
@@ -29435,11 +29651,11 @@
         <f>AVERAGE(N4:Y4)</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="255" t="s">
+      <c r="AB4" s="257" t="s">
         <v>149</v>
       </c>
-      <c r="AC4" s="255"/>
-      <c r="AD4" s="255"/>
+      <c r="AC4" s="257"/>
+      <c r="AD4" s="257"/>
     </row>
     <row r="5" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="125" t="s">
@@ -29483,11 +29699,11 @@
       </c>
       <c r="Z5" s="118"/>
       <c r="AA5" s="20"/>
-      <c r="AB5" s="283" t="s">
+      <c r="AB5" s="285" t="s">
         <v>480</v>
       </c>
-      <c r="AC5" s="255"/>
-      <c r="AD5" s="255"/>
+      <c r="AC5" s="257"/>
+      <c r="AD5" s="257"/>
     </row>
     <row r="6" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="47"/>
@@ -29852,11 +30068,11 @@
       </c>
       <c r="Z16" s="118"/>
       <c r="AA16" s="20"/>
-      <c r="AB16" s="284" t="s">
+      <c r="AB16" s="286" t="s">
         <v>471</v>
       </c>
-      <c r="AC16" s="256"/>
-      <c r="AD16" s="256"/>
+      <c r="AC16" s="258"/>
+      <c r="AD16" s="258"/>
     </row>
     <row r="17" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="47"/>
@@ -29944,12 +30160,12 @@
       </c>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
-      <c r="J19" s="285" t="s">
+      <c r="J19" s="287" t="s">
         <v>498</v>
       </c>
-      <c r="K19" s="285"/>
-      <c r="L19" s="285"/>
-      <c r="M19" s="286"/>
+      <c r="K19" s="287"/>
+      <c r="L19" s="287"/>
+      <c r="M19" s="288"/>
       <c r="N19">
         <v>0</v>
       </c>
@@ -29964,11 +30180,11 @@
         <f>AVERAGE(N19:Y19)</f>
         <v>-104.7</v>
       </c>
-      <c r="AB19" s="256" t="s">
+      <c r="AB19" s="258" t="s">
         <v>276</v>
       </c>
-      <c r="AC19" s="256"/>
-      <c r="AD19" s="256"/>
+      <c r="AC19" s="258"/>
+      <c r="AD19" s="258"/>
     </row>
     <row r="20" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="47"/>
@@ -30033,12 +30249,12 @@
       </c>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
-      <c r="J21" s="285" t="s">
+      <c r="J21" s="287" t="s">
         <v>386</v>
       </c>
-      <c r="K21" s="285"/>
-      <c r="L21" s="285"/>
-      <c r="M21" s="285"/>
+      <c r="K21" s="287"/>
+      <c r="L21" s="287"/>
+      <c r="M21" s="287"/>
       <c r="N21" s="202">
         <v>0</v>
       </c>
@@ -30050,11 +30266,11 @@
         <f>AVERAGE(N21:Y21)</f>
         <v>0</v>
       </c>
-      <c r="AB21" s="257" t="s">
+      <c r="AB21" s="259" t="s">
         <v>65</v>
       </c>
-      <c r="AC21" s="257"/>
-      <c r="AD21" s="257"/>
+      <c r="AC21" s="259"/>
+      <c r="AD21" s="259"/>
     </row>
     <row r="22" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="47"/>
@@ -30122,12 +30338,12 @@
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="285" t="s">
+      <c r="J24" s="287" t="s">
         <v>500</v>
       </c>
-      <c r="K24" s="291"/>
-      <c r="L24" s="291"/>
-      <c r="M24" s="291"/>
+      <c r="K24" s="293"/>
+      <c r="L24" s="293"/>
+      <c r="M24" s="293"/>
       <c r="N24" s="202">
         <v>0</v>
       </c>
@@ -30166,12 +30382,12 @@
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
-      <c r="J25" s="276" t="s">
+      <c r="J25" s="278" t="s">
         <v>489</v>
       </c>
-      <c r="K25" s="276"/>
-      <c r="L25" s="276"/>
-      <c r="M25" s="286"/>
+      <c r="K25" s="278"/>
+      <c r="L25" s="278"/>
+      <c r="M25" s="288"/>
       <c r="N25" s="202">
         <f>-130-67</f>
         <v>-197</v>
@@ -30187,11 +30403,11 @@
         <f>AVERAGE(N25:Y25)</f>
         <v>-170.9</v>
       </c>
-      <c r="AB25" s="257" t="s">
+      <c r="AB25" s="259" t="s">
         <v>105</v>
       </c>
-      <c r="AC25" s="257"/>
-      <c r="AD25" s="289"/>
+      <c r="AC25" s="259"/>
+      <c r="AD25" s="291"/>
     </row>
     <row r="26" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="47"/>
@@ -30334,11 +30550,11 @@
       </c>
       <c r="Z30" s="118"/>
       <c r="AA30" s="20"/>
-      <c r="AB30" s="284" t="s">
+      <c r="AB30" s="286" t="s">
         <v>499</v>
       </c>
-      <c r="AC30" s="256"/>
-      <c r="AD30" s="288"/>
+      <c r="AC30" s="258"/>
+      <c r="AD30" s="290"/>
     </row>
     <row r="31" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="47"/>
@@ -30351,12 +30567,12 @@
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="47"/>
-      <c r="J31" s="285" t="s">
+      <c r="J31" s="287" t="s">
         <v>263</v>
       </c>
-      <c r="K31" s="285"/>
-      <c r="L31" s="285"/>
-      <c r="M31" s="285"/>
+      <c r="K31" s="287"/>
+      <c r="L31" s="287"/>
+      <c r="M31" s="287"/>
       <c r="N31" s="202">
         <v>0</v>
       </c>
@@ -30368,11 +30584,11 @@
         <f>AVERAGE(N31:Y31)</f>
         <v>0</v>
       </c>
-      <c r="AB31" s="256" t="s">
+      <c r="AB31" s="258" t="s">
         <v>291</v>
       </c>
-      <c r="AC31" s="256"/>
-      <c r="AD31" s="288"/>
+      <c r="AC31" s="258"/>
+      <c r="AD31" s="290"/>
     </row>
     <row r="32" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="47"/>
@@ -30526,12 +30742,12 @@
       <c r="F36" s="47"/>
       <c r="H36" s="47"/>
       <c r="I36" s="47"/>
-      <c r="J36" s="285" t="s">
+      <c r="J36" s="287" t="s">
         <v>475</v>
       </c>
-      <c r="K36" s="285"/>
-      <c r="L36" s="285"/>
-      <c r="M36" s="285"/>
+      <c r="K36" s="287"/>
+      <c r="L36" s="287"/>
+      <c r="M36" s="287"/>
       <c r="N36" s="202">
         <v>0</v>
       </c>
@@ -30550,11 +30766,11 @@
         <f t="shared" ref="AA36:AA47" si="1">AVERAGE(N36:Y36)</f>
         <v>-135.60666666666665</v>
       </c>
-      <c r="AB36" s="256" t="s">
+      <c r="AB36" s="258" t="s">
         <v>475</v>
       </c>
-      <c r="AC36" s="256"/>
-      <c r="AD36" s="288"/>
+      <c r="AC36" s="258"/>
+      <c r="AD36" s="290"/>
     </row>
     <row r="37" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A37" s="47"/>
@@ -30576,12 +30792,12 @@
       <c r="F37" s="47"/>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
-      <c r="J37" s="285" t="s">
+      <c r="J37" s="287" t="s">
         <v>476</v>
       </c>
-      <c r="K37" s="285"/>
-      <c r="L37" s="285"/>
-      <c r="M37" s="285"/>
+      <c r="K37" s="287"/>
+      <c r="L37" s="287"/>
+      <c r="M37" s="287"/>
       <c r="N37" s="202">
         <v>-264.11</v>
       </c>
@@ -30597,11 +30813,11 @@
         <f t="shared" si="1"/>
         <v>-384.68</v>
       </c>
-      <c r="AB37" s="256" t="s">
+      <c r="AB37" s="258" t="s">
         <v>477</v>
       </c>
-      <c r="AC37" s="256"/>
-      <c r="AD37" s="288"/>
+      <c r="AC37" s="258"/>
+      <c r="AD37" s="290"/>
     </row>
     <row r="38" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A38" s="47"/>
@@ -30658,12 +30874,12 @@
       <c r="F39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="47"/>
-      <c r="J39" s="256" t="s">
+      <c r="J39" s="258" t="s">
         <v>301</v>
       </c>
-      <c r="K39" s="256"/>
-      <c r="L39" s="256"/>
-      <c r="M39" s="256"/>
+      <c r="K39" s="258"/>
+      <c r="L39" s="258"/>
+      <c r="M39" s="258"/>
       <c r="N39" s="202">
         <f>-518.84-42.79</f>
         <v>-561.63</v>
@@ -30687,11 +30903,11 @@
         <f t="shared" si="1"/>
         <v>-2085.6900000000005</v>
       </c>
-      <c r="AB39" s="256" t="s">
+      <c r="AB39" s="258" t="s">
         <v>301</v>
       </c>
-      <c r="AC39" s="256"/>
-      <c r="AD39" s="288"/>
+      <c r="AC39" s="258"/>
+      <c r="AD39" s="290"/>
     </row>
     <row r="40" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A40" s="47"/>
@@ -30843,12 +31059,12 @@
       <c r="G44" s="47"/>
       <c r="H44" s="47"/>
       <c r="I44" s="47"/>
-      <c r="J44" s="291" t="s">
+      <c r="J44" s="293" t="s">
         <v>95</v>
       </c>
-      <c r="K44" s="291"/>
-      <c r="L44" s="291"/>
-      <c r="M44" s="291"/>
+      <c r="K44" s="293"/>
+      <c r="L44" s="293"/>
+      <c r="M44" s="293"/>
       <c r="N44" s="202">
         <v>0</v>
       </c>
@@ -30864,11 +31080,11 @@
         <f t="shared" si="1"/>
         <v>-750</v>
       </c>
-      <c r="AB44" s="257" t="s">
+      <c r="AB44" s="259" t="s">
         <v>95</v>
       </c>
-      <c r="AC44" s="257"/>
-      <c r="AD44" s="257"/>
+      <c r="AC44" s="259"/>
+      <c r="AD44" s="259"/>
     </row>
     <row r="45" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A45" s="47"/>
@@ -30880,12 +31096,12 @@
       <c r="G45" s="47"/>
       <c r="H45" s="47"/>
       <c r="I45" s="47"/>
-      <c r="J45" s="285" t="s">
+      <c r="J45" s="287" t="s">
         <v>67</v>
       </c>
-      <c r="K45" s="285"/>
-      <c r="L45" s="285"/>
-      <c r="M45" s="285"/>
+      <c r="K45" s="287"/>
+      <c r="L45" s="287"/>
+      <c r="M45" s="287"/>
       <c r="N45" s="202">
         <v>0</v>
       </c>
@@ -30897,11 +31113,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB45" s="257" t="s">
+      <c r="AB45" s="259" t="s">
         <v>67</v>
       </c>
-      <c r="AC45" s="257"/>
-      <c r="AD45" s="257"/>
+      <c r="AC45" s="259"/>
+      <c r="AD45" s="259"/>
     </row>
     <row r="46" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A46" s="47"/>
@@ -30913,12 +31129,12 @@
       <c r="G46" s="47"/>
       <c r="H46" s="47"/>
       <c r="I46" s="47"/>
-      <c r="J46" s="285" t="s">
+      <c r="J46" s="287" t="s">
         <v>299</v>
       </c>
-      <c r="K46" s="285"/>
-      <c r="L46" s="285"/>
-      <c r="M46" s="285"/>
+      <c r="K46" s="287"/>
+      <c r="L46" s="287"/>
+      <c r="M46" s="287"/>
       <c r="N46" s="202">
         <v>0</v>
       </c>
@@ -30937,11 +31153,11 @@
         <f t="shared" si="1"/>
         <v>-419</v>
       </c>
-      <c r="AB46" s="256" t="s">
+      <c r="AB46" s="258" t="s">
         <v>299</v>
       </c>
-      <c r="AC46" s="256"/>
-      <c r="AD46" s="256"/>
+      <c r="AC46" s="258"/>
+      <c r="AD46" s="258"/>
     </row>
     <row r="47" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A47" s="47"/>
@@ -31006,11 +31222,11 @@
       </c>
       <c r="Z48" s="118"/>
       <c r="AA48" s="20"/>
-      <c r="AB48" s="284" t="s">
+      <c r="AB48" s="286" t="s">
         <v>479</v>
       </c>
-      <c r="AC48" s="256"/>
-      <c r="AD48" s="256"/>
+      <c r="AC48" s="258"/>
+      <c r="AD48" s="258"/>
     </row>
     <row r="49" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A49" s="47"/>
@@ -31064,12 +31280,12 @@
       </c>
       <c r="H50" s="47"/>
       <c r="I50" s="47"/>
-      <c r="J50" s="285" t="s">
+      <c r="J50" s="287" t="s">
         <v>481</v>
       </c>
-      <c r="K50" s="285"/>
-      <c r="L50" s="285"/>
-      <c r="M50" s="285"/>
+      <c r="K50" s="287"/>
+      <c r="L50" s="287"/>
+      <c r="M50" s="287"/>
       <c r="N50" s="202">
         <v>0</v>
       </c>
@@ -31082,11 +31298,11 @@
         <f>AVERAGE(N50:Y50)</f>
         <v>0</v>
       </c>
-      <c r="AB50" s="256" t="s">
+      <c r="AB50" s="258" t="s">
         <v>264</v>
       </c>
-      <c r="AC50" s="256"/>
-      <c r="AD50" s="288"/>
+      <c r="AC50" s="258"/>
+      <c r="AD50" s="290"/>
     </row>
     <row r="51" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A51" t="s">
@@ -31109,12 +31325,12 @@
         <v>524</v>
       </c>
       <c r="I51" s="47"/>
-      <c r="J51" s="285" t="s">
+      <c r="J51" s="287" t="s">
         <v>387</v>
       </c>
-      <c r="K51" s="285"/>
-      <c r="L51" s="285"/>
-      <c r="M51" s="285"/>
+      <c r="K51" s="287"/>
+      <c r="L51" s="287"/>
+      <c r="M51" s="287"/>
       <c r="N51" s="202">
         <v>0</v>
       </c>
@@ -31132,11 +31348,11 @@
         <f>AVERAGE(N51:Y51)</f>
         <v>-160.93333333333331</v>
       </c>
-      <c r="AB51" s="257" t="s">
+      <c r="AB51" s="259" t="s">
         <v>58</v>
       </c>
-      <c r="AC51" s="257"/>
-      <c r="AD51" s="289"/>
+      <c r="AC51" s="259"/>
+      <c r="AD51" s="291"/>
     </row>
     <row r="52" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="B52" s="47"/>
@@ -31171,12 +31387,12 @@
         <v>1620</v>
       </c>
       <c r="I53" s="47"/>
-      <c r="J53" s="285" t="s">
+      <c r="J53" s="287" t="s">
         <v>469</v>
       </c>
-      <c r="K53" s="285"/>
-      <c r="L53" s="285"/>
-      <c r="M53" s="286"/>
+      <c r="K53" s="287"/>
+      <c r="L53" s="287"/>
+      <c r="M53" s="288"/>
       <c r="N53" s="202">
         <v>0</v>
       </c>
@@ -31213,12 +31429,12 @@
     </row>
     <row r="55" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I55" s="47"/>
-      <c r="J55" s="256" t="s">
+      <c r="J55" s="258" t="s">
         <v>246</v>
       </c>
-      <c r="K55" s="256"/>
-      <c r="L55" s="256"/>
-      <c r="M55" s="315"/>
+      <c r="K55" s="258"/>
+      <c r="L55" s="258"/>
+      <c r="M55" s="317"/>
       <c r="N55" s="202">
         <f>-69.9-115.9</f>
         <v>-185.8</v>
@@ -31242,11 +31458,11 @@
         <f>AVERAGE(N55:Y55)</f>
         <v>-671.38000000000011</v>
       </c>
-      <c r="AB55" s="293" t="s">
+      <c r="AB55" s="295" t="s">
         <v>246</v>
       </c>
-      <c r="AC55" s="293"/>
-      <c r="AD55" s="294"/>
+      <c r="AC55" s="295"/>
+      <c r="AD55" s="296"/>
     </row>
     <row r="56" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I56" s="47"/>
@@ -31287,12 +31503,12 @@
     </row>
     <row r="58" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I58" s="47"/>
-      <c r="J58" s="285" t="s">
+      <c r="J58" s="287" t="s">
         <v>268</v>
       </c>
-      <c r="K58" s="285"/>
-      <c r="L58" s="285"/>
-      <c r="M58" s="285"/>
+      <c r="K58" s="287"/>
+      <c r="L58" s="287"/>
+      <c r="M58" s="287"/>
       <c r="N58" s="202">
         <f>-565-565-565-200-565-100</f>
         <v>-2560</v>
@@ -31305,20 +31521,20 @@
         <f>AVERAGE(N58:Y58)</f>
         <v>-2560</v>
       </c>
-      <c r="AB58" s="293" t="s">
+      <c r="AB58" s="295" t="s">
         <v>268</v>
       </c>
-      <c r="AC58" s="293"/>
-      <c r="AD58" s="294"/>
+      <c r="AC58" s="295"/>
+      <c r="AD58" s="296"/>
     </row>
     <row r="59" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I59" s="47"/>
-      <c r="J59" s="298" t="s">
+      <c r="J59" s="300" t="s">
         <v>6</v>
       </c>
-      <c r="K59" s="298"/>
-      <c r="L59" s="298"/>
-      <c r="M59" s="298"/>
+      <c r="K59" s="300"/>
+      <c r="L59" s="300"/>
+      <c r="M59" s="300"/>
       <c r="N59" s="202">
         <f>-1003.15-786.06-996.31-981.2</f>
         <v>-3766.7200000000003</v>
@@ -31345,19 +31561,19 @@
         <f>AVERAGE(N59:Y59)</f>
         <v>-2024.58</v>
       </c>
-      <c r="AB59" s="263" t="s">
+      <c r="AB59" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="AC59" s="263"/>
-      <c r="AD59" s="299"/>
+      <c r="AC59" s="265"/>
+      <c r="AD59" s="301"/>
     </row>
     <row r="60" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J60" s="300" t="s">
+      <c r="J60" s="302" t="s">
         <v>60</v>
       </c>
-      <c r="K60" s="300"/>
-      <c r="L60" s="300"/>
-      <c r="M60" s="300"/>
+      <c r="K60" s="302"/>
+      <c r="L60" s="302"/>
+      <c r="M60" s="302"/>
       <c r="N60" s="202">
         <v>0</v>
       </c>
@@ -31373,19 +31589,19 @@
         <f>AVERAGE(N60:Y60)</f>
         <v>-972.82500000000005</v>
       </c>
-      <c r="AB60" s="301" t="s">
+      <c r="AB60" s="303" t="s">
         <v>60</v>
       </c>
-      <c r="AC60" s="301"/>
-      <c r="AD60" s="301"/>
+      <c r="AC60" s="303"/>
+      <c r="AD60" s="303"/>
     </row>
     <row r="61" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J61" s="298" t="s">
+      <c r="J61" s="300" t="s">
         <v>443</v>
       </c>
-      <c r="K61" s="298"/>
-      <c r="L61" s="298"/>
-      <c r="M61" s="298"/>
+      <c r="K61" s="300"/>
+      <c r="L61" s="300"/>
+      <c r="M61" s="300"/>
       <c r="N61" s="202">
         <v>0</v>
       </c>
@@ -31396,12 +31612,12 @@
       <c r="AD61" s="187"/>
     </row>
     <row r="62" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J62" s="302" t="s">
+      <c r="J62" s="304" t="s">
         <v>539</v>
       </c>
-      <c r="K62" s="303"/>
-      <c r="L62" s="303"/>
-      <c r="M62" s="304"/>
+      <c r="K62" s="305"/>
+      <c r="L62" s="305"/>
+      <c r="M62" s="306"/>
       <c r="N62" s="202"/>
       <c r="Y62">
         <f>27.48+274.8</f>
@@ -31414,12 +31630,12 @@
       <c r="AD62" s="187"/>
     </row>
     <row r="63" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J63" s="309" t="s">
+      <c r="J63" s="311" t="s">
         <v>540</v>
       </c>
-      <c r="K63" s="309"/>
-      <c r="L63" s="309"/>
-      <c r="M63" s="310"/>
+      <c r="K63" s="311"/>
+      <c r="L63" s="311"/>
+      <c r="M63" s="312"/>
       <c r="N63" s="202"/>
       <c r="V63">
         <f>-26-5-102.44-15.36</f>
@@ -31436,12 +31652,12 @@
       <c r="AD63" s="187"/>
     </row>
     <row r="64" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J64" s="311" t="s">
+      <c r="J64" s="313" t="s">
         <v>298</v>
       </c>
-      <c r="K64" s="311"/>
-      <c r="L64" s="311"/>
-      <c r="M64" s="311"/>
+      <c r="K64" s="313"/>
+      <c r="L64" s="313"/>
+      <c r="M64" s="313"/>
       <c r="N64" s="202">
         <v>132</v>
       </c>
@@ -31453,11 +31669,11 @@
         <f>AVERAGE(N64:Y64)</f>
         <v>132</v>
       </c>
-      <c r="AB64" s="295" t="s">
+      <c r="AB64" s="297" t="s">
         <v>298</v>
       </c>
-      <c r="AC64" s="295"/>
-      <c r="AD64" s="295"/>
+      <c r="AC64" s="297"/>
+      <c r="AD64" s="297"/>
     </row>
     <row r="65" spans="10:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J65" s="215"/>
@@ -31476,12 +31692,12 @@
       <c r="AD65" s="214"/>
     </row>
     <row r="66" spans="10:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J66" s="285" t="s">
+      <c r="J66" s="287" t="s">
         <v>297</v>
       </c>
-      <c r="K66" s="285"/>
-      <c r="L66" s="285"/>
-      <c r="M66" s="285"/>
+      <c r="K66" s="287"/>
+      <c r="L66" s="287"/>
+      <c r="M66" s="287"/>
       <c r="N66" s="203">
         <v>0</v>
       </c>
@@ -31493,19 +31709,19 @@
         <f>AVERAGE(N66:Y66)</f>
         <v>0</v>
       </c>
-      <c r="AB66" s="256" t="s">
+      <c r="AB66" s="258" t="s">
         <v>297</v>
       </c>
-      <c r="AC66" s="256"/>
-      <c r="AD66" s="256"/>
+      <c r="AC66" s="258"/>
+      <c r="AD66" s="258"/>
     </row>
     <row r="67" spans="10:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J67" s="296" t="s">
+      <c r="J67" s="298" t="s">
         <v>300</v>
       </c>
-      <c r="K67" s="296"/>
-      <c r="L67" s="296"/>
-      <c r="M67" s="297"/>
+      <c r="K67" s="298"/>
+      <c r="L67" s="298"/>
+      <c r="M67" s="299"/>
       <c r="N67" s="115">
         <f>SUM(N5:N66)</f>
         <v>-18236.870000000003</v>
@@ -31564,12 +31780,12 @@
       </c>
     </row>
     <row r="68" spans="10:30" ht="15.75" thickBot="1">
-      <c r="J68" s="305" t="s">
+      <c r="J68" s="307" t="s">
         <v>61</v>
       </c>
-      <c r="K68" s="305"/>
-      <c r="L68" s="305"/>
-      <c r="M68" s="306"/>
+      <c r="K68" s="307"/>
+      <c r="L68" s="307"/>
+      <c r="M68" s="308"/>
       <c r="N68" s="140">
         <f>N2+SUM(N4:N66)-N3</f>
         <v>-7491.7500000000018</v>
@@ -31620,12 +31836,12 @@
       </c>
     </row>
     <row r="69" spans="10:30">
-      <c r="J69" s="307" t="s">
+      <c r="J69" s="309" t="s">
         <v>62</v>
       </c>
-      <c r="K69" s="307"/>
-      <c r="L69" s="307"/>
-      <c r="M69" s="307"/>
+      <c r="K69" s="309"/>
+      <c r="L69" s="309"/>
+      <c r="M69" s="309"/>
       <c r="N69" s="61">
         <f>N68</f>
         <v>-7491.7500000000018</v>
@@ -31968,8 +32184,8 @@
       <c r="N85" s="47"/>
       <c r="O85" s="47"/>
       <c r="P85" s="47"/>
-      <c r="Q85" s="308"/>
-      <c r="R85" s="308"/>
+      <c r="Q85" s="310"/>
+      <c r="R85" s="310"/>
       <c r="V85" s="47"/>
       <c r="W85" s="47"/>
       <c r="X85" s="47"/>

--- a/finansiele berekeninge 2015.xlsx
+++ b/finansiele berekeninge 2015.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shizuka\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repo\Umbopo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C1660C-C716-4942-90B4-F4FEAB8BE941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C173EF-BE9E-45BE-BF27-C43F1A1D10A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4680" windowWidth="29040" windowHeight="15840" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SALARIS" sheetId="22" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="673">
   <si>
     <t>Maandlikse salaris</t>
   </si>
@@ -2030,10 +2030,40 @@
     <t>Moet 6k hou vir kar regmaak (koppelaar)</t>
   </si>
   <si>
-    <t>9k</t>
-  </si>
-  <si>
     <t>Bêre vir die volgende lendevrug</t>
+  </si>
+  <si>
+    <t>19k</t>
+  </si>
+  <si>
+    <t>Nuwe Creepy en Swembad 3k</t>
+  </si>
+  <si>
+    <t>Ore en brill vir skiet, met ore kassies 2k</t>
+  </si>
+  <si>
+    <t>SHARE Purchase</t>
+  </si>
+  <si>
+    <t> BUY 25 ETF5IT @ 21.00 - ORDER# 5</t>
+  </si>
+  <si>
+    <t>GLN CAPITAL D - DIVIDEND PAYOUT</t>
+  </si>
+  <si>
+    <t>Money transfer (Was 10, maar 5 terug omdat nie Krugerrand kan koop met SHARES ZERO NIE</t>
+  </si>
+  <si>
+    <t>BUY 10 GLN @ 106.17 - ORDER# 7</t>
+  </si>
+  <si>
+    <t>BUY 40 OMU @ 12.29 - ORDER# 8</t>
+  </si>
+  <si>
+    <t>BEGIN OP 3 Mei 2023</t>
+  </si>
+  <si>
+    <t>MOES TEGNIES AL BEGIN HET TOE SY GEBORE WAS</t>
   </si>
 </sst>
 </file>
@@ -3396,7 +3426,7 @@
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="359">
+  <cellXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="3" applyBorder="1"/>
@@ -4114,6 +4144,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="20% - Accent2" xfId="19" builtinId="34"/>
@@ -4350,7 +4383,7 @@
                   <c:v>48929.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>48929.4</c:v>
+                  <c:v>52354.458000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>54500</c:v>
@@ -5518,10 +5551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D37CFB-3750-4140-B070-A288E4BD3B86}">
-  <dimension ref="B2:Z53"/>
+  <dimension ref="B2:AA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5529,7 +5562,7 @@
     <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" customWidth="1"/>
     <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -5570,7 +5603,7 @@
         <v>649</v>
       </c>
       <c r="Q4" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="R4" t="s">
         <v>650</v>
@@ -5596,7 +5629,7 @@
         <v>59</v>
       </c>
       <c r="T5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="2:26">
@@ -5689,6 +5722,9 @@
       <c r="C13">
         <v>36617.354169999999</v>
       </c>
+      <c r="R13" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="14" spans="2:26">
       <c r="B14">
@@ -5697,6 +5733,9 @@
       <c r="C14">
         <v>42465.77</v>
       </c>
+      <c r="R14" t="s">
+        <v>664</v>
+      </c>
       <c r="W14" t="s">
         <v>32</v>
       </c>
@@ -5738,7 +5777,7 @@
         <v>45893.11</v>
       </c>
     </row>
-    <row r="17" spans="2:26">
+    <row r="17" spans="2:27">
       <c r="B17">
         <v>2022</v>
       </c>
@@ -5746,15 +5785,20 @@
         <v>48929.4</v>
       </c>
     </row>
-    <row r="18" spans="2:26">
+    <row r="18" spans="2:27">
       <c r="B18">
         <v>2023</v>
       </c>
       <c r="C18">
-        <v>48929.4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26">
+        <f>48929.4*1.07</f>
+        <v>52354.458000000006</v>
+      </c>
+      <c r="D18">
+        <f>C18-C17</f>
+        <v>3425.0580000000045</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27">
       <c r="B19">
         <v>2024</v>
       </c>
@@ -5762,7 +5806,7 @@
         <v>54500</v>
       </c>
     </row>
-    <row r="20" spans="2:26">
+    <row r="20" spans="2:27">
       <c r="B20">
         <v>2025</v>
       </c>
@@ -5770,7 +5814,7 @@
         <v>58500</v>
       </c>
     </row>
-    <row r="21" spans="2:26">
+    <row r="21" spans="2:27">
       <c r="B21">
         <v>2026</v>
       </c>
@@ -5778,7 +5822,7 @@
         <v>63000</v>
       </c>
     </row>
-    <row r="22" spans="2:26">
+    <row r="22" spans="2:27">
       <c r="B22">
         <v>2027</v>
       </c>
@@ -5788,11 +5832,16 @@
       <c r="W22" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-    </row>
-    <row r="23" spans="2:26">
+      <c r="X22" s="351" t="s">
+        <v>671</v>
+      </c>
+      <c r="Y22" s="351"/>
+      <c r="Z22" s="351"/>
+      <c r="AA22" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27">
       <c r="B23">
         <v>2028</v>
       </c>
@@ -5812,7 +5861,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="24" spans="2:26" ht="23.25">
+    <row r="24" spans="2:27" ht="23.25">
       <c r="B24" s="251" t="s">
         <v>602</v>
       </c>
@@ -5835,14 +5884,14 @@
         <v>100</v>
       </c>
       <c r="Y24">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="Z24">
         <f>Y24+(X24*12)</f>
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="25" spans="2:26">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27">
       <c r="C25" s="180" t="s">
         <v>600</v>
       </c>
@@ -5852,9 +5901,9 @@
       <c r="E25" s="180" t="s">
         <v>603</v>
       </c>
-      <c r="M25" s="180">
-        <f>48929.4</f>
-        <v>48929.4</v>
+      <c r="M25">
+        <f>48929.4*1.07</f>
+        <v>52354.458000000006</v>
       </c>
       <c r="N25" s="180" t="s">
         <v>236</v>
@@ -5866,17 +5915,17 @@
         <v>2</v>
       </c>
       <c r="X25">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Y25">
         <v>1000</v>
       </c>
       <c r="Z25">
         <f t="shared" ref="Z25:Z30" si="0">Z24+Y25++(X25*12)</f>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27">
       <c r="D26" t="s">
         <v>596</v>
       </c>
@@ -5888,7 +5937,7 @@
       </c>
       <c r="M26">
         <f>M25*0.3</f>
-        <v>14678.82</v>
+        <v>15706.3374</v>
       </c>
       <c r="N26" t="s">
         <v>607</v>
@@ -5898,23 +5947,23 @@
       </c>
       <c r="T26">
         <f>S26/M25*100</f>
-        <v>40.33625999910074</v>
+        <v>37.697439251496021</v>
       </c>
       <c r="W26">
         <v>3</v>
       </c>
       <c r="X26">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Y26">
         <v>1000</v>
       </c>
       <c r="Z26">
         <f t="shared" si="0"/>
-        <v>9400</v>
-      </c>
-    </row>
-    <row r="27" spans="2:26">
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27">
       <c r="B27" s="242">
         <v>44835</v>
       </c>
@@ -5934,7 +5983,7 @@
       </c>
       <c r="M27">
         <f>M25*0.15</f>
-        <v>7339.41</v>
+        <v>7853.1687000000002</v>
       </c>
       <c r="N27" t="s">
         <v>608</v>
@@ -5944,23 +5993,23 @@
       </c>
       <c r="T27">
         <f>S27/M25*100</f>
-        <v>12.262566064574672</v>
+        <v>11.460342116424926</v>
       </c>
       <c r="W27">
         <v>4</v>
       </c>
       <c r="X27">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Y27">
         <v>1000</v>
       </c>
       <c r="Z27">
         <f t="shared" si="0"/>
-        <v>13400</v>
-      </c>
-    </row>
-    <row r="28" spans="2:26">
+        <v>21800</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27">
       <c r="B28" s="242">
         <v>44866</v>
       </c>
@@ -5980,7 +6029,7 @@
       </c>
       <c r="M28">
         <f>M25*0.15</f>
-        <v>7339.41</v>
+        <v>7853.1687000000002</v>
       </c>
       <c r="N28" t="s">
         <v>609</v>
@@ -5991,23 +6040,23 @@
       </c>
       <c r="T28">
         <f>S28/M25*100</f>
-        <v>7.0414311232101765</v>
+        <v>6.5807767506637154</v>
       </c>
       <c r="W28">
         <v>5</v>
       </c>
       <c r="X28">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Y28">
         <v>1000</v>
       </c>
       <c r="Z28">
         <f t="shared" si="0"/>
-        <v>17400</v>
-      </c>
-    </row>
-    <row r="29" spans="2:26">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27">
       <c r="B29" s="242">
         <v>44896</v>
       </c>
@@ -6030,7 +6079,7 @@
       </c>
       <c r="M29">
         <f>M25*0.2</f>
-        <v>9785.880000000001</v>
+        <v>10470.891600000003</v>
       </c>
       <c r="N29" t="s">
         <v>610</v>
@@ -6041,23 +6090,23 @@
       </c>
       <c r="T29">
         <f>S29/M25*100</f>
-        <v>6.6903742943915105</v>
+        <v>6.2526862564406631</v>
       </c>
       <c r="W29">
         <v>6</v>
       </c>
       <c r="X29">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Y29">
         <v>1000</v>
       </c>
       <c r="Z29">
         <f t="shared" si="0"/>
-        <v>21400</v>
-      </c>
-    </row>
-    <row r="30" spans="2:26">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27">
       <c r="B30" s="242">
         <v>44927</v>
       </c>
@@ -6077,7 +6126,7 @@
       </c>
       <c r="M30">
         <f>M25*0.1</f>
-        <v>4892.9400000000005</v>
+        <v>5235.4458000000013</v>
       </c>
       <c r="N30" t="s">
         <v>611</v>
@@ -6087,23 +6136,23 @@
       </c>
       <c r="T30">
         <f>S30/M25*100</f>
-        <v>5.3137786279823578</v>
+        <v>4.9661482504508019</v>
       </c>
       <c r="W30">
         <v>7</v>
       </c>
       <c r="X30">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Y30">
         <v>1000</v>
       </c>
       <c r="Z30">
         <f t="shared" si="0"/>
-        <v>25400</v>
-      </c>
-    </row>
-    <row r="31" spans="2:26">
+        <v>37400</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27">
       <c r="B31" s="242">
         <v>44958</v>
       </c>
@@ -6123,7 +6172,7 @@
       </c>
       <c r="M31">
         <f>M25*0.05</f>
-        <v>2446.4700000000003</v>
+        <v>2617.7229000000007</v>
       </c>
       <c r="N31" t="s">
         <v>612</v>
@@ -6134,23 +6183,23 @@
       </c>
       <c r="T31">
         <f>S31/M25*100</f>
-        <v>10.451385056836994</v>
+        <v>9.7676495858289645</v>
       </c>
       <c r="W31">
         <v>8</v>
       </c>
       <c r="X31">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Y31">
         <v>1000</v>
       </c>
       <c r="Z31">
         <f t="shared" ref="Z31:Z32" si="3">Z30+Y31++(X31*12)</f>
-        <v>29400</v>
-      </c>
-    </row>
-    <row r="32" spans="2:26">
+        <v>42600</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27">
       <c r="B32" s="242">
         <v>44986</v>
       </c>
@@ -6173,7 +6222,7 @@
       </c>
       <c r="M32">
         <f>M25*0.05</f>
-        <v>2446.4700000000003</v>
+        <v>2617.7229000000007</v>
       </c>
       <c r="N32" t="s">
         <v>614</v>
@@ -6184,20 +6233,20 @@
       </c>
       <c r="T32">
         <f>S32/M25*100</f>
-        <v>2.7590773645293014</v>
+        <v>2.5785769761956083</v>
       </c>
       <c r="W32">
         <v>9</v>
       </c>
       <c r="X32">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Y32">
         <v>1000</v>
       </c>
       <c r="Z32">
         <f t="shared" si="3"/>
-        <v>33400</v>
+        <v>47800</v>
       </c>
     </row>
     <row r="33" spans="2:26">
@@ -6209,20 +6258,26 @@
       </c>
       <c r="T33">
         <f>M25-SUM(S26:S32)</f>
-        <v>7410.419999999991</v>
+        <v>10835.477999999996</v>
       </c>
       <c r="W33">
         <v>10</v>
       </c>
       <c r="X33">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="Y33">
         <v>1000</v>
       </c>
       <c r="Z33">
         <f t="shared" ref="Z33" si="4">Z32+Y33++(X33*12)</f>
-        <v>37400</v>
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26">
+      <c r="F35">
+        <f>48929.4*1.07</f>
+        <v>52354.458000000006</v>
       </c>
     </row>
     <row r="37" spans="2:26">
@@ -6260,7 +6315,7 @@
     <row r="43" spans="2:26">
       <c r="D43">
         <f>SUM(C46:C1048576)</f>
-        <v>3000</v>
+        <v>8581.09</v>
       </c>
       <c r="G43">
         <f>2976.76+121.59</f>
@@ -6271,6 +6326,10 @@
       <c r="B44" t="s">
         <v>638</v>
       </c>
+      <c r="D44">
+        <f>SUM(C46:C1000)</f>
+        <v>8581.09</v>
+      </c>
     </row>
     <row r="45" spans="2:26">
       <c r="C45" t="s">
@@ -6360,10 +6419,80 @@
         <v>500</v>
       </c>
     </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="250">
+        <v>45113</v>
+      </c>
+      <c r="D54" s="44" t="s">
+        <v>665</v>
+      </c>
+      <c r="E54">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="250">
+        <v>45113</v>
+      </c>
+      <c r="C55">
+        <v>525</v>
+      </c>
+      <c r="D55" s="44" t="s">
+        <v>666</v>
+      </c>
+      <c r="E55">
+        <v>534.66</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="250">
+        <v>45191</v>
+      </c>
+      <c r="C56">
+        <v>56.09</v>
+      </c>
+      <c r="D56" s="44" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="39">
+      <c r="B57" s="250">
+        <v>45215</v>
+      </c>
+      <c r="C57">
+        <v>5000</v>
+      </c>
+      <c r="D57" s="359" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="250">
+        <v>45215</v>
+      </c>
+      <c r="D58" s="44" t="s">
+        <v>669</v>
+      </c>
+      <c r="E58">
+        <v>1075.56</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="250">
+        <v>45215</v>
+      </c>
+      <c r="D59" s="44" t="s">
+        <v>670</v>
+      </c>
+      <c r="E59">
+        <v>502.39</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="M24:O24"/>
+    <mergeCell ref="X22:Z22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -19508,7 +19637,7 @@
   <dimension ref="A1:AF111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19598,7 +19727,7 @@
     </row>
     <row r="2" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A2" s="281">
-        <v>48929.4</v>
+        <v>52354.46</v>
       </c>
       <c r="B2" s="282"/>
       <c r="C2" s="191"/>
@@ -19670,7 +19799,9 @@
     </row>
     <row r="3" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="26"/>
-      <c r="B3" s="47"/>
+      <c r="B3" s="47">
+        <v>52354.46</v>
+      </c>
       <c r="C3" s="191"/>
       <c r="D3" s="191">
         <v>2891.88</v>
@@ -19729,7 +19860,7 @@
       </c>
       <c r="I4" s="47">
         <f>A2*0.3</f>
-        <v>14678.82</v>
+        <v>15706.338</v>
       </c>
       <c r="K4" s="270" t="s">
         <v>504</v>
@@ -20770,15 +20901,15 @@
       </c>
       <c r="C37" s="154">
         <f>A2-C36</f>
-        <v>5099.7000000000044</v>
+        <v>8524.760000000002</v>
       </c>
       <c r="D37" s="154">
         <f>A2-D36</f>
-        <v>1195.0499999999956</v>
+        <v>4620.1099999999933</v>
       </c>
       <c r="E37" s="144">
         <f>A2-E36+E29</f>
-        <v>3700.3600000000006</v>
+        <v>7125.4199999999983</v>
       </c>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>

--- a/finansiele berekeninge 2015.xlsx
+++ b/finansiele berekeninge 2015.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repo\Umbopo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C173EF-BE9E-45BE-BF27-C43F1A1D10A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C376D66B-DE41-4613-AFBD-F2B4EAC17669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="678">
   <si>
     <t>Maandlikse salaris</t>
   </si>
@@ -1922,9 +1922,6 @@
     <t>Maandlikse salaris (Inkomste)</t>
   </si>
   <si>
-    <t>ELYSSA - KOS</t>
-  </si>
-  <si>
     <t>Kos OORBETAAL - EERDER DIREK AAN ELYSSA</t>
   </si>
   <si>
@@ -2012,9 +2009,6 @@
     <t>NODIGE UITGAWES</t>
   </si>
   <si>
-    <t>Nuwe slot vir garage</t>
-  </si>
-  <si>
     <t>Nog sekuritetis beam</t>
   </si>
   <si>
@@ -2036,9 +2030,6 @@
     <t>19k</t>
   </si>
   <si>
-    <t>Nuwe Creepy en Swembad 3k</t>
-  </si>
-  <si>
     <t>Ore en brill vir skiet, met ore kassies 2k</t>
   </si>
   <si>
@@ -2051,9 +2042,6 @@
     <t>GLN CAPITAL D - DIVIDEND PAYOUT</t>
   </si>
   <si>
-    <t>Money transfer (Was 10, maar 5 terug omdat nie Krugerrand kan koop met SHARES ZERO NIE</t>
-  </si>
-  <si>
     <t>BUY 10 GLN @ 106.17 - ORDER# 7</t>
   </si>
   <si>
@@ -2064,6 +2052,33 @@
   </si>
   <si>
     <t>MOES TEGNIES AL BEGIN HET TOE SY GEBORE WAS</t>
+  </si>
+  <si>
+    <t>Money transfer (Was 10k, maar 5k terug omdat nie Krugerrand kan koop met SHARES ZERO</t>
+  </si>
+  <si>
+    <t>Omu Cash Div @ZAR0,32 p/s</t>
+  </si>
+  <si>
+    <t>MTN Selfone (data en lugtyd)</t>
+  </si>
+  <si>
+    <t>ELYSSA - KOS en R2000 se speelgeld</t>
+  </si>
+  <si>
+    <t>SAV1: 1250 SAV2: 750 INV: 500 texfree: 300</t>
+  </si>
+  <si>
+    <t>Whyness</t>
+  </si>
+  <si>
+    <t>Nuwe slot vir garage sydeur</t>
+  </si>
+  <si>
+    <t>Nuwe Creepy en Swembad 1k</t>
+  </si>
+  <si>
+    <t>Palms trim 2k</t>
   </si>
 </sst>
 </file>
@@ -3426,7 +3441,7 @@
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="360">
+  <cellXfs count="362">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="3" applyBorder="1"/>
@@ -3822,22 +3837,28 @@
     <xf numFmtId="4" fontId="51" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="52" fillId="22" borderId="0" xfId="13" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="52" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
@@ -3849,10 +3870,10 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
@@ -3864,104 +3885,45 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="53" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="52" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="62" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3990,24 +3952,83 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="62" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4019,6 +4040,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="57" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="58" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="59" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="46" xfId="7" applyBorder="1" applyAlignment="1">
@@ -4036,55 +4069,10 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="57" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="58" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="59" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="32" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4105,7 +4093,37 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="32" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4120,10 +4138,16 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4138,15 +4162,8 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="20% - Accent2" xfId="19" builtinId="34"/>
@@ -4383,22 +4400,22 @@
                   <c:v>48929.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>52354.458000000006</c:v>
+                  <c:v>52201.22</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>54500</c:v>
+                  <c:v>55855.31</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>58500</c:v>
+                  <c:v>59765.18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>63000</c:v>
+                  <c:v>63948.74</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>66500</c:v>
+                  <c:v>68425.149999999994</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>70000</c:v>
+                  <c:v>73214.91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5551,10 +5568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D37CFB-3750-4140-B070-A288E4BD3B86}">
-  <dimension ref="B2:AA59"/>
+  <dimension ref="B2:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5589,7 +5606,7 @@
         <v>5000</v>
       </c>
       <c r="P3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4" spans="2:26">
@@ -5600,19 +5617,19 @@
         <v>11800</v>
       </c>
       <c r="P4" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>660</v>
+      </c>
+      <c r="R4" t="s">
         <v>649</v>
       </c>
-      <c r="Q4" t="s">
-        <v>662</v>
-      </c>
-      <c r="R4" t="s">
-        <v>650</v>
-      </c>
       <c r="T4" t="s">
+        <v>652</v>
+      </c>
+      <c r="U4" t="s">
         <v>651</v>
-      </c>
-      <c r="U4" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="5" spans="2:26">
@@ -5623,13 +5640,13 @@
         <v>12500</v>
       </c>
       <c r="Q5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R5" t="s">
         <v>59</v>
       </c>
       <c r="T5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="6" spans="2:26">
@@ -5640,10 +5657,10 @@
         <v>15000</v>
       </c>
       <c r="Q6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="R6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="7" spans="2:26">
@@ -5654,10 +5671,10 @@
         <v>18000</v>
       </c>
       <c r="Q7" t="s">
+        <v>652</v>
+      </c>
+      <c r="R7" t="s">
         <v>653</v>
-      </c>
-      <c r="R7" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="8" spans="2:26">
@@ -5668,7 +5685,7 @@
         <v>19000</v>
       </c>
       <c r="R8" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="9" spans="2:26">
@@ -5679,7 +5696,7 @@
         <v>21000</v>
       </c>
       <c r="R9" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="10" spans="2:26">
@@ -5690,7 +5707,7 @@
         <v>22802.21</v>
       </c>
       <c r="R10" t="s">
-        <v>655</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="2:26">
@@ -5701,7 +5718,7 @@
         <v>24571.22</v>
       </c>
       <c r="R11" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="12" spans="2:26">
@@ -5712,7 +5729,7 @@
         <v>31519.33</v>
       </c>
       <c r="R12" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="13" spans="2:26">
@@ -5723,7 +5740,7 @@
         <v>36617.354169999999</v>
       </c>
       <c r="R13" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
     </row>
     <row r="14" spans="2:26">
@@ -5734,13 +5751,13 @@
         <v>42465.77</v>
       </c>
       <c r="R14" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="W14" t="s">
         <v>32</v>
       </c>
       <c r="X14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="Y14" t="s">
         <v>34</v>
@@ -5756,6 +5773,9 @@
       <c r="C15">
         <v>43178.75</v>
       </c>
+      <c r="R15" t="s">
+        <v>677</v>
+      </c>
       <c r="W15">
         <v>1400</v>
       </c>
@@ -5789,13 +5809,8 @@
       <c r="B18">
         <v>2023</v>
       </c>
-      <c r="C18">
-        <f>48929.4*1.07</f>
-        <v>52354.458000000006</v>
-      </c>
-      <c r="D18">
-        <f>C18-C17</f>
-        <v>3425.0580000000045</v>
+      <c r="C18" s="24">
+        <v>52201.22</v>
       </c>
     </row>
     <row r="19" spans="2:27">
@@ -5803,7 +5818,7 @@
         <v>2024</v>
       </c>
       <c r="C19" s="42">
-        <v>54500</v>
+        <v>55855.31</v>
       </c>
     </row>
     <row r="20" spans="2:27">
@@ -5811,7 +5826,7 @@
         <v>2025</v>
       </c>
       <c r="C20" s="42">
-        <v>58500</v>
+        <v>59765.18</v>
       </c>
     </row>
     <row r="21" spans="2:27">
@@ -5819,7 +5834,7 @@
         <v>2026</v>
       </c>
       <c r="C21" s="42">
-        <v>63000</v>
+        <v>63948.74</v>
       </c>
     </row>
     <row r="22" spans="2:27">
@@ -5827,18 +5842,18 @@
         <v>2027</v>
       </c>
       <c r="C22" s="42">
-        <v>66500</v>
+        <v>68425.149999999994</v>
       </c>
       <c r="W22" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="X22" s="351" t="s">
-        <v>671</v>
-      </c>
-      <c r="Y22" s="351"/>
-      <c r="Z22" s="351"/>
+      <c r="X22" s="254" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y22" s="254"/>
+      <c r="Z22" s="254"/>
       <c r="AA22" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="23" spans="2:27">
@@ -5846,7 +5861,7 @@
         <v>2028</v>
       </c>
       <c r="C23" s="42">
-        <v>70000</v>
+        <v>73214.91</v>
       </c>
       <c r="W23" t="s">
         <v>410</v>
@@ -5862,33 +5877,33 @@
       </c>
     </row>
     <row r="24" spans="2:27" ht="23.25">
-      <c r="B24" s="251" t="s">
+      <c r="B24" s="252" t="s">
         <v>602</v>
       </c>
-      <c r="C24" s="251"/>
-      <c r="D24" s="251"/>
-      <c r="E24" s="251"/>
-      <c r="F24" s="251"/>
-      <c r="M24" s="252" t="s">
+      <c r="C24" s="252"/>
+      <c r="D24" s="252"/>
+      <c r="E24" s="252"/>
+      <c r="F24" s="252"/>
+      <c r="M24" s="253" t="s">
         <v>606</v>
       </c>
-      <c r="N24" s="252"/>
-      <c r="O24" s="252"/>
+      <c r="N24" s="253"/>
+      <c r="O24" s="253"/>
       <c r="S24" s="243" t="s">
         <v>613</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Y24">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="Z24">
         <f>Y24+(X24*12)</f>
-        <v>6200</v>
+        <v>800</v>
       </c>
     </row>
     <row r="25" spans="2:27">
@@ -5902,8 +5917,7 @@
         <v>603</v>
       </c>
       <c r="M25">
-        <f>48929.4*1.07</f>
-        <v>52354.458000000006</v>
+        <v>52201.22</v>
       </c>
       <c r="N25" s="180" t="s">
         <v>236</v>
@@ -5912,17 +5926,17 @@
         <v>615</v>
       </c>
       <c r="W25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X25">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="Y25">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="Z25">
-        <f t="shared" ref="Z25:Z30" si="0">Z24+Y25++(X25*12)</f>
-        <v>11400</v>
+        <f>Y25+(X25*12)</f>
+        <v>6200</v>
       </c>
     </row>
     <row r="26" spans="2:27">
@@ -5937,20 +5951,20 @@
       </c>
       <c r="M26">
         <f>M25*0.3</f>
-        <v>15706.3374</v>
+        <v>15660.366</v>
       </c>
       <c r="N26" t="s">
         <v>607</v>
       </c>
       <c r="S26">
-        <v>19736.29</v>
+        <v>20332.669999999998</v>
       </c>
       <c r="T26">
         <f>S26/M25*100</f>
-        <v>37.697439251496021</v>
+        <v>38.950564756915639</v>
       </c>
       <c r="W26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X26">
         <v>350</v>
@@ -5959,8 +5973,8 @@
         <v>1000</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="0"/>
-        <v>16600</v>
+        <f t="shared" ref="Z26:Z31" si="0">Z25+Y26++(X26*12)</f>
+        <v>11400</v>
       </c>
     </row>
     <row r="27" spans="2:27">
@@ -5983,30 +5997,30 @@
       </c>
       <c r="M27">
         <f>M25*0.15</f>
-        <v>7853.1687000000002</v>
+        <v>7830.183</v>
       </c>
       <c r="N27" t="s">
         <v>608</v>
       </c>
       <c r="S27">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="T27">
         <f>S27/M25*100</f>
-        <v>11.460342116424926</v>
+        <v>13.409648280250922</v>
       </c>
       <c r="W27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X27">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="Y27">
         <v>1000</v>
       </c>
       <c r="Z27">
         <f t="shared" si="0"/>
-        <v>21800</v>
+        <v>18400</v>
       </c>
     </row>
     <row r="28" spans="2:27">
@@ -6029,21 +6043,21 @@
       </c>
       <c r="M28">
         <f>M25*0.15</f>
-        <v>7853.1687000000002</v>
+        <v>7830.183</v>
       </c>
       <c r="N28" t="s">
         <v>609</v>
       </c>
       <c r="S28">
-        <f>1500+1945.33</f>
-        <v>3445.33</v>
+        <f>2800</f>
+        <v>2800</v>
       </c>
       <c r="T28">
         <f>S28/M25*100</f>
-        <v>6.5807767506637154</v>
+        <v>5.3638593121003684</v>
       </c>
       <c r="W28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X28">
         <v>350</v>
@@ -6053,7 +6067,7 @@
       </c>
       <c r="Z28">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>23600</v>
       </c>
     </row>
     <row r="29" spans="2:27">
@@ -6079,21 +6093,21 @@
       </c>
       <c r="M29">
         <f>M25*0.2</f>
-        <v>10470.891600000003</v>
+        <v>10440.244000000001</v>
       </c>
       <c r="N29" t="s">
         <v>610</v>
       </c>
       <c r="S29">
-        <f>2900+373.56</f>
-        <v>3273.56</v>
+        <f>754.37+312.8+2139.86</f>
+        <v>3207.03</v>
       </c>
       <c r="T29">
         <f>S29/M25*100</f>
-        <v>6.2526862564406631</v>
+        <v>6.1435920463161589</v>
       </c>
       <c r="W29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X29">
         <v>350</v>
@@ -6103,7 +6117,7 @@
       </c>
       <c r="Z29">
         <f t="shared" si="0"/>
-        <v>32200</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="30" spans="2:27">
@@ -6126,20 +6140,20 @@
       </c>
       <c r="M30">
         <f>M25*0.1</f>
-        <v>5235.4458000000013</v>
+        <v>5220.1220000000003</v>
       </c>
       <c r="N30" t="s">
         <v>611</v>
       </c>
       <c r="S30">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="T30">
         <f>S30/M25*100</f>
-        <v>4.9661482504508019</v>
+        <v>6.7048241401254609</v>
       </c>
       <c r="W30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X30">
         <v>350</v>
@@ -6149,7 +6163,7 @@
       </c>
       <c r="Z30">
         <f t="shared" si="0"/>
-        <v>37400</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="31" spans="2:27">
@@ -6172,21 +6186,21 @@
       </c>
       <c r="M31">
         <f>M25*0.05</f>
-        <v>2617.7229000000007</v>
+        <v>2610.0610000000001</v>
       </c>
       <c r="N31" t="s">
         <v>612</v>
       </c>
       <c r="S31">
-        <f>777+312.8+495+1750+159+1000+620</f>
-        <v>5113.8</v>
+        <f>727+159+1000</f>
+        <v>1886</v>
       </c>
       <c r="T31">
         <f>S31/M25*100</f>
-        <v>9.7676495858289645</v>
+        <v>3.6129423795076052</v>
       </c>
       <c r="W31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X31">
         <v>350</v>
@@ -6195,8 +6209,8 @@
         <v>1000</v>
       </c>
       <c r="Z31">
-        <f t="shared" ref="Z31:Z32" si="3">Z30+Y31++(X31*12)</f>
-        <v>42600</v>
+        <f t="shared" si="0"/>
+        <v>39200</v>
       </c>
     </row>
     <row r="32" spans="2:27">
@@ -6218,25 +6232,25 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M32">
         <f>M25*0.05</f>
-        <v>2617.7229000000007</v>
+        <v>2610.0610000000001</v>
       </c>
       <c r="N32" t="s">
         <v>614</v>
       </c>
       <c r="S32">
-        <f>850+500</f>
-        <v>1350</v>
+        <f>4000+495+3080</f>
+        <v>7575</v>
       </c>
       <c r="T32">
         <f>S32/M25*100</f>
-        <v>2.5785769761956083</v>
+        <v>14.511155103271534</v>
       </c>
       <c r="W32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X32">
         <v>350</v>
@@ -6245,8 +6259,8 @@
         <v>1000</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="3"/>
-        <v>47800</v>
+        <f t="shared" ref="Z32:Z33" si="3">Z31+Y32++(X32*12)</f>
+        <v>44400</v>
       </c>
     </row>
     <row r="33" spans="2:26">
@@ -6258,10 +6272,10 @@
       </c>
       <c r="T33">
         <f>M25-SUM(S26:S32)</f>
-        <v>10835.477999999996</v>
+        <v>5900.5200000000041</v>
       </c>
       <c r="W33">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X33">
         <v>350</v>
@@ -6270,8 +6284,23 @@
         <v>1000</v>
       </c>
       <c r="Z33">
-        <f t="shared" ref="Z33" si="4">Z32+Y33++(X33*12)</f>
-        <v>53000</v>
+        <f t="shared" si="3"/>
+        <v>49600</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26">
+      <c r="W34">
+        <v>10</v>
+      </c>
+      <c r="X34">
+        <v>350</v>
+      </c>
+      <c r="Y34">
+        <v>1000</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" ref="Z34" si="4">Z33+Y34++(X34*12)</f>
+        <v>54800</v>
       </c>
     </row>
     <row r="35" spans="2:26">
@@ -6282,10 +6311,10 @@
     </row>
     <row r="37" spans="2:26">
       <c r="C37" s="169" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D37" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="38" spans="2:26">
@@ -6293,7 +6322,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="39" spans="2:26">
@@ -6301,7 +6330,7 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="40" spans="2:26">
@@ -6309,13 +6338,13 @@
         <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="43" spans="2:26">
       <c r="D43">
         <f>SUM(C46:C1048576)</f>
-        <v>8581.09</v>
+        <v>9106.69</v>
       </c>
       <c r="G43">
         <f>2976.76+121.59</f>
@@ -6324,24 +6353,24 @@
     </row>
     <row r="44" spans="2:26">
       <c r="B44" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D44">
         <f>SUM(C46:C1000)</f>
-        <v>8581.09</v>
+        <v>9106.69</v>
       </c>
     </row>
     <row r="45" spans="2:26">
       <c r="C45" t="s">
+        <v>644</v>
+      </c>
+      <c r="E45" t="s">
         <v>645</v>
-      </c>
-      <c r="E45" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="46" spans="2:26">
       <c r="B46" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C46">
         <v>500</v>
@@ -6349,7 +6378,7 @@
     </row>
     <row r="47" spans="2:26">
       <c r="B47" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C47">
         <v>1500</v>
@@ -6359,8 +6388,8 @@
       <c r="B48" s="250">
         <v>45050</v>
       </c>
-      <c r="D48" s="44" t="s">
-        <v>640</v>
+      <c r="D48" s="16" t="s">
+        <v>639</v>
       </c>
       <c r="E48">
         <f>40*11.56</f>
@@ -6379,8 +6408,8 @@
       <c r="B50" s="250">
         <v>45054</v>
       </c>
-      <c r="D50" s="44" t="s">
-        <v>641</v>
+      <c r="D50" s="16" t="s">
+        <v>640</v>
       </c>
       <c r="E50">
         <f>10*103.4</f>
@@ -6391,8 +6420,8 @@
       <c r="B51" s="250">
         <v>45055</v>
       </c>
-      <c r="D51" s="44" t="s">
-        <v>642</v>
+      <c r="D51" s="360" t="s">
+        <v>641</v>
       </c>
       <c r="E51">
         <f>29*14.88</f>
@@ -6403,8 +6432,8 @@
       <c r="B52" s="250">
         <v>45085</v>
       </c>
-      <c r="D52" s="44" t="s">
-        <v>643</v>
+      <c r="D52" s="360" t="s">
+        <v>642</v>
       </c>
       <c r="E52">
         <f>40*9.38</f>
@@ -6424,7 +6453,7 @@
         <v>45113</v>
       </c>
       <c r="D54" s="44" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E54">
         <v>9.66</v>
@@ -6437,8 +6466,8 @@
       <c r="C55">
         <v>525</v>
       </c>
-      <c r="D55" s="44" t="s">
-        <v>666</v>
+      <c r="D55" s="360" t="s">
+        <v>663</v>
       </c>
       <c r="E55">
         <v>534.66</v>
@@ -6451,8 +6480,8 @@
       <c r="C56">
         <v>56.09</v>
       </c>
-      <c r="D56" s="44" t="s">
-        <v>667</v>
+      <c r="D56" s="16" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="39">
@@ -6462,16 +6491,16 @@
       <c r="C57">
         <v>5000</v>
       </c>
-      <c r="D57" s="359" t="s">
-        <v>668</v>
+      <c r="D57" s="251" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="250">
         <v>45215</v>
       </c>
-      <c r="D58" s="44" t="s">
-        <v>669</v>
+      <c r="D58" s="16" t="s">
+        <v>665</v>
       </c>
       <c r="E58">
         <v>1075.56</v>
@@ -6481,11 +6510,30 @@
       <c r="B59" s="250">
         <v>45215</v>
       </c>
-      <c r="D59" s="44" t="s">
-        <v>670</v>
+      <c r="D59" s="16" t="s">
+        <v>666</v>
       </c>
       <c r="E59">
         <v>502.39</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="250">
+        <v>45222</v>
+      </c>
+      <c r="C60">
+        <v>25.6</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="250">
+        <v>45223</v>
+      </c>
+      <c r="C61">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -6523,10 +6571,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="256" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="269"/>
+      <c r="B1" s="257"/>
       <c r="C1" s="138" t="s">
         <v>1</v>
       </c>
@@ -6536,11 +6584,11 @@
       <c r="G1" s="47"/>
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
-      <c r="J1" s="321" t="s">
+      <c r="J1" s="327" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="321"/>
-      <c r="L1" s="322"/>
+      <c r="K1" s="327"/>
+      <c r="L1" s="328"/>
       <c r="M1" s="50" t="s">
         <v>44</v>
       </c>
@@ -6679,11 +6727,11 @@
       <c r="G3" s="47"/>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
-      <c r="J3" s="272" t="s">
+      <c r="J3" s="306" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="272"/>
-      <c r="L3" s="273"/>
+      <c r="K3" s="306"/>
+      <c r="L3" s="307"/>
       <c r="M3" s="56">
         <v>401.56</v>
       </c>
@@ -6726,11 +6774,11 @@
         <f t="shared" ref="Z3:Z23" si="1">AVERAGE(M3:X3)</f>
         <v>478.15909090909082</v>
       </c>
-      <c r="AA3" s="272" t="s">
+      <c r="AA3" s="306" t="s">
         <v>63</v>
       </c>
-      <c r="AB3" s="272"/>
-      <c r="AC3" s="273"/>
+      <c r="AB3" s="306"/>
+      <c r="AC3" s="307"/>
     </row>
     <row r="4" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="47"/>
@@ -6751,11 +6799,11 @@
         <f>AVERAGE(M3:V3)</f>
         <v>481.21799999999996</v>
       </c>
-      <c r="J4" s="318" t="s">
+      <c r="J4" s="324" t="s">
         <v>239</v>
       </c>
-      <c r="K4" s="319"/>
-      <c r="L4" s="320"/>
+      <c r="K4" s="325"/>
+      <c r="L4" s="326"/>
       <c r="M4" s="58">
         <v>-27536.13</v>
       </c>
@@ -6810,11 +6858,11 @@
         <f t="shared" si="1"/>
         <v>-33579.255000000005</v>
       </c>
-      <c r="AA4" s="318" t="s">
+      <c r="AA4" s="324" t="s">
         <v>239</v>
       </c>
-      <c r="AB4" s="319"/>
-      <c r="AC4" s="320"/>
+      <c r="AB4" s="325"/>
+      <c r="AC4" s="326"/>
     </row>
     <row r="5" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" t="s">
@@ -6836,11 +6884,11 @@
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
-      <c r="J5" s="257" t="s">
+      <c r="J5" s="259" t="s">
         <v>149</v>
       </c>
-      <c r="K5" s="257"/>
-      <c r="L5" s="257"/>
+      <c r="K5" s="259"/>
+      <c r="L5" s="259"/>
       <c r="M5">
         <f>D10+D14</f>
         <v>7500</v>
@@ -6897,11 +6945,11 @@
         <f t="shared" si="1"/>
         <v>13246.675833333333</v>
       </c>
-      <c r="AA5" s="257" t="s">
+      <c r="AA5" s="259" t="s">
         <v>149</v>
       </c>
-      <c r="AB5" s="257"/>
-      <c r="AC5" s="257"/>
+      <c r="AB5" s="259"/>
+      <c r="AC5" s="259"/>
     </row>
     <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="47"/>
@@ -6921,11 +6969,11 @@
       <c r="G6" s="47"/>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
-      <c r="J6" s="258" t="s">
+      <c r="J6" s="260" t="s">
         <v>388</v>
       </c>
-      <c r="K6" s="258"/>
-      <c r="L6" s="258"/>
+      <c r="K6" s="260"/>
+      <c r="L6" s="260"/>
       <c r="N6">
         <f>-129</f>
         <v>-129</v>
@@ -6971,11 +7019,11 @@
         <f t="shared" si="1"/>
         <v>-1335.9590000000001</v>
       </c>
-      <c r="AA6" s="258" t="s">
+      <c r="AA6" s="260" t="s">
         <v>276</v>
       </c>
-      <c r="AB6" s="258"/>
-      <c r="AC6" s="258"/>
+      <c r="AB6" s="260"/>
+      <c r="AC6" s="260"/>
     </row>
     <row r="7" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="47"/>
@@ -6994,11 +7042,11 @@
       </c>
       <c r="G7" s="47"/>
       <c r="H7" s="47"/>
-      <c r="J7" s="258" t="s">
+      <c r="J7" s="260" t="s">
         <v>386</v>
       </c>
-      <c r="K7" s="259"/>
-      <c r="L7" s="259"/>
+      <c r="K7" s="261"/>
+      <c r="L7" s="261"/>
       <c r="P7">
         <v>-359</v>
       </c>
@@ -7014,11 +7062,11 @@
         <f t="shared" si="1"/>
         <v>-394.15</v>
       </c>
-      <c r="AA7" s="259" t="s">
+      <c r="AA7" s="261" t="s">
         <v>65</v>
       </c>
-      <c r="AB7" s="259"/>
-      <c r="AC7" s="259"/>
+      <c r="AB7" s="261"/>
+      <c r="AC7" s="261"/>
     </row>
     <row r="8" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="47"/>
@@ -7038,11 +7086,11 @@
       <c r="G8" s="47"/>
       <c r="H8" s="47"/>
       <c r="I8" s="47"/>
-      <c r="J8" s="259" t="s">
+      <c r="J8" s="261" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="259"/>
-      <c r="L8" s="291"/>
+      <c r="K8" s="261"/>
+      <c r="L8" s="295"/>
       <c r="M8">
         <f>-140-127.8-460-178-615-39-119.8-592</f>
         <v>-2271.6</v>
@@ -7095,11 +7143,11 @@
         <f t="shared" si="1"/>
         <v>-1703.7800000000002</v>
       </c>
-      <c r="AA8" s="259" t="s">
+      <c r="AA8" s="261" t="s">
         <v>105</v>
       </c>
-      <c r="AB8" s="259"/>
-      <c r="AC8" s="291"/>
+      <c r="AB8" s="261"/>
+      <c r="AC8" s="295"/>
     </row>
     <row r="9" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="47"/>
@@ -7117,11 +7165,11 @@
       <c r="G9" s="47"/>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
-      <c r="J9" s="258" t="s">
+      <c r="J9" s="260" t="s">
         <v>291</v>
       </c>
-      <c r="K9" s="258"/>
-      <c r="L9" s="290"/>
+      <c r="K9" s="260"/>
+      <c r="L9" s="296"/>
       <c r="O9">
         <f>-58.79</f>
         <v>-58.79</v>
@@ -7148,11 +7196,11 @@
         <f t="shared" si="1"/>
         <v>-517.43200000000002</v>
       </c>
-      <c r="AA9" s="258" t="s">
+      <c r="AA9" s="260" t="s">
         <v>291</v>
       </c>
-      <c r="AB9" s="258"/>
-      <c r="AC9" s="290"/>
+      <c r="AB9" s="260"/>
+      <c r="AC9" s="296"/>
     </row>
     <row r="10" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="47"/>
@@ -7172,11 +7220,11 @@
       <c r="G10" s="47"/>
       <c r="H10" s="47"/>
       <c r="I10" s="125"/>
-      <c r="J10" s="258" t="s">
+      <c r="J10" s="260" t="s">
         <v>269</v>
       </c>
-      <c r="K10" s="258"/>
-      <c r="L10" s="290"/>
+      <c r="K10" s="260"/>
+      <c r="L10" s="296"/>
       <c r="M10">
         <f>-164.97-724.74-276-123.96-161.51-179.05-612-544.58-437.46-418.98-130.97</f>
         <v>-3774.22</v>
@@ -7231,11 +7279,11 @@
         <f t="shared" si="1"/>
         <v>-1878.0074999999999</v>
       </c>
-      <c r="AA10" s="258" t="s">
+      <c r="AA10" s="260" t="s">
         <v>269</v>
       </c>
-      <c r="AB10" s="258"/>
-      <c r="AC10" s="290"/>
+      <c r="AB10" s="260"/>
+      <c r="AC10" s="296"/>
     </row>
     <row r="11" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="47"/>
@@ -7255,11 +7303,11 @@
       <c r="G11" s="47"/>
       <c r="H11" s="47"/>
       <c r="I11" s="126"/>
-      <c r="J11" s="258" t="s">
+      <c r="J11" s="260" t="s">
         <v>301</v>
       </c>
-      <c r="K11" s="258"/>
-      <c r="L11" s="290"/>
+      <c r="K11" s="260"/>
+      <c r="L11" s="296"/>
       <c r="M11">
         <f>-846.02-566.69</f>
         <v>-1412.71</v>
@@ -7308,11 +7356,11 @@
         <f t="shared" si="1"/>
         <v>-1317.1645454545453</v>
       </c>
-      <c r="AA11" s="258" t="s">
+      <c r="AA11" s="260" t="s">
         <v>301</v>
       </c>
-      <c r="AB11" s="258"/>
-      <c r="AC11" s="290"/>
+      <c r="AB11" s="260"/>
+      <c r="AC11" s="296"/>
     </row>
     <row r="12" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="47"/>
@@ -7333,11 +7381,11 @@
       <c r="G12" s="47"/>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
-      <c r="J12" s="259" t="s">
+      <c r="J12" s="261" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="259"/>
-      <c r="L12" s="259"/>
+      <c r="K12" s="261"/>
+      <c r="L12" s="261"/>
       <c r="O12">
         <f>-240.1-170-42.8-90-219.65-57.97</f>
         <v>-820.5200000000001</v>
@@ -7353,11 +7401,11 @@
         <f t="shared" si="1"/>
         <v>-1287.76</v>
       </c>
-      <c r="AA12" s="259" t="s">
+      <c r="AA12" s="261" t="s">
         <v>95</v>
       </c>
-      <c r="AB12" s="259"/>
-      <c r="AC12" s="259"/>
+      <c r="AB12" s="261"/>
+      <c r="AC12" s="261"/>
     </row>
     <row r="13" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="47" t="s">
@@ -7377,11 +7425,11 @@
       <c r="G13" s="47"/>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
-      <c r="J13" s="258" t="s">
+      <c r="J13" s="260" t="s">
         <v>444</v>
       </c>
-      <c r="K13" s="259"/>
-      <c r="L13" s="259"/>
+      <c r="K13" s="261"/>
+      <c r="L13" s="261"/>
       <c r="N13">
         <f>-228</f>
         <v>-228</v>
@@ -7422,11 +7470,11 @@
         <f t="shared" si="1"/>
         <v>-688.14333333333343</v>
       </c>
-      <c r="AA13" s="259" t="s">
+      <c r="AA13" s="261" t="s">
         <v>67</v>
       </c>
-      <c r="AB13" s="259"/>
-      <c r="AC13" s="259"/>
+      <c r="AB13" s="261"/>
+      <c r="AC13" s="261"/>
     </row>
     <row r="14" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="47"/>
@@ -7446,11 +7494,11 @@
       <c r="G14" s="47"/>
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
-      <c r="J14" s="258" t="s">
+      <c r="J14" s="260" t="s">
         <v>299</v>
       </c>
-      <c r="K14" s="258"/>
-      <c r="L14" s="258"/>
+      <c r="K14" s="260"/>
+      <c r="L14" s="260"/>
       <c r="M14">
         <f>-350-52.99</f>
         <v>-402.99</v>
@@ -7490,11 +7538,11 @@
         <f t="shared" si="1"/>
         <v>-981.47124999999994</v>
       </c>
-      <c r="AA14" s="258" t="s">
+      <c r="AA14" s="260" t="s">
         <v>299</v>
       </c>
-      <c r="AB14" s="258"/>
-      <c r="AC14" s="258"/>
+      <c r="AB14" s="260"/>
+      <c r="AC14" s="260"/>
     </row>
     <row r="15" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="47"/>
@@ -7515,11 +7563,11 @@
       <c r="G15" s="47"/>
       <c r="H15" s="47"/>
       <c r="I15" s="47"/>
-      <c r="J15" s="258" t="s">
+      <c r="J15" s="260" t="s">
         <v>264</v>
       </c>
-      <c r="K15" s="258"/>
-      <c r="L15" s="290"/>
+      <c r="K15" s="260"/>
+      <c r="L15" s="296"/>
       <c r="M15">
         <f>-139</f>
         <v>-139</v>
@@ -7568,11 +7616,11 @@
         <f t="shared" si="1"/>
         <v>-870.29090909090894</v>
       </c>
-      <c r="AA15" s="258" t="s">
+      <c r="AA15" s="260" t="s">
         <v>264</v>
       </c>
-      <c r="AB15" s="258"/>
-      <c r="AC15" s="290"/>
+      <c r="AB15" s="260"/>
+      <c r="AC15" s="296"/>
     </row>
     <row r="16" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="47"/>
@@ -7592,11 +7640,11 @@
       <c r="G16" s="47"/>
       <c r="H16" s="47"/>
       <c r="I16" s="47"/>
-      <c r="J16" s="258" t="s">
+      <c r="J16" s="260" t="s">
         <v>387</v>
       </c>
-      <c r="K16" s="259"/>
-      <c r="L16" s="291"/>
+      <c r="K16" s="261"/>
+      <c r="L16" s="295"/>
       <c r="N16">
         <f>-144.94-49.98-74.9</f>
         <v>-269.82</v>
@@ -7625,11 +7673,11 @@
         <f t="shared" si="1"/>
         <v>-4653.376666666667</v>
       </c>
-      <c r="AA16" s="259" t="s">
+      <c r="AA16" s="261" t="s">
         <v>58</v>
       </c>
-      <c r="AB16" s="259"/>
-      <c r="AC16" s="291"/>
+      <c r="AB16" s="261"/>
+      <c r="AC16" s="295"/>
     </row>
     <row r="17" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="47"/>
@@ -7649,11 +7697,11 @@
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
       <c r="I17" s="47"/>
-      <c r="J17" s="258" t="s">
+      <c r="J17" s="260" t="s">
         <v>250</v>
       </c>
-      <c r="K17" s="258"/>
-      <c r="L17" s="290"/>
+      <c r="K17" s="260"/>
+      <c r="L17" s="296"/>
       <c r="M17">
         <f>-445-445-1416.49-86-75-69.99-588.25</f>
         <v>-3125.7299999999996</v>
@@ -7710,11 +7758,11 @@
         <f t="shared" si="1"/>
         <v>-1801.6158333333335</v>
       </c>
-      <c r="AA17" s="258" t="s">
+      <c r="AA17" s="260" t="s">
         <v>250</v>
       </c>
-      <c r="AB17" s="258"/>
-      <c r="AC17" s="290"/>
+      <c r="AB17" s="260"/>
+      <c r="AC17" s="296"/>
     </row>
     <row r="18" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="47"/>
@@ -7734,11 +7782,11 @@
       <c r="G18" s="47"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
-      <c r="J18" s="258" t="s">
+      <c r="J18" s="260" t="s">
         <v>268</v>
       </c>
-      <c r="K18" s="258"/>
-      <c r="L18" s="290"/>
+      <c r="K18" s="260"/>
+      <c r="L18" s="296"/>
       <c r="Q18">
         <f>-200-200-200-200-200-200-200-200</f>
         <v>-1600</v>
@@ -7779,11 +7827,11 @@
         <f t="shared" si="1"/>
         <v>-1886</v>
       </c>
-      <c r="AA18" s="258" t="s">
+      <c r="AA18" s="260" t="s">
         <v>268</v>
       </c>
-      <c r="AB18" s="258"/>
-      <c r="AC18" s="290"/>
+      <c r="AB18" s="260"/>
+      <c r="AC18" s="296"/>
     </row>
     <row r="19" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="47"/>
@@ -7805,11 +7853,11 @@
       </c>
       <c r="G19" s="47"/>
       <c r="I19" s="47"/>
-      <c r="J19" s="265" t="s">
+      <c r="J19" s="262" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="265"/>
-      <c r="L19" s="301"/>
+      <c r="K19" s="262"/>
+      <c r="L19" s="284"/>
       <c r="M19">
         <f>-821.85-653.85-740-787.15</f>
         <v>-3002.85</v>
@@ -7864,11 +7912,11 @@
         <f t="shared" si="1"/>
         <v>-2289.8108333333334</v>
       </c>
-      <c r="AA19" s="265" t="s">
+      <c r="AA19" s="262" t="s">
         <v>6</v>
       </c>
-      <c r="AB19" s="265"/>
-      <c r="AC19" s="301"/>
+      <c r="AB19" s="262"/>
+      <c r="AC19" s="284"/>
     </row>
     <row r="20" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="47"/>
@@ -7888,11 +7936,11 @@
       <c r="G20" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="J20" s="303" t="s">
+      <c r="J20" s="286" t="s">
         <v>60</v>
       </c>
-      <c r="K20" s="303"/>
-      <c r="L20" s="303"/>
+      <c r="K20" s="286"/>
+      <c r="L20" s="286"/>
       <c r="N20">
         <v>-2040</v>
       </c>
@@ -7921,11 +7969,11 @@
         <f t="shared" si="1"/>
         <v>-2364.8283333333334</v>
       </c>
-      <c r="AA20" s="303" t="s">
+      <c r="AA20" s="286" t="s">
         <v>60</v>
       </c>
-      <c r="AB20" s="303"/>
-      <c r="AC20" s="303"/>
+      <c r="AB20" s="286"/>
+      <c r="AC20" s="286"/>
     </row>
     <row r="21" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="47"/>
@@ -7947,11 +7995,11 @@
       </c>
       <c r="G21" s="179"/>
       <c r="H21" s="47"/>
-      <c r="J21" s="324" t="s">
+      <c r="J21" s="320" t="s">
         <v>443</v>
       </c>
-      <c r="K21" s="325"/>
-      <c r="L21" s="326"/>
+      <c r="K21" s="321"/>
+      <c r="L21" s="322"/>
       <c r="U21">
         <f>-15-15-20-20</f>
         <v>-70</v>
@@ -7985,11 +8033,11 @@
       </c>
       <c r="G22" s="47"/>
       <c r="H22" s="47"/>
-      <c r="J22" s="297" t="s">
+      <c r="J22" s="279" t="s">
         <v>298</v>
       </c>
-      <c r="K22" s="297"/>
-      <c r="L22" s="297"/>
+      <c r="K22" s="279"/>
+      <c r="L22" s="279"/>
       <c r="P22">
         <v>-46.96</v>
       </c>
@@ -8013,11 +8061,11 @@
         <f t="shared" si="1"/>
         <v>-564.58749999999998</v>
       </c>
-      <c r="AA22" s="297" t="s">
+      <c r="AA22" s="279" t="s">
         <v>298</v>
       </c>
-      <c r="AB22" s="297"/>
-      <c r="AC22" s="297"/>
+      <c r="AB22" s="279"/>
+      <c r="AC22" s="279"/>
     </row>
     <row r="23" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="47"/>
@@ -8033,11 +8081,11 @@
       <c r="G23" s="47"/>
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
-      <c r="J23" s="258" t="s">
+      <c r="J23" s="260" t="s">
         <v>297</v>
       </c>
-      <c r="K23" s="258"/>
-      <c r="L23" s="258"/>
+      <c r="K23" s="260"/>
+      <c r="L23" s="260"/>
       <c r="P23">
         <f>-390-430-260-250</f>
         <v>-1330</v>
@@ -8057,11 +8105,11 @@
         <f t="shared" si="1"/>
         <v>-756.66666666666663</v>
       </c>
-      <c r="AA23" s="258" t="s">
+      <c r="AA23" s="260" t="s">
         <v>297</v>
       </c>
-      <c r="AB23" s="258"/>
-      <c r="AC23" s="258"/>
+      <c r="AB23" s="260"/>
+      <c r="AC23" s="260"/>
     </row>
     <row r="24" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="47"/>
@@ -8157,11 +8205,11 @@
       <c r="G25" s="47"/>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
-      <c r="J25" s="260" t="s">
+      <c r="J25" s="270" t="s">
         <v>61</v>
       </c>
-      <c r="K25" s="260"/>
-      <c r="L25" s="261"/>
+      <c r="K25" s="270"/>
+      <c r="L25" s="271"/>
       <c r="M25" s="140">
         <f>M2+SUM(M4:M23)-M3</f>
         <v>-2109.0300000000047</v>
@@ -8225,11 +8273,11 @@
       <c r="G26" s="47"/>
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
-      <c r="J26" s="253" t="s">
+      <c r="J26" s="267" t="s">
         <v>62</v>
       </c>
-      <c r="K26" s="253"/>
-      <c r="L26" s="253"/>
+      <c r="K26" s="267"/>
+      <c r="L26" s="267"/>
       <c r="M26" s="61">
         <f>M25</f>
         <v>-2109.0300000000047</v>
@@ -8904,8 +8952,8 @@
       <c r="M41" s="47"/>
       <c r="N41" s="47"/>
       <c r="O41" s="47"/>
-      <c r="P41" s="310"/>
-      <c r="Q41" s="310"/>
+      <c r="P41" s="275"/>
+      <c r="Q41" s="275"/>
       <c r="U41" s="47"/>
       <c r="V41" s="47"/>
       <c r="W41" s="47"/>
@@ -9219,6 +9267,39 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="AA22:AC22"/>
+    <mergeCell ref="AA23:AC23"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J8:L8"/>
@@ -9233,39 +9314,6 @@
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="AA17:AC17"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="AA22:AC22"/>
-    <mergeCell ref="AA23:AC23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9310,15 +9358,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" thickBot="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="256" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="275"/>
-      <c r="E1" s="269"/>
+      <c r="B1" s="257"/>
+      <c r="C1" s="331" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="309"/>
+      <c r="E1" s="257"/>
       <c r="M1" s="50" t="s">
         <v>44</v>
       </c>
@@ -9361,10 +9409,10 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickTop="1">
-      <c r="A2" s="341">
+      <c r="A2" s="332">
         <v>36617.354166666672</v>
       </c>
-      <c r="B2" s="341"/>
+      <c r="B2" s="332"/>
       <c r="C2" s="132">
         <v>2500</v>
       </c>
@@ -9441,10 +9489,10 @@
         <v>2</v>
       </c>
       <c r="J3"/>
-      <c r="K3" s="342" t="s">
+      <c r="K3" s="333" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="343"/>
+      <c r="L3" s="334"/>
       <c r="M3" s="56">
         <v>365.5</v>
       </c>
@@ -9500,10 +9548,10 @@
         <v>201</v>
       </c>
       <c r="J4"/>
-      <c r="K4" s="344" t="s">
+      <c r="K4" s="335" t="s">
         <v>239</v>
       </c>
-      <c r="L4" s="345"/>
+      <c r="L4" s="336"/>
       <c r="M4" s="58">
         <f>C30*-1</f>
         <v>-24909</v>
@@ -9571,10 +9619,10 @@
         <v>249</v>
       </c>
       <c r="J5" s="49"/>
-      <c r="K5" s="327" t="s">
+      <c r="K5" s="329" t="s">
         <v>149</v>
       </c>
-      <c r="L5" s="328"/>
+      <c r="L5" s="330"/>
       <c r="M5" s="59"/>
       <c r="N5" s="1"/>
       <c r="O5" s="60"/>
@@ -9607,10 +9655,10 @@
         <v>66</v>
       </c>
       <c r="J6" s="49"/>
-      <c r="K6" s="332" t="s">
+      <c r="K6" s="341" t="s">
         <v>276</v>
       </c>
-      <c r="L6" s="328"/>
+      <c r="L6" s="330"/>
       <c r="M6" s="118">
         <v>-350</v>
       </c>
@@ -9645,10 +9693,10 @@
       <c r="J7" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="327" t="s">
+      <c r="K7" s="329" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="328"/>
+      <c r="L7" s="330"/>
       <c r="M7" s="68"/>
       <c r="N7" s="24"/>
       <c r="Q7" s="42">
@@ -9687,10 +9735,10 @@
       <c r="G8" s="47">
         <v>865</v>
       </c>
-      <c r="K8" s="327" t="s">
+      <c r="K8" s="329" t="s">
         <v>105</v>
       </c>
-      <c r="L8" s="333"/>
+      <c r="L8" s="343"/>
       <c r="M8" s="117">
         <f>-747.09-234.95-158.46-140-378.95-43.98-37.98-123.47</f>
         <v>-1864.88</v>
@@ -9754,10 +9802,10 @@
       <c r="E9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="332" t="s">
+      <c r="K9" s="341" t="s">
         <v>263</v>
       </c>
-      <c r="L9" s="333"/>
+      <c r="L9" s="343"/>
       <c r="M9" s="117"/>
       <c r="N9" s="42"/>
       <c r="P9" s="42"/>
@@ -9803,10 +9851,10 @@
         <v>256</v>
       </c>
       <c r="I10"/>
-      <c r="K10" s="332" t="s">
+      <c r="K10" s="341" t="s">
         <v>269</v>
       </c>
-      <c r="L10" s="333"/>
+      <c r="L10" s="343"/>
       <c r="M10" s="117"/>
       <c r="N10" s="42"/>
       <c r="P10" s="42"/>
@@ -9867,10 +9915,10 @@
       <c r="H11" s="126" t="s">
         <v>262</v>
       </c>
-      <c r="K11" s="335" t="s">
+      <c r="K11" s="337" t="s">
         <v>247</v>
       </c>
-      <c r="L11" s="336"/>
+      <c r="L11" s="338"/>
       <c r="M11" s="68">
         <f>-388.51-194.57</f>
         <v>-583.07999999999993</v>
@@ -9916,10 +9964,10 @@
       <c r="E12" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="327" t="s">
+      <c r="K12" s="329" t="s">
         <v>95</v>
       </c>
-      <c r="L12" s="328"/>
+      <c r="L12" s="330"/>
       <c r="M12" s="68">
         <f>-275-1496</f>
         <v>-1771</v>
@@ -9955,10 +10003,10 @@
       <c r="E13" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="327" t="s">
+      <c r="K13" s="329" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="328"/>
+      <c r="L13" s="330"/>
       <c r="M13" s="68"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24">
@@ -10014,10 +10062,10 @@
       <c r="E14" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="K14" s="327" t="s">
+      <c r="K14" s="329" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="328"/>
+      <c r="L14" s="330"/>
       <c r="M14" s="68"/>
       <c r="N14" s="24"/>
       <c r="Q14" s="47">
@@ -10057,10 +10105,10 @@
       <c r="E15" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="332" t="s">
+      <c r="K15" s="341" t="s">
         <v>264</v>
       </c>
-      <c r="L15" s="333"/>
+      <c r="L15" s="343"/>
       <c r="M15" s="116">
         <v>-210</v>
       </c>
@@ -10104,10 +10152,10 @@
       <c r="E16" t="s">
         <v>248</v>
       </c>
-      <c r="K16" s="327" t="s">
+      <c r="K16" s="329" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="333"/>
+      <c r="L16" s="343"/>
       <c r="M16" s="120">
         <v>-612.29999999999995</v>
       </c>
@@ -10132,10 +10180,10 @@
       <c r="E17" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="334" t="s">
+      <c r="K17" s="347" t="s">
         <v>250</v>
       </c>
-      <c r="L17" s="291"/>
+      <c r="L17" s="295"/>
       <c r="M17" s="121">
         <f>-534.85-164.85</f>
         <v>-699.7</v>
@@ -10199,10 +10247,10 @@
       <c r="G18" t="s">
         <v>259</v>
       </c>
-      <c r="K18" s="332" t="s">
+      <c r="K18" s="341" t="s">
         <v>268</v>
       </c>
-      <c r="L18" s="339"/>
+      <c r="L18" s="342"/>
       <c r="O18" s="122">
         <f>-1500</f>
         <v>-1500</v>
@@ -10251,10 +10299,10 @@
       <c r="G19" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="K19" s="337" t="s">
+      <c r="K19" s="339" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="338"/>
+      <c r="L19" s="340"/>
       <c r="M19" s="68">
         <f>-803-812.8</f>
         <v>-1615.8</v>
@@ -10329,10 +10377,10 @@
       <c r="H20" t="s">
         <v>279</v>
       </c>
-      <c r="K20" s="327" t="s">
+      <c r="K20" s="329" t="s">
         <v>60</v>
       </c>
-      <c r="L20" s="328"/>
+      <c r="L20" s="330"/>
       <c r="M20" s="68">
         <v>-285</v>
       </c>
@@ -10380,10 +10428,10 @@
       <c r="E21" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="329" t="s">
+      <c r="K21" s="344" t="s">
         <v>61</v>
       </c>
-      <c r="L21" s="330"/>
+      <c r="L21" s="345"/>
       <c r="M21" s="127">
         <f>M2+SUM(M4:M20)-M3</f>
         <v>3271.3100000000049</v>
@@ -10444,10 +10492,10 @@
       <c r="E22" t="s">
         <v>241</v>
       </c>
-      <c r="K22" s="331" t="s">
+      <c r="K22" s="346" t="s">
         <v>62</v>
       </c>
-      <c r="L22" s="331"/>
+      <c r="L22" s="346"/>
       <c r="M22" s="61">
         <f>M21</f>
         <v>3271.3100000000049</v>
@@ -10895,8 +10943,8 @@
       <c r="T35"/>
     </row>
     <row r="36" spans="3:23">
-      <c r="P36" s="310"/>
-      <c r="Q36" s="310"/>
+      <c r="P36" s="275"/>
+      <c r="Q36" s="275"/>
       <c r="R36"/>
       <c r="S36"/>
       <c r="T36"/>
@@ -11118,12 +11166,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K18:L18"/>
@@ -11133,15 +11184,12 @@
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11182,20 +11230,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A1" s="269" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="340" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="269"/>
+      <c r="A1" s="257" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="257"/>
+      <c r="C1" s="331" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="257"/>
     </row>
     <row r="2" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="341">
+      <c r="A2" s="332">
         <v>31519.33</v>
       </c>
-      <c r="B2" s="341"/>
+      <c r="B2" s="332"/>
       <c r="C2" s="48">
         <v>3000</v>
       </c>
@@ -11255,10 +11303,10 @@
         <f>C9+C10+C11+C13</f>
         <v>6617</v>
       </c>
-      <c r="J3" s="342" t="s">
+      <c r="J3" s="333" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="343"/>
+      <c r="K3" s="334"/>
       <c r="L3" s="56">
         <v>301.55</v>
       </c>
@@ -11310,10 +11358,10 @@
         <f>C9+C11+C13</f>
         <v>5897</v>
       </c>
-      <c r="J4" s="349" t="s">
+      <c r="J4" s="350" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="345"/>
+      <c r="K4" s="336"/>
       <c r="L4" s="58">
         <f>D30</f>
         <v>4927.3300000000017</v>
@@ -11371,10 +11419,10 @@
         <v>66</v>
       </c>
       <c r="I5" s="49"/>
-      <c r="J5" s="327" t="s">
+      <c r="J5" s="329" t="s">
         <v>149</v>
       </c>
-      <c r="K5" s="328"/>
+      <c r="K5" s="330"/>
       <c r="L5" s="59">
         <v>0</v>
       </c>
@@ -11416,10 +11464,10 @@
         <v>4</v>
       </c>
       <c r="I6" s="49"/>
-      <c r="J6" s="350" t="s">
+      <c r="J6" s="351" t="s">
         <v>178</v>
       </c>
-      <c r="K6" s="350"/>
+      <c r="K6" s="351"/>
       <c r="L6" s="63"/>
       <c r="M6" s="64"/>
       <c r="N6" s="63"/>
@@ -11461,10 +11509,10 @@
       <c r="I7" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="327" t="s">
+      <c r="J7" s="329" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="328"/>
+      <c r="K7" s="330"/>
       <c r="L7" s="68"/>
       <c r="R7" s="47">
         <v>-354.7</v>
@@ -11481,10 +11529,10 @@
       <c r="D8" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="327" t="s">
+      <c r="J8" s="329" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="328"/>
+      <c r="K8" s="330"/>
       <c r="L8" s="68"/>
       <c r="W8" s="69"/>
     </row>
@@ -11501,10 +11549,10 @@
       <c r="G9" s="70">
         <v>0.3</v>
       </c>
-      <c r="J9" s="327" t="s">
+      <c r="J9" s="329" t="s">
         <v>105</v>
       </c>
-      <c r="K9" s="333"/>
+      <c r="K9" s="343"/>
       <c r="L9" s="68"/>
       <c r="O9" s="47">
         <f>-260-155-173-85.8</f>
@@ -11558,10 +11606,10 @@
       <c r="H10" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="J10" s="327" t="s">
+      <c r="J10" s="329" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="328"/>
+      <c r="K10" s="330"/>
       <c r="L10" s="68"/>
       <c r="N10" s="47">
         <f>-700-500</f>
@@ -11591,10 +11639,10 @@
       <c r="F11" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="J11" s="327" t="s">
+      <c r="J11" s="329" t="s">
         <v>95</v>
       </c>
-      <c r="K11" s="328"/>
+      <c r="K11" s="330"/>
       <c r="L11" s="68"/>
       <c r="M11" s="72"/>
       <c r="P11" s="47">
@@ -11626,10 +11674,10 @@
       <c r="D12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="327" t="s">
+      <c r="J12" s="329" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="328"/>
+      <c r="K12" s="330"/>
       <c r="L12" s="68"/>
       <c r="S12" s="47">
         <v>-245</v>
@@ -11656,10 +11704,10 @@
       <c r="D13" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="J13" s="327" t="s">
+      <c r="J13" s="329" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="328"/>
+      <c r="K13" s="330"/>
       <c r="L13" s="68">
         <v>-881.49</v>
       </c>
@@ -11709,10 +11757,10 @@
       <c r="D14" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="327" t="s">
+      <c r="J14" s="329" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="328"/>
+      <c r="K14" s="330"/>
       <c r="L14" s="68"/>
       <c r="O14" s="47">
         <f>-615.58-139.8</f>
@@ -11746,10 +11794,10 @@
       <c r="F15" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="J15" s="327" t="s">
+      <c r="J15" s="329" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="328"/>
+      <c r="K15" s="330"/>
       <c r="L15" s="68"/>
       <c r="P15" s="47">
         <v>-379.99</v>
@@ -11766,10 +11814,10 @@
       <c r="D16" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="J16" s="327" t="s">
+      <c r="J16" s="329" t="s">
         <v>59</v>
       </c>
-      <c r="K16" s="328"/>
+      <c r="K16" s="330"/>
       <c r="L16" s="68"/>
       <c r="Q16" s="47">
         <v>-400</v>
@@ -11783,10 +11831,10 @@
       <c r="D17" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="327" t="s">
+      <c r="J17" s="329" t="s">
         <v>215</v>
       </c>
-      <c r="K17" s="333"/>
+      <c r="K17" s="343"/>
       <c r="L17" s="68"/>
       <c r="O17" s="47">
         <v>-5000</v>
@@ -11818,10 +11866,10 @@
       <c r="F18" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="J18" s="327" t="s">
+      <c r="J18" s="329" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="328"/>
+      <c r="K18" s="330"/>
       <c r="L18" s="75"/>
       <c r="M18" s="76"/>
       <c r="N18" s="76">
@@ -11857,10 +11905,10 @@
       <c r="D19" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="J19" s="329" t="s">
+      <c r="J19" s="344" t="s">
         <v>61</v>
       </c>
-      <c r="K19" s="329"/>
+      <c r="K19" s="344"/>
       <c r="L19" s="79">
         <f>SUM(L4:L18)-13000-L3</f>
         <v>-9255.7099999999973</v>
@@ -11920,10 +11968,10 @@
       <c r="D20" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="331" t="s">
+      <c r="J20" s="346" t="s">
         <v>62</v>
       </c>
-      <c r="K20" s="331"/>
+      <c r="K20" s="346"/>
       <c r="L20" s="61">
         <f>L19</f>
         <v>-9255.7099999999973</v>
@@ -12421,10 +12469,10 @@
       <c r="E34" s="47">
         <v>18000</v>
       </c>
-      <c r="O34" s="346" t="s">
+      <c r="O34" s="352" t="s">
         <v>170</v>
       </c>
-      <c r="P34" s="346"/>
+      <c r="P34" s="352"/>
       <c r="Q34" s="88">
         <v>24300</v>
       </c>
@@ -12785,7 +12833,7 @@
     </row>
     <row r="65" spans="8:9" ht="15.75" thickTop="1">
       <c r="H65" s="111"/>
-      <c r="I65" s="347">
+      <c r="I65" s="348">
         <v>-35.5</v>
       </c>
     </row>
@@ -12793,7 +12841,7 @@
       <c r="H66" s="112" t="s">
         <v>231</v>
       </c>
-      <c r="I66" s="348"/>
+      <c r="I66" s="349"/>
     </row>
     <row r="67" spans="8:9" ht="15.75" thickTop="1">
       <c r="H67"/>
@@ -12804,6 +12852,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J17:K17"/>
     <mergeCell ref="I65:I66"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="A1:B1"/>
@@ -12818,15 +12875,6 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J17:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12859,31 +12907,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="351" t="s">
+      <c r="A1" s="254" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="351"/>
-      <c r="C1" s="351"/>
-      <c r="D1" s="351"/>
-      <c r="E1" s="351"/>
-      <c r="F1" s="351"/>
-      <c r="G1" s="351"/>
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A2" s="268" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="268"/>
-      <c r="C2" s="353" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="268"/>
+      <c r="A2" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="256"/>
+      <c r="C2" s="356" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="256"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickTop="1">
-      <c r="A3" s="354">
+      <c r="A3" s="357">
         <v>31519.33</v>
       </c>
-      <c r="B3" s="354"/>
+      <c r="B3" s="357"/>
       <c r="C3" s="6">
         <v>3600</v>
       </c>
@@ -12940,10 +12988,10 @@
         <v>3</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="355" t="s">
+      <c r="J4" s="358" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="304"/>
+      <c r="K4" s="287"/>
       <c r="L4" s="28">
         <v>301.55</v>
       </c>
@@ -12971,10 +13019,10 @@
         <v>141</v>
       </c>
       <c r="I5" s="26"/>
-      <c r="J5" s="344" t="s">
+      <c r="J5" s="335" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="356"/>
+      <c r="K5" s="359"/>
       <c r="L5" s="29">
         <f>D31</f>
         <v>1681.3300000000017</v>
@@ -13032,10 +13080,10 @@
         <v>66</v>
       </c>
       <c r="I6" s="26"/>
-      <c r="J6" s="332" t="s">
+      <c r="J6" s="341" t="s">
         <v>149</v>
       </c>
-      <c r="K6" s="352"/>
+      <c r="K6" s="354"/>
       <c r="L6" s="1">
         <v>0</v>
       </c>
@@ -13061,10 +13109,10 @@
       <c r="I7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="332" t="s">
+      <c r="J7" s="341" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="352"/>
+      <c r="K7" s="354"/>
       <c r="L7" s="33"/>
       <c r="M7" s="34"/>
       <c r="N7" s="34"/>
@@ -13085,10 +13133,10 @@
       <c r="D8" t="s">
         <v>138</v>
       </c>
-      <c r="J8" s="332" t="s">
+      <c r="J8" s="341" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="352"/>
+      <c r="K8" s="354"/>
       <c r="L8" s="36"/>
       <c r="W8" s="37"/>
     </row>
@@ -13099,10 +13147,10 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="332" t="s">
+      <c r="J9" s="341" t="s">
         <v>105</v>
       </c>
-      <c r="K9" s="339"/>
+      <c r="K9" s="342"/>
       <c r="L9" s="36"/>
       <c r="W9" s="37"/>
     </row>
@@ -13116,10 +13164,10 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="332" t="s">
+      <c r="J10" s="341" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="352"/>
+      <c r="K10" s="354"/>
       <c r="L10" s="36"/>
       <c r="N10">
         <f>-700-500</f>
@@ -13137,10 +13185,10 @@
       <c r="F11" t="s">
         <v>143</v>
       </c>
-      <c r="J11" s="332" t="s">
+      <c r="J11" s="341" t="s">
         <v>95</v>
       </c>
-      <c r="K11" s="352"/>
+      <c r="K11" s="354"/>
       <c r="L11" s="36"/>
       <c r="M11" s="41"/>
       <c r="W11" s="37"/>
@@ -13158,10 +13206,10 @@
       <c r="F12" t="s">
         <v>152</v>
       </c>
-      <c r="J12" s="332" t="s">
+      <c r="J12" s="341" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="352"/>
+      <c r="K12" s="354"/>
       <c r="L12" s="36"/>
       <c r="W12" s="37"/>
     </row>
@@ -13175,10 +13223,10 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="332" t="s">
+      <c r="J13" s="341" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="352"/>
+      <c r="K13" s="354"/>
       <c r="L13" s="36">
         <v>-881.49</v>
       </c>
@@ -13197,10 +13245,10 @@
       <c r="D14" t="s">
         <v>144</v>
       </c>
-      <c r="J14" s="332" t="s">
+      <c r="J14" s="341" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="352"/>
+      <c r="K14" s="354"/>
       <c r="L14" s="36"/>
       <c r="W14" s="37"/>
     </row>
@@ -13211,10 +13259,10 @@
       <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="332" t="s">
+      <c r="J15" s="341" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="352"/>
+      <c r="K15" s="354"/>
       <c r="L15" s="36"/>
       <c r="W15" s="37"/>
     </row>
@@ -13226,10 +13274,10 @@
       <c r="F16" t="s">
         <v>148</v>
       </c>
-      <c r="J16" s="332" t="s">
+      <c r="J16" s="341" t="s">
         <v>59</v>
       </c>
-      <c r="K16" s="352"/>
+      <c r="K16" s="354"/>
       <c r="L16" s="36"/>
       <c r="W16" s="37"/>
     </row>
@@ -13240,10 +13288,10 @@
       <c r="D17" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="332" t="s">
+      <c r="J17" s="341" t="s">
         <v>60</v>
       </c>
-      <c r="K17" s="352"/>
+      <c r="K17" s="354"/>
       <c r="L17" s="38"/>
       <c r="M17" s="39"/>
       <c r="N17" s="39">
@@ -13267,10 +13315,10 @@
       <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="358" t="s">
+      <c r="J18" s="355" t="s">
         <v>61</v>
       </c>
-      <c r="K18" s="358"/>
+      <c r="K18" s="355"/>
       <c r="L18" s="4">
         <f>SUM(L4:L17)-13000</f>
         <v>-11898.609999999999</v>
@@ -13330,10 +13378,10 @@
       <c r="F19" t="s">
         <v>137</v>
       </c>
-      <c r="J19" s="357" t="s">
+      <c r="J19" s="353" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="357"/>
+      <c r="K19" s="353"/>
       <c r="L19" s="16">
         <f>L18</f>
         <v>-11898.609999999999</v>
@@ -13691,9 +13739,9 @@
       </c>
     </row>
     <row r="32" spans="2:23">
-      <c r="Q32" s="310"/>
-      <c r="R32" s="310"/>
-      <c r="S32" s="310"/>
+      <c r="Q32" s="275"/>
+      <c r="R32" s="275"/>
+      <c r="S32" s="275"/>
     </row>
     <row r="34" spans="8:20">
       <c r="H34" s="24" t="s">
@@ -13882,14 +13930,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="A2:B2"/>
@@ -13903,6 +13943,14 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13934,20 +13982,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A1" s="268" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="353" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="268"/>
+      <c r="A1" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="256"/>
+      <c r="C1" s="356" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="256"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickTop="1">
-      <c r="A2" s="354">
+      <c r="A2" s="357">
         <v>24571.22</v>
       </c>
-      <c r="B2" s="354"/>
+      <c r="B2" s="357"/>
       <c r="C2" s="6">
         <v>3300</v>
       </c>
@@ -14004,10 +14052,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="355" t="s">
+      <c r="J3" s="358" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="304"/>
+      <c r="K3" s="287"/>
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
       <c r="N3" s="28"/>
@@ -14024,10 +14072,10 @@
     <row r="4" spans="1:23">
       <c r="C4" s="3"/>
       <c r="I4" s="26"/>
-      <c r="J4" s="344" t="s">
+      <c r="J4" s="335" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="356"/>
+      <c r="K4" s="359"/>
       <c r="L4" s="29">
         <f>D29</f>
         <v>3185.2200000000012</v>
@@ -14085,10 +14133,10 @@
         <v>66</v>
       </c>
       <c r="I5" s="26"/>
-      <c r="J5" s="332" t="s">
+      <c r="J5" s="341" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="352"/>
+      <c r="K5" s="354"/>
       <c r="L5" s="1"/>
       <c r="M5" s="32">
         <v>3361.63</v>
@@ -14133,10 +14181,10 @@
       <c r="I6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="332" t="s">
+      <c r="J6" s="341" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="352"/>
+      <c r="K6" s="354"/>
       <c r="L6" s="33"/>
       <c r="M6" s="34"/>
       <c r="N6" s="34">
@@ -14161,10 +14209,10 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="332" t="s">
+      <c r="J7" s="341" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="352"/>
+      <c r="K7" s="354"/>
       <c r="L7" s="36"/>
       <c r="W7" s="37"/>
     </row>
@@ -14175,10 +14223,10 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="332" t="s">
+      <c r="J8" s="341" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="339"/>
+      <c r="K8" s="342"/>
       <c r="L8" s="36"/>
       <c r="O8">
         <v>-680</v>
@@ -14199,10 +14247,10 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="332" t="s">
+      <c r="J9" s="341" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="352"/>
+      <c r="K9" s="354"/>
       <c r="L9" s="36"/>
       <c r="N9">
         <v>-1000</v>
@@ -14222,10 +14270,10 @@
       <c r="D10" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="332" t="s">
+      <c r="J10" s="341" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="352"/>
+      <c r="K10" s="354"/>
       <c r="L10" s="36"/>
       <c r="M10" s="41">
         <v>-1535.71</v>
@@ -14251,10 +14299,10 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="332" t="s">
+      <c r="J11" s="341" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="352"/>
+      <c r="K11" s="354"/>
       <c r="L11" s="36"/>
       <c r="O11">
         <v>-1108</v>
@@ -14275,10 +14323,10 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="332" t="s">
+      <c r="J12" s="341" t="s">
         <v>91</v>
       </c>
-      <c r="K12" s="352"/>
+      <c r="K12" s="354"/>
       <c r="L12" s="36"/>
       <c r="O12">
         <f>-800-399</f>
@@ -14296,10 +14344,10 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="332" t="s">
+      <c r="J13" s="341" t="s">
         <v>57</v>
       </c>
-      <c r="K13" s="352"/>
+      <c r="K13" s="354"/>
       <c r="L13" s="36"/>
       <c r="M13">
         <f>-1486*2</f>
@@ -14329,10 +14377,10 @@
       <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="332" t="s">
+      <c r="J14" s="341" t="s">
         <v>58</v>
       </c>
-      <c r="K14" s="352"/>
+      <c r="K14" s="354"/>
       <c r="L14" s="36">
         <v>-2000</v>
       </c>
@@ -14351,10 +14399,10 @@
       <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="332" t="s">
+      <c r="J15" s="341" t="s">
         <v>59</v>
       </c>
-      <c r="K15" s="352"/>
+      <c r="K15" s="354"/>
       <c r="L15" s="36"/>
       <c r="N15">
         <v>-600</v>
@@ -14378,10 +14426,10 @@
         <f>SUM(L17:W17)</f>
         <v>3110.9100000000144</v>
       </c>
-      <c r="J16" s="332" t="s">
+      <c r="J16" s="341" t="s">
         <v>60</v>
       </c>
-      <c r="K16" s="352"/>
+      <c r="K16" s="354"/>
       <c r="L16" s="38">
         <v>-10500</v>
       </c>
@@ -14414,10 +14462,10 @@
       <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="358" t="s">
+      <c r="J17" s="355" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="358"/>
+      <c r="K17" s="355"/>
       <c r="L17" s="4">
         <f t="shared" ref="L17:W17" si="0">SUM(L3:L16)</f>
         <v>-9314.7799999999988</v>
@@ -14474,10 +14522,10 @@
       <c r="D18" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="357" t="s">
+      <c r="J18" s="353" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="357"/>
+      <c r="K18" s="353"/>
       <c r="L18" s="16">
         <f>L17</f>
         <v>-9314.7799999999988</v>
@@ -14883,9 +14931,9 @@
       </c>
     </row>
     <row r="30" spans="2:23">
-      <c r="Q30" s="310"/>
-      <c r="R30" s="310"/>
-      <c r="S30" s="310"/>
+      <c r="Q30" s="275"/>
+      <c r="R30" s="275"/>
+      <c r="S30" s="275"/>
     </row>
     <row r="31" spans="2:23">
       <c r="L31" t="s">
@@ -14923,13 +14971,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -14943,6 +14984,13 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J8:K8"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14967,20 +15015,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A1" s="268" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="353" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="268"/>
+      <c r="A1" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="256"/>
+      <c r="C1" s="356" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="256"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickTop="1">
-      <c r="A2" s="354">
+      <c r="A2" s="357">
         <v>22802.21</v>
       </c>
-      <c r="B2" s="354"/>
+      <c r="B2" s="357"/>
       <c r="C2" s="6">
         <v>3000</v>
       </c>
@@ -15037,10 +15085,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="355" t="s">
+      <c r="J3" s="358" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="304"/>
+      <c r="K3" s="287"/>
       <c r="L3" s="28"/>
       <c r="M3" s="28">
         <v>521.47</v>
@@ -15059,10 +15107,10 @@
     <row r="4" spans="1:23">
       <c r="C4" s="3"/>
       <c r="I4" s="26"/>
-      <c r="J4" s="344" t="s">
+      <c r="J4" s="335" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="356"/>
+      <c r="K4" s="359"/>
       <c r="L4" s="29">
         <f>D27</f>
         <v>18477</v>
@@ -15120,10 +15168,10 @@
         <v>66</v>
       </c>
       <c r="I5" s="26"/>
-      <c r="J5" s="332" t="s">
+      <c r="J5" s="341" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="352"/>
+      <c r="K5" s="354"/>
       <c r="L5" s="1">
         <v>-1480.88</v>
       </c>
@@ -15158,10 +15206,10 @@
       <c r="I6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="332" t="s">
+      <c r="J6" s="341" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="352"/>
+      <c r="K6" s="354"/>
       <c r="L6" s="33"/>
       <c r="M6" s="34"/>
       <c r="N6" s="34"/>
@@ -15192,10 +15240,10 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="332" t="s">
+      <c r="J7" s="341" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="352"/>
+      <c r="K7" s="354"/>
       <c r="L7" s="36"/>
       <c r="V7">
         <v>623.71</v>
@@ -15209,10 +15257,10 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="332" t="s">
+      <c r="J8" s="341" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="352"/>
+      <c r="K8" s="354"/>
       <c r="L8" s="36">
         <v>1053.8499999999999</v>
       </c>
@@ -15231,10 +15279,10 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="332" t="s">
+      <c r="J9" s="341" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="352"/>
+      <c r="K9" s="354"/>
       <c r="L9" s="36"/>
       <c r="W9" s="37"/>
     </row>
@@ -15245,10 +15293,10 @@
       <c r="D10" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="332" t="s">
+      <c r="J10" s="341" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="352"/>
+      <c r="K10" s="354"/>
       <c r="L10" s="36">
         <v>750</v>
       </c>
@@ -15267,10 +15315,10 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="332" t="s">
+      <c r="J11" s="341" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="352"/>
+      <c r="K11" s="354"/>
       <c r="L11" s="36"/>
       <c r="W11" s="37"/>
     </row>
@@ -15284,10 +15332,10 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="332" t="s">
+      <c r="J12" s="341" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="352"/>
+      <c r="K12" s="354"/>
       <c r="L12" s="36"/>
       <c r="M12">
         <v>1460</v>
@@ -15304,10 +15352,10 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="332" t="s">
+      <c r="J13" s="341" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="352"/>
+      <c r="K13" s="354"/>
       <c r="L13" s="36"/>
       <c r="W13" s="37"/>
     </row>
@@ -15318,10 +15366,10 @@
       <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="332" t="s">
+      <c r="J14" s="341" t="s">
         <v>59</v>
       </c>
-      <c r="K14" s="352"/>
+      <c r="K14" s="354"/>
       <c r="L14" s="36"/>
       <c r="V14">
         <v>5565</v>
@@ -15335,10 +15383,10 @@
       <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="332" t="s">
+      <c r="J15" s="341" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="352"/>
+      <c r="K15" s="354"/>
       <c r="L15" s="38">
         <v>1620</v>
       </c>
@@ -15365,10 +15413,10 @@
       <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="358" t="s">
+      <c r="J16" s="355" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="358"/>
+      <c r="K16" s="355"/>
       <c r="L16" s="4">
         <f t="shared" ref="L16:W16" si="0">SUM(L3:L15)</f>
         <v>20419.969999999998</v>
@@ -15425,10 +15473,10 @@
       <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="357" t="s">
+      <c r="J17" s="353" t="s">
         <v>62</v>
       </c>
-      <c r="K17" s="357"/>
+      <c r="K17" s="353"/>
       <c r="L17" s="16">
         <f>A2-L16</f>
         <v>2382.2400000000016</v>
@@ -15800,9 +15848,9 @@
       <c r="O28">
         <v>-10000</v>
       </c>
-      <c r="Q28" s="310"/>
-      <c r="R28" s="310"/>
-      <c r="S28" s="310"/>
+      <c r="Q28" s="275"/>
+      <c r="R28" s="275"/>
+      <c r="S28" s="275"/>
       <c r="T28">
         <v>-15000</v>
       </c>
@@ -15817,6 +15865,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J15:K15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A2:B2"/>
@@ -15827,15 +15884,6 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J15:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15846,8 +15894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5EE73A5-2D18-457E-80A2-0596EAECBEF7}">
   <dimension ref="B2:M69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16094,11 +16142,11 @@
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="351" t="s">
+      <c r="B17" s="254" t="s">
         <v>432</v>
       </c>
-      <c r="C17" s="351"/>
-      <c r="D17" s="351"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="254"/>
       <c r="K17">
         <f>K12-I12</f>
         <v>8398.8000000002794</v>
@@ -16228,11 +16276,11 @@
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="351" t="s">
+      <c r="B28" s="254" t="s">
         <v>433</v>
       </c>
-      <c r="C28" s="351"/>
-      <c r="D28" s="351"/>
+      <c r="C28" s="254"/>
+      <c r="D28" s="254"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="172" t="s">
@@ -18270,10 +18318,10 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="15.75" thickBot="1">
-      <c r="B2" s="268" t="s">
+      <c r="B2" s="256" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="269"/>
+      <c r="C2" s="257"/>
       <c r="D2" s="138" t="s">
         <v>1</v>
       </c>
@@ -18340,12 +18388,12 @@
       </c>
       <c r="F3" s="47"/>
       <c r="G3" s="47"/>
-      <c r="H3" s="254" t="s">
+      <c r="H3" s="268" t="s">
         <v>236</v>
       </c>
-      <c r="I3" s="254"/>
-      <c r="J3" s="254"/>
-      <c r="K3" s="254"/>
+      <c r="I3" s="268"/>
+      <c r="J3" s="268"/>
+      <c r="K3" s="268"/>
       <c r="L3" s="148"/>
       <c r="M3" s="148"/>
       <c r="N3" s="148"/>
@@ -18390,12 +18438,12 @@
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
-      <c r="H4" s="255" t="s">
+      <c r="H4" s="258" t="s">
         <v>239</v>
       </c>
-      <c r="I4" s="255"/>
-      <c r="J4" s="255"/>
-      <c r="K4" s="256"/>
+      <c r="I4" s="258"/>
+      <c r="J4" s="258"/>
+      <c r="K4" s="269"/>
       <c r="L4" s="160"/>
       <c r="M4" s="58"/>
       <c r="N4" s="58"/>
@@ -18434,11 +18482,11 @@
         <f t="shared" ref="Y4:Y22" si="1">AVERAGE(L4:W4)</f>
         <v>-1100</v>
       </c>
-      <c r="Z4" s="255" t="s">
+      <c r="Z4" s="258" t="s">
         <v>239</v>
       </c>
-      <c r="AA4" s="255"/>
-      <c r="AB4" s="255"/>
+      <c r="AA4" s="258"/>
+      <c r="AB4" s="258"/>
     </row>
     <row r="5" spans="2:28" ht="15.75">
       <c r="C5" s="147"/>
@@ -18448,12 +18496,12 @@
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
-      <c r="H5" s="257" t="s">
+      <c r="H5" s="259" t="s">
         <v>149</v>
       </c>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
-      <c r="K5" s="257"/>
+      <c r="I5" s="259"/>
+      <c r="J5" s="259"/>
+      <c r="K5" s="259"/>
       <c r="W5">
         <v>0</v>
       </c>
@@ -18465,11 +18513,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="257" t="s">
+      <c r="Z5" s="259" t="s">
         <v>149</v>
       </c>
-      <c r="AA5" s="257"/>
-      <c r="AB5" s="257"/>
+      <c r="AA5" s="259"/>
+      <c r="AB5" s="259"/>
     </row>
     <row r="6" spans="2:28" ht="15.75">
       <c r="B6" s="47"/>
@@ -18482,12 +18530,12 @@
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
-      <c r="H6" s="258" t="s">
+      <c r="H6" s="260" t="s">
         <v>276</v>
       </c>
-      <c r="I6" s="258"/>
-      <c r="J6" s="258"/>
-      <c r="K6" s="258"/>
+      <c r="I6" s="260"/>
+      <c r="J6" s="260"/>
+      <c r="K6" s="260"/>
       <c r="W6">
         <v>0</v>
       </c>
@@ -18499,11 +18547,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="258" t="s">
+      <c r="Z6" s="260" t="s">
         <v>276</v>
       </c>
-      <c r="AA6" s="258"/>
-      <c r="AB6" s="258"/>
+      <c r="AA6" s="260"/>
+      <c r="AB6" s="260"/>
     </row>
     <row r="7" spans="2:28">
       <c r="B7" s="47"/>
@@ -18513,12 +18561,12 @@
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
-      <c r="H7" s="259" t="s">
+      <c r="H7" s="261" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="259"/>
-      <c r="J7" s="259"/>
-      <c r="K7" s="259"/>
+      <c r="I7" s="261"/>
+      <c r="J7" s="261"/>
+      <c r="K7" s="261"/>
       <c r="W7">
         <v>0</v>
       </c>
@@ -18530,11 +18578,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="259" t="s">
+      <c r="Z7" s="261" t="s">
         <v>65</v>
       </c>
-      <c r="AA7" s="259"/>
-      <c r="AB7" s="259"/>
+      <c r="AA7" s="261"/>
+      <c r="AB7" s="261"/>
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="47"/>
@@ -18544,12 +18592,12 @@
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="47"/>
-      <c r="H8" s="259" t="s">
+      <c r="H8" s="261" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="259"/>
-      <c r="J8" s="259"/>
-      <c r="K8" s="259"/>
+      <c r="I8" s="261"/>
+      <c r="J8" s="261"/>
+      <c r="K8" s="261"/>
       <c r="W8">
         <v>0</v>
       </c>
@@ -18561,11 +18609,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="259" t="s">
+      <c r="Z8" s="261" t="s">
         <v>105</v>
       </c>
-      <c r="AA8" s="259"/>
-      <c r="AB8" s="259"/>
+      <c r="AA8" s="261"/>
+      <c r="AB8" s="261"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="47"/>
@@ -18578,10 +18626,10 @@
       </c>
       <c r="F9" s="47"/>
       <c r="G9" s="47"/>
-      <c r="H9" s="258"/>
-      <c r="I9" s="258"/>
-      <c r="J9" s="258"/>
-      <c r="K9" s="258"/>
+      <c r="H9" s="260"/>
+      <c r="I9" s="260"/>
+      <c r="J9" s="260"/>
+      <c r="K9" s="260"/>
       <c r="W9">
         <v>0</v>
       </c>
@@ -18593,11 +18641,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="258" t="s">
+      <c r="Z9" s="260" t="s">
         <v>291</v>
       </c>
-      <c r="AA9" s="258"/>
-      <c r="AB9" s="258"/>
+      <c r="AA9" s="260"/>
+      <c r="AB9" s="260"/>
     </row>
     <row r="10" spans="2:28">
       <c r="B10" s="47"/>
@@ -18609,12 +18657,12 @@
         <v>306</v>
       </c>
       <c r="G10" s="47"/>
-      <c r="H10" s="258" t="s">
+      <c r="H10" s="260" t="s">
         <v>269</v>
       </c>
-      <c r="I10" s="258"/>
-      <c r="J10" s="258"/>
-      <c r="K10" s="258"/>
+      <c r="I10" s="260"/>
+      <c r="J10" s="260"/>
+      <c r="K10" s="260"/>
       <c r="W10">
         <v>0</v>
       </c>
@@ -18626,11 +18674,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="258" t="s">
+      <c r="Z10" s="260" t="s">
         <v>269</v>
       </c>
-      <c r="AA10" s="258"/>
-      <c r="AB10" s="258"/>
+      <c r="AA10" s="260"/>
+      <c r="AB10" s="260"/>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="47"/>
@@ -18639,12 +18687,12 @@
       </c>
       <c r="D11" s="47"/>
       <c r="G11" s="47"/>
-      <c r="H11" s="258" t="s">
+      <c r="H11" s="260" t="s">
         <v>301</v>
       </c>
-      <c r="I11" s="258"/>
-      <c r="J11" s="258"/>
-      <c r="K11" s="258"/>
+      <c r="I11" s="260"/>
+      <c r="J11" s="260"/>
+      <c r="K11" s="260"/>
       <c r="W11">
         <v>0</v>
       </c>
@@ -18656,11 +18704,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="258" t="s">
+      <c r="Z11" s="260" t="s">
         <v>301</v>
       </c>
-      <c r="AA11" s="258"/>
-      <c r="AB11" s="258"/>
+      <c r="AA11" s="260"/>
+      <c r="AB11" s="260"/>
     </row>
     <row r="12" spans="2:28">
       <c r="B12" s="47"/>
@@ -18672,12 +18720,12 @@
         <v>0</v>
       </c>
       <c r="G12" s="47"/>
-      <c r="H12" s="259" t="s">
+      <c r="H12" s="261" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="259"/>
-      <c r="J12" s="259"/>
-      <c r="K12" s="259"/>
+      <c r="I12" s="261"/>
+      <c r="J12" s="261"/>
+      <c r="K12" s="261"/>
       <c r="W12">
         <v>0</v>
       </c>
@@ -18689,11 +18737,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="259" t="s">
+      <c r="Z12" s="261" t="s">
         <v>95</v>
       </c>
-      <c r="AA12" s="259"/>
-      <c r="AB12" s="259"/>
+      <c r="AA12" s="261"/>
+      <c r="AB12" s="261"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="47"/>
@@ -18705,12 +18753,12 @@
         <v>7400</v>
       </c>
       <c r="G13" s="47"/>
-      <c r="H13" s="259" t="s">
+      <c r="H13" s="261" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="259"/>
-      <c r="J13" s="259"/>
-      <c r="K13" s="259"/>
+      <c r="I13" s="261"/>
+      <c r="J13" s="261"/>
+      <c r="K13" s="261"/>
       <c r="W13">
         <v>0</v>
       </c>
@@ -18722,11 +18770,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="259" t="s">
+      <c r="Z13" s="261" t="s">
         <v>67</v>
       </c>
-      <c r="AA13" s="259"/>
-      <c r="AB13" s="259"/>
+      <c r="AA13" s="261"/>
+      <c r="AB13" s="261"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="47"/>
@@ -18738,12 +18786,12 @@
         <v>0</v>
       </c>
       <c r="G14" s="47"/>
-      <c r="H14" s="258" t="s">
+      <c r="H14" s="260" t="s">
         <v>299</v>
       </c>
-      <c r="I14" s="258"/>
-      <c r="J14" s="258"/>
-      <c r="K14" s="258"/>
+      <c r="I14" s="260"/>
+      <c r="J14" s="260"/>
+      <c r="K14" s="260"/>
       <c r="R14" s="114"/>
       <c r="W14">
         <v>0</v>
@@ -18756,11 +18804,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="258" t="s">
+      <c r="Z14" s="260" t="s">
         <v>299</v>
       </c>
-      <c r="AA14" s="258"/>
-      <c r="AB14" s="258"/>
+      <c r="AA14" s="260"/>
+      <c r="AB14" s="260"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="47"/>
@@ -18772,12 +18820,12 @@
         <v>0</v>
       </c>
       <c r="G15" s="47"/>
-      <c r="H15" s="258" t="s">
+      <c r="H15" s="260" t="s">
         <v>313</v>
       </c>
-      <c r="I15" s="258"/>
-      <c r="J15" s="258"/>
-      <c r="K15" s="258"/>
+      <c r="I15" s="260"/>
+      <c r="J15" s="260"/>
+      <c r="K15" s="260"/>
       <c r="R15" s="114"/>
       <c r="W15">
         <v>0</v>
@@ -18790,11 +18838,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="258" t="s">
+      <c r="Z15" s="260" t="s">
         <v>264</v>
       </c>
-      <c r="AA15" s="258"/>
-      <c r="AB15" s="258"/>
+      <c r="AA15" s="260"/>
+      <c r="AB15" s="260"/>
     </row>
     <row r="16" spans="2:28" ht="19.5" thickBot="1">
       <c r="B16" s="47"/>
@@ -18806,12 +18854,12 @@
         <v>7400</v>
       </c>
       <c r="G16" s="47"/>
-      <c r="H16" s="259" t="s">
+      <c r="H16" s="261" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="259"/>
-      <c r="J16" s="259"/>
-      <c r="K16" s="259"/>
+      <c r="I16" s="261"/>
+      <c r="J16" s="261"/>
+      <c r="K16" s="261"/>
       <c r="W16">
         <v>0</v>
       </c>
@@ -18823,11 +18871,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="259" t="s">
+      <c r="Z16" s="261" t="s">
         <v>58</v>
       </c>
-      <c r="AA16" s="259"/>
-      <c r="AB16" s="259"/>
+      <c r="AA16" s="261"/>
+      <c r="AB16" s="261"/>
     </row>
     <row r="17" spans="2:28" ht="19.5" thickBot="1">
       <c r="B17" s="47"/>
@@ -18839,12 +18887,12 @@
         <v>1100</v>
       </c>
       <c r="G17" s="47"/>
-      <c r="H17" s="258" t="s">
+      <c r="H17" s="260" t="s">
         <v>250</v>
       </c>
-      <c r="I17" s="258"/>
-      <c r="J17" s="258"/>
-      <c r="K17" s="258"/>
+      <c r="I17" s="260"/>
+      <c r="J17" s="260"/>
+      <c r="K17" s="260"/>
       <c r="W17">
         <v>0</v>
       </c>
@@ -18856,21 +18904,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="258" t="s">
+      <c r="Z17" s="260" t="s">
         <v>250</v>
       </c>
-      <c r="AA17" s="258"/>
-      <c r="AB17" s="258"/>
+      <c r="AA17" s="260"/>
+      <c r="AB17" s="260"/>
     </row>
     <row r="18" spans="2:28">
       <c r="B18" s="47"/>
       <c r="G18" s="47"/>
-      <c r="H18" s="258" t="s">
+      <c r="H18" s="260" t="s">
         <v>263</v>
       </c>
-      <c r="I18" s="258"/>
-      <c r="J18" s="258"/>
-      <c r="K18" s="258"/>
+      <c r="I18" s="260"/>
+      <c r="J18" s="260"/>
+      <c r="K18" s="260"/>
       <c r="W18">
         <v>0</v>
       </c>
@@ -18882,20 +18930,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="258" t="s">
+      <c r="Z18" s="260" t="s">
         <v>268</v>
       </c>
-      <c r="AA18" s="258"/>
-      <c r="AB18" s="258"/>
+      <c r="AA18" s="260"/>
+      <c r="AB18" s="260"/>
     </row>
     <row r="19" spans="2:28">
       <c r="B19" s="47"/>
-      <c r="H19" s="265" t="s">
+      <c r="H19" s="262" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="265"/>
-      <c r="J19" s="265"/>
-      <c r="K19" s="265"/>
+      <c r="I19" s="262"/>
+      <c r="J19" s="262"/>
+      <c r="K19" s="262"/>
       <c r="W19">
         <v>0</v>
       </c>
@@ -18907,20 +18955,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="265" t="s">
+      <c r="Z19" s="262" t="s">
         <v>6</v>
       </c>
-      <c r="AA19" s="265"/>
-      <c r="AB19" s="265"/>
+      <c r="AA19" s="262"/>
+      <c r="AB19" s="262"/>
     </row>
     <row r="20" spans="2:28">
       <c r="B20" s="47"/>
-      <c r="H20" s="266" t="s">
+      <c r="H20" s="263" t="s">
         <v>60</v>
       </c>
-      <c r="I20" s="266"/>
-      <c r="J20" s="266"/>
-      <c r="K20" s="266"/>
+      <c r="I20" s="263"/>
+      <c r="J20" s="263"/>
+      <c r="K20" s="263"/>
       <c r="W20">
         <v>0</v>
       </c>
@@ -18932,20 +18980,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="266" t="s">
+      <c r="Z20" s="263" t="s">
         <v>60</v>
       </c>
-      <c r="AA20" s="266"/>
-      <c r="AB20" s="266"/>
+      <c r="AA20" s="263"/>
+      <c r="AB20" s="263"/>
     </row>
     <row r="21" spans="2:28">
       <c r="B21" s="47"/>
-      <c r="H21" s="262" t="s">
+      <c r="H21" s="264" t="s">
         <v>298</v>
       </c>
-      <c r="I21" s="262"/>
-      <c r="J21" s="262"/>
-      <c r="K21" s="262"/>
+      <c r="I21" s="264"/>
+      <c r="J21" s="264"/>
+      <c r="K21" s="264"/>
       <c r="W21">
         <v>0</v>
       </c>
@@ -18957,20 +19005,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="262" t="s">
+      <c r="Z21" s="264" t="s">
         <v>298</v>
       </c>
-      <c r="AA21" s="262"/>
-      <c r="AB21" s="262"/>
+      <c r="AA21" s="264"/>
+      <c r="AB21" s="264"/>
     </row>
     <row r="22" spans="2:28">
       <c r="B22" s="47"/>
-      <c r="H22" s="258" t="s">
+      <c r="H22" s="260" t="s">
         <v>297</v>
       </c>
-      <c r="I22" s="258"/>
-      <c r="J22" s="258"/>
-      <c r="K22" s="258"/>
+      <c r="I22" s="260"/>
+      <c r="J22" s="260"/>
+      <c r="K22" s="260"/>
       <c r="W22">
         <v>0</v>
       </c>
@@ -18982,20 +19030,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="258" t="s">
+      <c r="Z22" s="260" t="s">
         <v>297</v>
       </c>
-      <c r="AA22" s="258"/>
-      <c r="AB22" s="258"/>
+      <c r="AA22" s="260"/>
+      <c r="AB22" s="260"/>
     </row>
     <row r="23" spans="2:28" ht="15.75" thickBot="1">
       <c r="B23" s="47"/>
-      <c r="H23" s="263" t="s">
+      <c r="H23" s="265" t="s">
         <v>300</v>
       </c>
-      <c r="I23" s="263"/>
-      <c r="J23" s="263"/>
-      <c r="K23" s="264"/>
+      <c r="I23" s="265"/>
+      <c r="J23" s="265"/>
+      <c r="K23" s="266"/>
       <c r="L23" s="115">
         <f>SUM(L5:L22)</f>
         <v>0</v>
@@ -19055,12 +19103,12 @@
     </row>
     <row r="24" spans="2:28" ht="15.75" thickBot="1">
       <c r="B24" s="47"/>
-      <c r="H24" s="260" t="s">
+      <c r="H24" s="270" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="260"/>
-      <c r="J24" s="260"/>
-      <c r="K24" s="261"/>
+      <c r="I24" s="270"/>
+      <c r="J24" s="270"/>
+      <c r="K24" s="271"/>
       <c r="L24" s="140">
         <f>L3+SUM(L4:L22)</f>
         <v>0</v>
@@ -19112,12 +19160,12 @@
     </row>
     <row r="25" spans="2:28">
       <c r="B25" s="47"/>
-      <c r="H25" s="253" t="s">
+      <c r="H25" s="267" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="253"/>
-      <c r="J25" s="253"/>
-      <c r="K25" s="253"/>
+      <c r="I25" s="267"/>
+      <c r="J25" s="267"/>
+      <c r="K25" s="267"/>
       <c r="L25" s="61">
         <f>L24</f>
         <v>0</v>
@@ -19508,13 +19556,13 @@
       <c r="F44" s="47"/>
     </row>
     <row r="47" spans="2:27" ht="26.25">
-      <c r="B47" s="267" t="s">
+      <c r="B47" s="255" t="s">
         <v>553</v>
       </c>
-      <c r="C47" s="267"/>
-      <c r="D47" s="267"/>
-      <c r="E47" s="267"/>
-      <c r="F47" s="267"/>
+      <c r="C47" s="255"/>
+      <c r="D47" s="255"/>
+      <c r="E47" s="255"/>
+      <c r="F47" s="255"/>
     </row>
     <row r="49" spans="2:6">
       <c r="E49" t="s">
@@ -19582,6 +19630,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
     <mergeCell ref="B47:F47"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="Z4:AB4"/>
@@ -19598,34 +19674,6 @@
     <mergeCell ref="Z14:AB14"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19637,7 +19685,7 @@
   <dimension ref="A1:AF111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I4" sqref="H4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19661,10 +19709,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="274" t="s">
+      <c r="A1" s="308" t="s">
         <v>624</v>
       </c>
-      <c r="B1" s="275"/>
+      <c r="B1" s="309"/>
       <c r="C1" s="138" t="s">
         <v>1</v>
       </c>
@@ -19676,12 +19724,12 @@
       </c>
       <c r="I1" s="180"/>
       <c r="J1" s="180"/>
-      <c r="K1" s="276" t="s">
+      <c r="K1" s="310" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="276"/>
-      <c r="M1" s="276"/>
-      <c r="N1" s="277"/>
+      <c r="L1" s="310"/>
+      <c r="M1" s="310"/>
+      <c r="N1" s="311"/>
       <c r="O1" s="50" t="s">
         <v>44</v>
       </c>
@@ -19726,10 +19774,10 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="281">
-        <v>52354.46</v>
-      </c>
-      <c r="B2" s="282"/>
+      <c r="A2" s="314">
+        <v>52201.22</v>
+      </c>
+      <c r="B2" s="315"/>
       <c r="C2" s="191"/>
       <c r="D2" s="191">
         <v>373.56</v>
@@ -19742,16 +19790,16 @@
       </c>
       <c r="H2" s="180">
         <f>C33+C34</f>
-        <v>25499.699999999997</v>
+        <v>25799.699999999997</v>
       </c>
       <c r="I2" s="180"/>
       <c r="J2" s="180"/>
-      <c r="K2" s="278" t="s">
+      <c r="K2" s="300" t="s">
         <v>543</v>
       </c>
-      <c r="L2" s="278"/>
-      <c r="M2" s="278"/>
-      <c r="N2" s="278"/>
+      <c r="L2" s="300"/>
+      <c r="M2" s="300"/>
+      <c r="N2" s="300"/>
       <c r="O2" s="47">
         <v>46239.28</v>
       </c>
@@ -19835,11 +19883,11 @@
       <c r="Z3" s="47"/>
       <c r="AA3" s="118"/>
       <c r="AB3" s="20"/>
-      <c r="AC3" s="279" t="s">
+      <c r="AC3" s="312" t="s">
         <v>480</v>
       </c>
-      <c r="AD3" s="280"/>
-      <c r="AE3" s="280"/>
+      <c r="AD3" s="313"/>
+      <c r="AE3" s="313"/>
     </row>
     <row r="4" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="47"/>
@@ -19860,14 +19908,14 @@
       </c>
       <c r="I4" s="47">
         <f>A2*0.3</f>
-        <v>15706.338</v>
-      </c>
-      <c r="K4" s="270" t="s">
+        <v>15660.366</v>
+      </c>
+      <c r="K4" s="304" t="s">
         <v>504</v>
       </c>
-      <c r="L4" s="270"/>
-      <c r="M4" s="270"/>
-      <c r="N4" s="271"/>
+      <c r="L4" s="304"/>
+      <c r="M4" s="304"/>
+      <c r="N4" s="305"/>
       <c r="O4" s="56">
         <v>2009</v>
       </c>
@@ -19903,11 +19951,11 @@
         <f>AVERAGE(O4:Z4)</f>
         <v>5583.6120000000001</v>
       </c>
-      <c r="AC4" s="272" t="s">
+      <c r="AC4" s="306" t="s">
         <v>63</v>
       </c>
-      <c r="AD4" s="272"/>
-      <c r="AE4" s="273"/>
+      <c r="AD4" s="306"/>
+      <c r="AE4" s="307"/>
     </row>
     <row r="5" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="C5" s="191">
@@ -19922,12 +19970,12 @@
       <c r="F5" s="191" t="s">
         <v>576</v>
       </c>
-      <c r="K5" s="283" t="s">
+      <c r="K5" s="301" t="s">
         <v>149</v>
       </c>
-      <c r="L5" s="283"/>
-      <c r="M5" s="283"/>
-      <c r="N5" s="284"/>
+      <c r="L5" s="301"/>
+      <c r="M5" s="301"/>
+      <c r="N5" s="302"/>
       <c r="O5" s="202"/>
       <c r="Z5">
         <v>1</v>
@@ -19940,9 +19988,9 @@
         <f>AVERAGE(O5:Z5)</f>
         <v>1</v>
       </c>
-      <c r="AC5" s="257"/>
-      <c r="AD5" s="257"/>
-      <c r="AE5" s="257"/>
+      <c r="AC5" s="259"/>
+      <c r="AD5" s="259"/>
+      <c r="AE5" s="259"/>
     </row>
     <row r="6" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="C6" s="191">
@@ -19969,9 +20017,9 @@
       </c>
       <c r="AA6" s="118"/>
       <c r="AB6" s="20"/>
-      <c r="AC6" s="285"/>
-      <c r="AD6" s="257"/>
-      <c r="AE6" s="257"/>
+      <c r="AC6" s="303"/>
+      <c r="AD6" s="259"/>
+      <c r="AE6" s="259"/>
     </row>
     <row r="7" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="47"/>
@@ -20061,7 +20109,9 @@
     <row r="10" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="47"/>
       <c r="B10" s="47"/>
-      <c r="C10" s="191"/>
+      <c r="C10" s="191">
+        <v>300</v>
+      </c>
       <c r="D10" s="191">
         <v>610</v>
       </c>
@@ -20069,7 +20119,7 @@
         <v>598</v>
       </c>
       <c r="F10" s="191" t="s">
-        <v>464</v>
+        <v>671</v>
       </c>
       <c r="K10" s="213"/>
       <c r="L10" s="213"/>
@@ -20127,7 +20177,7 @@
         <v>495</v>
       </c>
       <c r="F12" s="191" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K12" s="213"/>
       <c r="L12" s="213"/>
@@ -20157,7 +20207,7 @@
       </c>
       <c r="E13" s="192"/>
       <c r="F13" s="192" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G13" t="s">
         <v>604</v>
@@ -20182,14 +20232,14 @@
       <c r="A14" s="47"/>
       <c r="B14" s="47"/>
       <c r="C14" s="134">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="D14" s="134">
         <v>500</v>
       </c>
       <c r="E14" s="134"/>
       <c r="F14" s="134" t="s">
-        <v>625</v>
+        <v>672</v>
       </c>
       <c r="G14" s="47"/>
       <c r="K14" s="213"/>
@@ -20238,7 +20288,9 @@
     <row r="16" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="47"/>
       <c r="B16" s="47"/>
-      <c r="C16" s="134"/>
+      <c r="C16" s="134">
+        <v>1000</v>
+      </c>
       <c r="D16" s="134"/>
       <c r="E16" s="134">
         <v>1000</v>
@@ -20296,7 +20348,7 @@
       <c r="A18" s="47"/>
       <c r="B18" s="47"/>
       <c r="C18" s="134">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="D18" s="134">
         <v>750</v>
@@ -20357,7 +20409,7 @@
         <v>5000</v>
       </c>
       <c r="F20" s="194" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K20" s="213"/>
       <c r="L20" s="213"/>
@@ -20461,11 +20513,11 @@
       </c>
       <c r="AA23" s="118"/>
       <c r="AB23" s="20"/>
-      <c r="AC23" s="286" t="s">
+      <c r="AC23" s="298" t="s">
         <v>471</v>
       </c>
-      <c r="AD23" s="258"/>
-      <c r="AE23" s="258"/>
+      <c r="AD23" s="260"/>
+      <c r="AE23" s="260"/>
     </row>
     <row r="24" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="47"/>
@@ -20539,12 +20591,12 @@
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
       <c r="J26" s="47"/>
-      <c r="K26" s="287" t="s">
+      <c r="K26" s="280" t="s">
         <v>586</v>
       </c>
-      <c r="L26" s="287"/>
-      <c r="M26" s="287"/>
-      <c r="N26" s="288"/>
+      <c r="L26" s="280"/>
+      <c r="M26" s="280"/>
+      <c r="N26" s="290"/>
       <c r="Z26">
         <v>1</v>
       </c>
@@ -20556,11 +20608,11 @@
         <f>AVERAGE(O26:Z26)</f>
         <v>1</v>
       </c>
-      <c r="AC26" s="258" t="s">
+      <c r="AC26" s="260" t="s">
         <v>276</v>
       </c>
-      <c r="AD26" s="258"/>
-      <c r="AE26" s="258"/>
+      <c r="AD26" s="260"/>
+      <c r="AE26" s="260"/>
     </row>
     <row r="27" spans="1:31" ht="20.25" thickTop="1" thickBot="1">
       <c r="C27" s="231">
@@ -20623,12 +20675,12 @@
         <f>C27-B54</f>
         <v>5381.239999999998</v>
       </c>
-      <c r="K29" s="287" t="s">
+      <c r="K29" s="280" t="s">
         <v>386</v>
       </c>
-      <c r="L29" s="287"/>
-      <c r="M29" s="287"/>
-      <c r="N29" s="288"/>
+      <c r="L29" s="280"/>
+      <c r="M29" s="280"/>
+      <c r="N29" s="290"/>
       <c r="O29" s="202"/>
       <c r="Z29">
         <v>1</v>
@@ -20641,11 +20693,11 @@
         <f>AVERAGE(O29:Z29)</f>
         <v>1</v>
       </c>
-      <c r="AC29" s="259" t="s">
+      <c r="AC29" s="261" t="s">
         <v>65</v>
       </c>
-      <c r="AD29" s="259"/>
-      <c r="AE29" s="259"/>
+      <c r="AD29" s="261"/>
+      <c r="AE29" s="261"/>
     </row>
     <row r="30" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="47"/>
@@ -20653,7 +20705,7 @@
         <v>461</v>
       </c>
       <c r="C30" s="206">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="D30" s="206">
         <v>1500</v>
@@ -20661,7 +20713,9 @@
       <c r="E30" s="206">
         <v>1500</v>
       </c>
-      <c r="F30" s="47"/>
+      <c r="F30" s="361" t="s">
+        <v>673</v>
+      </c>
       <c r="K30" s="24"/>
       <c r="L30" s="208"/>
       <c r="M30" s="208"/>
@@ -20685,7 +20739,7 @@
       </c>
       <c r="C31" s="134">
         <f>SUM(C14:C18)</f>
-        <v>8830</v>
+        <v>12080</v>
       </c>
       <c r="D31" s="134">
         <f>SUM(D14:D18)</f>
@@ -20757,7 +20811,7 @@
       </c>
       <c r="C33" s="200">
         <f>SUM(C2:C13)</f>
-        <v>5167.03</v>
+        <v>5467.03</v>
       </c>
       <c r="D33" s="200">
         <f>SUM(D2:D13)</f>
@@ -20772,16 +20826,16 @@
       </c>
       <c r="H33" s="180">
         <f>C33+C34</f>
-        <v>25499.699999999997</v>
+        <v>25799.699999999997</v>
       </c>
       <c r="I33" s="180"/>
       <c r="J33" s="180"/>
-      <c r="K33" s="287" t="s">
+      <c r="K33" s="280" t="s">
         <v>500</v>
       </c>
-      <c r="L33" s="287"/>
-      <c r="M33" s="287"/>
-      <c r="N33" s="288"/>
+      <c r="L33" s="280"/>
+      <c r="M33" s="280"/>
+      <c r="N33" s="290"/>
       <c r="O33" s="202"/>
       <c r="Z33">
         <v>1</v>
@@ -20865,7 +20919,7 @@
       </c>
       <c r="C36" s="245">
         <f>SUM(C30:C35)</f>
-        <v>43829.7</v>
+        <v>48179.7</v>
       </c>
       <c r="D36" s="245">
         <f>SUM(D30:D35)</f>
@@ -20901,25 +20955,25 @@
       </c>
       <c r="C37" s="154">
         <f>A2-C36</f>
-        <v>8524.760000000002</v>
+        <v>4021.5200000000041</v>
       </c>
       <c r="D37" s="154">
         <f>A2-D36</f>
-        <v>4620.1099999999933</v>
+        <v>4466.8699999999953</v>
       </c>
       <c r="E37" s="144">
         <f>A2-E36+E29</f>
-        <v>7125.4199999999983</v>
+        <v>6972.18</v>
       </c>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
       <c r="J37" s="47"/>
-      <c r="K37" s="278" t="s">
+      <c r="K37" s="300" t="s">
         <v>489</v>
       </c>
-      <c r="L37" s="278"/>
-      <c r="M37" s="278"/>
-      <c r="N37" s="288"/>
+      <c r="L37" s="300"/>
+      <c r="M37" s="300"/>
+      <c r="N37" s="290"/>
       <c r="O37" s="202"/>
       <c r="Z37">
         <v>1</v>
@@ -20932,11 +20986,11 @@
         <f>AVERAGE(O37:Z37)</f>
         <v>1</v>
       </c>
-      <c r="AC37" s="259" t="s">
+      <c r="AC37" s="261" t="s">
         <v>105</v>
       </c>
-      <c r="AD37" s="259"/>
-      <c r="AE37" s="291"/>
+      <c r="AD37" s="261"/>
+      <c r="AE37" s="295"/>
     </row>
     <row r="38" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
       <c r="A38" s="47"/>
@@ -20999,7 +21053,7 @@
     <row r="40" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
       <c r="A40" s="47"/>
       <c r="B40" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F40" s="47"/>
       <c r="G40" s="47"/>
@@ -21071,11 +21125,11 @@
       </c>
       <c r="AA42" s="118"/>
       <c r="AB42" s="20"/>
-      <c r="AC42" s="286" t="s">
+      <c r="AC42" s="298" t="s">
         <v>499</v>
       </c>
-      <c r="AD42" s="258"/>
-      <c r="AE42" s="290"/>
+      <c r="AD42" s="260"/>
+      <c r="AE42" s="296"/>
     </row>
     <row r="43" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
       <c r="A43" s="47"/>
@@ -21088,12 +21142,12 @@
       <c r="H43" s="47"/>
       <c r="I43" s="47"/>
       <c r="J43" s="47"/>
-      <c r="K43" s="287" t="s">
+      <c r="K43" s="280" t="s">
         <v>263</v>
       </c>
-      <c r="L43" s="287"/>
-      <c r="M43" s="287"/>
-      <c r="N43" s="287"/>
+      <c r="L43" s="280"/>
+      <c r="M43" s="280"/>
+      <c r="N43" s="280"/>
       <c r="O43" s="202"/>
       <c r="Z43">
         <v>1</v>
@@ -21106,15 +21160,15 @@
         <f>AVERAGE(O43:Z43)</f>
         <v>1</v>
       </c>
-      <c r="AC43" s="258" t="s">
+      <c r="AC43" s="260" t="s">
         <v>291</v>
       </c>
-      <c r="AD43" s="258"/>
-      <c r="AE43" s="290"/>
+      <c r="AD43" s="260"/>
+      <c r="AE43" s="296"/>
     </row>
     <row r="44" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B44" s="47"/>
       <c r="C44" s="47"/>
@@ -21175,6 +21229,9 @@
       <c r="AE45" s="210"/>
     </row>
     <row r="46" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A46" t="s">
+        <v>674</v>
+      </c>
       <c r="B46" s="47"/>
       <c r="C46" s="47">
         <v>4</v>
@@ -21263,12 +21320,12 @@
         <v>524</v>
       </c>
       <c r="J48" s="47"/>
-      <c r="K48" s="287" t="s">
+      <c r="K48" s="280" t="s">
         <v>475</v>
       </c>
-      <c r="L48" s="287"/>
-      <c r="M48" s="287"/>
-      <c r="N48" s="287"/>
+      <c r="L48" s="280"/>
+      <c r="M48" s="280"/>
+      <c r="N48" s="280"/>
       <c r="O48" s="202"/>
       <c r="Z48">
         <v>1</v>
@@ -21281,11 +21338,11 @@
         <f t="shared" ref="AB48:AB86" si="1">AVERAGE(O48:Z48)</f>
         <v>1</v>
       </c>
-      <c r="AC48" s="258" t="s">
+      <c r="AC48" s="260" t="s">
         <v>475</v>
       </c>
-      <c r="AD48" s="258"/>
-      <c r="AE48" s="290"/>
+      <c r="AD48" s="260"/>
+      <c r="AE48" s="296"/>
       <c r="AF48">
         <f>V22+V23+V33+V48+V55+V49+V47+V10</f>
         <v>0</v>
@@ -21306,12 +21363,12 @@
         <v>523</v>
       </c>
       <c r="J49" s="47"/>
-      <c r="K49" s="289" t="s">
+      <c r="K49" s="299" t="s">
         <v>476</v>
       </c>
-      <c r="L49" s="289"/>
-      <c r="M49" s="289"/>
-      <c r="N49" s="289"/>
+      <c r="L49" s="299"/>
+      <c r="M49" s="299"/>
+      <c r="N49" s="299"/>
       <c r="O49" s="202"/>
       <c r="Z49">
         <v>1</v>
@@ -21324,11 +21381,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC49" s="258" t="s">
+      <c r="AC49" s="260" t="s">
         <v>477</v>
       </c>
-      <c r="AD49" s="258"/>
-      <c r="AE49" s="290"/>
+      <c r="AD49" s="260"/>
+      <c r="AE49" s="296"/>
     </row>
     <row r="50" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="B50" s="47"/>
@@ -21363,12 +21420,12 @@
         <v>1620</v>
       </c>
       <c r="J51" s="47"/>
-      <c r="K51" s="292" t="s">
+      <c r="K51" s="291" t="s">
         <v>301</v>
       </c>
-      <c r="L51" s="292"/>
-      <c r="M51" s="292"/>
-      <c r="N51" s="292"/>
+      <c r="L51" s="291"/>
+      <c r="M51" s="291"/>
+      <c r="N51" s="291"/>
       <c r="O51" s="202"/>
       <c r="Z51">
         <v>1</v>
@@ -21381,11 +21438,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC51" s="258" t="s">
+      <c r="AC51" s="260" t="s">
         <v>301</v>
       </c>
-      <c r="AD51" s="258"/>
-      <c r="AE51" s="290"/>
+      <c r="AD51" s="260"/>
+      <c r="AE51" s="296"/>
     </row>
     <row r="52" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="C52" s="47"/>
@@ -21420,7 +21477,7 @@
         <v>18273.61</v>
       </c>
       <c r="C53" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J53" s="47"/>
       <c r="K53" s="208"/>
@@ -21450,7 +21507,7 @@
         <v>14951.43</v>
       </c>
       <c r="C54" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J54" s="47"/>
       <c r="K54" s="208"/>
@@ -21507,12 +21564,12 @@
         <v>17149.34</v>
       </c>
       <c r="J56" s="47"/>
-      <c r="K56" s="293" t="s">
+      <c r="K56" s="297" t="s">
         <v>95</v>
       </c>
-      <c r="L56" s="293"/>
-      <c r="M56" s="293"/>
-      <c r="N56" s="293"/>
+      <c r="L56" s="297"/>
+      <c r="M56" s="297"/>
+      <c r="N56" s="297"/>
       <c r="O56" s="202"/>
       <c r="Z56">
         <v>1</v>
@@ -21525,23 +21582,23 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC56" s="259" t="s">
+      <c r="AC56" s="261" t="s">
         <v>95</v>
       </c>
-      <c r="AD56" s="259"/>
-      <c r="AE56" s="259"/>
+      <c r="AD56" s="261"/>
+      <c r="AE56" s="261"/>
     </row>
     <row r="57" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="B57" s="231">
         <v>18002.72</v>
       </c>
       <c r="J57" s="47"/>
-      <c r="K57" s="287" t="s">
+      <c r="K57" s="280" t="s">
         <v>67</v>
       </c>
-      <c r="L57" s="287"/>
-      <c r="M57" s="287"/>
-      <c r="N57" s="287"/>
+      <c r="L57" s="280"/>
+      <c r="M57" s="280"/>
+      <c r="N57" s="280"/>
       <c r="O57" s="202"/>
       <c r="Z57">
         <v>1</v>
@@ -21554,23 +21611,23 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC57" s="259" t="s">
+      <c r="AC57" s="261" t="s">
         <v>67</v>
       </c>
-      <c r="AD57" s="259"/>
-      <c r="AE57" s="259"/>
+      <c r="AD57" s="261"/>
+      <c r="AE57" s="261"/>
     </row>
     <row r="58" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="B58" s="231">
         <v>18858.91</v>
       </c>
       <c r="J58" s="47"/>
-      <c r="K58" s="287" t="s">
+      <c r="K58" s="280" t="s">
         <v>299</v>
       </c>
-      <c r="L58" s="287"/>
-      <c r="M58" s="287"/>
-      <c r="N58" s="287"/>
+      <c r="L58" s="280"/>
+      <c r="M58" s="280"/>
+      <c r="N58" s="280"/>
       <c r="O58" s="202"/>
       <c r="U58" s="114"/>
       <c r="Z58">
@@ -21584,11 +21641,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC58" s="258" t="s">
+      <c r="AC58" s="260" t="s">
         <v>299</v>
       </c>
-      <c r="AD58" s="258"/>
-      <c r="AE58" s="258"/>
+      <c r="AD58" s="260"/>
+      <c r="AE58" s="260"/>
     </row>
     <row r="59" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="B59" s="231">
@@ -21640,11 +21697,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC60" s="286" t="s">
+      <c r="AC60" s="298" t="s">
         <v>479</v>
       </c>
-      <c r="AD60" s="258"/>
-      <c r="AE60" s="258"/>
+      <c r="AD60" s="260"/>
+      <c r="AE60" s="260"/>
     </row>
     <row r="61" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="B61" s="231">
@@ -21679,12 +21736,12 @@
     </row>
     <row r="62" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="D62" s="44"/>
-      <c r="K62" s="287" t="s">
+      <c r="K62" s="280" t="s">
         <v>481</v>
       </c>
-      <c r="L62" s="287"/>
-      <c r="M62" s="287"/>
-      <c r="N62" s="287"/>
+      <c r="L62" s="280"/>
+      <c r="M62" s="280"/>
+      <c r="N62" s="280"/>
       <c r="O62" s="202"/>
       <c r="U62" s="114"/>
       <c r="Z62">
@@ -21698,22 +21755,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC62" s="258" t="s">
+      <c r="AC62" s="260" t="s">
         <v>264</v>
       </c>
-      <c r="AD62" s="258"/>
-      <c r="AE62" s="290"/>
+      <c r="AD62" s="260"/>
+      <c r="AE62" s="296"/>
     </row>
     <row r="63" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="C63" s="190">
         <v>45057</v>
       </c>
-      <c r="K63" s="287" t="s">
+      <c r="K63" s="280" t="s">
         <v>387</v>
       </c>
-      <c r="L63" s="287"/>
-      <c r="M63" s="287"/>
-      <c r="N63" s="287"/>
+      <c r="L63" s="280"/>
+      <c r="M63" s="280"/>
+      <c r="N63" s="280"/>
       <c r="O63" s="202"/>
       <c r="Z63">
         <v>1</v>
@@ -21726,11 +21783,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC63" s="259" t="s">
+      <c r="AC63" s="261" t="s">
         <v>58</v>
       </c>
-      <c r="AD63" s="259"/>
-      <c r="AE63" s="291"/>
+      <c r="AD63" s="261"/>
+      <c r="AE63" s="295"/>
     </row>
     <row r="64" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="K64" s="208"/>
@@ -21756,12 +21813,12 @@
       <c r="AE64" s="209"/>
     </row>
     <row r="65" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K65" s="287" t="s">
+      <c r="K65" s="280" t="s">
         <v>469</v>
       </c>
-      <c r="L65" s="287"/>
-      <c r="M65" s="287"/>
-      <c r="N65" s="288"/>
+      <c r="L65" s="280"/>
+      <c r="M65" s="280"/>
+      <c r="N65" s="290"/>
       <c r="O65" s="202"/>
       <c r="Z65">
         <v>1</v>
@@ -21781,12 +21838,12 @@
       <c r="AE65" s="209"/>
     </row>
     <row r="66" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K66" s="292" t="s">
+      <c r="K66" s="291" t="s">
         <v>527</v>
       </c>
-      <c r="L66" s="292"/>
-      <c r="M66" s="292"/>
-      <c r="N66" s="294"/>
+      <c r="L66" s="291"/>
+      <c r="M66" s="291"/>
+      <c r="N66" s="292"/>
       <c r="O66" s="202"/>
       <c r="Z66">
         <v>1</v>
@@ -21806,12 +21863,12 @@
       <c r="AE66" s="209"/>
     </row>
     <row r="67" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K67" s="292" t="s">
+      <c r="K67" s="291" t="s">
         <v>246</v>
       </c>
-      <c r="L67" s="292"/>
-      <c r="M67" s="292"/>
-      <c r="N67" s="294"/>
+      <c r="L67" s="291"/>
+      <c r="M67" s="291"/>
+      <c r="N67" s="292"/>
       <c r="O67" s="202"/>
       <c r="Z67">
         <v>1</v>
@@ -21824,11 +21881,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC67" s="295" t="s">
+      <c r="AC67" s="293" t="s">
         <v>246</v>
       </c>
-      <c r="AD67" s="295"/>
-      <c r="AE67" s="296"/>
+      <c r="AD67" s="293"/>
+      <c r="AE67" s="294"/>
     </row>
     <row r="68" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="K68" s="208"/>
@@ -21877,12 +21934,12 @@
       <c r="AE69" s="216"/>
     </row>
     <row r="70" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K70" s="287" t="s">
+      <c r="K70" s="280" t="s">
         <v>268</v>
       </c>
-      <c r="L70" s="287"/>
-      <c r="M70" s="287"/>
-      <c r="N70" s="287"/>
+      <c r="L70" s="280"/>
+      <c r="M70" s="280"/>
+      <c r="N70" s="280"/>
       <c r="O70" s="202"/>
       <c r="Z70">
         <v>1</v>
@@ -21895,11 +21952,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC70" s="295" t="s">
+      <c r="AC70" s="293" t="s">
         <v>268</v>
       </c>
-      <c r="AD70" s="295"/>
-      <c r="AE70" s="296"/>
+      <c r="AD70" s="293"/>
+      <c r="AE70" s="294"/>
     </row>
     <row r="71" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="K71" s="208"/>
@@ -22004,12 +22061,12 @@
       <c r="AE76" s="216"/>
     </row>
     <row r="77" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K77" s="300" t="s">
+      <c r="K77" s="283" t="s">
         <v>6</v>
       </c>
-      <c r="L77" s="300"/>
-      <c r="M77" s="300"/>
-      <c r="N77" s="300"/>
+      <c r="L77" s="283"/>
+      <c r="M77" s="283"/>
+      <c r="N77" s="283"/>
       <c r="O77" s="202"/>
       <c r="Z77">
         <v>1</v>
@@ -22022,11 +22079,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC77" s="265" t="s">
+      <c r="AC77" s="262" t="s">
         <v>6</v>
       </c>
-      <c r="AD77" s="265"/>
-      <c r="AE77" s="301"/>
+      <c r="AD77" s="262"/>
+      <c r="AE77" s="284"/>
     </row>
     <row r="78" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="K78" s="237"/>
@@ -22054,12 +22111,12 @@
     <row r="79" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="H79" s="62"/>
       <c r="I79" s="158"/>
-      <c r="K79" s="302" t="s">
+      <c r="K79" s="285" t="s">
         <v>60</v>
       </c>
-      <c r="L79" s="302"/>
-      <c r="M79" s="302"/>
-      <c r="N79" s="302"/>
+      <c r="L79" s="285"/>
+      <c r="M79" s="285"/>
+      <c r="N79" s="285"/>
       <c r="R79">
         <v>1650</v>
       </c>
@@ -22074,19 +22131,19 @@
         <f t="shared" si="1"/>
         <v>825.5</v>
       </c>
-      <c r="AC79" s="303" t="s">
+      <c r="AC79" s="286" t="s">
         <v>60</v>
       </c>
-      <c r="AD79" s="303"/>
-      <c r="AE79" s="303"/>
+      <c r="AD79" s="286"/>
+      <c r="AE79" s="286"/>
     </row>
     <row r="80" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K80" s="300" t="s">
+      <c r="K80" s="283" t="s">
         <v>443</v>
       </c>
-      <c r="L80" s="300"/>
-      <c r="M80" s="300"/>
-      <c r="N80" s="300"/>
+      <c r="L80" s="283"/>
+      <c r="M80" s="283"/>
+      <c r="N80" s="283"/>
       <c r="O80" s="202"/>
       <c r="Z80">
         <v>1</v>
@@ -22104,12 +22161,12 @@
       <c r="AE80" s="187"/>
     </row>
     <row r="81" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K81" s="304" t="s">
+      <c r="K81" s="287" t="s">
         <v>539</v>
       </c>
-      <c r="L81" s="305"/>
-      <c r="M81" s="305"/>
-      <c r="N81" s="306"/>
+      <c r="L81" s="288"/>
+      <c r="M81" s="288"/>
+      <c r="N81" s="289"/>
       <c r="O81" s="202"/>
       <c r="Z81">
         <v>1</v>
@@ -22127,12 +22184,12 @@
       <c r="AE81" s="187"/>
     </row>
     <row r="82" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K82" s="311" t="s">
+      <c r="K82" s="276" t="s">
         <v>540</v>
       </c>
-      <c r="L82" s="311"/>
-      <c r="M82" s="311"/>
-      <c r="N82" s="312"/>
+      <c r="L82" s="276"/>
+      <c r="M82" s="276"/>
+      <c r="N82" s="277"/>
       <c r="O82" s="202"/>
       <c r="Z82">
         <v>1</v>
@@ -22150,12 +22207,12 @@
       <c r="AE82" s="187"/>
     </row>
     <row r="83" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K83" s="313" t="s">
+      <c r="K83" s="278" t="s">
         <v>298</v>
       </c>
-      <c r="L83" s="313"/>
-      <c r="M83" s="313"/>
-      <c r="N83" s="313"/>
+      <c r="L83" s="278"/>
+      <c r="M83" s="278"/>
+      <c r="N83" s="278"/>
       <c r="O83" s="202"/>
       <c r="Z83">
         <v>1</v>
@@ -22168,11 +22225,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC83" s="297" t="s">
+      <c r="AC83" s="279" t="s">
         <v>298</v>
       </c>
-      <c r="AD83" s="297"/>
-      <c r="AE83" s="297"/>
+      <c r="AD83" s="279"/>
+      <c r="AE83" s="279"/>
     </row>
     <row r="84" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="K84" s="215"/>
@@ -22200,12 +22257,12 @@
     <row r="85" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="H85" s="62"/>
       <c r="I85" s="158"/>
-      <c r="K85" s="287" t="s">
+      <c r="K85" s="280" t="s">
         <v>297</v>
       </c>
-      <c r="L85" s="287"/>
-      <c r="M85" s="287"/>
-      <c r="N85" s="287"/>
+      <c r="L85" s="280"/>
+      <c r="M85" s="280"/>
+      <c r="N85" s="280"/>
       <c r="O85" s="203"/>
       <c r="Z85">
         <v>1</v>
@@ -22218,11 +22275,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC85" s="258" t="s">
+      <c r="AC85" s="260" t="s">
         <v>297</v>
       </c>
-      <c r="AD85" s="258"/>
-      <c r="AE85" s="258"/>
+      <c r="AD85" s="260"/>
+      <c r="AE85" s="260"/>
     </row>
     <row r="86" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="K86" s="208"/>
@@ -22258,7 +22315,7 @@
       </c>
       <c r="V86" s="235">
         <f>C2+E3+C4+C5+C26+C10+C11+C12+C17+C16+C22+C8+C6+C34</f>
-        <v>32892.58</v>
+        <v>34192.58</v>
       </c>
       <c r="W86" s="235" t="e">
         <f>E2+#REF!+E4+E7+E26+E10+E11+E12+E13+E15+E17+E23+E8+E6+E27</f>
@@ -22286,12 +22343,12 @@
       <c r="AE86" s="207"/>
     </row>
     <row r="87" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K87" s="298" t="s">
+      <c r="K87" s="281" t="s">
         <v>300</v>
       </c>
-      <c r="L87" s="298"/>
-      <c r="M87" s="298"/>
-      <c r="N87" s="299"/>
+      <c r="L87" s="281"/>
+      <c r="M87" s="281"/>
+      <c r="N87" s="282"/>
       <c r="O87" s="115">
         <f>SUM(O6:O86)</f>
         <v>0</v>
@@ -22322,7 +22379,7 @@
       </c>
       <c r="V87" s="115">
         <f>SUM(V5:V86)</f>
-        <v>32892.58</v>
+        <v>34192.58</v>
       </c>
       <c r="W87" s="115">
         <f>SUM(W5:W85)</f>
@@ -22350,12 +22407,12 @@
       </c>
     </row>
     <row r="88" spans="8:31" ht="15.75" thickBot="1">
-      <c r="K88" s="307" t="s">
+      <c r="K88" s="272" t="s">
         <v>61</v>
       </c>
-      <c r="L88" s="307"/>
-      <c r="M88" s="307"/>
-      <c r="N88" s="308"/>
+      <c r="L88" s="272"/>
+      <c r="M88" s="272"/>
+      <c r="N88" s="273"/>
       <c r="O88" s="141">
         <f>O2+O3-SUM(O5:O85)-O4</f>
         <v>45106.879999999997</v>
@@ -22386,7 +22443,7 @@
       </c>
       <c r="V88" s="141">
         <f>V2-V87-V4+V3</f>
-        <v>1414.7599999999984</v>
+        <v>114.7599999999984</v>
       </c>
       <c r="W88" s="141">
         <f>W2+SUM(W5:W85)-W4</f>
@@ -22406,12 +22463,12 @@
       </c>
     </row>
     <row r="89" spans="8:31">
-      <c r="K89" s="309" t="s">
+      <c r="K89" s="274" t="s">
         <v>62</v>
       </c>
-      <c r="L89" s="309"/>
-      <c r="M89" s="309"/>
-      <c r="N89" s="309"/>
+      <c r="L89" s="274"/>
+      <c r="M89" s="274"/>
+      <c r="N89" s="274"/>
       <c r="O89" s="61">
         <f>O88</f>
         <v>45106.879999999997</v>
@@ -22442,23 +22499,23 @@
       </c>
       <c r="V89" s="61">
         <f>SUM(O88:V88)</f>
-        <v>310693.75</v>
+        <v>309393.75</v>
       </c>
       <c r="W89" s="61">
         <f>SUM(O88:W88)</f>
-        <v>359623.15</v>
+        <v>358323.15</v>
       </c>
       <c r="X89" s="61">
         <f>SUM(O88:X88)</f>
-        <v>408552.55000000005</v>
+        <v>407252.55000000005</v>
       </c>
       <c r="Y89" s="61">
         <f>SUM(O88:Y88)</f>
-        <v>457481.95000000007</v>
+        <v>456181.95000000007</v>
       </c>
       <c r="Z89" s="61">
         <f>SUM(O88:Z88)</f>
-        <v>506486.35000000009</v>
+        <v>505186.35000000009</v>
       </c>
     </row>
     <row r="90" spans="8:31">
@@ -22490,22 +22547,22 @@
       <c r="L92" s="47"/>
       <c r="M92" s="47"/>
       <c r="N92" s="47"/>
-      <c r="P92" s="310"/>
-      <c r="Q92" s="310"/>
-      <c r="R92" s="310"/>
-      <c r="S92" s="310"/>
-      <c r="T92" s="310"/>
+      <c r="P92" s="275"/>
+      <c r="Q92" s="275"/>
+      <c r="R92" s="275"/>
+      <c r="S92" s="275"/>
+      <c r="T92" s="275"/>
     </row>
     <row r="93" spans="8:31">
       <c r="K93" s="47"/>
       <c r="L93" s="47"/>
       <c r="M93" s="47"/>
       <c r="N93" s="47"/>
-      <c r="P93" s="310"/>
-      <c r="Q93" s="310"/>
-      <c r="R93" s="310"/>
-      <c r="S93" s="310"/>
-      <c r="T93" s="310"/>
+      <c r="P93" s="275"/>
+      <c r="Q93" s="275"/>
+      <c r="R93" s="275"/>
+      <c r="S93" s="275"/>
+      <c r="T93" s="275"/>
     </row>
     <row r="94" spans="8:31">
       <c r="K94" s="47"/>
@@ -22952,28 +23009,31 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="P92:T92"/>
-    <mergeCell ref="P93:T93"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="AC83:AE83"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="AC85:AE85"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="AC77:AE77"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="AC79:AE79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="AC67:AE67"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="AC70:AE70"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="AC49:AE49"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="AC43:AE43"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="AC48:AE48"/>
     <mergeCell ref="K63:N63"/>
     <mergeCell ref="AC63:AE63"/>
     <mergeCell ref="K51:N51"/>
@@ -22987,31 +23047,28 @@
     <mergeCell ref="AC60:AE60"/>
     <mergeCell ref="K62:N62"/>
     <mergeCell ref="AC62:AE62"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="AC49:AE49"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="AC43:AE43"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="AC48:AE48"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="AC67:AE67"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="AC70:AE70"/>
+    <mergeCell ref="AC83:AE83"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="AC85:AE85"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="AC77:AE77"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="AC79:AE79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="P92:T92"/>
+    <mergeCell ref="P93:T93"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23043,10 +23100,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="256" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="269"/>
+      <c r="B1" s="257"/>
       <c r="C1" s="138" t="s">
         <v>1</v>
       </c>
@@ -23058,12 +23115,12 @@
       </c>
       <c r="H1" s="180"/>
       <c r="I1" s="180"/>
-      <c r="J1" s="276" t="s">
+      <c r="J1" s="310" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="276"/>
-      <c r="L1" s="276"/>
-      <c r="M1" s="277"/>
+      <c r="K1" s="310"/>
+      <c r="L1" s="310"/>
+      <c r="M1" s="311"/>
       <c r="N1" s="50" t="s">
         <v>44</v>
       </c>
@@ -23122,18 +23179,18 @@
       <c r="F2" s="191" t="s">
         <v>465</v>
       </c>
-      <c r="G2" s="274">
+      <c r="G2" s="308">
         <f>C33+C34</f>
         <v>30018.85</v>
       </c>
-      <c r="H2" s="274"/>
-      <c r="I2" s="274"/>
-      <c r="J2" s="278" t="s">
+      <c r="H2" s="308"/>
+      <c r="I2" s="308"/>
+      <c r="J2" s="300" t="s">
         <v>543</v>
       </c>
-      <c r="K2" s="278"/>
-      <c r="L2" s="278"/>
-      <c r="M2" s="278"/>
+      <c r="K2" s="300"/>
+      <c r="L2" s="300"/>
+      <c r="M2" s="300"/>
       <c r="N2" s="47">
         <v>46239.28</v>
       </c>
@@ -23228,11 +23285,11 @@
       </c>
       <c r="Z3" s="118"/>
       <c r="AA3" s="20"/>
-      <c r="AB3" s="279" t="s">
+      <c r="AB3" s="312" t="s">
         <v>480</v>
       </c>
-      <c r="AC3" s="280"/>
-      <c r="AD3" s="280"/>
+      <c r="AC3" s="313"/>
+      <c r="AD3" s="313"/>
     </row>
     <row r="4" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="47"/>
@@ -23249,12 +23306,12 @@
       <c r="F4" s="191" t="s">
         <v>453</v>
       </c>
-      <c r="J4" s="270" t="s">
+      <c r="J4" s="304" t="s">
         <v>504</v>
       </c>
-      <c r="K4" s="314"/>
-      <c r="L4" s="314"/>
-      <c r="M4" s="315"/>
+      <c r="K4" s="316"/>
+      <c r="L4" s="316"/>
+      <c r="M4" s="317"/>
       <c r="N4" s="56">
         <v>2009</v>
       </c>
@@ -23290,11 +23347,11 @@
         <f>AVERAGE(N4:Y4)</f>
         <v>5583.6120000000001</v>
       </c>
-      <c r="AB4" s="272" t="s">
+      <c r="AB4" s="306" t="s">
         <v>63</v>
       </c>
-      <c r="AC4" s="272"/>
-      <c r="AD4" s="273"/>
+      <c r="AC4" s="306"/>
+      <c r="AD4" s="307"/>
     </row>
     <row r="5" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="125" t="s">
@@ -23314,12 +23371,12 @@
       <c r="F5" s="191" t="s">
         <v>576</v>
       </c>
-      <c r="J5" s="283" t="s">
+      <c r="J5" s="301" t="s">
         <v>149</v>
       </c>
-      <c r="K5" s="283"/>
-      <c r="L5" s="283"/>
-      <c r="M5" s="283"/>
+      <c r="K5" s="301"/>
+      <c r="L5" s="301"/>
+      <c r="M5" s="301"/>
       <c r="N5" s="202"/>
       <c r="Y5">
         <v>1</v>
@@ -23332,9 +23389,9 @@
         <f>AVERAGE(N5:Y5)</f>
         <v>1</v>
       </c>
-      <c r="AB5" s="257"/>
-      <c r="AC5" s="257"/>
-      <c r="AD5" s="257"/>
+      <c r="AB5" s="259"/>
+      <c r="AC5" s="259"/>
+      <c r="AD5" s="259"/>
     </row>
     <row r="6" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="125"/>
@@ -23355,9 +23412,9 @@
       </c>
       <c r="Z6" s="118"/>
       <c r="AA6" s="20"/>
-      <c r="AB6" s="285"/>
-      <c r="AC6" s="257"/>
-      <c r="AD6" s="257"/>
+      <c r="AB6" s="303"/>
+      <c r="AC6" s="259"/>
+      <c r="AD6" s="259"/>
     </row>
     <row r="7" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="47"/>
@@ -23847,11 +23904,11 @@
       </c>
       <c r="Z23" s="118"/>
       <c r="AA23" s="20"/>
-      <c r="AB23" s="286" t="s">
+      <c r="AB23" s="298" t="s">
         <v>471</v>
       </c>
-      <c r="AC23" s="258"/>
-      <c r="AD23" s="258"/>
+      <c r="AC23" s="260"/>
+      <c r="AD23" s="260"/>
     </row>
     <row r="24" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="47"/>
@@ -23924,12 +23981,12 @@
       </c>
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
-      <c r="J26" s="287" t="s">
+      <c r="J26" s="280" t="s">
         <v>586</v>
       </c>
-      <c r="K26" s="287"/>
-      <c r="L26" s="287"/>
-      <c r="M26" s="288"/>
+      <c r="K26" s="280"/>
+      <c r="L26" s="280"/>
+      <c r="M26" s="290"/>
       <c r="U26">
         <v>69.900000000000006</v>
       </c>
@@ -23944,11 +24001,11 @@
         <f>AVERAGE(N26:Y26)</f>
         <v>35.450000000000003</v>
       </c>
-      <c r="AB26" s="258" t="s">
+      <c r="AB26" s="260" t="s">
         <v>276</v>
       </c>
-      <c r="AC26" s="258"/>
-      <c r="AD26" s="258"/>
+      <c r="AC26" s="260"/>
+      <c r="AD26" s="260"/>
     </row>
     <row r="27" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="231">
@@ -24017,12 +24074,12 @@
         <f>C27-E27</f>
         <v>3087.4400000000005</v>
       </c>
-      <c r="J29" s="287" t="s">
+      <c r="J29" s="280" t="s">
         <v>386</v>
       </c>
-      <c r="K29" s="287"/>
-      <c r="L29" s="287"/>
-      <c r="M29" s="287"/>
+      <c r="K29" s="280"/>
+      <c r="L29" s="280"/>
+      <c r="M29" s="280"/>
       <c r="N29" s="202"/>
       <c r="Y29">
         <v>1</v>
@@ -24035,11 +24092,11 @@
         <f>AVERAGE(N29:Y29)</f>
         <v>1</v>
       </c>
-      <c r="AB29" s="259" t="s">
+      <c r="AB29" s="261" t="s">
         <v>65</v>
       </c>
-      <c r="AC29" s="259"/>
-      <c r="AD29" s="259"/>
+      <c r="AC29" s="261"/>
+      <c r="AD29" s="261"/>
     </row>
     <row r="30" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="47"/>
@@ -24150,18 +24207,18 @@
         <f>SUM(E2:E13)</f>
         <v>8645</v>
       </c>
-      <c r="G33" s="274">
+      <c r="G33" s="308">
         <f>C33+C34</f>
         <v>30018.85</v>
       </c>
-      <c r="H33" s="274"/>
-      <c r="I33" s="274"/>
-      <c r="J33" s="287" t="s">
+      <c r="H33" s="308"/>
+      <c r="I33" s="308"/>
+      <c r="J33" s="280" t="s">
         <v>500</v>
       </c>
-      <c r="K33" s="293"/>
-      <c r="L33" s="293"/>
-      <c r="M33" s="293"/>
+      <c r="K33" s="297"/>
+      <c r="L33" s="297"/>
+      <c r="M33" s="297"/>
       <c r="N33" s="202"/>
       <c r="U33">
         <v>230</v>
@@ -24300,12 +24357,12 @@
       <c r="F37" s="47"/>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
-      <c r="J37" s="278" t="s">
+      <c r="J37" s="300" t="s">
         <v>489</v>
       </c>
-      <c r="K37" s="278"/>
-      <c r="L37" s="278"/>
-      <c r="M37" s="288"/>
+      <c r="K37" s="300"/>
+      <c r="L37" s="300"/>
+      <c r="M37" s="290"/>
       <c r="N37" s="202"/>
       <c r="Y37">
         <v>1</v>
@@ -24318,11 +24375,11 @@
         <f>AVERAGE(N37:Y37)</f>
         <v>1</v>
       </c>
-      <c r="AB37" s="259" t="s">
+      <c r="AB37" s="261" t="s">
         <v>105</v>
       </c>
-      <c r="AC37" s="259"/>
-      <c r="AD37" s="291"/>
+      <c r="AC37" s="261"/>
+      <c r="AD37" s="295"/>
     </row>
     <row r="38" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A38" s="47"/>
@@ -24452,11 +24509,11 @@
       </c>
       <c r="Z42" s="118"/>
       <c r="AA42" s="20"/>
-      <c r="AB42" s="286" t="s">
+      <c r="AB42" s="298" t="s">
         <v>499</v>
       </c>
-      <c r="AC42" s="258"/>
-      <c r="AD42" s="290"/>
+      <c r="AC42" s="260"/>
+      <c r="AD42" s="296"/>
     </row>
     <row r="43" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A43" s="47"/>
@@ -24468,12 +24525,12 @@
       <c r="G43" s="47"/>
       <c r="H43" s="47"/>
       <c r="I43" s="47"/>
-      <c r="J43" s="287" t="s">
+      <c r="J43" s="280" t="s">
         <v>263</v>
       </c>
-      <c r="K43" s="287"/>
-      <c r="L43" s="287"/>
-      <c r="M43" s="287"/>
+      <c r="K43" s="280"/>
+      <c r="L43" s="280"/>
+      <c r="M43" s="280"/>
       <c r="N43" s="202"/>
       <c r="U43">
         <v>384.98</v>
@@ -24489,11 +24546,11 @@
         <f>AVERAGE(N43:Y43)</f>
         <v>192.99</v>
       </c>
-      <c r="AB43" s="258" t="s">
+      <c r="AB43" s="260" t="s">
         <v>291</v>
       </c>
-      <c r="AC43" s="258"/>
-      <c r="AD43" s="290"/>
+      <c r="AC43" s="260"/>
+      <c r="AD43" s="296"/>
     </row>
     <row r="44" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" t="s">
@@ -24644,12 +24701,12 @@
         <v>524</v>
       </c>
       <c r="I48" s="47"/>
-      <c r="J48" s="287" t="s">
+      <c r="J48" s="280" t="s">
         <v>475</v>
       </c>
-      <c r="K48" s="287"/>
-      <c r="L48" s="287"/>
-      <c r="M48" s="287"/>
+      <c r="K48" s="280"/>
+      <c r="L48" s="280"/>
+      <c r="M48" s="280"/>
       <c r="N48" s="202"/>
       <c r="U48">
         <f>95.11+60.96+74.98</f>
@@ -24666,11 +24723,11 @@
         <f t="shared" ref="AA48:AA61" si="1">AVERAGE(N48:Y48)</f>
         <v>116.02500000000001</v>
       </c>
-      <c r="AB48" s="258" t="s">
+      <c r="AB48" s="260" t="s">
         <v>475</v>
       </c>
-      <c r="AC48" s="258"/>
-      <c r="AD48" s="290"/>
+      <c r="AC48" s="260"/>
+      <c r="AD48" s="296"/>
       <c r="AE48">
         <f>U22+U23+U33+U48+U55+U49+U47+U10</f>
         <v>5579.6</v>
@@ -24691,12 +24748,12 @@
         <v>523</v>
       </c>
       <c r="I49" s="47"/>
-      <c r="J49" s="289" t="s">
+      <c r="J49" s="299" t="s">
         <v>476</v>
       </c>
-      <c r="K49" s="289"/>
-      <c r="L49" s="289"/>
-      <c r="M49" s="289"/>
+      <c r="K49" s="299"/>
+      <c r="L49" s="299"/>
+      <c r="M49" s="299"/>
       <c r="N49" s="202"/>
       <c r="U49">
         <f>148.96+124.99</f>
@@ -24713,11 +24770,11 @@
         <f t="shared" si="1"/>
         <v>137.47499999999999</v>
       </c>
-      <c r="AB49" s="258" t="s">
+      <c r="AB49" s="260" t="s">
         <v>477</v>
       </c>
-      <c r="AC49" s="258"/>
-      <c r="AD49" s="290"/>
+      <c r="AC49" s="260"/>
+      <c r="AD49" s="296"/>
     </row>
     <row r="50" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="B50" s="47"/>
@@ -24752,12 +24809,12 @@
         <v>1620</v>
       </c>
       <c r="I51" s="47"/>
-      <c r="J51" s="292" t="s">
+      <c r="J51" s="291" t="s">
         <v>301</v>
       </c>
-      <c r="K51" s="292"/>
-      <c r="L51" s="292"/>
-      <c r="M51" s="292"/>
+      <c r="K51" s="291"/>
+      <c r="L51" s="291"/>
+      <c r="M51" s="291"/>
       <c r="N51" s="202"/>
       <c r="U51">
         <v>922.33</v>
@@ -24773,11 +24830,11 @@
         <f t="shared" si="1"/>
         <v>461.66500000000002</v>
       </c>
-      <c r="AB51" s="258" t="s">
+      <c r="AB51" s="260" t="s">
         <v>301</v>
       </c>
-      <c r="AC51" s="258"/>
-      <c r="AD51" s="290"/>
+      <c r="AC51" s="260"/>
+      <c r="AD51" s="296"/>
     </row>
     <row r="52" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="B52" s="47"/>
@@ -24884,12 +24941,12 @@
     </row>
     <row r="56" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I56" s="47"/>
-      <c r="J56" s="293" t="s">
+      <c r="J56" s="297" t="s">
         <v>95</v>
       </c>
-      <c r="K56" s="293"/>
-      <c r="L56" s="293"/>
-      <c r="M56" s="293"/>
+      <c r="K56" s="297"/>
+      <c r="L56" s="297"/>
+      <c r="M56" s="297"/>
       <c r="N56" s="202"/>
       <c r="Y56">
         <v>1</v>
@@ -24902,20 +24959,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AB56" s="259" t="s">
+      <c r="AB56" s="261" t="s">
         <v>95</v>
       </c>
-      <c r="AC56" s="259"/>
-      <c r="AD56" s="259"/>
+      <c r="AC56" s="261"/>
+      <c r="AD56" s="261"/>
     </row>
     <row r="57" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I57" s="47"/>
-      <c r="J57" s="287" t="s">
+      <c r="J57" s="280" t="s">
         <v>67</v>
       </c>
-      <c r="K57" s="287"/>
-      <c r="L57" s="287"/>
-      <c r="M57" s="287"/>
+      <c r="K57" s="280"/>
+      <c r="L57" s="280"/>
+      <c r="M57" s="280"/>
       <c r="N57" s="202"/>
       <c r="U57">
         <v>700</v>
@@ -24931,20 +24988,20 @@
         <f t="shared" si="1"/>
         <v>350.5</v>
       </c>
-      <c r="AB57" s="259" t="s">
+      <c r="AB57" s="261" t="s">
         <v>67</v>
       </c>
-      <c r="AC57" s="259"/>
-      <c r="AD57" s="259"/>
+      <c r="AC57" s="261"/>
+      <c r="AD57" s="261"/>
     </row>
     <row r="58" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I58" s="47"/>
-      <c r="J58" s="287" t="s">
+      <c r="J58" s="280" t="s">
         <v>299</v>
       </c>
-      <c r="K58" s="287"/>
-      <c r="L58" s="287"/>
-      <c r="M58" s="287"/>
+      <c r="K58" s="280"/>
+      <c r="L58" s="280"/>
+      <c r="M58" s="280"/>
       <c r="N58" s="202"/>
       <c r="T58" s="114"/>
       <c r="Y58">
@@ -24958,11 +25015,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AB58" s="258" t="s">
+      <c r="AB58" s="260" t="s">
         <v>299</v>
       </c>
-      <c r="AC58" s="258"/>
-      <c r="AD58" s="258"/>
+      <c r="AC58" s="260"/>
+      <c r="AD58" s="260"/>
     </row>
     <row r="59" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J59" s="208"/>
@@ -25008,11 +25065,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AB60" s="286" t="s">
+      <c r="AB60" s="298" t="s">
         <v>479</v>
       </c>
-      <c r="AC60" s="258"/>
-      <c r="AD60" s="258"/>
+      <c r="AC60" s="260"/>
+      <c r="AD60" s="260"/>
     </row>
     <row r="61" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="D61" s="239"/>
@@ -25041,12 +25098,12 @@
     </row>
     <row r="62" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="D62" s="44"/>
-      <c r="J62" s="287" t="s">
+      <c r="J62" s="280" t="s">
         <v>481</v>
       </c>
-      <c r="K62" s="287"/>
-      <c r="L62" s="287"/>
-      <c r="M62" s="287"/>
+      <c r="K62" s="280"/>
+      <c r="L62" s="280"/>
+      <c r="M62" s="280"/>
       <c r="N62" s="202"/>
       <c r="T62" s="114"/>
       <c r="U62">
@@ -25064,19 +25121,19 @@
         <f t="shared" ref="AA62:AA86" si="3">AVERAGE(N62:Y62)</f>
         <v>146.5</v>
       </c>
-      <c r="AB62" s="258" t="s">
+      <c r="AB62" s="260" t="s">
         <v>264</v>
       </c>
-      <c r="AC62" s="258"/>
-      <c r="AD62" s="290"/>
+      <c r="AC62" s="260"/>
+      <c r="AD62" s="296"/>
     </row>
     <row r="63" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J63" s="287" t="s">
+      <c r="J63" s="280" t="s">
         <v>387</v>
       </c>
-      <c r="K63" s="287"/>
-      <c r="L63" s="287"/>
-      <c r="M63" s="287"/>
+      <c r="K63" s="280"/>
+      <c r="L63" s="280"/>
+      <c r="M63" s="280"/>
       <c r="N63" s="202"/>
       <c r="U63">
         <v>97.6</v>
@@ -25092,11 +25149,11 @@
         <f t="shared" si="3"/>
         <v>49.3</v>
       </c>
-      <c r="AB63" s="259" t="s">
+      <c r="AB63" s="261" t="s">
         <v>58</v>
       </c>
-      <c r="AC63" s="259"/>
-      <c r="AD63" s="291"/>
+      <c r="AC63" s="261"/>
+      <c r="AD63" s="295"/>
     </row>
     <row r="64" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J64" s="208"/>
@@ -25122,12 +25179,12 @@
       <c r="AD64" s="209"/>
     </row>
     <row r="65" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J65" s="287" t="s">
+      <c r="J65" s="280" t="s">
         <v>469</v>
       </c>
-      <c r="K65" s="287"/>
-      <c r="L65" s="287"/>
-      <c r="M65" s="288"/>
+      <c r="K65" s="280"/>
+      <c r="L65" s="280"/>
+      <c r="M65" s="290"/>
       <c r="N65" s="202"/>
       <c r="Y65">
         <v>1</v>
@@ -25147,12 +25204,12 @@
       <c r="AD65" s="209"/>
     </row>
     <row r="66" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J66" s="292" t="s">
+      <c r="J66" s="291" t="s">
         <v>527</v>
       </c>
-      <c r="K66" s="292"/>
-      <c r="L66" s="292"/>
-      <c r="M66" s="294"/>
+      <c r="K66" s="291"/>
+      <c r="L66" s="291"/>
+      <c r="M66" s="292"/>
       <c r="N66" s="202"/>
       <c r="U66">
         <v>272.39</v>
@@ -25175,12 +25232,12 @@
       <c r="AD66" s="209"/>
     </row>
     <row r="67" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J67" s="292" t="s">
+      <c r="J67" s="291" t="s">
         <v>246</v>
       </c>
-      <c r="K67" s="292"/>
-      <c r="L67" s="292"/>
-      <c r="M67" s="294"/>
+      <c r="K67" s="291"/>
+      <c r="L67" s="291"/>
+      <c r="M67" s="292"/>
       <c r="N67" s="202"/>
       <c r="U67">
         <f>323.75+568.73</f>
@@ -25197,11 +25254,11 @@
         <f t="shared" si="3"/>
         <v>446.74</v>
       </c>
-      <c r="AB67" s="295" t="s">
+      <c r="AB67" s="293" t="s">
         <v>246</v>
       </c>
-      <c r="AC67" s="295"/>
-      <c r="AD67" s="296"/>
+      <c r="AC67" s="293"/>
+      <c r="AD67" s="294"/>
     </row>
     <row r="68" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J68" s="208"/>
@@ -25250,12 +25307,12 @@
       <c r="AD69" s="216"/>
     </row>
     <row r="70" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J70" s="287" t="s">
+      <c r="J70" s="280" t="s">
         <v>268</v>
       </c>
-      <c r="K70" s="287"/>
-      <c r="L70" s="287"/>
-      <c r="M70" s="287"/>
+      <c r="K70" s="280"/>
+      <c r="L70" s="280"/>
+      <c r="M70" s="280"/>
       <c r="N70" s="202"/>
       <c r="Y70">
         <v>1</v>
@@ -25268,11 +25325,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AB70" s="295" t="s">
+      <c r="AB70" s="293" t="s">
         <v>268</v>
       </c>
-      <c r="AC70" s="295"/>
-      <c r="AD70" s="296"/>
+      <c r="AC70" s="293"/>
+      <c r="AD70" s="294"/>
     </row>
     <row r="71" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J71" s="208"/>
@@ -25389,12 +25446,12 @@
       <c r="AD76" s="216"/>
     </row>
     <row r="77" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J77" s="300" t="s">
+      <c r="J77" s="283" t="s">
         <v>6</v>
       </c>
-      <c r="K77" s="300"/>
-      <c r="L77" s="300"/>
-      <c r="M77" s="300"/>
+      <c r="K77" s="283"/>
+      <c r="L77" s="283"/>
+      <c r="M77" s="283"/>
       <c r="N77" s="202"/>
       <c r="U77">
         <f>157.99+1236.88+32+54.9+58.9+44</f>
@@ -25411,11 +25468,11 @@
         <f t="shared" si="3"/>
         <v>792.83500000000015</v>
       </c>
-      <c r="AB77" s="265" t="s">
+      <c r="AB77" s="262" t="s">
         <v>6</v>
       </c>
-      <c r="AC77" s="265"/>
-      <c r="AD77" s="301"/>
+      <c r="AC77" s="262"/>
+      <c r="AD77" s="284"/>
     </row>
     <row r="78" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J78" s="237"/>
@@ -25442,12 +25499,12 @@
     </row>
     <row r="79" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="H79" s="62"/>
-      <c r="J79" s="302" t="s">
+      <c r="J79" s="285" t="s">
         <v>60</v>
       </c>
-      <c r="K79" s="302"/>
-      <c r="L79" s="302"/>
-      <c r="M79" s="302"/>
+      <c r="K79" s="285"/>
+      <c r="L79" s="285"/>
+      <c r="M79" s="285"/>
       <c r="Y79">
         <v>1</v>
       </c>
@@ -25459,19 +25516,19 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AB79" s="303" t="s">
+      <c r="AB79" s="286" t="s">
         <v>60</v>
       </c>
-      <c r="AC79" s="303"/>
-      <c r="AD79" s="303"/>
+      <c r="AC79" s="286"/>
+      <c r="AD79" s="286"/>
     </row>
     <row r="80" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J80" s="300" t="s">
+      <c r="J80" s="283" t="s">
         <v>443</v>
       </c>
-      <c r="K80" s="300"/>
-      <c r="L80" s="300"/>
-      <c r="M80" s="300"/>
+      <c r="K80" s="283"/>
+      <c r="L80" s="283"/>
+      <c r="M80" s="283"/>
       <c r="N80" s="202"/>
       <c r="Y80">
         <v>1</v>
@@ -25489,12 +25546,12 @@
       <c r="AD80" s="187"/>
     </row>
     <row r="81" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J81" s="304" t="s">
+      <c r="J81" s="287" t="s">
         <v>539</v>
       </c>
-      <c r="K81" s="305"/>
-      <c r="L81" s="305"/>
-      <c r="M81" s="306"/>
+      <c r="K81" s="288"/>
+      <c r="L81" s="288"/>
+      <c r="M81" s="289"/>
       <c r="N81" s="202"/>
       <c r="U81">
         <f>75.3+9.2</f>
@@ -25516,12 +25573,12 @@
       <c r="AD81" s="187"/>
     </row>
     <row r="82" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J82" s="311" t="s">
+      <c r="J82" s="276" t="s">
         <v>540</v>
       </c>
-      <c r="K82" s="311"/>
-      <c r="L82" s="311"/>
-      <c r="M82" s="312"/>
+      <c r="K82" s="276"/>
+      <c r="L82" s="276"/>
+      <c r="M82" s="277"/>
       <c r="N82" s="202"/>
       <c r="Y82">
         <v>1</v>
@@ -25539,12 +25596,12 @@
       <c r="AD82" s="187"/>
     </row>
     <row r="83" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J83" s="313" t="s">
+      <c r="J83" s="278" t="s">
         <v>298</v>
       </c>
-      <c r="K83" s="313"/>
-      <c r="L83" s="313"/>
-      <c r="M83" s="313"/>
+      <c r="K83" s="278"/>
+      <c r="L83" s="278"/>
+      <c r="M83" s="278"/>
       <c r="N83" s="202"/>
       <c r="Y83">
         <v>1</v>
@@ -25557,11 +25614,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AB83" s="297" t="s">
+      <c r="AB83" s="279" t="s">
         <v>298</v>
       </c>
-      <c r="AC83" s="297"/>
-      <c r="AD83" s="297"/>
+      <c r="AC83" s="279"/>
+      <c r="AD83" s="279"/>
     </row>
     <row r="84" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J84" s="215"/>
@@ -25591,12 +25648,12 @@
     </row>
     <row r="85" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="H85" s="62"/>
-      <c r="J85" s="287" t="s">
+      <c r="J85" s="280" t="s">
         <v>297</v>
       </c>
-      <c r="K85" s="287"/>
-      <c r="L85" s="287"/>
-      <c r="M85" s="287"/>
+      <c r="K85" s="280"/>
+      <c r="L85" s="280"/>
+      <c r="M85" s="280"/>
       <c r="N85" s="203"/>
       <c r="Y85">
         <v>1</v>
@@ -25609,11 +25666,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AB85" s="258" t="s">
+      <c r="AB85" s="260" t="s">
         <v>297</v>
       </c>
-      <c r="AC85" s="258"/>
-      <c r="AD85" s="258"/>
+      <c r="AC85" s="260"/>
+      <c r="AD85" s="260"/>
     </row>
     <row r="86" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J86" s="208"/>
@@ -25677,12 +25734,12 @@
       <c r="AD86" s="207"/>
     </row>
     <row r="87" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J87" s="298" t="s">
+      <c r="J87" s="281" t="s">
         <v>300</v>
       </c>
-      <c r="K87" s="298"/>
-      <c r="L87" s="298"/>
-      <c r="M87" s="299"/>
+      <c r="K87" s="281"/>
+      <c r="L87" s="281"/>
+      <c r="M87" s="282"/>
       <c r="N87" s="115">
         <f>SUM(N6:N86)</f>
         <v>0</v>
@@ -25741,12 +25798,12 @@
       </c>
     </row>
     <row r="88" spans="8:30" ht="15.75" thickBot="1">
-      <c r="J88" s="307" t="s">
+      <c r="J88" s="272" t="s">
         <v>61</v>
       </c>
-      <c r="K88" s="307"/>
-      <c r="L88" s="307"/>
-      <c r="M88" s="308"/>
+      <c r="K88" s="272"/>
+      <c r="L88" s="272"/>
+      <c r="M88" s="273"/>
       <c r="N88" s="141">
         <f>N2+N3-SUM(N5:N85)-N4</f>
         <v>44230.28</v>
@@ -25797,12 +25854,12 @@
       </c>
     </row>
     <row r="89" spans="8:30">
-      <c r="J89" s="309" t="s">
+      <c r="J89" s="274" t="s">
         <v>62</v>
       </c>
-      <c r="K89" s="309"/>
-      <c r="L89" s="309"/>
-      <c r="M89" s="309"/>
+      <c r="K89" s="274"/>
+      <c r="L89" s="274"/>
+      <c r="M89" s="274"/>
       <c r="N89" s="61">
         <f>N88</f>
         <v>44230.28</v>
@@ -25881,22 +25938,22 @@
       <c r="K92" s="47"/>
       <c r="L92" s="47"/>
       <c r="M92" s="47"/>
-      <c r="O92" s="310"/>
-      <c r="P92" s="310"/>
-      <c r="Q92" s="310"/>
-      <c r="R92" s="310"/>
-      <c r="S92" s="310"/>
+      <c r="O92" s="275"/>
+      <c r="P92" s="275"/>
+      <c r="Q92" s="275"/>
+      <c r="R92" s="275"/>
+      <c r="S92" s="275"/>
     </row>
     <row r="93" spans="8:30">
       <c r="J93" s="47"/>
       <c r="K93" s="47"/>
       <c r="L93" s="47"/>
       <c r="M93" s="47"/>
-      <c r="O93" s="310"/>
-      <c r="P93" s="310"/>
-      <c r="Q93" s="310"/>
-      <c r="R93" s="310"/>
-      <c r="S93" s="310"/>
+      <c r="O93" s="275"/>
+      <c r="P93" s="275"/>
+      <c r="Q93" s="275"/>
+      <c r="R93" s="275"/>
+      <c r="S93" s="275"/>
     </row>
     <row r="94" spans="8:30">
       <c r="J94" s="47"/>
@@ -26367,6 +26424,56 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AB37:AD37"/>
+    <mergeCell ref="AB42:AD42"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="AB43:AD43"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AB23:AD23"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="AB29:AD29"/>
+    <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="AB49:AD49"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="AB51:AD51"/>
+    <mergeCell ref="AB60:AD60"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="AB62:AD62"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="AB63:AD63"/>
+    <mergeCell ref="AB56:AD56"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="AB57:AD57"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="AB58:AD58"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="J82:M82"/>
+    <mergeCell ref="J65:M65"/>
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="J77:M77"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="O93:S93"/>
+    <mergeCell ref="J85:M85"/>
+    <mergeCell ref="AB85:AD85"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="O92:S92"/>
     <mergeCell ref="J83:M83"/>
     <mergeCell ref="AB83:AD83"/>
     <mergeCell ref="J66:M66"/>
@@ -26378,56 +26485,6 @@
     <mergeCell ref="AB79:AD79"/>
     <mergeCell ref="J80:M80"/>
     <mergeCell ref="AB77:AD77"/>
-    <mergeCell ref="O93:S93"/>
-    <mergeCell ref="J85:M85"/>
-    <mergeCell ref="AB85:AD85"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="O92:S92"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="AB56:AD56"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="AB57:AD57"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="AB58:AD58"/>
-    <mergeCell ref="AB60:AD60"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="AB62:AD62"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="AB63:AD63"/>
-    <mergeCell ref="AB48:AD48"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="AB49:AD49"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="AB51:AD51"/>
-    <mergeCell ref="AB37:AD37"/>
-    <mergeCell ref="AB42:AD42"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="AB43:AD43"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AB23:AD23"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="AB29:AD29"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AB3:AD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26450,10 +26507,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="256" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="269"/>
+      <c r="B1" s="257"/>
       <c r="C1" s="138" t="s">
         <v>1</v>
       </c>
@@ -26463,12 +26520,12 @@
       <c r="G1" s="47"/>
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
-      <c r="J1" s="276" t="s">
+      <c r="J1" s="310" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="276"/>
-      <c r="L1" s="276"/>
-      <c r="M1" s="277"/>
+      <c r="K1" s="310"/>
+      <c r="L1" s="310"/>
+      <c r="M1" s="311"/>
       <c r="N1" s="50" t="s">
         <v>44</v>
       </c>
@@ -26531,12 +26588,12 @@
       </c>
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
-      <c r="J2" s="278" t="s">
+      <c r="J2" s="300" t="s">
         <v>543</v>
       </c>
-      <c r="K2" s="278"/>
-      <c r="L2" s="278"/>
-      <c r="M2" s="278"/>
+      <c r="K2" s="300"/>
+      <c r="L2" s="300"/>
+      <c r="M2" s="300"/>
       <c r="N2" s="47">
         <f>43178.75</f>
         <v>43178.75</v>
@@ -26585,12 +26642,12 @@
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
-      <c r="J3" s="270" t="s">
+      <c r="J3" s="304" t="s">
         <v>504</v>
       </c>
-      <c r="K3" s="314"/>
-      <c r="L3" s="314"/>
-      <c r="M3" s="315"/>
+      <c r="K3" s="316"/>
+      <c r="L3" s="316"/>
+      <c r="M3" s="317"/>
       <c r="N3" s="56">
         <v>3929</v>
       </c>
@@ -26617,11 +26674,11 @@
         <f>AVERAGE(N3:Y3)</f>
         <v>2675.3333333333335</v>
       </c>
-      <c r="AB3" s="272" t="s">
+      <c r="AB3" s="306" t="s">
         <v>63</v>
       </c>
-      <c r="AC3" s="272"/>
-      <c r="AD3" s="273"/>
+      <c r="AC3" s="306"/>
+      <c r="AD3" s="307"/>
     </row>
     <row r="4" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="47"/>
@@ -26641,12 +26698,12 @@
       <c r="F4" s="191" t="s">
         <v>453</v>
       </c>
-      <c r="J4" s="283" t="s">
+      <c r="J4" s="301" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="283"/>
-      <c r="L4" s="283"/>
-      <c r="M4" s="283"/>
+      <c r="K4" s="301"/>
+      <c r="L4" s="301"/>
+      <c r="M4" s="301"/>
       <c r="N4" s="202"/>
       <c r="O4" s="118">
         <v>55000</v>
@@ -26659,11 +26716,11 @@
         <f>AVERAGE(N4:Y4)</f>
         <v>55000</v>
       </c>
-      <c r="AB4" s="257" t="s">
+      <c r="AB4" s="259" t="s">
         <v>149</v>
       </c>
-      <c r="AC4" s="257"/>
-      <c r="AD4" s="257"/>
+      <c r="AC4" s="259"/>
+      <c r="AD4" s="259"/>
     </row>
     <row r="5" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="125" t="s">
@@ -26691,11 +26748,11 @@
       </c>
       <c r="Z5" s="118"/>
       <c r="AA5" s="20"/>
-      <c r="AB5" s="285" t="s">
+      <c r="AB5" s="303" t="s">
         <v>480</v>
       </c>
-      <c r="AC5" s="257"/>
-      <c r="AD5" s="257"/>
+      <c r="AC5" s="259"/>
+      <c r="AD5" s="259"/>
     </row>
     <row r="6" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="47"/>
@@ -27105,11 +27162,11 @@
       </c>
       <c r="Z20" s="118"/>
       <c r="AA20" s="20"/>
-      <c r="AB20" s="286" t="s">
+      <c r="AB20" s="298" t="s">
         <v>471</v>
       </c>
-      <c r="AC20" s="258"/>
-      <c r="AD20" s="258"/>
+      <c r="AC20" s="260"/>
+      <c r="AD20" s="260"/>
     </row>
     <row r="21" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="47"/>
@@ -27179,12 +27236,12 @@
       </c>
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
-      <c r="J23" s="287" t="s">
+      <c r="J23" s="280" t="s">
         <v>498</v>
       </c>
-      <c r="K23" s="287"/>
-      <c r="L23" s="287"/>
-      <c r="M23" s="288"/>
+      <c r="K23" s="280"/>
+      <c r="L23" s="280"/>
+      <c r="M23" s="290"/>
       <c r="Z23" s="118">
         <f>SUM(N23:Y23)</f>
         <v>0</v>
@@ -27193,11 +27250,11 @@
         <f>AVERAGE(N23:Y23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB23" s="258" t="s">
+      <c r="AB23" s="260" t="s">
         <v>276</v>
       </c>
-      <c r="AC23" s="258"/>
-      <c r="AD23" s="258"/>
+      <c r="AC23" s="260"/>
+      <c r="AD23" s="260"/>
     </row>
     <row r="24" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="47"/>
@@ -27274,12 +27331,12 @@
       <c r="F26" s="204" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="287" t="s">
+      <c r="J26" s="280" t="s">
         <v>386</v>
       </c>
-      <c r="K26" s="287"/>
-      <c r="L26" s="287"/>
-      <c r="M26" s="287"/>
+      <c r="K26" s="280"/>
+      <c r="L26" s="280"/>
+      <c r="M26" s="280"/>
       <c r="N26" s="202"/>
       <c r="Z26" s="118">
         <f>SUM(N26:Y26)</f>
@@ -27289,11 +27346,11 @@
         <f>AVERAGE(N26:Y26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB26" s="259" t="s">
+      <c r="AB26" s="261" t="s">
         <v>65</v>
       </c>
-      <c r="AC26" s="259"/>
-      <c r="AD26" s="259"/>
+      <c r="AC26" s="261"/>
+      <c r="AD26" s="261"/>
     </row>
     <row r="27" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="47"/>
@@ -27390,12 +27447,12 @@
       <c r="F30" s="193" t="s">
         <v>546</v>
       </c>
-      <c r="J30" s="287" t="s">
+      <c r="J30" s="280" t="s">
         <v>500</v>
       </c>
-      <c r="K30" s="293"/>
-      <c r="L30" s="293"/>
-      <c r="M30" s="293"/>
+      <c r="K30" s="297"/>
+      <c r="L30" s="297"/>
+      <c r="M30" s="297"/>
       <c r="N30" s="202"/>
       <c r="Z30" s="118"/>
       <c r="AA30" s="20"/>
@@ -27491,12 +27548,12 @@
         <v>500</v>
       </c>
       <c r="F34" s="47"/>
-      <c r="J34" s="278" t="s">
+      <c r="J34" s="300" t="s">
         <v>489</v>
       </c>
-      <c r="K34" s="278"/>
-      <c r="L34" s="278"/>
-      <c r="M34" s="288"/>
+      <c r="K34" s="300"/>
+      <c r="L34" s="300"/>
+      <c r="M34" s="290"/>
       <c r="N34" s="202"/>
       <c r="Z34" s="118">
         <f>SUM(N34:Y34)</f>
@@ -27506,11 +27563,11 @@
         <f>AVERAGE(N34:Y34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB34" s="259" t="s">
+      <c r="AB34" s="261" t="s">
         <v>105</v>
       </c>
-      <c r="AC34" s="259"/>
-      <c r="AD34" s="291"/>
+      <c r="AC34" s="261"/>
+      <c r="AD34" s="295"/>
     </row>
     <row r="35" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="47"/>
@@ -27643,11 +27700,11 @@
       <c r="N39" s="202"/>
       <c r="Z39" s="118"/>
       <c r="AA39" s="20"/>
-      <c r="AB39" s="286" t="s">
+      <c r="AB39" s="298" t="s">
         <v>499</v>
       </c>
-      <c r="AC39" s="258"/>
-      <c r="AD39" s="290"/>
+      <c r="AC39" s="260"/>
+      <c r="AD39" s="296"/>
     </row>
     <row r="40" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A40" s="47"/>
@@ -27666,12 +27723,12 @@
       <c r="F40" s="47"/>
       <c r="H40" s="47"/>
       <c r="I40" s="47"/>
-      <c r="J40" s="287" t="s">
+      <c r="J40" s="280" t="s">
         <v>263</v>
       </c>
-      <c r="K40" s="287"/>
-      <c r="L40" s="287"/>
-      <c r="M40" s="287"/>
+      <c r="K40" s="280"/>
+      <c r="L40" s="280"/>
+      <c r="M40" s="280"/>
       <c r="N40" s="202"/>
       <c r="Z40" s="118">
         <f>SUM(N40:Y40)</f>
@@ -27681,11 +27738,11 @@
         <f>AVERAGE(N40:Y40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB40" s="258" t="s">
+      <c r="AB40" s="260" t="s">
         <v>291</v>
       </c>
-      <c r="AC40" s="258"/>
-      <c r="AD40" s="290"/>
+      <c r="AC40" s="260"/>
+      <c r="AD40" s="296"/>
     </row>
     <row r="41" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A41" s="47"/>
@@ -27815,12 +27872,12 @@
       <c r="G45" s="47"/>
       <c r="H45" s="47"/>
       <c r="I45" s="47"/>
-      <c r="J45" s="287" t="s">
+      <c r="J45" s="280" t="s">
         <v>475</v>
       </c>
-      <c r="K45" s="287"/>
-      <c r="L45" s="287"/>
-      <c r="M45" s="287"/>
+      <c r="K45" s="280"/>
+      <c r="L45" s="280"/>
+      <c r="M45" s="280"/>
       <c r="N45" s="202"/>
       <c r="Z45" s="118">
         <f t="shared" ref="Z45:Z56" si="0">SUM(N45:Y45)</f>
@@ -27830,11 +27887,11 @@
         <f t="shared" ref="AA45:AA56" si="1">AVERAGE(N45:Y45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB45" s="258" t="s">
+      <c r="AB45" s="260" t="s">
         <v>475</v>
       </c>
-      <c r="AC45" s="258"/>
-      <c r="AD45" s="290"/>
+      <c r="AC45" s="260"/>
+      <c r="AD45" s="296"/>
     </row>
     <row r="46" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A46" s="47"/>
@@ -27851,12 +27908,12 @@
       <c r="G46" s="47"/>
       <c r="H46" s="47"/>
       <c r="I46" s="47"/>
-      <c r="J46" s="289" t="s">
+      <c r="J46" s="299" t="s">
         <v>476</v>
       </c>
-      <c r="K46" s="289"/>
-      <c r="L46" s="289"/>
-      <c r="M46" s="289"/>
+      <c r="K46" s="299"/>
+      <c r="L46" s="299"/>
+      <c r="M46" s="299"/>
       <c r="N46" s="202">
         <f>251.67+67.98+997.69</f>
         <v>1317.3400000000001</v>
@@ -27877,11 +27934,11 @@
         <f t="shared" si="1"/>
         <v>602.93333333333339</v>
       </c>
-      <c r="AB46" s="258" t="s">
+      <c r="AB46" s="260" t="s">
         <v>477</v>
       </c>
-      <c r="AC46" s="258"/>
-      <c r="AD46" s="290"/>
+      <c r="AC46" s="260"/>
+      <c r="AD46" s="296"/>
     </row>
     <row r="47" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A47" s="47"/>
@@ -27920,12 +27977,12 @@
       <c r="G48" s="47"/>
       <c r="H48" s="47"/>
       <c r="I48" s="47"/>
-      <c r="J48" s="292" t="s">
+      <c r="J48" s="291" t="s">
         <v>301</v>
       </c>
-      <c r="K48" s="292"/>
-      <c r="L48" s="292"/>
-      <c r="M48" s="292"/>
+      <c r="K48" s="291"/>
+      <c r="L48" s="291"/>
+      <c r="M48" s="291"/>
       <c r="N48" s="202">
         <f>599.4+394.27</f>
         <v>993.67</v>
@@ -27942,11 +27999,11 @@
         <f t="shared" si="1"/>
         <v>765.71</v>
       </c>
-      <c r="AB48" s="258" t="s">
+      <c r="AB48" s="260" t="s">
         <v>301</v>
       </c>
-      <c r="AC48" s="258"/>
-      <c r="AD48" s="290"/>
+      <c r="AC48" s="260"/>
+      <c r="AD48" s="296"/>
     </row>
     <row r="49" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A49" s="47"/>
@@ -28088,12 +28145,12 @@
       </c>
       <c r="H53" s="47"/>
       <c r="I53" s="47"/>
-      <c r="J53" s="293" t="s">
+      <c r="J53" s="297" t="s">
         <v>95</v>
       </c>
-      <c r="K53" s="293"/>
-      <c r="L53" s="293"/>
-      <c r="M53" s="293"/>
+      <c r="K53" s="297"/>
+      <c r="L53" s="297"/>
+      <c r="M53" s="297"/>
       <c r="N53" s="202">
         <v>600</v>
       </c>
@@ -28105,11 +28162,11 @@
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="AB53" s="259" t="s">
+      <c r="AB53" s="261" t="s">
         <v>95</v>
       </c>
-      <c r="AC53" s="259"/>
-      <c r="AD53" s="259"/>
+      <c r="AC53" s="261"/>
+      <c r="AD53" s="261"/>
     </row>
     <row r="54" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="B54" s="47">
@@ -28130,12 +28187,12 @@
       </c>
       <c r="H54" s="47"/>
       <c r="I54" s="47"/>
-      <c r="J54" s="287" t="s">
+      <c r="J54" s="280" t="s">
         <v>67</v>
       </c>
-      <c r="K54" s="287"/>
-      <c r="L54" s="287"/>
-      <c r="M54" s="287"/>
+      <c r="K54" s="280"/>
+      <c r="L54" s="280"/>
+      <c r="M54" s="280"/>
       <c r="N54" s="202"/>
       <c r="Z54" s="118">
         <f t="shared" si="0"/>
@@ -28145,11 +28202,11 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB54" s="259" t="s">
+      <c r="AB54" s="261" t="s">
         <v>67</v>
       </c>
-      <c r="AC54" s="259"/>
-      <c r="AD54" s="259"/>
+      <c r="AC54" s="261"/>
+      <c r="AD54" s="261"/>
     </row>
     <row r="55" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="B55" s="24">
@@ -28172,12 +28229,12 @@
         <v>524</v>
       </c>
       <c r="I55" s="47"/>
-      <c r="J55" s="287" t="s">
+      <c r="J55" s="280" t="s">
         <v>299</v>
       </c>
-      <c r="K55" s="287"/>
-      <c r="L55" s="287"/>
-      <c r="M55" s="287"/>
+      <c r="K55" s="280"/>
+      <c r="L55" s="280"/>
+      <c r="M55" s="280"/>
       <c r="N55" s="202"/>
       <c r="T55" s="114"/>
       <c r="Z55" s="118">
@@ -28188,11 +28245,11 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB55" s="258" t="s">
+      <c r="AB55" s="260" t="s">
         <v>299</v>
       </c>
-      <c r="AC55" s="258"/>
-      <c r="AD55" s="258"/>
+      <c r="AC55" s="260"/>
+      <c r="AD55" s="260"/>
     </row>
     <row r="56" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="B56" s="47">
@@ -28245,11 +28302,11 @@
       <c r="T57" s="114"/>
       <c r="Z57" s="118"/>
       <c r="AA57" s="20"/>
-      <c r="AB57" s="286" t="s">
+      <c r="AB57" s="298" t="s">
         <v>479</v>
       </c>
-      <c r="AC57" s="258"/>
-      <c r="AD57" s="258"/>
+      <c r="AC57" s="260"/>
+      <c r="AD57" s="260"/>
     </row>
     <row r="58" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="B58" s="47"/>
@@ -28279,12 +28336,12 @@
       <c r="B59" s="47"/>
       <c r="C59" s="47"/>
       <c r="I59" s="47"/>
-      <c r="J59" s="287" t="s">
+      <c r="J59" s="280" t="s">
         <v>481</v>
       </c>
-      <c r="K59" s="287"/>
-      <c r="L59" s="287"/>
-      <c r="M59" s="287"/>
+      <c r="K59" s="280"/>
+      <c r="L59" s="280"/>
+      <c r="M59" s="280"/>
       <c r="N59" s="202"/>
       <c r="T59" s="114"/>
       <c r="Z59" s="118">
@@ -28295,22 +28352,22 @@
         <f>AVERAGE(N59:Y59)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB59" s="258" t="s">
+      <c r="AB59" s="260" t="s">
         <v>264</v>
       </c>
-      <c r="AC59" s="258"/>
-      <c r="AD59" s="290"/>
+      <c r="AC59" s="260"/>
+      <c r="AD59" s="296"/>
     </row>
     <row r="60" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="B60" s="47"/>
       <c r="C60" s="47"/>
       <c r="I60" s="47"/>
-      <c r="J60" s="287" t="s">
+      <c r="J60" s="280" t="s">
         <v>387</v>
       </c>
-      <c r="K60" s="287"/>
-      <c r="L60" s="287"/>
-      <c r="M60" s="287"/>
+      <c r="K60" s="280"/>
+      <c r="L60" s="280"/>
+      <c r="M60" s="280"/>
       <c r="N60" s="202"/>
       <c r="Z60" s="118">
         <f>SUM(N60:Y60)</f>
@@ -28320,11 +28377,11 @@
         <f>AVERAGE(N60:Y60)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB60" s="259" t="s">
+      <c r="AB60" s="261" t="s">
         <v>58</v>
       </c>
-      <c r="AC60" s="259"/>
-      <c r="AD60" s="291"/>
+      <c r="AC60" s="261"/>
+      <c r="AD60" s="295"/>
     </row>
     <row r="61" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I61" s="47"/>
@@ -28343,12 +28400,12 @@
     </row>
     <row r="62" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I62" s="47"/>
-      <c r="J62" s="287" t="s">
+      <c r="J62" s="280" t="s">
         <v>469</v>
       </c>
-      <c r="K62" s="287"/>
-      <c r="L62" s="287"/>
-      <c r="M62" s="288"/>
+      <c r="K62" s="280"/>
+      <c r="L62" s="280"/>
+      <c r="M62" s="290"/>
       <c r="N62" s="202"/>
       <c r="Z62" s="118"/>
       <c r="AA62" s="20"/>
@@ -28360,12 +28417,12 @@
     </row>
     <row r="63" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I63" s="47"/>
-      <c r="J63" s="292" t="s">
+      <c r="J63" s="291" t="s">
         <v>527</v>
       </c>
-      <c r="K63" s="292"/>
-      <c r="L63" s="292"/>
-      <c r="M63" s="294"/>
+      <c r="K63" s="291"/>
+      <c r="L63" s="291"/>
+      <c r="M63" s="292"/>
       <c r="N63" s="202">
         <v>368.22</v>
       </c>
@@ -28383,12 +28440,12 @@
     </row>
     <row r="64" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I64" s="47"/>
-      <c r="J64" s="292" t="s">
+      <c r="J64" s="291" t="s">
         <v>246</v>
       </c>
-      <c r="K64" s="292"/>
-      <c r="L64" s="292"/>
-      <c r="M64" s="294"/>
+      <c r="K64" s="291"/>
+      <c r="L64" s="291"/>
+      <c r="M64" s="292"/>
       <c r="N64" s="202">
         <f>74.98+709.15</f>
         <v>784.13</v>
@@ -28405,11 +28462,11 @@
         <f>AVERAGE(N64:Y64)</f>
         <v>472.03999999999996</v>
       </c>
-      <c r="AB64" s="295" t="s">
+      <c r="AB64" s="293" t="s">
         <v>246</v>
       </c>
-      <c r="AC64" s="295"/>
-      <c r="AD64" s="296"/>
+      <c r="AC64" s="293"/>
+      <c r="AD64" s="294"/>
     </row>
     <row r="65" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I65" s="47"/>
@@ -28441,12 +28498,12 @@
       <c r="AD66" s="216"/>
     </row>
     <row r="67" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J67" s="287" t="s">
+      <c r="J67" s="280" t="s">
         <v>268</v>
       </c>
-      <c r="K67" s="287"/>
-      <c r="L67" s="287"/>
-      <c r="M67" s="287"/>
+      <c r="K67" s="280"/>
+      <c r="L67" s="280"/>
+      <c r="M67" s="280"/>
       <c r="N67" s="202"/>
       <c r="Z67" s="118">
         <f>SUM(N67:Y67)</f>
@@ -28456,11 +28513,11 @@
         <f>AVERAGE(N67:Y67)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB67" s="295" t="s">
+      <c r="AB67" s="293" t="s">
         <v>268</v>
       </c>
-      <c r="AC67" s="295"/>
-      <c r="AD67" s="296"/>
+      <c r="AC67" s="293"/>
+      <c r="AD67" s="294"/>
     </row>
     <row r="68" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J68" s="208"/>
@@ -28495,12 +28552,12 @@
       <c r="AD69" s="216"/>
     </row>
     <row r="70" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J70" s="300" t="s">
+      <c r="J70" s="283" t="s">
         <v>6</v>
       </c>
-      <c r="K70" s="300"/>
-      <c r="L70" s="300"/>
-      <c r="M70" s="300"/>
+      <c r="K70" s="283"/>
+      <c r="L70" s="283"/>
+      <c r="M70" s="283"/>
       <c r="N70" s="202">
         <f>511.2+827.63</f>
         <v>1338.83</v>
@@ -28517,11 +28574,11 @@
         <f>AVERAGE(N70:Y70)</f>
         <v>1186.155</v>
       </c>
-      <c r="AB70" s="265" t="s">
+      <c r="AB70" s="262" t="s">
         <v>6</v>
       </c>
-      <c r="AC70" s="265"/>
-      <c r="AD70" s="301"/>
+      <c r="AC70" s="262"/>
+      <c r="AD70" s="284"/>
     </row>
     <row r="71" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J71" s="237"/>
@@ -28540,12 +28597,12 @@
       <c r="AD71" s="236"/>
     </row>
     <row r="72" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J72" s="302" t="s">
+      <c r="J72" s="285" t="s">
         <v>60</v>
       </c>
-      <c r="K72" s="302"/>
-      <c r="L72" s="302"/>
-      <c r="M72" s="302"/>
+      <c r="K72" s="285"/>
+      <c r="L72" s="285"/>
+      <c r="M72" s="285"/>
       <c r="Z72" s="118">
         <f>SUM(N72:Y72)</f>
         <v>0</v>
@@ -28554,19 +28611,19 @@
         <f>AVERAGE(N72:Y72)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB72" s="303" t="s">
+      <c r="AB72" s="286" t="s">
         <v>60</v>
       </c>
-      <c r="AC72" s="303"/>
-      <c r="AD72" s="303"/>
+      <c r="AC72" s="286"/>
+      <c r="AD72" s="286"/>
     </row>
     <row r="73" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J73" s="300" t="s">
+      <c r="J73" s="283" t="s">
         <v>443</v>
       </c>
-      <c r="K73" s="300"/>
-      <c r="L73" s="300"/>
-      <c r="M73" s="300"/>
+      <c r="K73" s="283"/>
+      <c r="L73" s="283"/>
+      <c r="M73" s="283"/>
       <c r="N73" s="202"/>
       <c r="O73">
         <f>58+58+12.5</f>
@@ -28579,12 +28636,12 @@
       <c r="AD73" s="187"/>
     </row>
     <row r="74" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J74" s="304" t="s">
+      <c r="J74" s="287" t="s">
         <v>539</v>
       </c>
-      <c r="K74" s="305"/>
-      <c r="L74" s="305"/>
-      <c r="M74" s="306"/>
+      <c r="K74" s="288"/>
+      <c r="L74" s="288"/>
+      <c r="M74" s="289"/>
       <c r="N74" s="202"/>
       <c r="Z74" s="118"/>
       <c r="AA74" s="20"/>
@@ -28593,12 +28650,12 @@
       <c r="AD74" s="187"/>
     </row>
     <row r="75" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J75" s="311" t="s">
+      <c r="J75" s="276" t="s">
         <v>540</v>
       </c>
-      <c r="K75" s="311"/>
-      <c r="L75" s="311"/>
-      <c r="M75" s="312"/>
+      <c r="K75" s="276"/>
+      <c r="L75" s="276"/>
+      <c r="M75" s="277"/>
       <c r="N75" s="202"/>
       <c r="Z75" s="118"/>
       <c r="AA75" s="20"/>
@@ -28607,12 +28664,12 @@
       <c r="AD75" s="187"/>
     </row>
     <row r="76" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J76" s="313" t="s">
+      <c r="J76" s="278" t="s">
         <v>298</v>
       </c>
-      <c r="K76" s="313"/>
-      <c r="L76" s="313"/>
-      <c r="M76" s="313"/>
+      <c r="K76" s="278"/>
+      <c r="L76" s="278"/>
+      <c r="M76" s="278"/>
       <c r="N76" s="202">
         <f>69+209</f>
         <v>278</v>
@@ -28629,11 +28686,11 @@
         <f>AVERAGE(N76:Y76)</f>
         <v>278</v>
       </c>
-      <c r="AB76" s="297" t="s">
+      <c r="AB76" s="279" t="s">
         <v>298</v>
       </c>
-      <c r="AC76" s="297"/>
-      <c r="AD76" s="297"/>
+      <c r="AC76" s="279"/>
+      <c r="AD76" s="279"/>
     </row>
     <row r="77" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J77" s="215"/>
@@ -28652,12 +28709,12 @@
       <c r="AD77" s="214"/>
     </row>
     <row r="78" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J78" s="287" t="s">
+      <c r="J78" s="280" t="s">
         <v>297</v>
       </c>
-      <c r="K78" s="287"/>
-      <c r="L78" s="287"/>
-      <c r="M78" s="287"/>
+      <c r="K78" s="280"/>
+      <c r="L78" s="280"/>
+      <c r="M78" s="280"/>
       <c r="N78" s="203"/>
       <c r="O78">
         <v>250</v>
@@ -28670,11 +28727,11 @@
         <f>AVERAGE(N78:Y78)</f>
         <v>250</v>
       </c>
-      <c r="AB78" s="258" t="s">
+      <c r="AB78" s="260" t="s">
         <v>297</v>
       </c>
-      <c r="AC78" s="258"/>
-      <c r="AD78" s="258"/>
+      <c r="AC78" s="260"/>
+      <c r="AD78" s="260"/>
     </row>
     <row r="79" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J79" s="208"/>
@@ -28738,12 +28795,12 @@
       <c r="AD79" s="207"/>
     </row>
     <row r="80" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J80" s="298" t="s">
+      <c r="J80" s="281" t="s">
         <v>300</v>
       </c>
-      <c r="K80" s="298"/>
-      <c r="L80" s="298"/>
-      <c r="M80" s="299"/>
+      <c r="K80" s="281"/>
+      <c r="L80" s="281"/>
+      <c r="M80" s="282"/>
       <c r="N80" s="115">
         <f>SUM(N5:N78)</f>
         <v>24594.769999999997</v>
@@ -28802,12 +28859,12 @@
       </c>
     </row>
     <row r="81" spans="8:27" ht="15.75" thickBot="1">
-      <c r="J81" s="307" t="s">
+      <c r="J81" s="272" t="s">
         <v>61</v>
       </c>
-      <c r="K81" s="307"/>
-      <c r="L81" s="307"/>
-      <c r="M81" s="308"/>
+      <c r="K81" s="272"/>
+      <c r="L81" s="272"/>
+      <c r="M81" s="273"/>
       <c r="N81" s="140">
         <f>N2-SUM(N4:N79)-N3</f>
         <v>-14526.629999999997</v>
@@ -28858,12 +28915,12 @@
       </c>
     </row>
     <row r="82" spans="8:27">
-      <c r="J82" s="309" t="s">
+      <c r="J82" s="274" t="s">
         <v>62</v>
       </c>
-      <c r="K82" s="309"/>
-      <c r="L82" s="309"/>
-      <c r="M82" s="309"/>
+      <c r="K82" s="274"/>
+      <c r="L82" s="274"/>
+      <c r="M82" s="274"/>
       <c r="N82" s="61">
         <f>N81</f>
         <v>-14526.629999999997</v>
@@ -28949,13 +29006,13 @@
       <c r="L85" s="47"/>
       <c r="M85" s="47"/>
       <c r="N85" s="16"/>
-      <c r="O85" s="316" t="s">
+      <c r="O85" s="318" t="s">
         <v>556</v>
       </c>
-      <c r="P85" s="255"/>
-      <c r="Q85" s="255"/>
-      <c r="R85" s="255"/>
-      <c r="S85" s="255"/>
+      <c r="P85" s="258"/>
+      <c r="Q85" s="258"/>
+      <c r="R85" s="258"/>
+      <c r="S85" s="258"/>
     </row>
     <row r="86" spans="8:27">
       <c r="H86" s="62">
@@ -28965,13 +29022,13 @@
       <c r="K86" s="47"/>
       <c r="L86" s="47"/>
       <c r="M86" s="47"/>
-      <c r="O86" s="316" t="s">
+      <c r="O86" s="318" t="s">
         <v>564</v>
       </c>
-      <c r="P86" s="255"/>
-      <c r="Q86" s="255"/>
-      <c r="R86" s="255"/>
-      <c r="S86" s="255"/>
+      <c r="P86" s="258"/>
+      <c r="Q86" s="258"/>
+      <c r="R86" s="258"/>
+      <c r="S86" s="258"/>
     </row>
     <row r="87" spans="8:27">
       <c r="J87" s="47"/>
@@ -29443,6 +29500,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="O86:S86"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="AB78:AD78"/>
+    <mergeCell ref="J80:M80"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="J82:M82"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="AB76:AD76"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="AB64:AD64"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="AB67:AD67"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="AB70:AD70"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="AB72:AD72"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="AB53:AD53"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="AB54:AD54"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="AB55:AD55"/>
+    <mergeCell ref="AB57:AD57"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="AB59:AD59"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="AB60:AD60"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="AB45:AD45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="AB46:AD46"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="AB34:AD34"/>
+    <mergeCell ref="AB39:AD39"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="AB40:AD40"/>
     <mergeCell ref="J63:M63"/>
     <mergeCell ref="O85:S85"/>
     <mergeCell ref="J4:M4"/>
@@ -29459,48 +29558,6 @@
     <mergeCell ref="J26:M26"/>
     <mergeCell ref="AB26:AD26"/>
     <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="AB34:AD34"/>
-    <mergeCell ref="AB39:AD39"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="AB40:AD40"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="AB45:AD45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="AB46:AD46"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="AB48:AD48"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="AB53:AD53"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="AB54:AD54"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="AB55:AD55"/>
-    <mergeCell ref="AB57:AD57"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="AB59:AD59"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="AB60:AD60"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="AB76:AD76"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="AB64:AD64"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="AB67:AD67"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="AB70:AD70"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="AB72:AD72"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="O86:S86"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="AB78:AD78"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="J82:M82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29538,10 +29595,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="256" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="269"/>
+      <c r="B1" s="257"/>
       <c r="C1" s="138" t="s">
         <v>1</v>
       </c>
@@ -29551,12 +29608,12 @@
       <c r="G1" s="47"/>
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
-      <c r="J1" s="276" t="s">
+      <c r="J1" s="310" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="276"/>
-      <c r="L1" s="276"/>
-      <c r="M1" s="277"/>
+      <c r="K1" s="310"/>
+      <c r="L1" s="310"/>
+      <c r="M1" s="311"/>
       <c r="N1" s="50" t="s">
         <v>44</v>
       </c>
@@ -29621,12 +29678,12 @@
       </c>
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
-      <c r="J2" s="278" t="s">
+      <c r="J2" s="300" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="278"/>
-      <c r="L2" s="278"/>
-      <c r="M2" s="278"/>
+      <c r="K2" s="300"/>
+      <c r="L2" s="300"/>
+      <c r="M2" s="300"/>
       <c r="N2" s="47">
         <v>13553.12</v>
       </c>
@@ -29697,12 +29754,12 @@
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
-      <c r="J3" s="270" t="s">
+      <c r="J3" s="304" t="s">
         <v>504</v>
       </c>
-      <c r="K3" s="314"/>
-      <c r="L3" s="314"/>
-      <c r="M3" s="315"/>
+      <c r="K3" s="316"/>
+      <c r="L3" s="316"/>
+      <c r="M3" s="317"/>
       <c r="N3" s="56">
         <v>2808</v>
       </c>
@@ -29739,11 +29796,11 @@
         <f>AVERAGE(N3:Y3)</f>
         <v>3597.125</v>
       </c>
-      <c r="AB3" s="272" t="s">
+      <c r="AB3" s="306" t="s">
         <v>63</v>
       </c>
-      <c r="AC3" s="272"/>
-      <c r="AD3" s="273"/>
+      <c r="AC3" s="306"/>
+      <c r="AD3" s="307"/>
     </row>
     <row r="4" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="47"/>
@@ -29765,12 +29822,12 @@
       <c r="F4" s="191" t="s">
         <v>453</v>
       </c>
-      <c r="J4" s="283" t="s">
+      <c r="J4" s="301" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="283"/>
-      <c r="L4" s="283"/>
-      <c r="M4" s="283"/>
+      <c r="K4" s="301"/>
+      <c r="L4" s="301"/>
+      <c r="M4" s="301"/>
       <c r="N4">
         <v>0</v>
       </c>
@@ -29782,11 +29839,11 @@
         <f>AVERAGE(N4:Y4)</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="257" t="s">
+      <c r="AB4" s="259" t="s">
         <v>149</v>
       </c>
-      <c r="AC4" s="257"/>
-      <c r="AD4" s="257"/>
+      <c r="AC4" s="259"/>
+      <c r="AD4" s="259"/>
     </row>
     <row r="5" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="125" t="s">
@@ -29830,11 +29887,11 @@
       </c>
       <c r="Z5" s="118"/>
       <c r="AA5" s="20"/>
-      <c r="AB5" s="285" t="s">
+      <c r="AB5" s="303" t="s">
         <v>480</v>
       </c>
-      <c r="AC5" s="257"/>
-      <c r="AD5" s="257"/>
+      <c r="AC5" s="259"/>
+      <c r="AD5" s="259"/>
     </row>
     <row r="6" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="47"/>
@@ -30199,11 +30256,11 @@
       </c>
       <c r="Z16" s="118"/>
       <c r="AA16" s="20"/>
-      <c r="AB16" s="286" t="s">
+      <c r="AB16" s="298" t="s">
         <v>471</v>
       </c>
-      <c r="AC16" s="258"/>
-      <c r="AD16" s="258"/>
+      <c r="AC16" s="260"/>
+      <c r="AD16" s="260"/>
     </row>
     <row r="17" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="47"/>
@@ -30291,12 +30348,12 @@
       </c>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
-      <c r="J19" s="287" t="s">
+      <c r="J19" s="280" t="s">
         <v>498</v>
       </c>
-      <c r="K19" s="287"/>
-      <c r="L19" s="287"/>
-      <c r="M19" s="288"/>
+      <c r="K19" s="280"/>
+      <c r="L19" s="280"/>
+      <c r="M19" s="290"/>
       <c r="N19">
         <v>0</v>
       </c>
@@ -30311,11 +30368,11 @@
         <f>AVERAGE(N19:Y19)</f>
         <v>-104.7</v>
       </c>
-      <c r="AB19" s="258" t="s">
+      <c r="AB19" s="260" t="s">
         <v>276</v>
       </c>
-      <c r="AC19" s="258"/>
-      <c r="AD19" s="258"/>
+      <c r="AC19" s="260"/>
+      <c r="AD19" s="260"/>
     </row>
     <row r="20" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="47"/>
@@ -30380,12 +30437,12 @@
       </c>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
-      <c r="J21" s="287" t="s">
+      <c r="J21" s="280" t="s">
         <v>386</v>
       </c>
-      <c r="K21" s="287"/>
-      <c r="L21" s="287"/>
-      <c r="M21" s="287"/>
+      <c r="K21" s="280"/>
+      <c r="L21" s="280"/>
+      <c r="M21" s="280"/>
       <c r="N21" s="202">
         <v>0</v>
       </c>
@@ -30397,11 +30454,11 @@
         <f>AVERAGE(N21:Y21)</f>
         <v>0</v>
       </c>
-      <c r="AB21" s="259" t="s">
+      <c r="AB21" s="261" t="s">
         <v>65</v>
       </c>
-      <c r="AC21" s="259"/>
-      <c r="AD21" s="259"/>
+      <c r="AC21" s="261"/>
+      <c r="AD21" s="261"/>
     </row>
     <row r="22" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="47"/>
@@ -30469,12 +30526,12 @@
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="287" t="s">
+      <c r="J24" s="280" t="s">
         <v>500</v>
       </c>
-      <c r="K24" s="293"/>
-      <c r="L24" s="293"/>
-      <c r="M24" s="293"/>
+      <c r="K24" s="297"/>
+      <c r="L24" s="297"/>
+      <c r="M24" s="297"/>
       <c r="N24" s="202">
         <v>0</v>
       </c>
@@ -30513,12 +30570,12 @@
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
-      <c r="J25" s="278" t="s">
+      <c r="J25" s="300" t="s">
         <v>489</v>
       </c>
-      <c r="K25" s="278"/>
-      <c r="L25" s="278"/>
-      <c r="M25" s="288"/>
+      <c r="K25" s="300"/>
+      <c r="L25" s="300"/>
+      <c r="M25" s="290"/>
       <c r="N25" s="202">
         <f>-130-67</f>
         <v>-197</v>
@@ -30534,11 +30591,11 @@
         <f>AVERAGE(N25:Y25)</f>
         <v>-170.9</v>
       </c>
-      <c r="AB25" s="259" t="s">
+      <c r="AB25" s="261" t="s">
         <v>105</v>
       </c>
-      <c r="AC25" s="259"/>
-      <c r="AD25" s="291"/>
+      <c r="AC25" s="261"/>
+      <c r="AD25" s="295"/>
     </row>
     <row r="26" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="47"/>
@@ -30681,11 +30738,11 @@
       </c>
       <c r="Z30" s="118"/>
       <c r="AA30" s="20"/>
-      <c r="AB30" s="286" t="s">
+      <c r="AB30" s="298" t="s">
         <v>499</v>
       </c>
-      <c r="AC30" s="258"/>
-      <c r="AD30" s="290"/>
+      <c r="AC30" s="260"/>
+      <c r="AD30" s="296"/>
     </row>
     <row r="31" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="47"/>
@@ -30698,12 +30755,12 @@
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="47"/>
-      <c r="J31" s="287" t="s">
+      <c r="J31" s="280" t="s">
         <v>263</v>
       </c>
-      <c r="K31" s="287"/>
-      <c r="L31" s="287"/>
-      <c r="M31" s="287"/>
+      <c r="K31" s="280"/>
+      <c r="L31" s="280"/>
+      <c r="M31" s="280"/>
       <c r="N31" s="202">
         <v>0</v>
       </c>
@@ -30715,11 +30772,11 @@
         <f>AVERAGE(N31:Y31)</f>
         <v>0</v>
       </c>
-      <c r="AB31" s="258" t="s">
+      <c r="AB31" s="260" t="s">
         <v>291</v>
       </c>
-      <c r="AC31" s="258"/>
-      <c r="AD31" s="290"/>
+      <c r="AC31" s="260"/>
+      <c r="AD31" s="296"/>
     </row>
     <row r="32" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="47"/>
@@ -30873,12 +30930,12 @@
       <c r="F36" s="47"/>
       <c r="H36" s="47"/>
       <c r="I36" s="47"/>
-      <c r="J36" s="287" t="s">
+      <c r="J36" s="280" t="s">
         <v>475</v>
       </c>
-      <c r="K36" s="287"/>
-      <c r="L36" s="287"/>
-      <c r="M36" s="287"/>
+      <c r="K36" s="280"/>
+      <c r="L36" s="280"/>
+      <c r="M36" s="280"/>
       <c r="N36" s="202">
         <v>0</v>
       </c>
@@ -30897,11 +30954,11 @@
         <f t="shared" ref="AA36:AA47" si="1">AVERAGE(N36:Y36)</f>
         <v>-135.60666666666665</v>
       </c>
-      <c r="AB36" s="258" t="s">
+      <c r="AB36" s="260" t="s">
         <v>475</v>
       </c>
-      <c r="AC36" s="258"/>
-      <c r="AD36" s="290"/>
+      <c r="AC36" s="260"/>
+      <c r="AD36" s="296"/>
     </row>
     <row r="37" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A37" s="47"/>
@@ -30923,12 +30980,12 @@
       <c r="F37" s="47"/>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
-      <c r="J37" s="287" t="s">
+      <c r="J37" s="280" t="s">
         <v>476</v>
       </c>
-      <c r="K37" s="287"/>
-      <c r="L37" s="287"/>
-      <c r="M37" s="287"/>
+      <c r="K37" s="280"/>
+      <c r="L37" s="280"/>
+      <c r="M37" s="280"/>
       <c r="N37" s="202">
         <v>-264.11</v>
       </c>
@@ -30944,11 +31001,11 @@
         <f t="shared" si="1"/>
         <v>-384.68</v>
       </c>
-      <c r="AB37" s="258" t="s">
+      <c r="AB37" s="260" t="s">
         <v>477</v>
       </c>
-      <c r="AC37" s="258"/>
-      <c r="AD37" s="290"/>
+      <c r="AC37" s="260"/>
+      <c r="AD37" s="296"/>
     </row>
     <row r="38" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A38" s="47"/>
@@ -31005,12 +31062,12 @@
       <c r="F39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="47"/>
-      <c r="J39" s="258" t="s">
+      <c r="J39" s="260" t="s">
         <v>301</v>
       </c>
-      <c r="K39" s="258"/>
-      <c r="L39" s="258"/>
-      <c r="M39" s="258"/>
+      <c r="K39" s="260"/>
+      <c r="L39" s="260"/>
+      <c r="M39" s="260"/>
       <c r="N39" s="202">
         <f>-518.84-42.79</f>
         <v>-561.63</v>
@@ -31034,11 +31091,11 @@
         <f t="shared" si="1"/>
         <v>-2085.6900000000005</v>
       </c>
-      <c r="AB39" s="258" t="s">
+      <c r="AB39" s="260" t="s">
         <v>301</v>
       </c>
-      <c r="AC39" s="258"/>
-      <c r="AD39" s="290"/>
+      <c r="AC39" s="260"/>
+      <c r="AD39" s="296"/>
     </row>
     <row r="40" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A40" s="47"/>
@@ -31190,12 +31247,12 @@
       <c r="G44" s="47"/>
       <c r="H44" s="47"/>
       <c r="I44" s="47"/>
-      <c r="J44" s="293" t="s">
+      <c r="J44" s="297" t="s">
         <v>95</v>
       </c>
-      <c r="K44" s="293"/>
-      <c r="L44" s="293"/>
-      <c r="M44" s="293"/>
+      <c r="K44" s="297"/>
+      <c r="L44" s="297"/>
+      <c r="M44" s="297"/>
       <c r="N44" s="202">
         <v>0</v>
       </c>
@@ -31211,11 +31268,11 @@
         <f t="shared" si="1"/>
         <v>-750</v>
       </c>
-      <c r="AB44" s="259" t="s">
+      <c r="AB44" s="261" t="s">
         <v>95</v>
       </c>
-      <c r="AC44" s="259"/>
-      <c r="AD44" s="259"/>
+      <c r="AC44" s="261"/>
+      <c r="AD44" s="261"/>
     </row>
     <row r="45" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A45" s="47"/>
@@ -31227,12 +31284,12 @@
       <c r="G45" s="47"/>
       <c r="H45" s="47"/>
       <c r="I45" s="47"/>
-      <c r="J45" s="287" t="s">
+      <c r="J45" s="280" t="s">
         <v>67</v>
       </c>
-      <c r="K45" s="287"/>
-      <c r="L45" s="287"/>
-      <c r="M45" s="287"/>
+      <c r="K45" s="280"/>
+      <c r="L45" s="280"/>
+      <c r="M45" s="280"/>
       <c r="N45" s="202">
         <v>0</v>
       </c>
@@ -31244,11 +31301,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB45" s="259" t="s">
+      <c r="AB45" s="261" t="s">
         <v>67</v>
       </c>
-      <c r="AC45" s="259"/>
-      <c r="AD45" s="259"/>
+      <c r="AC45" s="261"/>
+      <c r="AD45" s="261"/>
     </row>
     <row r="46" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A46" s="47"/>
@@ -31260,12 +31317,12 @@
       <c r="G46" s="47"/>
       <c r="H46" s="47"/>
       <c r="I46" s="47"/>
-      <c r="J46" s="287" t="s">
+      <c r="J46" s="280" t="s">
         <v>299</v>
       </c>
-      <c r="K46" s="287"/>
-      <c r="L46" s="287"/>
-      <c r="M46" s="287"/>
+      <c r="K46" s="280"/>
+      <c r="L46" s="280"/>
+      <c r="M46" s="280"/>
       <c r="N46" s="202">
         <v>0</v>
       </c>
@@ -31284,11 +31341,11 @@
         <f t="shared" si="1"/>
         <v>-419</v>
       </c>
-      <c r="AB46" s="258" t="s">
+      <c r="AB46" s="260" t="s">
         <v>299</v>
       </c>
-      <c r="AC46" s="258"/>
-      <c r="AD46" s="258"/>
+      <c r="AC46" s="260"/>
+      <c r="AD46" s="260"/>
     </row>
     <row r="47" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A47" s="47"/>
@@ -31353,11 +31410,11 @@
       </c>
       <c r="Z48" s="118"/>
       <c r="AA48" s="20"/>
-      <c r="AB48" s="286" t="s">
+      <c r="AB48" s="298" t="s">
         <v>479</v>
       </c>
-      <c r="AC48" s="258"/>
-      <c r="AD48" s="258"/>
+      <c r="AC48" s="260"/>
+      <c r="AD48" s="260"/>
     </row>
     <row r="49" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A49" s="47"/>
@@ -31411,12 +31468,12 @@
       </c>
       <c r="H50" s="47"/>
       <c r="I50" s="47"/>
-      <c r="J50" s="287" t="s">
+      <c r="J50" s="280" t="s">
         <v>481</v>
       </c>
-      <c r="K50" s="287"/>
-      <c r="L50" s="287"/>
-      <c r="M50" s="287"/>
+      <c r="K50" s="280"/>
+      <c r="L50" s="280"/>
+      <c r="M50" s="280"/>
       <c r="N50" s="202">
         <v>0</v>
       </c>
@@ -31429,11 +31486,11 @@
         <f>AVERAGE(N50:Y50)</f>
         <v>0</v>
       </c>
-      <c r="AB50" s="258" t="s">
+      <c r="AB50" s="260" t="s">
         <v>264</v>
       </c>
-      <c r="AC50" s="258"/>
-      <c r="AD50" s="290"/>
+      <c r="AC50" s="260"/>
+      <c r="AD50" s="296"/>
     </row>
     <row r="51" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A51" t="s">
@@ -31456,12 +31513,12 @@
         <v>524</v>
       </c>
       <c r="I51" s="47"/>
-      <c r="J51" s="287" t="s">
+      <c r="J51" s="280" t="s">
         <v>387</v>
       </c>
-      <c r="K51" s="287"/>
-      <c r="L51" s="287"/>
-      <c r="M51" s="287"/>
+      <c r="K51" s="280"/>
+      <c r="L51" s="280"/>
+      <c r="M51" s="280"/>
       <c r="N51" s="202">
         <v>0</v>
       </c>
@@ -31479,11 +31536,11 @@
         <f>AVERAGE(N51:Y51)</f>
         <v>-160.93333333333331</v>
       </c>
-      <c r="AB51" s="259" t="s">
+      <c r="AB51" s="261" t="s">
         <v>58</v>
       </c>
-      <c r="AC51" s="259"/>
-      <c r="AD51" s="291"/>
+      <c r="AC51" s="261"/>
+      <c r="AD51" s="295"/>
     </row>
     <row r="52" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="B52" s="47"/>
@@ -31518,12 +31575,12 @@
         <v>1620</v>
       </c>
       <c r="I53" s="47"/>
-      <c r="J53" s="287" t="s">
+      <c r="J53" s="280" t="s">
         <v>469</v>
       </c>
-      <c r="K53" s="287"/>
-      <c r="L53" s="287"/>
-      <c r="M53" s="288"/>
+      <c r="K53" s="280"/>
+      <c r="L53" s="280"/>
+      <c r="M53" s="290"/>
       <c r="N53" s="202">
         <v>0</v>
       </c>
@@ -31560,12 +31617,12 @@
     </row>
     <row r="55" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I55" s="47"/>
-      <c r="J55" s="258" t="s">
+      <c r="J55" s="260" t="s">
         <v>246</v>
       </c>
-      <c r="K55" s="258"/>
-      <c r="L55" s="258"/>
-      <c r="M55" s="317"/>
+      <c r="K55" s="260"/>
+      <c r="L55" s="260"/>
+      <c r="M55" s="319"/>
       <c r="N55" s="202">
         <f>-69.9-115.9</f>
         <v>-185.8</v>
@@ -31589,11 +31646,11 @@
         <f>AVERAGE(N55:Y55)</f>
         <v>-671.38000000000011</v>
       </c>
-      <c r="AB55" s="295" t="s">
+      <c r="AB55" s="293" t="s">
         <v>246</v>
       </c>
-      <c r="AC55" s="295"/>
-      <c r="AD55" s="296"/>
+      <c r="AC55" s="293"/>
+      <c r="AD55" s="294"/>
     </row>
     <row r="56" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I56" s="47"/>
@@ -31634,12 +31691,12 @@
     </row>
     <row r="58" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I58" s="47"/>
-      <c r="J58" s="287" t="s">
+      <c r="J58" s="280" t="s">
         <v>268</v>
       </c>
-      <c r="K58" s="287"/>
-      <c r="L58" s="287"/>
-      <c r="M58" s="287"/>
+      <c r="K58" s="280"/>
+      <c r="L58" s="280"/>
+      <c r="M58" s="280"/>
       <c r="N58" s="202">
         <f>-565-565-565-200-565-100</f>
         <v>-2560</v>
@@ -31652,20 +31709,20 @@
         <f>AVERAGE(N58:Y58)</f>
         <v>-2560</v>
       </c>
-      <c r="AB58" s="295" t="s">
+      <c r="AB58" s="293" t="s">
         <v>268</v>
       </c>
-      <c r="AC58" s="295"/>
-      <c r="AD58" s="296"/>
+      <c r="AC58" s="293"/>
+      <c r="AD58" s="294"/>
     </row>
     <row r="59" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I59" s="47"/>
-      <c r="J59" s="300" t="s">
+      <c r="J59" s="283" t="s">
         <v>6</v>
       </c>
-      <c r="K59" s="300"/>
-      <c r="L59" s="300"/>
-      <c r="M59" s="300"/>
+      <c r="K59" s="283"/>
+      <c r="L59" s="283"/>
+      <c r="M59" s="283"/>
       <c r="N59" s="202">
         <f>-1003.15-786.06-996.31-981.2</f>
         <v>-3766.7200000000003</v>
@@ -31692,19 +31749,19 @@
         <f>AVERAGE(N59:Y59)</f>
         <v>-2024.58</v>
       </c>
-      <c r="AB59" s="265" t="s">
+      <c r="AB59" s="262" t="s">
         <v>6</v>
       </c>
-      <c r="AC59" s="265"/>
-      <c r="AD59" s="301"/>
+      <c r="AC59" s="262"/>
+      <c r="AD59" s="284"/>
     </row>
     <row r="60" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J60" s="302" t="s">
+      <c r="J60" s="285" t="s">
         <v>60</v>
       </c>
-      <c r="K60" s="302"/>
-      <c r="L60" s="302"/>
-      <c r="M60" s="302"/>
+      <c r="K60" s="285"/>
+      <c r="L60" s="285"/>
+      <c r="M60" s="285"/>
       <c r="N60" s="202">
         <v>0</v>
       </c>
@@ -31720,19 +31777,19 @@
         <f>AVERAGE(N60:Y60)</f>
         <v>-972.82500000000005</v>
       </c>
-      <c r="AB60" s="303" t="s">
+      <c r="AB60" s="286" t="s">
         <v>60</v>
       </c>
-      <c r="AC60" s="303"/>
-      <c r="AD60" s="303"/>
+      <c r="AC60" s="286"/>
+      <c r="AD60" s="286"/>
     </row>
     <row r="61" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J61" s="300" t="s">
+      <c r="J61" s="283" t="s">
         <v>443</v>
       </c>
-      <c r="K61" s="300"/>
-      <c r="L61" s="300"/>
-      <c r="M61" s="300"/>
+      <c r="K61" s="283"/>
+      <c r="L61" s="283"/>
+      <c r="M61" s="283"/>
       <c r="N61" s="202">
         <v>0</v>
       </c>
@@ -31743,12 +31800,12 @@
       <c r="AD61" s="187"/>
     </row>
     <row r="62" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J62" s="304" t="s">
+      <c r="J62" s="287" t="s">
         <v>539</v>
       </c>
-      <c r="K62" s="305"/>
-      <c r="L62" s="305"/>
-      <c r="M62" s="306"/>
+      <c r="K62" s="288"/>
+      <c r="L62" s="288"/>
+      <c r="M62" s="289"/>
       <c r="N62" s="202"/>
       <c r="Y62">
         <f>27.48+274.8</f>
@@ -31761,12 +31818,12 @@
       <c r="AD62" s="187"/>
     </row>
     <row r="63" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J63" s="311" t="s">
+      <c r="J63" s="276" t="s">
         <v>540</v>
       </c>
-      <c r="K63" s="311"/>
-      <c r="L63" s="311"/>
-      <c r="M63" s="312"/>
+      <c r="K63" s="276"/>
+      <c r="L63" s="276"/>
+      <c r="M63" s="277"/>
       <c r="N63" s="202"/>
       <c r="V63">
         <f>-26-5-102.44-15.36</f>
@@ -31783,12 +31840,12 @@
       <c r="AD63" s="187"/>
     </row>
     <row r="64" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J64" s="313" t="s">
+      <c r="J64" s="278" t="s">
         <v>298</v>
       </c>
-      <c r="K64" s="313"/>
-      <c r="L64" s="313"/>
-      <c r="M64" s="313"/>
+      <c r="K64" s="278"/>
+      <c r="L64" s="278"/>
+      <c r="M64" s="278"/>
       <c r="N64" s="202">
         <v>132</v>
       </c>
@@ -31800,11 +31857,11 @@
         <f>AVERAGE(N64:Y64)</f>
         <v>132</v>
       </c>
-      <c r="AB64" s="297" t="s">
+      <c r="AB64" s="279" t="s">
         <v>298</v>
       </c>
-      <c r="AC64" s="297"/>
-      <c r="AD64" s="297"/>
+      <c r="AC64" s="279"/>
+      <c r="AD64" s="279"/>
     </row>
     <row r="65" spans="10:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J65" s="215"/>
@@ -31823,12 +31880,12 @@
       <c r="AD65" s="214"/>
     </row>
     <row r="66" spans="10:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J66" s="287" t="s">
+      <c r="J66" s="280" t="s">
         <v>297</v>
       </c>
-      <c r="K66" s="287"/>
-      <c r="L66" s="287"/>
-      <c r="M66" s="287"/>
+      <c r="K66" s="280"/>
+      <c r="L66" s="280"/>
+      <c r="M66" s="280"/>
       <c r="N66" s="203">
         <v>0</v>
       </c>
@@ -31840,19 +31897,19 @@
         <f>AVERAGE(N66:Y66)</f>
         <v>0</v>
       </c>
-      <c r="AB66" s="258" t="s">
+      <c r="AB66" s="260" t="s">
         <v>297</v>
       </c>
-      <c r="AC66" s="258"/>
-      <c r="AD66" s="258"/>
+      <c r="AC66" s="260"/>
+      <c r="AD66" s="260"/>
     </row>
     <row r="67" spans="10:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J67" s="298" t="s">
+      <c r="J67" s="281" t="s">
         <v>300</v>
       </c>
-      <c r="K67" s="298"/>
-      <c r="L67" s="298"/>
-      <c r="M67" s="299"/>
+      <c r="K67" s="281"/>
+      <c r="L67" s="281"/>
+      <c r="M67" s="282"/>
       <c r="N67" s="115">
         <f>SUM(N5:N66)</f>
         <v>-18236.870000000003</v>
@@ -31911,12 +31968,12 @@
       </c>
     </row>
     <row r="68" spans="10:30" ht="15.75" thickBot="1">
-      <c r="J68" s="307" t="s">
+      <c r="J68" s="272" t="s">
         <v>61</v>
       </c>
-      <c r="K68" s="307"/>
-      <c r="L68" s="307"/>
-      <c r="M68" s="308"/>
+      <c r="K68" s="272"/>
+      <c r="L68" s="272"/>
+      <c r="M68" s="273"/>
       <c r="N68" s="140">
         <f>N2+SUM(N4:N66)-N3</f>
         <v>-7491.7500000000018</v>
@@ -31967,12 +32024,12 @@
       </c>
     </row>
     <row r="69" spans="10:30">
-      <c r="J69" s="309" t="s">
+      <c r="J69" s="274" t="s">
         <v>62</v>
       </c>
-      <c r="K69" s="309"/>
-      <c r="L69" s="309"/>
-      <c r="M69" s="309"/>
+      <c r="K69" s="274"/>
+      <c r="L69" s="274"/>
+      <c r="M69" s="274"/>
       <c r="N69" s="61">
         <f>N68</f>
         <v>-7491.7500000000018</v>
@@ -32315,8 +32372,8 @@
       <c r="N85" s="47"/>
       <c r="O85" s="47"/>
       <c r="P85" s="47"/>
-      <c r="Q85" s="310"/>
-      <c r="R85" s="310"/>
+      <c r="Q85" s="275"/>
+      <c r="R85" s="275"/>
       <c r="V85" s="47"/>
       <c r="W85" s="47"/>
       <c r="X85" s="47"/>
@@ -32973,35 +33030,17 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AB31:AD31"/>
-    <mergeCell ref="AB37:AD37"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="AB36:AD36"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AB19:AD19"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="AB51:AD51"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="AB39:AD39"/>
-    <mergeCell ref="AB44:AD44"/>
-    <mergeCell ref="AB45:AD45"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="J63:M63"/>
     <mergeCell ref="Q85:R85"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="AB60:AD60"/>
@@ -33018,17 +33057,35 @@
     <mergeCell ref="J59:M59"/>
     <mergeCell ref="AB46:AD46"/>
     <mergeCell ref="AB50:AD50"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="AB51:AD51"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="AB39:AD39"/>
+    <mergeCell ref="AB44:AD44"/>
+    <mergeCell ref="AB45:AD45"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AB19:AD19"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AB31:AD31"/>
+    <mergeCell ref="AB37:AD37"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="AB36:AD36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/finansiele berekeninge 2015.xlsx
+++ b/finansiele berekeninge 2015.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repo\Umbopo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C376D66B-DE41-4613-AFBD-F2B4EAC17669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBED1D57-C842-4A1B-BBC7-688593BBE5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="692">
   <si>
     <t>Maandlikse salaris</t>
   </si>
@@ -2079,6 +2079,48 @@
   </si>
   <si>
     <t>Palms trim 2k</t>
+  </si>
+  <si>
+    <t>OORGEDRA</t>
+  </si>
+  <si>
+    <t>Aandele en ETF, ETN</t>
+  </si>
+  <si>
+    <t>Old Mutual</t>
+  </si>
+  <si>
+    <t>Glencore</t>
+  </si>
+  <si>
+    <t>Etn On Applec</t>
+  </si>
+  <si>
+    <t>S&amp;P500 IT Etf</t>
+  </si>
+  <si>
+    <t>SRETNQ</t>
+  </si>
+  <si>
+    <t>DIFF</t>
+  </si>
+  <si>
+    <t>LOSS</t>
+  </si>
+  <si>
+    <t>GAIN</t>
+  </si>
+  <si>
+    <t>NETT</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>NEGATIVE MEANS LOSS</t>
+  </si>
+  <si>
+    <t>POSITIVE MEANS GAIN</t>
   </si>
 </sst>
 </file>
@@ -3441,7 +3483,7 @@
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="362">
+  <cellXfs count="361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="3" applyBorder="1"/>
@@ -3840,6 +3882,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3847,6 +3890,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="52" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="53" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3858,72 +3943,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="62" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="53" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="52" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3952,83 +4054,24 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="62" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="49" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="50" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4040,18 +4083,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="57" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="58" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="59" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="46" xfId="7" applyBorder="1" applyAlignment="1">
@@ -4069,10 +4100,55 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="38" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="57" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="58" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="59" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="32" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4093,37 +4169,7 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="32" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4138,16 +4184,7 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4162,8 +4199,12 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="20% - Accent2" xfId="19" builtinId="34"/>
@@ -5568,10 +5609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D37CFB-3750-4140-B070-A288E4BD3B86}">
-  <dimension ref="B2:AA61"/>
+  <dimension ref="B2:AA62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5580,10 +5621,14 @@
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.42578125" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
+    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
@@ -5847,11 +5892,11 @@
       <c r="W22" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="X22" s="254" t="s">
+      <c r="X22" s="255" t="s">
         <v>667</v>
       </c>
-      <c r="Y22" s="254"/>
-      <c r="Z22" s="254"/>
+      <c r="Y22" s="255"/>
+      <c r="Z22" s="255"/>
       <c r="AA22" t="s">
         <v>668</v>
       </c>
@@ -5877,18 +5922,18 @@
       </c>
     </row>
     <row r="24" spans="2:27" ht="23.25">
-      <c r="B24" s="252" t="s">
+      <c r="B24" s="253" t="s">
         <v>602</v>
       </c>
-      <c r="C24" s="252"/>
-      <c r="D24" s="252"/>
-      <c r="E24" s="252"/>
-      <c r="F24" s="252"/>
-      <c r="M24" s="253" t="s">
+      <c r="C24" s="253"/>
+      <c r="D24" s="253"/>
+      <c r="E24" s="253"/>
+      <c r="F24" s="253"/>
+      <c r="M24" s="254" t="s">
         <v>606</v>
       </c>
-      <c r="N24" s="253"/>
-      <c r="O24" s="253"/>
+      <c r="N24" s="254"/>
+      <c r="O24" s="254"/>
       <c r="S24" s="243" t="s">
         <v>613</v>
       </c>
@@ -6341,14 +6386,22 @@
         <v>631</v>
       </c>
     </row>
+    <row r="42" spans="2:26">
+      <c r="D42" t="s">
+        <v>678</v>
+      </c>
+      <c r="G42" t="s">
+        <v>679</v>
+      </c>
+    </row>
     <row r="43" spans="2:26">
       <c r="D43">
         <f>SUM(C46:C1048576)</f>
-        <v>9106.69</v>
+        <v>9606.69</v>
       </c>
       <c r="G43">
-        <f>2976.76+121.59</f>
-        <v>3098.3500000000004</v>
+        <f>SUM(E46:E1048576)</f>
+        <v>4425.3899999999994</v>
       </c>
     </row>
     <row r="44" spans="2:26">
@@ -6357,7 +6410,7 @@
       </c>
       <c r="D44">
         <f>SUM(C46:C1000)</f>
-        <v>9106.69</v>
+        <v>9606.69</v>
       </c>
     </row>
     <row r="45" spans="2:26">
@@ -6368,7 +6421,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="46" spans="2:26">
+    <row r="46" spans="2:26" ht="15.75" thickBot="1">
       <c r="B46" t="s">
         <v>638</v>
       </c>
@@ -6376,15 +6429,40 @@
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:26">
+    <row r="47" spans="2:26" ht="16.5" thickTop="1" thickBot="1">
       <c r="B47" t="s">
         <v>638</v>
       </c>
       <c r="C47">
         <v>1500</v>
       </c>
-    </row>
-    <row r="48" spans="2:26">
+      <c r="H47" s="118" t="s">
+        <v>680</v>
+      </c>
+      <c r="I47" s="118" t="s">
+        <v>681</v>
+      </c>
+      <c r="J47" s="118"/>
+      <c r="K47" s="118" t="s">
+        <v>682</v>
+      </c>
+      <c r="L47" s="118" t="s">
+        <v>683</v>
+      </c>
+      <c r="M47" s="118" t="s">
+        <v>684</v>
+      </c>
+      <c r="N47" s="118" t="s">
+        <v>687</v>
+      </c>
+      <c r="O47" s="118" t="s">
+        <v>686</v>
+      </c>
+      <c r="P47" s="118" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" ht="16.5" thickTop="1" thickBot="1">
       <c r="B48" s="250">
         <v>45050</v>
       </c>
@@ -6395,16 +6473,63 @@
         <f>40*11.56</f>
         <v>462.40000000000003</v>
       </c>
-    </row>
-    <row r="49" spans="2:5">
+      <c r="G48" s="118" t="s">
+        <v>689</v>
+      </c>
+      <c r="H48">
+        <f>E48+E59</f>
+        <v>964.79</v>
+      </c>
+      <c r="I48">
+        <f>E50+E58</f>
+        <v>2109.56</v>
+      </c>
+      <c r="K48">
+        <f>E51</f>
+        <v>431.52000000000004</v>
+      </c>
+      <c r="L48">
+        <f>E55</f>
+        <v>534.66</v>
+      </c>
+      <c r="M48">
+        <f>E52</f>
+        <v>375.20000000000005</v>
+      </c>
+      <c r="P48" s="42" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" ht="15.75" thickTop="1">
       <c r="B49" s="250">
         <v>45050</v>
       </c>
       <c r="C49">
         <v>500</v>
       </c>
-    </row>
-    <row r="50" spans="2:5">
+      <c r="G49" s="250">
+        <v>45223</v>
+      </c>
+      <c r="H49">
+        <v>944</v>
+      </c>
+      <c r="I49">
+        <v>2008</v>
+      </c>
+      <c r="K49">
+        <v>459</v>
+      </c>
+      <c r="L49">
+        <v>501</v>
+      </c>
+      <c r="M49">
+        <v>359</v>
+      </c>
+      <c r="P49" s="24" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17">
       <c r="B50" s="250">
         <v>45054</v>
       </c>
@@ -6415,12 +6540,50 @@
         <f>10*103.4</f>
         <v>1034</v>
       </c>
-    </row>
-    <row r="51" spans="2:5">
+      <c r="G50" s="20" t="s">
+        <v>685</v>
+      </c>
+      <c r="H50">
+        <f>H48-H49</f>
+        <v>20.789999999999964</v>
+      </c>
+      <c r="I50">
+        <f>I48-I49</f>
+        <v>101.55999999999995</v>
+      </c>
+      <c r="K50">
+        <f>K48-K49</f>
+        <v>-27.479999999999961</v>
+      </c>
+      <c r="L50">
+        <f>L48-L49</f>
+        <v>33.659999999999968</v>
+      </c>
+      <c r="M50">
+        <f>M48-M49</f>
+        <v>16.200000000000045</v>
+      </c>
+      <c r="N50">
+        <f>SUMIF(H50:M50,"&lt;0")</f>
+        <v>-27.479999999999961</v>
+      </c>
+      <c r="O50">
+        <f>SUMIF(I50:N50,"&gt;0")</f>
+        <v>151.41999999999996</v>
+      </c>
+      <c r="P50">
+        <f>(O50+N50)*-1</f>
+        <v>-123.94</v>
+      </c>
+      <c r="Q50" s="250">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17">
       <c r="B51" s="250">
         <v>45055</v>
       </c>
-      <c r="D51" s="360" t="s">
+      <c r="D51" s="252" t="s">
         <v>641</v>
       </c>
       <c r="E51">
@@ -6428,11 +6591,11 @@
         <v>431.52000000000004</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:17">
       <c r="B52" s="250">
         <v>45085</v>
       </c>
-      <c r="D52" s="360" t="s">
+      <c r="D52" s="252" t="s">
         <v>642</v>
       </c>
       <c r="E52">
@@ -6440,7 +6603,7 @@
         <v>375.20000000000005</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="2:17">
       <c r="B53" s="250">
         <v>45110</v>
       </c>
@@ -6448,7 +6611,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="2:17">
       <c r="B54" s="250">
         <v>45113</v>
       </c>
@@ -6459,21 +6622,21 @@
         <v>9.66</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="2:17">
       <c r="B55" s="250">
         <v>45113</v>
       </c>
       <c r="C55">
         <v>525</v>
       </c>
-      <c r="D55" s="360" t="s">
+      <c r="D55" s="252" t="s">
         <v>663</v>
       </c>
       <c r="E55">
         <v>534.66</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="2:17">
       <c r="B56" s="250">
         <v>45191</v>
       </c>
@@ -6484,7 +6647,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="39">
+    <row r="57" spans="2:17" ht="39">
       <c r="B57" s="250">
         <v>45215</v>
       </c>
@@ -6495,7 +6658,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="58" spans="2:5">
+    <row r="58" spans="2:17">
       <c r="B58" s="250">
         <v>45215</v>
       </c>
@@ -6506,7 +6669,7 @@
         <v>1075.56</v>
       </c>
     </row>
-    <row r="59" spans="2:5">
+    <row r="59" spans="2:17">
       <c r="B59" s="250">
         <v>45215</v>
       </c>
@@ -6517,7 +6680,7 @@
         <v>502.39</v>
       </c>
     </row>
-    <row r="60" spans="2:5">
+    <row r="60" spans="2:17">
       <c r="B60" s="250">
         <v>45222</v>
       </c>
@@ -6528,11 +6691,19 @@
         <v>670</v>
       </c>
     </row>
-    <row r="61" spans="2:5">
+    <row r="61" spans="2:17">
       <c r="B61" s="250">
         <v>45223</v>
       </c>
       <c r="C61">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17">
+      <c r="B62" s="250">
+        <v>45255</v>
+      </c>
+      <c r="C62">
         <v>500</v>
       </c>
     </row>
@@ -6552,7 +6723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -6571,10 +6742,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="271" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="257"/>
+      <c r="B1" s="272"/>
       <c r="C1" s="138" t="s">
         <v>1</v>
       </c>
@@ -6584,11 +6755,11 @@
       <c r="G1" s="47"/>
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
-      <c r="J1" s="327" t="s">
+      <c r="J1" s="324" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="327"/>
-      <c r="L1" s="328"/>
+      <c r="K1" s="324"/>
+      <c r="L1" s="325"/>
       <c r="M1" s="50" t="s">
         <v>44</v>
       </c>
@@ -6727,11 +6898,11 @@
       <c r="G3" s="47"/>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
-      <c r="J3" s="306" t="s">
+      <c r="J3" s="275" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="306"/>
-      <c r="L3" s="307"/>
+      <c r="K3" s="275"/>
+      <c r="L3" s="276"/>
       <c r="M3" s="56">
         <v>401.56</v>
       </c>
@@ -6774,11 +6945,11 @@
         <f t="shared" ref="Z3:Z23" si="1">AVERAGE(M3:X3)</f>
         <v>478.15909090909082</v>
       </c>
-      <c r="AA3" s="306" t="s">
+      <c r="AA3" s="275" t="s">
         <v>63</v>
       </c>
-      <c r="AB3" s="306"/>
-      <c r="AC3" s="307"/>
+      <c r="AB3" s="275"/>
+      <c r="AC3" s="276"/>
     </row>
     <row r="4" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="47"/>
@@ -6799,11 +6970,11 @@
         <f>AVERAGE(M3:V3)</f>
         <v>481.21799999999996</v>
       </c>
-      <c r="J4" s="324" t="s">
+      <c r="J4" s="321" t="s">
         <v>239</v>
       </c>
-      <c r="K4" s="325"/>
-      <c r="L4" s="326"/>
+      <c r="K4" s="322"/>
+      <c r="L4" s="323"/>
       <c r="M4" s="58">
         <v>-27536.13</v>
       </c>
@@ -6858,11 +7029,11 @@
         <f t="shared" si="1"/>
         <v>-33579.255000000005</v>
       </c>
-      <c r="AA4" s="324" t="s">
+      <c r="AA4" s="321" t="s">
         <v>239</v>
       </c>
-      <c r="AB4" s="325"/>
-      <c r="AC4" s="326"/>
+      <c r="AB4" s="322"/>
+      <c r="AC4" s="323"/>
     </row>
     <row r="5" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" t="s">
@@ -6884,11 +7055,11 @@
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
-      <c r="J5" s="259" t="s">
+      <c r="J5" s="260" t="s">
         <v>149</v>
       </c>
-      <c r="K5" s="259"/>
-      <c r="L5" s="259"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="260"/>
       <c r="M5">
         <f>D10+D14</f>
         <v>7500</v>
@@ -6945,11 +7116,11 @@
         <f t="shared" si="1"/>
         <v>13246.675833333333</v>
       </c>
-      <c r="AA5" s="259" t="s">
+      <c r="AA5" s="260" t="s">
         <v>149</v>
       </c>
-      <c r="AB5" s="259"/>
-      <c r="AC5" s="259"/>
+      <c r="AB5" s="260"/>
+      <c r="AC5" s="260"/>
     </row>
     <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="47"/>
@@ -6969,11 +7140,11 @@
       <c r="G6" s="47"/>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
-      <c r="J6" s="260" t="s">
+      <c r="J6" s="261" t="s">
         <v>388</v>
       </c>
-      <c r="K6" s="260"/>
-      <c r="L6" s="260"/>
+      <c r="K6" s="261"/>
+      <c r="L6" s="261"/>
       <c r="N6">
         <f>-129</f>
         <v>-129</v>
@@ -7019,11 +7190,11 @@
         <f t="shared" si="1"/>
         <v>-1335.9590000000001</v>
       </c>
-      <c r="AA6" s="260" t="s">
+      <c r="AA6" s="261" t="s">
         <v>276</v>
       </c>
-      <c r="AB6" s="260"/>
-      <c r="AC6" s="260"/>
+      <c r="AB6" s="261"/>
+      <c r="AC6" s="261"/>
     </row>
     <row r="7" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="47"/>
@@ -7042,11 +7213,11 @@
       </c>
       <c r="G7" s="47"/>
       <c r="H7" s="47"/>
-      <c r="J7" s="260" t="s">
+      <c r="J7" s="261" t="s">
         <v>386</v>
       </c>
-      <c r="K7" s="261"/>
-      <c r="L7" s="261"/>
+      <c r="K7" s="262"/>
+      <c r="L7" s="262"/>
       <c r="P7">
         <v>-359</v>
       </c>
@@ -7062,11 +7233,11 @@
         <f t="shared" si="1"/>
         <v>-394.15</v>
       </c>
-      <c r="AA7" s="261" t="s">
+      <c r="AA7" s="262" t="s">
         <v>65</v>
       </c>
-      <c r="AB7" s="261"/>
-      <c r="AC7" s="261"/>
+      <c r="AB7" s="262"/>
+      <c r="AC7" s="262"/>
     </row>
     <row r="8" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="47"/>
@@ -7086,11 +7257,11 @@
       <c r="G8" s="47"/>
       <c r="H8" s="47"/>
       <c r="I8" s="47"/>
-      <c r="J8" s="261" t="s">
+      <c r="J8" s="262" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="261"/>
-      <c r="L8" s="295"/>
+      <c r="K8" s="262"/>
+      <c r="L8" s="294"/>
       <c r="M8">
         <f>-140-127.8-460-178-615-39-119.8-592</f>
         <v>-2271.6</v>
@@ -7143,11 +7314,11 @@
         <f t="shared" si="1"/>
         <v>-1703.7800000000002</v>
       </c>
-      <c r="AA8" s="261" t="s">
+      <c r="AA8" s="262" t="s">
         <v>105</v>
       </c>
-      <c r="AB8" s="261"/>
-      <c r="AC8" s="295"/>
+      <c r="AB8" s="262"/>
+      <c r="AC8" s="294"/>
     </row>
     <row r="9" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="47"/>
@@ -7165,11 +7336,11 @@
       <c r="G9" s="47"/>
       <c r="H9" s="47"/>
       <c r="I9" s="47"/>
-      <c r="J9" s="260" t="s">
+      <c r="J9" s="261" t="s">
         <v>291</v>
       </c>
-      <c r="K9" s="260"/>
-      <c r="L9" s="296"/>
+      <c r="K9" s="261"/>
+      <c r="L9" s="293"/>
       <c r="O9">
         <f>-58.79</f>
         <v>-58.79</v>
@@ -7196,11 +7367,11 @@
         <f t="shared" si="1"/>
         <v>-517.43200000000002</v>
       </c>
-      <c r="AA9" s="260" t="s">
+      <c r="AA9" s="261" t="s">
         <v>291</v>
       </c>
-      <c r="AB9" s="260"/>
-      <c r="AC9" s="296"/>
+      <c r="AB9" s="261"/>
+      <c r="AC9" s="293"/>
     </row>
     <row r="10" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="47"/>
@@ -7220,11 +7391,11 @@
       <c r="G10" s="47"/>
       <c r="H10" s="47"/>
       <c r="I10" s="125"/>
-      <c r="J10" s="260" t="s">
+      <c r="J10" s="261" t="s">
         <v>269</v>
       </c>
-      <c r="K10" s="260"/>
-      <c r="L10" s="296"/>
+      <c r="K10" s="261"/>
+      <c r="L10" s="293"/>
       <c r="M10">
         <f>-164.97-724.74-276-123.96-161.51-179.05-612-544.58-437.46-418.98-130.97</f>
         <v>-3774.22</v>
@@ -7279,11 +7450,11 @@
         <f t="shared" si="1"/>
         <v>-1878.0074999999999</v>
       </c>
-      <c r="AA10" s="260" t="s">
+      <c r="AA10" s="261" t="s">
         <v>269</v>
       </c>
-      <c r="AB10" s="260"/>
-      <c r="AC10" s="296"/>
+      <c r="AB10" s="261"/>
+      <c r="AC10" s="293"/>
     </row>
     <row r="11" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="47"/>
@@ -7303,11 +7474,11 @@
       <c r="G11" s="47"/>
       <c r="H11" s="47"/>
       <c r="I11" s="126"/>
-      <c r="J11" s="260" t="s">
+      <c r="J11" s="261" t="s">
         <v>301</v>
       </c>
-      <c r="K11" s="260"/>
-      <c r="L11" s="296"/>
+      <c r="K11" s="261"/>
+      <c r="L11" s="293"/>
       <c r="M11">
         <f>-846.02-566.69</f>
         <v>-1412.71</v>
@@ -7356,11 +7527,11 @@
         <f t="shared" si="1"/>
         <v>-1317.1645454545453</v>
       </c>
-      <c r="AA11" s="260" t="s">
+      <c r="AA11" s="261" t="s">
         <v>301</v>
       </c>
-      <c r="AB11" s="260"/>
-      <c r="AC11" s="296"/>
+      <c r="AB11" s="261"/>
+      <c r="AC11" s="293"/>
     </row>
     <row r="12" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="47"/>
@@ -7381,11 +7552,11 @@
       <c r="G12" s="47"/>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
-      <c r="J12" s="261" t="s">
+      <c r="J12" s="262" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="261"/>
-      <c r="L12" s="261"/>
+      <c r="K12" s="262"/>
+      <c r="L12" s="262"/>
       <c r="O12">
         <f>-240.1-170-42.8-90-219.65-57.97</f>
         <v>-820.5200000000001</v>
@@ -7401,11 +7572,11 @@
         <f t="shared" si="1"/>
         <v>-1287.76</v>
       </c>
-      <c r="AA12" s="261" t="s">
+      <c r="AA12" s="262" t="s">
         <v>95</v>
       </c>
-      <c r="AB12" s="261"/>
-      <c r="AC12" s="261"/>
+      <c r="AB12" s="262"/>
+      <c r="AC12" s="262"/>
     </row>
     <row r="13" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="47" t="s">
@@ -7425,11 +7596,11 @@
       <c r="G13" s="47"/>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
-      <c r="J13" s="260" t="s">
+      <c r="J13" s="261" t="s">
         <v>444</v>
       </c>
-      <c r="K13" s="261"/>
-      <c r="L13" s="261"/>
+      <c r="K13" s="262"/>
+      <c r="L13" s="262"/>
       <c r="N13">
         <f>-228</f>
         <v>-228</v>
@@ -7470,11 +7641,11 @@
         <f t="shared" si="1"/>
         <v>-688.14333333333343</v>
       </c>
-      <c r="AA13" s="261" t="s">
+      <c r="AA13" s="262" t="s">
         <v>67</v>
       </c>
-      <c r="AB13" s="261"/>
-      <c r="AC13" s="261"/>
+      <c r="AB13" s="262"/>
+      <c r="AC13" s="262"/>
     </row>
     <row r="14" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="47"/>
@@ -7494,11 +7665,11 @@
       <c r="G14" s="47"/>
       <c r="H14" s="47"/>
       <c r="I14" s="47"/>
-      <c r="J14" s="260" t="s">
+      <c r="J14" s="261" t="s">
         <v>299</v>
       </c>
-      <c r="K14" s="260"/>
-      <c r="L14" s="260"/>
+      <c r="K14" s="261"/>
+      <c r="L14" s="261"/>
       <c r="M14">
         <f>-350-52.99</f>
         <v>-402.99</v>
@@ -7538,11 +7709,11 @@
         <f t="shared" si="1"/>
         <v>-981.47124999999994</v>
       </c>
-      <c r="AA14" s="260" t="s">
+      <c r="AA14" s="261" t="s">
         <v>299</v>
       </c>
-      <c r="AB14" s="260"/>
-      <c r="AC14" s="260"/>
+      <c r="AB14" s="261"/>
+      <c r="AC14" s="261"/>
     </row>
     <row r="15" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="47"/>
@@ -7563,11 +7734,11 @@
       <c r="G15" s="47"/>
       <c r="H15" s="47"/>
       <c r="I15" s="47"/>
-      <c r="J15" s="260" t="s">
+      <c r="J15" s="261" t="s">
         <v>264</v>
       </c>
-      <c r="K15" s="260"/>
-      <c r="L15" s="296"/>
+      <c r="K15" s="261"/>
+      <c r="L15" s="293"/>
       <c r="M15">
         <f>-139</f>
         <v>-139</v>
@@ -7616,11 +7787,11 @@
         <f t="shared" si="1"/>
         <v>-870.29090909090894</v>
       </c>
-      <c r="AA15" s="260" t="s">
+      <c r="AA15" s="261" t="s">
         <v>264</v>
       </c>
-      <c r="AB15" s="260"/>
-      <c r="AC15" s="296"/>
+      <c r="AB15" s="261"/>
+      <c r="AC15" s="293"/>
     </row>
     <row r="16" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="47"/>
@@ -7640,11 +7811,11 @@
       <c r="G16" s="47"/>
       <c r="H16" s="47"/>
       <c r="I16" s="47"/>
-      <c r="J16" s="260" t="s">
+      <c r="J16" s="261" t="s">
         <v>387</v>
       </c>
-      <c r="K16" s="261"/>
-      <c r="L16" s="295"/>
+      <c r="K16" s="262"/>
+      <c r="L16" s="294"/>
       <c r="N16">
         <f>-144.94-49.98-74.9</f>
         <v>-269.82</v>
@@ -7673,11 +7844,11 @@
         <f t="shared" si="1"/>
         <v>-4653.376666666667</v>
       </c>
-      <c r="AA16" s="261" t="s">
+      <c r="AA16" s="262" t="s">
         <v>58</v>
       </c>
-      <c r="AB16" s="261"/>
-      <c r="AC16" s="295"/>
+      <c r="AB16" s="262"/>
+      <c r="AC16" s="294"/>
     </row>
     <row r="17" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="47"/>
@@ -7697,11 +7868,11 @@
       <c r="G17" s="47"/>
       <c r="H17" s="47"/>
       <c r="I17" s="47"/>
-      <c r="J17" s="260" t="s">
+      <c r="J17" s="261" t="s">
         <v>250</v>
       </c>
-      <c r="K17" s="260"/>
-      <c r="L17" s="296"/>
+      <c r="K17" s="261"/>
+      <c r="L17" s="293"/>
       <c r="M17">
         <f>-445-445-1416.49-86-75-69.99-588.25</f>
         <v>-3125.7299999999996</v>
@@ -7758,11 +7929,11 @@
         <f t="shared" si="1"/>
         <v>-1801.6158333333335</v>
       </c>
-      <c r="AA17" s="260" t="s">
+      <c r="AA17" s="261" t="s">
         <v>250</v>
       </c>
-      <c r="AB17" s="260"/>
-      <c r="AC17" s="296"/>
+      <c r="AB17" s="261"/>
+      <c r="AC17" s="293"/>
     </row>
     <row r="18" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="47"/>
@@ -7782,11 +7953,11 @@
       <c r="G18" s="47"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
-      <c r="J18" s="260" t="s">
+      <c r="J18" s="261" t="s">
         <v>268</v>
       </c>
-      <c r="K18" s="260"/>
-      <c r="L18" s="296"/>
+      <c r="K18" s="261"/>
+      <c r="L18" s="293"/>
       <c r="Q18">
         <f>-200-200-200-200-200-200-200-200</f>
         <v>-1600</v>
@@ -7827,11 +7998,11 @@
         <f t="shared" si="1"/>
         <v>-1886</v>
       </c>
-      <c r="AA18" s="260" t="s">
+      <c r="AA18" s="261" t="s">
         <v>268</v>
       </c>
-      <c r="AB18" s="260"/>
-      <c r="AC18" s="296"/>
+      <c r="AB18" s="261"/>
+      <c r="AC18" s="293"/>
     </row>
     <row r="19" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="47"/>
@@ -7853,11 +8024,11 @@
       </c>
       <c r="G19" s="47"/>
       <c r="I19" s="47"/>
-      <c r="J19" s="262" t="s">
+      <c r="J19" s="268" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="262"/>
-      <c r="L19" s="284"/>
+      <c r="K19" s="268"/>
+      <c r="L19" s="304"/>
       <c r="M19">
         <f>-821.85-653.85-740-787.15</f>
         <v>-3002.85</v>
@@ -7912,11 +8083,11 @@
         <f t="shared" si="1"/>
         <v>-2289.8108333333334</v>
       </c>
-      <c r="AA19" s="262" t="s">
+      <c r="AA19" s="268" t="s">
         <v>6</v>
       </c>
-      <c r="AB19" s="262"/>
-      <c r="AC19" s="284"/>
+      <c r="AB19" s="268"/>
+      <c r="AC19" s="304"/>
     </row>
     <row r="20" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="47"/>
@@ -7936,11 +8107,11 @@
       <c r="G20" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="J20" s="286" t="s">
+      <c r="J20" s="306" t="s">
         <v>60</v>
       </c>
-      <c r="K20" s="286"/>
-      <c r="L20" s="286"/>
+      <c r="K20" s="306"/>
+      <c r="L20" s="306"/>
       <c r="N20">
         <v>-2040</v>
       </c>
@@ -7969,11 +8140,11 @@
         <f t="shared" si="1"/>
         <v>-2364.8283333333334</v>
       </c>
-      <c r="AA20" s="286" t="s">
+      <c r="AA20" s="306" t="s">
         <v>60</v>
       </c>
-      <c r="AB20" s="286"/>
-      <c r="AC20" s="286"/>
+      <c r="AB20" s="306"/>
+      <c r="AC20" s="306"/>
     </row>
     <row r="21" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="47"/>
@@ -7995,11 +8166,11 @@
       </c>
       <c r="G21" s="179"/>
       <c r="H21" s="47"/>
-      <c r="J21" s="320" t="s">
+      <c r="J21" s="327" t="s">
         <v>443</v>
       </c>
-      <c r="K21" s="321"/>
-      <c r="L21" s="322"/>
+      <c r="K21" s="328"/>
+      <c r="L21" s="329"/>
       <c r="U21">
         <f>-15-15-20-20</f>
         <v>-70</v>
@@ -8033,11 +8204,11 @@
       </c>
       <c r="G22" s="47"/>
       <c r="H22" s="47"/>
-      <c r="J22" s="279" t="s">
+      <c r="J22" s="300" t="s">
         <v>298</v>
       </c>
-      <c r="K22" s="279"/>
-      <c r="L22" s="279"/>
+      <c r="K22" s="300"/>
+      <c r="L22" s="300"/>
       <c r="P22">
         <v>-46.96</v>
       </c>
@@ -8061,11 +8232,11 @@
         <f t="shared" si="1"/>
         <v>-564.58749999999998</v>
       </c>
-      <c r="AA22" s="279" t="s">
+      <c r="AA22" s="300" t="s">
         <v>298</v>
       </c>
-      <c r="AB22" s="279"/>
-      <c r="AC22" s="279"/>
+      <c r="AB22" s="300"/>
+      <c r="AC22" s="300"/>
     </row>
     <row r="23" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="47"/>
@@ -8081,11 +8252,11 @@
       <c r="G23" s="47"/>
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
-      <c r="J23" s="260" t="s">
+      <c r="J23" s="261" t="s">
         <v>297</v>
       </c>
-      <c r="K23" s="260"/>
-      <c r="L23" s="260"/>
+      <c r="K23" s="261"/>
+      <c r="L23" s="261"/>
       <c r="P23">
         <f>-390-430-260-250</f>
         <v>-1330</v>
@@ -8105,11 +8276,11 @@
         <f t="shared" si="1"/>
         <v>-756.66666666666663</v>
       </c>
-      <c r="AA23" s="260" t="s">
+      <c r="AA23" s="261" t="s">
         <v>297</v>
       </c>
-      <c r="AB23" s="260"/>
-      <c r="AC23" s="260"/>
+      <c r="AB23" s="261"/>
+      <c r="AC23" s="261"/>
     </row>
     <row r="24" spans="1:29" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="47"/>
@@ -8125,11 +8296,11 @@
       <c r="G24" s="47"/>
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="323" t="s">
+      <c r="J24" s="326" t="s">
         <v>300</v>
       </c>
-      <c r="K24" s="323"/>
-      <c r="L24" s="323"/>
+      <c r="K24" s="326"/>
+      <c r="L24" s="326"/>
       <c r="M24" s="115">
         <f t="shared" ref="M24:X24" si="2">SUM(M5:M23)</f>
         <v>-6629.1</v>
@@ -8205,11 +8376,11 @@
       <c r="G25" s="47"/>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
-      <c r="J25" s="270" t="s">
+      <c r="J25" s="263" t="s">
         <v>61</v>
       </c>
-      <c r="K25" s="270"/>
-      <c r="L25" s="271"/>
+      <c r="K25" s="263"/>
+      <c r="L25" s="264"/>
       <c r="M25" s="140">
         <f>M2+SUM(M4:M23)-M3</f>
         <v>-2109.0300000000047</v>
@@ -8273,11 +8444,11 @@
       <c r="G26" s="47"/>
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
-      <c r="J26" s="267" t="s">
+      <c r="J26" s="256" t="s">
         <v>62</v>
       </c>
-      <c r="K26" s="267"/>
-      <c r="L26" s="267"/>
+      <c r="K26" s="256"/>
+      <c r="L26" s="256"/>
       <c r="M26" s="61">
         <f>M25</f>
         <v>-2109.0300000000047</v>
@@ -8952,8 +9123,8 @@
       <c r="M41" s="47"/>
       <c r="N41" s="47"/>
       <c r="O41" s="47"/>
-      <c r="P41" s="275"/>
-      <c r="Q41" s="275"/>
+      <c r="P41" s="313"/>
+      <c r="Q41" s="313"/>
       <c r="U41" s="47"/>
       <c r="V41" s="47"/>
       <c r="W41" s="47"/>
@@ -9267,39 +9438,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="AA20:AC20"/>
-    <mergeCell ref="AA22:AC22"/>
-    <mergeCell ref="AA23:AC23"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="AA17:AC17"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="J26:L26"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="J8:L8"/>
@@ -9314,6 +9452,39 @@
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="AA22:AC22"/>
+    <mergeCell ref="AA23:AC23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9358,15 +9529,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" thickBot="1">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="271" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="331" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="309"/>
-      <c r="E1" s="257"/>
+      <c r="B1" s="272"/>
+      <c r="C1" s="343" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="278"/>
+      <c r="E1" s="272"/>
       <c r="M1" s="50" t="s">
         <v>44</v>
       </c>
@@ -9409,10 +9580,10 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="15.75" thickTop="1">
-      <c r="A2" s="332">
+      <c r="A2" s="344">
         <v>36617.354166666672</v>
       </c>
-      <c r="B2" s="332"/>
+      <c r="B2" s="344"/>
       <c r="C2" s="132">
         <v>2500</v>
       </c>
@@ -9489,10 +9660,10 @@
         <v>2</v>
       </c>
       <c r="J3"/>
-      <c r="K3" s="333" t="s">
+      <c r="K3" s="345" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="334"/>
+      <c r="L3" s="346"/>
       <c r="M3" s="56">
         <v>365.5</v>
       </c>
@@ -9548,10 +9719,10 @@
         <v>201</v>
       </c>
       <c r="J4"/>
-      <c r="K4" s="335" t="s">
+      <c r="K4" s="347" t="s">
         <v>239</v>
       </c>
-      <c r="L4" s="336"/>
+      <c r="L4" s="348"/>
       <c r="M4" s="58">
         <f>C30*-1</f>
         <v>-24909</v>
@@ -9619,10 +9790,10 @@
         <v>249</v>
       </c>
       <c r="J5" s="49"/>
-      <c r="K5" s="329" t="s">
+      <c r="K5" s="330" t="s">
         <v>149</v>
       </c>
-      <c r="L5" s="330"/>
+      <c r="L5" s="331"/>
       <c r="M5" s="59"/>
       <c r="N5" s="1"/>
       <c r="O5" s="60"/>
@@ -9655,10 +9826,10 @@
         <v>66</v>
       </c>
       <c r="J6" s="49"/>
-      <c r="K6" s="341" t="s">
+      <c r="K6" s="335" t="s">
         <v>276</v>
       </c>
-      <c r="L6" s="330"/>
+      <c r="L6" s="331"/>
       <c r="M6" s="118">
         <v>-350</v>
       </c>
@@ -9693,10 +9864,10 @@
       <c r="J7" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="329" t="s">
+      <c r="K7" s="330" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="330"/>
+      <c r="L7" s="331"/>
       <c r="M7" s="68"/>
       <c r="N7" s="24"/>
       <c r="Q7" s="42">
@@ -9735,10 +9906,10 @@
       <c r="G8" s="47">
         <v>865</v>
       </c>
-      <c r="K8" s="329" t="s">
+      <c r="K8" s="330" t="s">
         <v>105</v>
       </c>
-      <c r="L8" s="343"/>
+      <c r="L8" s="336"/>
       <c r="M8" s="117">
         <f>-747.09-234.95-158.46-140-378.95-43.98-37.98-123.47</f>
         <v>-1864.88</v>
@@ -9802,10 +9973,10 @@
       <c r="E9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="341" t="s">
+      <c r="K9" s="335" t="s">
         <v>263</v>
       </c>
-      <c r="L9" s="343"/>
+      <c r="L9" s="336"/>
       <c r="M9" s="117"/>
       <c r="N9" s="42"/>
       <c r="P9" s="42"/>
@@ -9851,10 +10022,10 @@
         <v>256</v>
       </c>
       <c r="I10"/>
-      <c r="K10" s="341" t="s">
+      <c r="K10" s="335" t="s">
         <v>269</v>
       </c>
-      <c r="L10" s="343"/>
+      <c r="L10" s="336"/>
       <c r="M10" s="117"/>
       <c r="N10" s="42"/>
       <c r="P10" s="42"/>
@@ -9915,10 +10086,10 @@
       <c r="H11" s="126" t="s">
         <v>262</v>
       </c>
-      <c r="K11" s="337" t="s">
+      <c r="K11" s="338" t="s">
         <v>247</v>
       </c>
-      <c r="L11" s="338"/>
+      <c r="L11" s="339"/>
       <c r="M11" s="68">
         <f>-388.51-194.57</f>
         <v>-583.07999999999993</v>
@@ -9964,10 +10135,10 @@
       <c r="E12" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="329" t="s">
+      <c r="K12" s="330" t="s">
         <v>95</v>
       </c>
-      <c r="L12" s="330"/>
+      <c r="L12" s="331"/>
       <c r="M12" s="68">
         <f>-275-1496</f>
         <v>-1771</v>
@@ -10003,10 +10174,10 @@
       <c r="E13" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="329" t="s">
+      <c r="K13" s="330" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="330"/>
+      <c r="L13" s="331"/>
       <c r="M13" s="68"/>
       <c r="N13" s="24"/>
       <c r="O13" s="24">
@@ -10062,10 +10233,10 @@
       <c r="E14" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="K14" s="329" t="s">
+      <c r="K14" s="330" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="330"/>
+      <c r="L14" s="331"/>
       <c r="M14" s="68"/>
       <c r="N14" s="24"/>
       <c r="Q14" s="47">
@@ -10105,10 +10276,10 @@
       <c r="E15" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="341" t="s">
+      <c r="K15" s="335" t="s">
         <v>264</v>
       </c>
-      <c r="L15" s="343"/>
+      <c r="L15" s="336"/>
       <c r="M15" s="116">
         <v>-210</v>
       </c>
@@ -10152,10 +10323,10 @@
       <c r="E16" t="s">
         <v>248</v>
       </c>
-      <c r="K16" s="329" t="s">
+      <c r="K16" s="330" t="s">
         <v>58</v>
       </c>
-      <c r="L16" s="343"/>
+      <c r="L16" s="336"/>
       <c r="M16" s="120">
         <v>-612.29999999999995</v>
       </c>
@@ -10180,10 +10351,10 @@
       <c r="E17" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="347" t="s">
+      <c r="K17" s="337" t="s">
         <v>250</v>
       </c>
-      <c r="L17" s="295"/>
+      <c r="L17" s="294"/>
       <c r="M17" s="121">
         <f>-534.85-164.85</f>
         <v>-699.7</v>
@@ -10247,7 +10418,7 @@
       <c r="G18" t="s">
         <v>259</v>
       </c>
-      <c r="K18" s="341" t="s">
+      <c r="K18" s="335" t="s">
         <v>268</v>
       </c>
       <c r="L18" s="342"/>
@@ -10299,10 +10470,10 @@
       <c r="G19" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="K19" s="339" t="s">
+      <c r="K19" s="340" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="340"/>
+      <c r="L19" s="341"/>
       <c r="M19" s="68">
         <f>-803-812.8</f>
         <v>-1615.8</v>
@@ -10377,10 +10548,10 @@
       <c r="H20" t="s">
         <v>279</v>
       </c>
-      <c r="K20" s="329" t="s">
+      <c r="K20" s="330" t="s">
         <v>60</v>
       </c>
-      <c r="L20" s="330"/>
+      <c r="L20" s="331"/>
       <c r="M20" s="68">
         <v>-285</v>
       </c>
@@ -10428,10 +10599,10 @@
       <c r="E21" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="344" t="s">
+      <c r="K21" s="332" t="s">
         <v>61</v>
       </c>
-      <c r="L21" s="345"/>
+      <c r="L21" s="333"/>
       <c r="M21" s="127">
         <f>M2+SUM(M4:M20)-M3</f>
         <v>3271.3100000000049</v>
@@ -10492,10 +10663,10 @@
       <c r="E22" t="s">
         <v>241</v>
       </c>
-      <c r="K22" s="346" t="s">
+      <c r="K22" s="334" t="s">
         <v>62</v>
       </c>
-      <c r="L22" s="346"/>
+      <c r="L22" s="334"/>
       <c r="M22" s="61">
         <f>M21</f>
         <v>3271.3100000000049</v>
@@ -10943,8 +11114,8 @@
       <c r="T35"/>
     </row>
     <row r="36" spans="3:23">
-      <c r="P36" s="275"/>
-      <c r="Q36" s="275"/>
+      <c r="P36" s="313"/>
+      <c r="Q36" s="313"/>
       <c r="R36"/>
       <c r="S36"/>
       <c r="T36"/>
@@ -11166,6 +11337,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K22:L22"/>
@@ -11175,21 +11361,6 @@
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11230,20 +11401,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A1" s="257" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="257"/>
-      <c r="C1" s="331" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="257"/>
+      <c r="A1" s="272" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="272"/>
+      <c r="C1" s="343" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="272"/>
     </row>
     <row r="2" spans="1:28" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="332">
+      <c r="A2" s="344">
         <v>31519.33</v>
       </c>
-      <c r="B2" s="332"/>
+      <c r="B2" s="344"/>
       <c r="C2" s="48">
         <v>3000</v>
       </c>
@@ -11303,10 +11474,10 @@
         <f>C9+C10+C11+C13</f>
         <v>6617</v>
       </c>
-      <c r="J3" s="333" t="s">
+      <c r="J3" s="345" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="334"/>
+      <c r="K3" s="346"/>
       <c r="L3" s="56">
         <v>301.55</v>
       </c>
@@ -11358,10 +11529,10 @@
         <f>C9+C11+C13</f>
         <v>5897</v>
       </c>
-      <c r="J4" s="350" t="s">
+      <c r="J4" s="352" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="336"/>
+      <c r="K4" s="348"/>
       <c r="L4" s="58">
         <f>D30</f>
         <v>4927.3300000000017</v>
@@ -11419,10 +11590,10 @@
         <v>66</v>
       </c>
       <c r="I5" s="49"/>
-      <c r="J5" s="329" t="s">
+      <c r="J5" s="330" t="s">
         <v>149</v>
       </c>
-      <c r="K5" s="330"/>
+      <c r="K5" s="331"/>
       <c r="L5" s="59">
         <v>0</v>
       </c>
@@ -11464,10 +11635,10 @@
         <v>4</v>
       </c>
       <c r="I6" s="49"/>
-      <c r="J6" s="351" t="s">
+      <c r="J6" s="353" t="s">
         <v>178</v>
       </c>
-      <c r="K6" s="351"/>
+      <c r="K6" s="353"/>
       <c r="L6" s="63"/>
       <c r="M6" s="64"/>
       <c r="N6" s="63"/>
@@ -11509,10 +11680,10 @@
       <c r="I7" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="329" t="s">
+      <c r="J7" s="330" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="330"/>
+      <c r="K7" s="331"/>
       <c r="L7" s="68"/>
       <c r="R7" s="47">
         <v>-354.7</v>
@@ -11529,10 +11700,10 @@
       <c r="D8" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="329" t="s">
+      <c r="J8" s="330" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="330"/>
+      <c r="K8" s="331"/>
       <c r="L8" s="68"/>
       <c r="W8" s="69"/>
     </row>
@@ -11549,10 +11720,10 @@
       <c r="G9" s="70">
         <v>0.3</v>
       </c>
-      <c r="J9" s="329" t="s">
+      <c r="J9" s="330" t="s">
         <v>105</v>
       </c>
-      <c r="K9" s="343"/>
+      <c r="K9" s="336"/>
       <c r="L9" s="68"/>
       <c r="O9" s="47">
         <f>-260-155-173-85.8</f>
@@ -11606,10 +11777,10 @@
       <c r="H10" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="J10" s="329" t="s">
+      <c r="J10" s="330" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="330"/>
+      <c r="K10" s="331"/>
       <c r="L10" s="68"/>
       <c r="N10" s="47">
         <f>-700-500</f>
@@ -11639,10 +11810,10 @@
       <c r="F11" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="J11" s="329" t="s">
+      <c r="J11" s="330" t="s">
         <v>95</v>
       </c>
-      <c r="K11" s="330"/>
+      <c r="K11" s="331"/>
       <c r="L11" s="68"/>
       <c r="M11" s="72"/>
       <c r="P11" s="47">
@@ -11674,10 +11845,10 @@
       <c r="D12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="329" t="s">
+      <c r="J12" s="330" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="330"/>
+      <c r="K12" s="331"/>
       <c r="L12" s="68"/>
       <c r="S12" s="47">
         <v>-245</v>
@@ -11704,10 +11875,10 @@
       <c r="D13" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="J13" s="329" t="s">
+      <c r="J13" s="330" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="330"/>
+      <c r="K13" s="331"/>
       <c r="L13" s="68">
         <v>-881.49</v>
       </c>
@@ -11757,10 +11928,10 @@
       <c r="D14" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="329" t="s">
+      <c r="J14" s="330" t="s">
         <v>57</v>
       </c>
-      <c r="K14" s="330"/>
+      <c r="K14" s="331"/>
       <c r="L14" s="68"/>
       <c r="O14" s="47">
         <f>-615.58-139.8</f>
@@ -11794,10 +11965,10 @@
       <c r="F15" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="J15" s="329" t="s">
+      <c r="J15" s="330" t="s">
         <v>58</v>
       </c>
-      <c r="K15" s="330"/>
+      <c r="K15" s="331"/>
       <c r="L15" s="68"/>
       <c r="P15" s="47">
         <v>-379.99</v>
@@ -11814,10 +11985,10 @@
       <c r="D16" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="J16" s="329" t="s">
+      <c r="J16" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="K16" s="330"/>
+      <c r="K16" s="331"/>
       <c r="L16" s="68"/>
       <c r="Q16" s="47">
         <v>-400</v>
@@ -11831,10 +12002,10 @@
       <c r="D17" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="329" t="s">
+      <c r="J17" s="330" t="s">
         <v>215</v>
       </c>
-      <c r="K17" s="343"/>
+      <c r="K17" s="336"/>
       <c r="L17" s="68"/>
       <c r="O17" s="47">
         <v>-5000</v>
@@ -11866,10 +12037,10 @@
       <c r="F18" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="J18" s="329" t="s">
+      <c r="J18" s="330" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="330"/>
+      <c r="K18" s="331"/>
       <c r="L18" s="75"/>
       <c r="M18" s="76"/>
       <c r="N18" s="76">
@@ -11905,10 +12076,10 @@
       <c r="D19" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="J19" s="344" t="s">
+      <c r="J19" s="332" t="s">
         <v>61</v>
       </c>
-      <c r="K19" s="344"/>
+      <c r="K19" s="332"/>
       <c r="L19" s="79">
         <f>SUM(L4:L18)-13000-L3</f>
         <v>-9255.7099999999973</v>
@@ -11968,10 +12139,10 @@
       <c r="D20" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="346" t="s">
+      <c r="J20" s="334" t="s">
         <v>62</v>
       </c>
-      <c r="K20" s="346"/>
+      <c r="K20" s="334"/>
       <c r="L20" s="61">
         <f>L19</f>
         <v>-9255.7099999999973</v>
@@ -12469,10 +12640,10 @@
       <c r="E34" s="47">
         <v>18000</v>
       </c>
-      <c r="O34" s="352" t="s">
+      <c r="O34" s="349" t="s">
         <v>170</v>
       </c>
-      <c r="P34" s="352"/>
+      <c r="P34" s="349"/>
       <c r="Q34" s="88">
         <v>24300</v>
       </c>
@@ -12833,7 +13004,7 @@
     </row>
     <row r="65" spans="8:9" ht="15.75" thickTop="1">
       <c r="H65" s="111"/>
-      <c r="I65" s="348">
+      <c r="I65" s="350">
         <v>-35.5</v>
       </c>
     </row>
@@ -12841,7 +13012,7 @@
       <c r="H66" s="112" t="s">
         <v>231</v>
       </c>
-      <c r="I66" s="349"/>
+      <c r="I66" s="351"/>
     </row>
     <row r="67" spans="8:9" ht="15.75" thickTop="1">
       <c r="H67"/>
@@ -12852,15 +13023,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J17:K17"/>
     <mergeCell ref="I65:I66"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="A1:B1"/>
@@ -12875,6 +13037,15 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J6:K6"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J17:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12907,31 +13078,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="254" t="s">
+      <c r="A1" s="255" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="254"/>
-      <c r="C1" s="254"/>
-      <c r="D1" s="254"/>
-      <c r="E1" s="254"/>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A2" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="356" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="256"/>
+      <c r="A2" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="271"/>
+      <c r="C2" s="355" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="271"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickTop="1">
-      <c r="A3" s="357">
+      <c r="A3" s="356">
         <v>31519.33</v>
       </c>
-      <c r="B3" s="357"/>
+      <c r="B3" s="356"/>
       <c r="C3" s="6">
         <v>3600</v>
       </c>
@@ -12988,10 +13159,10 @@
         <v>3</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="358" t="s">
+      <c r="J4" s="357" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="287"/>
+      <c r="K4" s="307"/>
       <c r="L4" s="28">
         <v>301.55</v>
       </c>
@@ -13019,10 +13190,10 @@
         <v>141</v>
       </c>
       <c r="I5" s="26"/>
-      <c r="J5" s="335" t="s">
+      <c r="J5" s="347" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="359"/>
+      <c r="K5" s="358"/>
       <c r="L5" s="29">
         <f>D31</f>
         <v>1681.3300000000017</v>
@@ -13080,7 +13251,7 @@
         <v>66</v>
       </c>
       <c r="I6" s="26"/>
-      <c r="J6" s="341" t="s">
+      <c r="J6" s="335" t="s">
         <v>149</v>
       </c>
       <c r="K6" s="354"/>
@@ -13109,7 +13280,7 @@
       <c r="I7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="341" t="s">
+      <c r="J7" s="335" t="s">
         <v>53</v>
       </c>
       <c r="K7" s="354"/>
@@ -13133,7 +13304,7 @@
       <c r="D8" t="s">
         <v>138</v>
       </c>
-      <c r="J8" s="341" t="s">
+      <c r="J8" s="335" t="s">
         <v>65</v>
       </c>
       <c r="K8" s="354"/>
@@ -13147,7 +13318,7 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="341" t="s">
+      <c r="J9" s="335" t="s">
         <v>105</v>
       </c>
       <c r="K9" s="342"/>
@@ -13164,7 +13335,7 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="341" t="s">
+      <c r="J10" s="335" t="s">
         <v>54</v>
       </c>
       <c r="K10" s="354"/>
@@ -13185,7 +13356,7 @@
       <c r="F11" t="s">
         <v>143</v>
       </c>
-      <c r="J11" s="341" t="s">
+      <c r="J11" s="335" t="s">
         <v>95</v>
       </c>
       <c r="K11" s="354"/>
@@ -13206,7 +13377,7 @@
       <c r="F12" t="s">
         <v>152</v>
       </c>
-      <c r="J12" s="341" t="s">
+      <c r="J12" s="335" t="s">
         <v>67</v>
       </c>
       <c r="K12" s="354"/>
@@ -13223,7 +13394,7 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="341" t="s">
+      <c r="J13" s="335" t="s">
         <v>91</v>
       </c>
       <c r="K13" s="354"/>
@@ -13245,7 +13416,7 @@
       <c r="D14" t="s">
         <v>144</v>
       </c>
-      <c r="J14" s="341" t="s">
+      <c r="J14" s="335" t="s">
         <v>57</v>
       </c>
       <c r="K14" s="354"/>
@@ -13259,7 +13430,7 @@
       <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="341" t="s">
+      <c r="J15" s="335" t="s">
         <v>58</v>
       </c>
       <c r="K15" s="354"/>
@@ -13274,7 +13445,7 @@
       <c r="F16" t="s">
         <v>148</v>
       </c>
-      <c r="J16" s="341" t="s">
+      <c r="J16" s="335" t="s">
         <v>59</v>
       </c>
       <c r="K16" s="354"/>
@@ -13288,7 +13459,7 @@
       <c r="D17" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="341" t="s">
+      <c r="J17" s="335" t="s">
         <v>60</v>
       </c>
       <c r="K17" s="354"/>
@@ -13315,10 +13486,10 @@
       <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="355" t="s">
+      <c r="J18" s="360" t="s">
         <v>61</v>
       </c>
-      <c r="K18" s="355"/>
+      <c r="K18" s="360"/>
       <c r="L18" s="4">
         <f>SUM(L4:L17)-13000</f>
         <v>-11898.609999999999</v>
@@ -13378,10 +13549,10 @@
       <c r="F19" t="s">
         <v>137</v>
       </c>
-      <c r="J19" s="353" t="s">
+      <c r="J19" s="359" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="353"/>
+      <c r="K19" s="359"/>
       <c r="L19" s="16">
         <f>L18</f>
         <v>-11898.609999999999</v>
@@ -13739,9 +13910,9 @@
       </c>
     </row>
     <row r="32" spans="2:23">
-      <c r="Q32" s="275"/>
-      <c r="R32" s="275"/>
-      <c r="S32" s="275"/>
+      <c r="Q32" s="313"/>
+      <c r="R32" s="313"/>
+      <c r="S32" s="313"/>
     </row>
     <row r="34" spans="8:20">
       <c r="H34" s="24" t="s">
@@ -13930,6 +14101,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="A2:B2"/>
@@ -13943,14 +14122,6 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13982,20 +14153,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A1" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="356" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="256"/>
+      <c r="A1" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="271"/>
+      <c r="C1" s="355" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="271"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickTop="1">
-      <c r="A2" s="357">
+      <c r="A2" s="356">
         <v>24571.22</v>
       </c>
-      <c r="B2" s="357"/>
+      <c r="B2" s="356"/>
       <c r="C2" s="6">
         <v>3300</v>
       </c>
@@ -14052,10 +14223,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="358" t="s">
+      <c r="J3" s="357" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="287"/>
+      <c r="K3" s="307"/>
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
       <c r="N3" s="28"/>
@@ -14072,10 +14243,10 @@
     <row r="4" spans="1:23">
       <c r="C4" s="3"/>
       <c r="I4" s="26"/>
-      <c r="J4" s="335" t="s">
+      <c r="J4" s="347" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="359"/>
+      <c r="K4" s="358"/>
       <c r="L4" s="29">
         <f>D29</f>
         <v>3185.2200000000012</v>
@@ -14133,7 +14304,7 @@
         <v>66</v>
       </c>
       <c r="I5" s="26"/>
-      <c r="J5" s="341" t="s">
+      <c r="J5" s="335" t="s">
         <v>118</v>
       </c>
       <c r="K5" s="354"/>
@@ -14181,7 +14352,7 @@
       <c r="I6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="341" t="s">
+      <c r="J6" s="335" t="s">
         <v>53</v>
       </c>
       <c r="K6" s="354"/>
@@ -14209,7 +14380,7 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="341" t="s">
+      <c r="J7" s="335" t="s">
         <v>65</v>
       </c>
       <c r="K7" s="354"/>
@@ -14223,7 +14394,7 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="341" t="s">
+      <c r="J8" s="335" t="s">
         <v>105</v>
       </c>
       <c r="K8" s="342"/>
@@ -14247,7 +14418,7 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="341" t="s">
+      <c r="J9" s="335" t="s">
         <v>54</v>
       </c>
       <c r="K9" s="354"/>
@@ -14270,7 +14441,7 @@
       <c r="D10" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="341" t="s">
+      <c r="J10" s="335" t="s">
         <v>95</v>
       </c>
       <c r="K10" s="354"/>
@@ -14299,7 +14470,7 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="341" t="s">
+      <c r="J11" s="335" t="s">
         <v>67</v>
       </c>
       <c r="K11" s="354"/>
@@ -14323,7 +14494,7 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="341" t="s">
+      <c r="J12" s="335" t="s">
         <v>91</v>
       </c>
       <c r="K12" s="354"/>
@@ -14344,7 +14515,7 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="341" t="s">
+      <c r="J13" s="335" t="s">
         <v>57</v>
       </c>
       <c r="K13" s="354"/>
@@ -14377,7 +14548,7 @@
       <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="341" t="s">
+      <c r="J14" s="335" t="s">
         <v>58</v>
       </c>
       <c r="K14" s="354"/>
@@ -14399,7 +14570,7 @@
       <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="341" t="s">
+      <c r="J15" s="335" t="s">
         <v>59</v>
       </c>
       <c r="K15" s="354"/>
@@ -14426,7 +14597,7 @@
         <f>SUM(L17:W17)</f>
         <v>3110.9100000000144</v>
       </c>
-      <c r="J16" s="341" t="s">
+      <c r="J16" s="335" t="s">
         <v>60</v>
       </c>
       <c r="K16" s="354"/>
@@ -14462,10 +14633,10 @@
       <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="355" t="s">
+      <c r="J17" s="360" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="355"/>
+      <c r="K17" s="360"/>
       <c r="L17" s="4">
         <f t="shared" ref="L17:W17" si="0">SUM(L3:L16)</f>
         <v>-9314.7799999999988</v>
@@ -14522,10 +14693,10 @@
       <c r="D18" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="353" t="s">
+      <c r="J18" s="359" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="353"/>
+      <c r="K18" s="359"/>
       <c r="L18" s="16">
         <f>L17</f>
         <v>-9314.7799999999988</v>
@@ -14931,9 +15102,9 @@
       </c>
     </row>
     <row r="30" spans="2:23">
-      <c r="Q30" s="275"/>
-      <c r="R30" s="275"/>
-      <c r="S30" s="275"/>
+      <c r="Q30" s="313"/>
+      <c r="R30" s="313"/>
+      <c r="S30" s="313"/>
     </row>
     <row r="31" spans="2:23">
       <c r="L31" t="s">
@@ -14971,6 +15142,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
@@ -14984,13 +15162,6 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J8:K8"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15015,20 +15186,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A1" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="356" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="256"/>
+      <c r="A1" s="271" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="271"/>
+      <c r="C1" s="355" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="271"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickTop="1">
-      <c r="A2" s="357">
+      <c r="A2" s="356">
         <v>22802.21</v>
       </c>
-      <c r="B2" s="357"/>
+      <c r="B2" s="356"/>
       <c r="C2" s="6">
         <v>3000</v>
       </c>
@@ -15085,10 +15256,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="358" t="s">
+      <c r="J3" s="357" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="287"/>
+      <c r="K3" s="307"/>
       <c r="L3" s="28"/>
       <c r="M3" s="28">
         <v>521.47</v>
@@ -15107,10 +15278,10 @@
     <row r="4" spans="1:23">
       <c r="C4" s="3"/>
       <c r="I4" s="26"/>
-      <c r="J4" s="335" t="s">
+      <c r="J4" s="347" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="359"/>
+      <c r="K4" s="358"/>
       <c r="L4" s="29">
         <f>D27</f>
         <v>18477</v>
@@ -15168,7 +15339,7 @@
         <v>66</v>
       </c>
       <c r="I5" s="26"/>
-      <c r="J5" s="341" t="s">
+      <c r="J5" s="335" t="s">
         <v>64</v>
       </c>
       <c r="K5" s="354"/>
@@ -15206,7 +15377,7 @@
       <c r="I6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="341" t="s">
+      <c r="J6" s="335" t="s">
         <v>53</v>
       </c>
       <c r="K6" s="354"/>
@@ -15240,7 +15411,7 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="341" t="s">
+      <c r="J7" s="335" t="s">
         <v>65</v>
       </c>
       <c r="K7" s="354"/>
@@ -15257,7 +15428,7 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="J8" s="341" t="s">
+      <c r="J8" s="335" t="s">
         <v>54</v>
       </c>
       <c r="K8" s="354"/>
@@ -15279,7 +15450,7 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="341" t="s">
+      <c r="J9" s="335" t="s">
         <v>55</v>
       </c>
       <c r="K9" s="354"/>
@@ -15293,7 +15464,7 @@
       <c r="D10" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="341" t="s">
+      <c r="J10" s="335" t="s">
         <v>67</v>
       </c>
       <c r="K10" s="354"/>
@@ -15315,7 +15486,7 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="341" t="s">
+      <c r="J11" s="335" t="s">
         <v>56</v>
       </c>
       <c r="K11" s="354"/>
@@ -15332,7 +15503,7 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="341" t="s">
+      <c r="J12" s="335" t="s">
         <v>57</v>
       </c>
       <c r="K12" s="354"/>
@@ -15352,7 +15523,7 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="341" t="s">
+      <c r="J13" s="335" t="s">
         <v>58</v>
       </c>
       <c r="K13" s="354"/>
@@ -15366,7 +15537,7 @@
       <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="341" t="s">
+      <c r="J14" s="335" t="s">
         <v>59</v>
       </c>
       <c r="K14" s="354"/>
@@ -15383,7 +15554,7 @@
       <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="341" t="s">
+      <c r="J15" s="335" t="s">
         <v>60</v>
       </c>
       <c r="K15" s="354"/>
@@ -15413,10 +15584,10 @@
       <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="355" t="s">
+      <c r="J16" s="360" t="s">
         <v>61</v>
       </c>
-      <c r="K16" s="355"/>
+      <c r="K16" s="360"/>
       <c r="L16" s="4">
         <f t="shared" ref="L16:W16" si="0">SUM(L3:L15)</f>
         <v>20419.969999999998</v>
@@ -15473,10 +15644,10 @@
       <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="353" t="s">
+      <c r="J17" s="359" t="s">
         <v>62</v>
       </c>
-      <c r="K17" s="353"/>
+      <c r="K17" s="359"/>
       <c r="L17" s="16">
         <f>A2-L16</f>
         <v>2382.2400000000016</v>
@@ -15848,9 +16019,9 @@
       <c r="O28">
         <v>-10000</v>
       </c>
-      <c r="Q28" s="275"/>
-      <c r="R28" s="275"/>
-      <c r="S28" s="275"/>
+      <c r="Q28" s="313"/>
+      <c r="R28" s="313"/>
+      <c r="S28" s="313"/>
       <c r="T28">
         <v>-15000</v>
       </c>
@@ -15865,15 +16036,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J15:K15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A2:B2"/>
@@ -15884,6 +16046,15 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J15:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16142,11 +16313,11 @@
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="254" t="s">
+      <c r="B17" s="255" t="s">
         <v>432</v>
       </c>
-      <c r="C17" s="254"/>
-      <c r="D17" s="254"/>
+      <c r="C17" s="255"/>
+      <c r="D17" s="255"/>
       <c r="K17">
         <f>K12-I12</f>
         <v>8398.8000000002794</v>
@@ -16276,11 +16447,11 @@
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="254" t="s">
+      <c r="B28" s="255" t="s">
         <v>433</v>
       </c>
-      <c r="C28" s="254"/>
-      <c r="D28" s="254"/>
+      <c r="C28" s="255"/>
+      <c r="D28" s="255"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="172" t="s">
@@ -16657,7 +16828,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18295,7 +18466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD42B16D-C2CA-4A49-BFE3-13C472F21237}">
   <dimension ref="B1:AB54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
@@ -18318,10 +18489,10 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="15.75" thickBot="1">
-      <c r="B2" s="256" t="s">
+      <c r="B2" s="271" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="257"/>
+      <c r="C2" s="272"/>
       <c r="D2" s="138" t="s">
         <v>1</v>
       </c>
@@ -18388,12 +18559,12 @@
       </c>
       <c r="F3" s="47"/>
       <c r="G3" s="47"/>
-      <c r="H3" s="268" t="s">
+      <c r="H3" s="257" t="s">
         <v>236</v>
       </c>
-      <c r="I3" s="268"/>
-      <c r="J3" s="268"/>
-      <c r="K3" s="268"/>
+      <c r="I3" s="257"/>
+      <c r="J3" s="257"/>
+      <c r="K3" s="257"/>
       <c r="L3" s="148"/>
       <c r="M3" s="148"/>
       <c r="N3" s="148"/>
@@ -18443,7 +18614,7 @@
       </c>
       <c r="I4" s="258"/>
       <c r="J4" s="258"/>
-      <c r="K4" s="269"/>
+      <c r="K4" s="259"/>
       <c r="L4" s="160"/>
       <c r="M4" s="58"/>
       <c r="N4" s="58"/>
@@ -18496,12 +18667,12 @@
       </c>
       <c r="F5" s="47"/>
       <c r="G5" s="47"/>
-      <c r="H5" s="259" t="s">
+      <c r="H5" s="260" t="s">
         <v>149</v>
       </c>
-      <c r="I5" s="259"/>
-      <c r="J5" s="259"/>
-      <c r="K5" s="259"/>
+      <c r="I5" s="260"/>
+      <c r="J5" s="260"/>
+      <c r="K5" s="260"/>
       <c r="W5">
         <v>0</v>
       </c>
@@ -18513,11 +18684,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="259" t="s">
+      <c r="Z5" s="260" t="s">
         <v>149</v>
       </c>
-      <c r="AA5" s="259"/>
-      <c r="AB5" s="259"/>
+      <c r="AA5" s="260"/>
+      <c r="AB5" s="260"/>
     </row>
     <row r="6" spans="2:28" ht="15.75">
       <c r="B6" s="47"/>
@@ -18530,12 +18701,12 @@
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
-      <c r="H6" s="260" t="s">
+      <c r="H6" s="261" t="s">
         <v>276</v>
       </c>
-      <c r="I6" s="260"/>
-      <c r="J6" s="260"/>
-      <c r="K6" s="260"/>
+      <c r="I6" s="261"/>
+      <c r="J6" s="261"/>
+      <c r="K6" s="261"/>
       <c r="W6">
         <v>0</v>
       </c>
@@ -18547,11 +18718,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="260" t="s">
+      <c r="Z6" s="261" t="s">
         <v>276</v>
       </c>
-      <c r="AA6" s="260"/>
-      <c r="AB6" s="260"/>
+      <c r="AA6" s="261"/>
+      <c r="AB6" s="261"/>
     </row>
     <row r="7" spans="2:28">
       <c r="B7" s="47"/>
@@ -18561,12 +18732,12 @@
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="47"/>
-      <c r="H7" s="261" t="s">
+      <c r="H7" s="262" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="261"/>
-      <c r="J7" s="261"/>
-      <c r="K7" s="261"/>
+      <c r="I7" s="262"/>
+      <c r="J7" s="262"/>
+      <c r="K7" s="262"/>
       <c r="W7">
         <v>0</v>
       </c>
@@ -18578,11 +18749,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="261" t="s">
+      <c r="Z7" s="262" t="s">
         <v>65</v>
       </c>
-      <c r="AA7" s="261"/>
-      <c r="AB7" s="261"/>
+      <c r="AA7" s="262"/>
+      <c r="AB7" s="262"/>
     </row>
     <row r="8" spans="2:28">
       <c r="B8" s="47"/>
@@ -18592,12 +18763,12 @@
       </c>
       <c r="F8" s="47"/>
       <c r="G8" s="47"/>
-      <c r="H8" s="261" t="s">
+      <c r="H8" s="262" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="261"/>
-      <c r="J8" s="261"/>
-      <c r="K8" s="261"/>
+      <c r="I8" s="262"/>
+      <c r="J8" s="262"/>
+      <c r="K8" s="262"/>
       <c r="W8">
         <v>0</v>
       </c>
@@ -18609,11 +18780,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="261" t="s">
+      <c r="Z8" s="262" t="s">
         <v>105</v>
       </c>
-      <c r="AA8" s="261"/>
-      <c r="AB8" s="261"/>
+      <c r="AA8" s="262"/>
+      <c r="AB8" s="262"/>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="47"/>
@@ -18626,10 +18797,10 @@
       </c>
       <c r="F9" s="47"/>
       <c r="G9" s="47"/>
-      <c r="H9" s="260"/>
-      <c r="I9" s="260"/>
-      <c r="J9" s="260"/>
-      <c r="K9" s="260"/>
+      <c r="H9" s="261"/>
+      <c r="I9" s="261"/>
+      <c r="J9" s="261"/>
+      <c r="K9" s="261"/>
       <c r="W9">
         <v>0</v>
       </c>
@@ -18641,11 +18812,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="260" t="s">
+      <c r="Z9" s="261" t="s">
         <v>291</v>
       </c>
-      <c r="AA9" s="260"/>
-      <c r="AB9" s="260"/>
+      <c r="AA9" s="261"/>
+      <c r="AB9" s="261"/>
     </row>
     <row r="10" spans="2:28">
       <c r="B10" s="47"/>
@@ -18657,12 +18828,12 @@
         <v>306</v>
       </c>
       <c r="G10" s="47"/>
-      <c r="H10" s="260" t="s">
+      <c r="H10" s="261" t="s">
         <v>269</v>
       </c>
-      <c r="I10" s="260"/>
-      <c r="J10" s="260"/>
-      <c r="K10" s="260"/>
+      <c r="I10" s="261"/>
+      <c r="J10" s="261"/>
+      <c r="K10" s="261"/>
       <c r="W10">
         <v>0</v>
       </c>
@@ -18674,11 +18845,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="260" t="s">
+      <c r="Z10" s="261" t="s">
         <v>269</v>
       </c>
-      <c r="AA10" s="260"/>
-      <c r="AB10" s="260"/>
+      <c r="AA10" s="261"/>
+      <c r="AB10" s="261"/>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="47"/>
@@ -18687,12 +18858,12 @@
       </c>
       <c r="D11" s="47"/>
       <c r="G11" s="47"/>
-      <c r="H11" s="260" t="s">
+      <c r="H11" s="261" t="s">
         <v>301</v>
       </c>
-      <c r="I11" s="260"/>
-      <c r="J11" s="260"/>
-      <c r="K11" s="260"/>
+      <c r="I11" s="261"/>
+      <c r="J11" s="261"/>
+      <c r="K11" s="261"/>
       <c r="W11">
         <v>0</v>
       </c>
@@ -18704,11 +18875,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="260" t="s">
+      <c r="Z11" s="261" t="s">
         <v>301</v>
       </c>
-      <c r="AA11" s="260"/>
-      <c r="AB11" s="260"/>
+      <c r="AA11" s="261"/>
+      <c r="AB11" s="261"/>
     </row>
     <row r="12" spans="2:28">
       <c r="B12" s="47"/>
@@ -18720,12 +18891,12 @@
         <v>0</v>
       </c>
       <c r="G12" s="47"/>
-      <c r="H12" s="261" t="s">
+      <c r="H12" s="262" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="261"/>
-      <c r="J12" s="261"/>
-      <c r="K12" s="261"/>
+      <c r="I12" s="262"/>
+      <c r="J12" s="262"/>
+      <c r="K12" s="262"/>
       <c r="W12">
         <v>0</v>
       </c>
@@ -18737,11 +18908,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="261" t="s">
+      <c r="Z12" s="262" t="s">
         <v>95</v>
       </c>
-      <c r="AA12" s="261"/>
-      <c r="AB12" s="261"/>
+      <c r="AA12" s="262"/>
+      <c r="AB12" s="262"/>
     </row>
     <row r="13" spans="2:28">
       <c r="B13" s="47"/>
@@ -18753,12 +18924,12 @@
         <v>7400</v>
       </c>
       <c r="G13" s="47"/>
-      <c r="H13" s="261" t="s">
+      <c r="H13" s="262" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="261"/>
-      <c r="J13" s="261"/>
-      <c r="K13" s="261"/>
+      <c r="I13" s="262"/>
+      <c r="J13" s="262"/>
+      <c r="K13" s="262"/>
       <c r="W13">
         <v>0</v>
       </c>
@@ -18770,11 +18941,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="261" t="s">
+      <c r="Z13" s="262" t="s">
         <v>67</v>
       </c>
-      <c r="AA13" s="261"/>
-      <c r="AB13" s="261"/>
+      <c r="AA13" s="262"/>
+      <c r="AB13" s="262"/>
     </row>
     <row r="14" spans="2:28">
       <c r="B14" s="47"/>
@@ -18786,12 +18957,12 @@
         <v>0</v>
       </c>
       <c r="G14" s="47"/>
-      <c r="H14" s="260" t="s">
+      <c r="H14" s="261" t="s">
         <v>299</v>
       </c>
-      <c r="I14" s="260"/>
-      <c r="J14" s="260"/>
-      <c r="K14" s="260"/>
+      <c r="I14" s="261"/>
+      <c r="J14" s="261"/>
+      <c r="K14" s="261"/>
       <c r="R14" s="114"/>
       <c r="W14">
         <v>0</v>
@@ -18804,11 +18975,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="260" t="s">
+      <c r="Z14" s="261" t="s">
         <v>299</v>
       </c>
-      <c r="AA14" s="260"/>
-      <c r="AB14" s="260"/>
+      <c r="AA14" s="261"/>
+      <c r="AB14" s="261"/>
     </row>
     <row r="15" spans="2:28">
       <c r="B15" s="47"/>
@@ -18820,12 +18991,12 @@
         <v>0</v>
       </c>
       <c r="G15" s="47"/>
-      <c r="H15" s="260" t="s">
+      <c r="H15" s="261" t="s">
         <v>313</v>
       </c>
-      <c r="I15" s="260"/>
-      <c r="J15" s="260"/>
-      <c r="K15" s="260"/>
+      <c r="I15" s="261"/>
+      <c r="J15" s="261"/>
+      <c r="K15" s="261"/>
       <c r="R15" s="114"/>
       <c r="W15">
         <v>0</v>
@@ -18838,11 +19009,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="260" t="s">
+      <c r="Z15" s="261" t="s">
         <v>264</v>
       </c>
-      <c r="AA15" s="260"/>
-      <c r="AB15" s="260"/>
+      <c r="AA15" s="261"/>
+      <c r="AB15" s="261"/>
     </row>
     <row r="16" spans="2:28" ht="19.5" thickBot="1">
       <c r="B16" s="47"/>
@@ -18854,12 +19025,12 @@
         <v>7400</v>
       </c>
       <c r="G16" s="47"/>
-      <c r="H16" s="261" t="s">
+      <c r="H16" s="262" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="261"/>
-      <c r="J16" s="261"/>
-      <c r="K16" s="261"/>
+      <c r="I16" s="262"/>
+      <c r="J16" s="262"/>
+      <c r="K16" s="262"/>
       <c r="W16">
         <v>0</v>
       </c>
@@ -18871,11 +19042,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="261" t="s">
+      <c r="Z16" s="262" t="s">
         <v>58</v>
       </c>
-      <c r="AA16" s="261"/>
-      <c r="AB16" s="261"/>
+      <c r="AA16" s="262"/>
+      <c r="AB16" s="262"/>
     </row>
     <row r="17" spans="2:28" ht="19.5" thickBot="1">
       <c r="B17" s="47"/>
@@ -18887,12 +19058,12 @@
         <v>1100</v>
       </c>
       <c r="G17" s="47"/>
-      <c r="H17" s="260" t="s">
+      <c r="H17" s="261" t="s">
         <v>250</v>
       </c>
-      <c r="I17" s="260"/>
-      <c r="J17" s="260"/>
-      <c r="K17" s="260"/>
+      <c r="I17" s="261"/>
+      <c r="J17" s="261"/>
+      <c r="K17" s="261"/>
       <c r="W17">
         <v>0</v>
       </c>
@@ -18904,21 +19075,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="260" t="s">
+      <c r="Z17" s="261" t="s">
         <v>250</v>
       </c>
-      <c r="AA17" s="260"/>
-      <c r="AB17" s="260"/>
+      <c r="AA17" s="261"/>
+      <c r="AB17" s="261"/>
     </row>
     <row r="18" spans="2:28">
       <c r="B18" s="47"/>
       <c r="G18" s="47"/>
-      <c r="H18" s="260" t="s">
+      <c r="H18" s="261" t="s">
         <v>263</v>
       </c>
-      <c r="I18" s="260"/>
-      <c r="J18" s="260"/>
-      <c r="K18" s="260"/>
+      <c r="I18" s="261"/>
+      <c r="J18" s="261"/>
+      <c r="K18" s="261"/>
       <c r="W18">
         <v>0</v>
       </c>
@@ -18930,20 +19101,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="260" t="s">
+      <c r="Z18" s="261" t="s">
         <v>268</v>
       </c>
-      <c r="AA18" s="260"/>
-      <c r="AB18" s="260"/>
+      <c r="AA18" s="261"/>
+      <c r="AB18" s="261"/>
     </row>
     <row r="19" spans="2:28">
       <c r="B19" s="47"/>
-      <c r="H19" s="262" t="s">
+      <c r="H19" s="268" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="262"/>
-      <c r="J19" s="262"/>
-      <c r="K19" s="262"/>
+      <c r="I19" s="268"/>
+      <c r="J19" s="268"/>
+      <c r="K19" s="268"/>
       <c r="W19">
         <v>0</v>
       </c>
@@ -18955,20 +19126,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="262" t="s">
+      <c r="Z19" s="268" t="s">
         <v>6</v>
       </c>
-      <c r="AA19" s="262"/>
-      <c r="AB19" s="262"/>
+      <c r="AA19" s="268"/>
+      <c r="AB19" s="268"/>
     </row>
     <row r="20" spans="2:28">
       <c r="B20" s="47"/>
-      <c r="H20" s="263" t="s">
+      <c r="H20" s="269" t="s">
         <v>60</v>
       </c>
-      <c r="I20" s="263"/>
-      <c r="J20" s="263"/>
-      <c r="K20" s="263"/>
+      <c r="I20" s="269"/>
+      <c r="J20" s="269"/>
+      <c r="K20" s="269"/>
       <c r="W20">
         <v>0</v>
       </c>
@@ -18980,20 +19151,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="263" t="s">
+      <c r="Z20" s="269" t="s">
         <v>60</v>
       </c>
-      <c r="AA20" s="263"/>
-      <c r="AB20" s="263"/>
+      <c r="AA20" s="269"/>
+      <c r="AB20" s="269"/>
     </row>
     <row r="21" spans="2:28">
       <c r="B21" s="47"/>
-      <c r="H21" s="264" t="s">
+      <c r="H21" s="265" t="s">
         <v>298</v>
       </c>
-      <c r="I21" s="264"/>
-      <c r="J21" s="264"/>
-      <c r="K21" s="264"/>
+      <c r="I21" s="265"/>
+      <c r="J21" s="265"/>
+      <c r="K21" s="265"/>
       <c r="W21">
         <v>0</v>
       </c>
@@ -19005,20 +19176,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="264" t="s">
+      <c r="Z21" s="265" t="s">
         <v>298</v>
       </c>
-      <c r="AA21" s="264"/>
-      <c r="AB21" s="264"/>
+      <c r="AA21" s="265"/>
+      <c r="AB21" s="265"/>
     </row>
     <row r="22" spans="2:28">
       <c r="B22" s="47"/>
-      <c r="H22" s="260" t="s">
+      <c r="H22" s="261" t="s">
         <v>297</v>
       </c>
-      <c r="I22" s="260"/>
-      <c r="J22" s="260"/>
-      <c r="K22" s="260"/>
+      <c r="I22" s="261"/>
+      <c r="J22" s="261"/>
+      <c r="K22" s="261"/>
       <c r="W22">
         <v>0</v>
       </c>
@@ -19030,20 +19201,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="260" t="s">
+      <c r="Z22" s="261" t="s">
         <v>297</v>
       </c>
-      <c r="AA22" s="260"/>
-      <c r="AB22" s="260"/>
+      <c r="AA22" s="261"/>
+      <c r="AB22" s="261"/>
     </row>
     <row r="23" spans="2:28" ht="15.75" thickBot="1">
       <c r="B23" s="47"/>
-      <c r="H23" s="265" t="s">
+      <c r="H23" s="266" t="s">
         <v>300</v>
       </c>
-      <c r="I23" s="265"/>
-      <c r="J23" s="265"/>
-      <c r="K23" s="266"/>
+      <c r="I23" s="266"/>
+      <c r="J23" s="266"/>
+      <c r="K23" s="267"/>
       <c r="L23" s="115">
         <f>SUM(L5:L22)</f>
         <v>0</v>
@@ -19103,12 +19274,12 @@
     </row>
     <row r="24" spans="2:28" ht="15.75" thickBot="1">
       <c r="B24" s="47"/>
-      <c r="H24" s="270" t="s">
+      <c r="H24" s="263" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="270"/>
-      <c r="J24" s="270"/>
-      <c r="K24" s="271"/>
+      <c r="I24" s="263"/>
+      <c r="J24" s="263"/>
+      <c r="K24" s="264"/>
       <c r="L24" s="140">
         <f>L3+SUM(L4:L22)</f>
         <v>0</v>
@@ -19160,12 +19331,12 @@
     </row>
     <row r="25" spans="2:28">
       <c r="B25" s="47"/>
-      <c r="H25" s="267" t="s">
+      <c r="H25" s="256" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="267"/>
-      <c r="J25" s="267"/>
-      <c r="K25" s="267"/>
+      <c r="I25" s="256"/>
+      <c r="J25" s="256"/>
+      <c r="K25" s="256"/>
       <c r="L25" s="61">
         <f>L24</f>
         <v>0</v>
@@ -19556,13 +19727,13 @@
       <c r="F44" s="47"/>
     </row>
     <row r="47" spans="2:27" ht="26.25">
-      <c r="B47" s="255" t="s">
+      <c r="B47" s="270" t="s">
         <v>553</v>
       </c>
-      <c r="C47" s="255"/>
-      <c r="D47" s="255"/>
-      <c r="E47" s="255"/>
-      <c r="F47" s="255"/>
+      <c r="C47" s="270"/>
+      <c r="D47" s="270"/>
+      <c r="E47" s="270"/>
+      <c r="F47" s="270"/>
     </row>
     <row r="49" spans="2:6">
       <c r="E49" t="s">
@@ -19630,34 +19801,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:K17"/>
     <mergeCell ref="B47:F47"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="Z4:AB4"/>
@@ -19674,6 +19817,34 @@
     <mergeCell ref="Z14:AB14"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K13"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19684,7 +19855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33331D36-B2E1-4FAB-B650-B9E2B082374C}">
   <dimension ref="A1:AF111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="I4" sqref="H4:I4"/>
     </sheetView>
   </sheetViews>
@@ -19709,10 +19880,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="277" t="s">
         <v>624</v>
       </c>
-      <c r="B1" s="309"/>
+      <c r="B1" s="278"/>
       <c r="C1" s="138" t="s">
         <v>1</v>
       </c>
@@ -19724,12 +19895,12 @@
       </c>
       <c r="I1" s="180"/>
       <c r="J1" s="180"/>
-      <c r="K1" s="310" t="s">
+      <c r="K1" s="279" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="310"/>
-      <c r="M1" s="310"/>
-      <c r="N1" s="311"/>
+      <c r="L1" s="279"/>
+      <c r="M1" s="279"/>
+      <c r="N1" s="280"/>
       <c r="O1" s="50" t="s">
         <v>44</v>
       </c>
@@ -19774,10 +19945,10 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="314">
+      <c r="A2" s="284">
         <v>52201.22</v>
       </c>
-      <c r="B2" s="315"/>
+      <c r="B2" s="285"/>
       <c r="C2" s="191"/>
       <c r="D2" s="191">
         <v>373.56</v>
@@ -19794,12 +19965,12 @@
       </c>
       <c r="I2" s="180"/>
       <c r="J2" s="180"/>
-      <c r="K2" s="300" t="s">
+      <c r="K2" s="281" t="s">
         <v>543</v>
       </c>
-      <c r="L2" s="300"/>
-      <c r="M2" s="300"/>
-      <c r="N2" s="300"/>
+      <c r="L2" s="281"/>
+      <c r="M2" s="281"/>
+      <c r="N2" s="281"/>
       <c r="O2" s="47">
         <v>46239.28</v>
       </c>
@@ -19883,11 +20054,11 @@
       <c r="Z3" s="47"/>
       <c r="AA3" s="118"/>
       <c r="AB3" s="20"/>
-      <c r="AC3" s="312" t="s">
+      <c r="AC3" s="282" t="s">
         <v>480</v>
       </c>
-      <c r="AD3" s="313"/>
-      <c r="AE3" s="313"/>
+      <c r="AD3" s="283"/>
+      <c r="AE3" s="283"/>
     </row>
     <row r="4" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="47"/>
@@ -19910,12 +20081,12 @@
         <f>A2*0.3</f>
         <v>15660.366</v>
       </c>
-      <c r="K4" s="304" t="s">
+      <c r="K4" s="273" t="s">
         <v>504</v>
       </c>
-      <c r="L4" s="304"/>
-      <c r="M4" s="304"/>
-      <c r="N4" s="305"/>
+      <c r="L4" s="273"/>
+      <c r="M4" s="273"/>
+      <c r="N4" s="274"/>
       <c r="O4" s="56">
         <v>2009</v>
       </c>
@@ -19951,11 +20122,11 @@
         <f>AVERAGE(O4:Z4)</f>
         <v>5583.6120000000001</v>
       </c>
-      <c r="AC4" s="306" t="s">
+      <c r="AC4" s="275" t="s">
         <v>63</v>
       </c>
-      <c r="AD4" s="306"/>
-      <c r="AE4" s="307"/>
+      <c r="AD4" s="275"/>
+      <c r="AE4" s="276"/>
     </row>
     <row r="5" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="C5" s="191">
@@ -19970,12 +20141,12 @@
       <c r="F5" s="191" t="s">
         <v>576</v>
       </c>
-      <c r="K5" s="301" t="s">
+      <c r="K5" s="286" t="s">
         <v>149</v>
       </c>
-      <c r="L5" s="301"/>
-      <c r="M5" s="301"/>
-      <c r="N5" s="302"/>
+      <c r="L5" s="286"/>
+      <c r="M5" s="286"/>
+      <c r="N5" s="287"/>
       <c r="O5" s="202"/>
       <c r="Z5">
         <v>1</v>
@@ -19988,9 +20159,9 @@
         <f>AVERAGE(O5:Z5)</f>
         <v>1</v>
       </c>
-      <c r="AC5" s="259"/>
-      <c r="AD5" s="259"/>
-      <c r="AE5" s="259"/>
+      <c r="AC5" s="260"/>
+      <c r="AD5" s="260"/>
+      <c r="AE5" s="260"/>
     </row>
     <row r="6" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="C6" s="191">
@@ -20017,9 +20188,9 @@
       </c>
       <c r="AA6" s="118"/>
       <c r="AB6" s="20"/>
-      <c r="AC6" s="303"/>
-      <c r="AD6" s="259"/>
-      <c r="AE6" s="259"/>
+      <c r="AC6" s="288"/>
+      <c r="AD6" s="260"/>
+      <c r="AE6" s="260"/>
     </row>
     <row r="7" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="47"/>
@@ -20513,11 +20684,11 @@
       </c>
       <c r="AA23" s="118"/>
       <c r="AB23" s="20"/>
-      <c r="AC23" s="298" t="s">
+      <c r="AC23" s="289" t="s">
         <v>471</v>
       </c>
-      <c r="AD23" s="260"/>
-      <c r="AE23" s="260"/>
+      <c r="AD23" s="261"/>
+      <c r="AE23" s="261"/>
     </row>
     <row r="24" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="47"/>
@@ -20591,12 +20762,12 @@
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
       <c r="J26" s="47"/>
-      <c r="K26" s="280" t="s">
+      <c r="K26" s="290" t="s">
         <v>586</v>
       </c>
-      <c r="L26" s="280"/>
-      <c r="M26" s="280"/>
-      <c r="N26" s="290"/>
+      <c r="L26" s="290"/>
+      <c r="M26" s="290"/>
+      <c r="N26" s="291"/>
       <c r="Z26">
         <v>1</v>
       </c>
@@ -20608,11 +20779,11 @@
         <f>AVERAGE(O26:Z26)</f>
         <v>1</v>
       </c>
-      <c r="AC26" s="260" t="s">
+      <c r="AC26" s="261" t="s">
         <v>276</v>
       </c>
-      <c r="AD26" s="260"/>
-      <c r="AE26" s="260"/>
+      <c r="AD26" s="261"/>
+      <c r="AE26" s="261"/>
     </row>
     <row r="27" spans="1:31" ht="20.25" thickTop="1" thickBot="1">
       <c r="C27" s="231">
@@ -20675,12 +20846,12 @@
         <f>C27-B54</f>
         <v>5381.239999999998</v>
       </c>
-      <c r="K29" s="280" t="s">
+      <c r="K29" s="290" t="s">
         <v>386</v>
       </c>
-      <c r="L29" s="280"/>
-      <c r="M29" s="280"/>
-      <c r="N29" s="290"/>
+      <c r="L29" s="290"/>
+      <c r="M29" s="290"/>
+      <c r="N29" s="291"/>
       <c r="O29" s="202"/>
       <c r="Z29">
         <v>1</v>
@@ -20693,11 +20864,11 @@
         <f>AVERAGE(O29:Z29)</f>
         <v>1</v>
       </c>
-      <c r="AC29" s="261" t="s">
+      <c r="AC29" s="262" t="s">
         <v>65</v>
       </c>
-      <c r="AD29" s="261"/>
-      <c r="AE29" s="261"/>
+      <c r="AD29" s="262"/>
+      <c r="AE29" s="262"/>
     </row>
     <row r="30" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="47"/>
@@ -20713,7 +20884,7 @@
       <c r="E30" s="206">
         <v>1500</v>
       </c>
-      <c r="F30" s="361" t="s">
+      <c r="F30" t="s">
         <v>673</v>
       </c>
       <c r="K30" s="24"/>
@@ -20830,12 +21001,12 @@
       </c>
       <c r="I33" s="180"/>
       <c r="J33" s="180"/>
-      <c r="K33" s="280" t="s">
+      <c r="K33" s="290" t="s">
         <v>500</v>
       </c>
-      <c r="L33" s="280"/>
-      <c r="M33" s="280"/>
-      <c r="N33" s="290"/>
+      <c r="L33" s="290"/>
+      <c r="M33" s="290"/>
+      <c r="N33" s="291"/>
       <c r="O33" s="202"/>
       <c r="Z33">
         <v>1</v>
@@ -20968,12 +21139,12 @@
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
       <c r="J37" s="47"/>
-      <c r="K37" s="300" t="s">
+      <c r="K37" s="281" t="s">
         <v>489</v>
       </c>
-      <c r="L37" s="300"/>
-      <c r="M37" s="300"/>
-      <c r="N37" s="290"/>
+      <c r="L37" s="281"/>
+      <c r="M37" s="281"/>
+      <c r="N37" s="291"/>
       <c r="O37" s="202"/>
       <c r="Z37">
         <v>1</v>
@@ -20986,11 +21157,11 @@
         <f>AVERAGE(O37:Z37)</f>
         <v>1</v>
       </c>
-      <c r="AC37" s="261" t="s">
+      <c r="AC37" s="262" t="s">
         <v>105</v>
       </c>
-      <c r="AD37" s="261"/>
-      <c r="AE37" s="295"/>
+      <c r="AD37" s="262"/>
+      <c r="AE37" s="294"/>
     </row>
     <row r="38" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
       <c r="A38" s="47"/>
@@ -21125,11 +21296,11 @@
       </c>
       <c r="AA42" s="118"/>
       <c r="AB42" s="20"/>
-      <c r="AC42" s="298" t="s">
+      <c r="AC42" s="289" t="s">
         <v>499</v>
       </c>
-      <c r="AD42" s="260"/>
-      <c r="AE42" s="296"/>
+      <c r="AD42" s="261"/>
+      <c r="AE42" s="293"/>
     </row>
     <row r="43" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
       <c r="A43" s="47"/>
@@ -21142,12 +21313,12 @@
       <c r="H43" s="47"/>
       <c r="I43" s="47"/>
       <c r="J43" s="47"/>
-      <c r="K43" s="280" t="s">
+      <c r="K43" s="290" t="s">
         <v>263</v>
       </c>
-      <c r="L43" s="280"/>
-      <c r="M43" s="280"/>
-      <c r="N43" s="280"/>
+      <c r="L43" s="290"/>
+      <c r="M43" s="290"/>
+      <c r="N43" s="290"/>
       <c r="O43" s="202"/>
       <c r="Z43">
         <v>1</v>
@@ -21160,11 +21331,11 @@
         <f>AVERAGE(O43:Z43)</f>
         <v>1</v>
       </c>
-      <c r="AC43" s="260" t="s">
+      <c r="AC43" s="261" t="s">
         <v>291</v>
       </c>
-      <c r="AD43" s="260"/>
-      <c r="AE43" s="296"/>
+      <c r="AD43" s="261"/>
+      <c r="AE43" s="293"/>
     </row>
     <row r="44" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" t="s">
@@ -21320,12 +21491,12 @@
         <v>524</v>
       </c>
       <c r="J48" s="47"/>
-      <c r="K48" s="280" t="s">
+      <c r="K48" s="290" t="s">
         <v>475</v>
       </c>
-      <c r="L48" s="280"/>
-      <c r="M48" s="280"/>
-      <c r="N48" s="280"/>
+      <c r="L48" s="290"/>
+      <c r="M48" s="290"/>
+      <c r="N48" s="290"/>
       <c r="O48" s="202"/>
       <c r="Z48">
         <v>1</v>
@@ -21338,11 +21509,11 @@
         <f t="shared" ref="AB48:AB86" si="1">AVERAGE(O48:Z48)</f>
         <v>1</v>
       </c>
-      <c r="AC48" s="260" t="s">
+      <c r="AC48" s="261" t="s">
         <v>475</v>
       </c>
-      <c r="AD48" s="260"/>
-      <c r="AE48" s="296"/>
+      <c r="AD48" s="261"/>
+      <c r="AE48" s="293"/>
       <c r="AF48">
         <f>V22+V23+V33+V48+V55+V49+V47+V10</f>
         <v>0</v>
@@ -21363,12 +21534,12 @@
         <v>523</v>
       </c>
       <c r="J49" s="47"/>
-      <c r="K49" s="299" t="s">
+      <c r="K49" s="292" t="s">
         <v>476</v>
       </c>
-      <c r="L49" s="299"/>
-      <c r="M49" s="299"/>
-      <c r="N49" s="299"/>
+      <c r="L49" s="292"/>
+      <c r="M49" s="292"/>
+      <c r="N49" s="292"/>
       <c r="O49" s="202"/>
       <c r="Z49">
         <v>1</v>
@@ -21381,11 +21552,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC49" s="260" t="s">
+      <c r="AC49" s="261" t="s">
         <v>477</v>
       </c>
-      <c r="AD49" s="260"/>
-      <c r="AE49" s="296"/>
+      <c r="AD49" s="261"/>
+      <c r="AE49" s="293"/>
     </row>
     <row r="50" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="B50" s="47"/>
@@ -21420,12 +21591,12 @@
         <v>1620</v>
       </c>
       <c r="J51" s="47"/>
-      <c r="K51" s="291" t="s">
+      <c r="K51" s="295" t="s">
         <v>301</v>
       </c>
-      <c r="L51" s="291"/>
-      <c r="M51" s="291"/>
-      <c r="N51" s="291"/>
+      <c r="L51" s="295"/>
+      <c r="M51" s="295"/>
+      <c r="N51" s="295"/>
       <c r="O51" s="202"/>
       <c r="Z51">
         <v>1</v>
@@ -21438,11 +21609,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC51" s="260" t="s">
+      <c r="AC51" s="261" t="s">
         <v>301</v>
       </c>
-      <c r="AD51" s="260"/>
-      <c r="AE51" s="296"/>
+      <c r="AD51" s="261"/>
+      <c r="AE51" s="293"/>
     </row>
     <row r="52" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="C52" s="47"/>
@@ -21564,12 +21735,12 @@
         <v>17149.34</v>
       </c>
       <c r="J56" s="47"/>
-      <c r="K56" s="297" t="s">
+      <c r="K56" s="296" t="s">
         <v>95</v>
       </c>
-      <c r="L56" s="297"/>
-      <c r="M56" s="297"/>
-      <c r="N56" s="297"/>
+      <c r="L56" s="296"/>
+      <c r="M56" s="296"/>
+      <c r="N56" s="296"/>
       <c r="O56" s="202"/>
       <c r="Z56">
         <v>1</v>
@@ -21582,23 +21753,23 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC56" s="261" t="s">
+      <c r="AC56" s="262" t="s">
         <v>95</v>
       </c>
-      <c r="AD56" s="261"/>
-      <c r="AE56" s="261"/>
+      <c r="AD56" s="262"/>
+      <c r="AE56" s="262"/>
     </row>
     <row r="57" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="B57" s="231">
         <v>18002.72</v>
       </c>
       <c r="J57" s="47"/>
-      <c r="K57" s="280" t="s">
+      <c r="K57" s="290" t="s">
         <v>67</v>
       </c>
-      <c r="L57" s="280"/>
-      <c r="M57" s="280"/>
-      <c r="N57" s="280"/>
+      <c r="L57" s="290"/>
+      <c r="M57" s="290"/>
+      <c r="N57" s="290"/>
       <c r="O57" s="202"/>
       <c r="Z57">
         <v>1</v>
@@ -21611,23 +21782,23 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC57" s="261" t="s">
+      <c r="AC57" s="262" t="s">
         <v>67</v>
       </c>
-      <c r="AD57" s="261"/>
-      <c r="AE57" s="261"/>
+      <c r="AD57" s="262"/>
+      <c r="AE57" s="262"/>
     </row>
     <row r="58" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="B58" s="231">
         <v>18858.91</v>
       </c>
       <c r="J58" s="47"/>
-      <c r="K58" s="280" t="s">
+      <c r="K58" s="290" t="s">
         <v>299</v>
       </c>
-      <c r="L58" s="280"/>
-      <c r="M58" s="280"/>
-      <c r="N58" s="280"/>
+      <c r="L58" s="290"/>
+      <c r="M58" s="290"/>
+      <c r="N58" s="290"/>
       <c r="O58" s="202"/>
       <c r="U58" s="114"/>
       <c r="Z58">
@@ -21641,11 +21812,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC58" s="260" t="s">
+      <c r="AC58" s="261" t="s">
         <v>299</v>
       </c>
-      <c r="AD58" s="260"/>
-      <c r="AE58" s="260"/>
+      <c r="AD58" s="261"/>
+      <c r="AE58" s="261"/>
     </row>
     <row r="59" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="B59" s="231">
@@ -21697,11 +21868,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC60" s="298" t="s">
+      <c r="AC60" s="289" t="s">
         <v>479</v>
       </c>
-      <c r="AD60" s="260"/>
-      <c r="AE60" s="260"/>
+      <c r="AD60" s="261"/>
+      <c r="AE60" s="261"/>
     </row>
     <row r="61" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="B61" s="231">
@@ -21736,12 +21907,12 @@
     </row>
     <row r="62" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="D62" s="44"/>
-      <c r="K62" s="280" t="s">
+      <c r="K62" s="290" t="s">
         <v>481</v>
       </c>
-      <c r="L62" s="280"/>
-      <c r="M62" s="280"/>
-      <c r="N62" s="280"/>
+      <c r="L62" s="290"/>
+      <c r="M62" s="290"/>
+      <c r="N62" s="290"/>
       <c r="O62" s="202"/>
       <c r="U62" s="114"/>
       <c r="Z62">
@@ -21755,22 +21926,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC62" s="260" t="s">
+      <c r="AC62" s="261" t="s">
         <v>264</v>
       </c>
-      <c r="AD62" s="260"/>
-      <c r="AE62" s="296"/>
+      <c r="AD62" s="261"/>
+      <c r="AE62" s="293"/>
     </row>
     <row r="63" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="C63" s="190">
         <v>45057</v>
       </c>
-      <c r="K63" s="280" t="s">
+      <c r="K63" s="290" t="s">
         <v>387</v>
       </c>
-      <c r="L63" s="280"/>
-      <c r="M63" s="280"/>
-      <c r="N63" s="280"/>
+      <c r="L63" s="290"/>
+      <c r="M63" s="290"/>
+      <c r="N63" s="290"/>
       <c r="O63" s="202"/>
       <c r="Z63">
         <v>1</v>
@@ -21783,11 +21954,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC63" s="261" t="s">
+      <c r="AC63" s="262" t="s">
         <v>58</v>
       </c>
-      <c r="AD63" s="261"/>
-      <c r="AE63" s="295"/>
+      <c r="AD63" s="262"/>
+      <c r="AE63" s="294"/>
     </row>
     <row r="64" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="K64" s="208"/>
@@ -21813,12 +21984,12 @@
       <c r="AE64" s="209"/>
     </row>
     <row r="65" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K65" s="280" t="s">
+      <c r="K65" s="290" t="s">
         <v>469</v>
       </c>
-      <c r="L65" s="280"/>
-      <c r="M65" s="280"/>
-      <c r="N65" s="290"/>
+      <c r="L65" s="290"/>
+      <c r="M65" s="290"/>
+      <c r="N65" s="291"/>
       <c r="O65" s="202"/>
       <c r="Z65">
         <v>1</v>
@@ -21838,12 +22009,12 @@
       <c r="AE65" s="209"/>
     </row>
     <row r="66" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K66" s="291" t="s">
+      <c r="K66" s="295" t="s">
         <v>527</v>
       </c>
-      <c r="L66" s="291"/>
-      <c r="M66" s="291"/>
-      <c r="N66" s="292"/>
+      <c r="L66" s="295"/>
+      <c r="M66" s="295"/>
+      <c r="N66" s="297"/>
       <c r="O66" s="202"/>
       <c r="Z66">
         <v>1</v>
@@ -21863,12 +22034,12 @@
       <c r="AE66" s="209"/>
     </row>
     <row r="67" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K67" s="291" t="s">
+      <c r="K67" s="295" t="s">
         <v>246</v>
       </c>
-      <c r="L67" s="291"/>
-      <c r="M67" s="291"/>
-      <c r="N67" s="292"/>
+      <c r="L67" s="295"/>
+      <c r="M67" s="295"/>
+      <c r="N67" s="297"/>
       <c r="O67" s="202"/>
       <c r="Z67">
         <v>1</v>
@@ -21881,11 +22052,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC67" s="293" t="s">
+      <c r="AC67" s="298" t="s">
         <v>246</v>
       </c>
-      <c r="AD67" s="293"/>
-      <c r="AE67" s="294"/>
+      <c r="AD67" s="298"/>
+      <c r="AE67" s="299"/>
     </row>
     <row r="68" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="K68" s="208"/>
@@ -21934,12 +22105,12 @@
       <c r="AE69" s="216"/>
     </row>
     <row r="70" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K70" s="280" t="s">
+      <c r="K70" s="290" t="s">
         <v>268</v>
       </c>
-      <c r="L70" s="280"/>
-      <c r="M70" s="280"/>
-      <c r="N70" s="280"/>
+      <c r="L70" s="290"/>
+      <c r="M70" s="290"/>
+      <c r="N70" s="290"/>
       <c r="O70" s="202"/>
       <c r="Z70">
         <v>1</v>
@@ -21952,11 +22123,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC70" s="293" t="s">
+      <c r="AC70" s="298" t="s">
         <v>268</v>
       </c>
-      <c r="AD70" s="293"/>
-      <c r="AE70" s="294"/>
+      <c r="AD70" s="298"/>
+      <c r="AE70" s="299"/>
     </row>
     <row r="71" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="K71" s="208"/>
@@ -22061,12 +22232,12 @@
       <c r="AE76" s="216"/>
     </row>
     <row r="77" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K77" s="283" t="s">
+      <c r="K77" s="303" t="s">
         <v>6</v>
       </c>
-      <c r="L77" s="283"/>
-      <c r="M77" s="283"/>
-      <c r="N77" s="283"/>
+      <c r="L77" s="303"/>
+      <c r="M77" s="303"/>
+      <c r="N77" s="303"/>
       <c r="O77" s="202"/>
       <c r="Z77">
         <v>1</v>
@@ -22079,11 +22250,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC77" s="262" t="s">
+      <c r="AC77" s="268" t="s">
         <v>6</v>
       </c>
-      <c r="AD77" s="262"/>
-      <c r="AE77" s="284"/>
+      <c r="AD77" s="268"/>
+      <c r="AE77" s="304"/>
     </row>
     <row r="78" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="K78" s="237"/>
@@ -22111,12 +22282,12 @@
     <row r="79" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="H79" s="62"/>
       <c r="I79" s="158"/>
-      <c r="K79" s="285" t="s">
+      <c r="K79" s="305" t="s">
         <v>60</v>
       </c>
-      <c r="L79" s="285"/>
-      <c r="M79" s="285"/>
-      <c r="N79" s="285"/>
+      <c r="L79" s="305"/>
+      <c r="M79" s="305"/>
+      <c r="N79" s="305"/>
       <c r="R79">
         <v>1650</v>
       </c>
@@ -22131,19 +22302,19 @@
         <f t="shared" si="1"/>
         <v>825.5</v>
       </c>
-      <c r="AC79" s="286" t="s">
+      <c r="AC79" s="306" t="s">
         <v>60</v>
       </c>
-      <c r="AD79" s="286"/>
-      <c r="AE79" s="286"/>
+      <c r="AD79" s="306"/>
+      <c r="AE79" s="306"/>
     </row>
     <row r="80" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K80" s="283" t="s">
+      <c r="K80" s="303" t="s">
         <v>443</v>
       </c>
-      <c r="L80" s="283"/>
-      <c r="M80" s="283"/>
-      <c r="N80" s="283"/>
+      <c r="L80" s="303"/>
+      <c r="M80" s="303"/>
+      <c r="N80" s="303"/>
       <c r="O80" s="202"/>
       <c r="Z80">
         <v>1</v>
@@ -22161,12 +22332,12 @@
       <c r="AE80" s="187"/>
     </row>
     <row r="81" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K81" s="287" t="s">
+      <c r="K81" s="307" t="s">
         <v>539</v>
       </c>
-      <c r="L81" s="288"/>
-      <c r="M81" s="288"/>
-      <c r="N81" s="289"/>
+      <c r="L81" s="308"/>
+      <c r="M81" s="308"/>
+      <c r="N81" s="309"/>
       <c r="O81" s="202"/>
       <c r="Z81">
         <v>1</v>
@@ -22184,12 +22355,12 @@
       <c r="AE81" s="187"/>
     </row>
     <row r="82" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K82" s="276" t="s">
+      <c r="K82" s="314" t="s">
         <v>540</v>
       </c>
-      <c r="L82" s="276"/>
-      <c r="M82" s="276"/>
-      <c r="N82" s="277"/>
+      <c r="L82" s="314"/>
+      <c r="M82" s="314"/>
+      <c r="N82" s="315"/>
       <c r="O82" s="202"/>
       <c r="Z82">
         <v>1</v>
@@ -22207,12 +22378,12 @@
       <c r="AE82" s="187"/>
     </row>
     <row r="83" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K83" s="278" t="s">
+      <c r="K83" s="316" t="s">
         <v>298</v>
       </c>
-      <c r="L83" s="278"/>
-      <c r="M83" s="278"/>
-      <c r="N83" s="278"/>
+      <c r="L83" s="316"/>
+      <c r="M83" s="316"/>
+      <c r="N83" s="316"/>
       <c r="O83" s="202"/>
       <c r="Z83">
         <v>1</v>
@@ -22225,11 +22396,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC83" s="279" t="s">
+      <c r="AC83" s="300" t="s">
         <v>298</v>
       </c>
-      <c r="AD83" s="279"/>
-      <c r="AE83" s="279"/>
+      <c r="AD83" s="300"/>
+      <c r="AE83" s="300"/>
     </row>
     <row r="84" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="K84" s="215"/>
@@ -22257,12 +22428,12 @@
     <row r="85" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="H85" s="62"/>
       <c r="I85" s="158"/>
-      <c r="K85" s="280" t="s">
+      <c r="K85" s="290" t="s">
         <v>297</v>
       </c>
-      <c r="L85" s="280"/>
-      <c r="M85" s="280"/>
-      <c r="N85" s="280"/>
+      <c r="L85" s="290"/>
+      <c r="M85" s="290"/>
+      <c r="N85" s="290"/>
       <c r="O85" s="203"/>
       <c r="Z85">
         <v>1</v>
@@ -22275,11 +22446,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC85" s="260" t="s">
+      <c r="AC85" s="261" t="s">
         <v>297</v>
       </c>
-      <c r="AD85" s="260"/>
-      <c r="AE85" s="260"/>
+      <c r="AD85" s="261"/>
+      <c r="AE85" s="261"/>
     </row>
     <row r="86" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="K86" s="208"/>
@@ -22343,12 +22514,12 @@
       <c r="AE86" s="207"/>
     </row>
     <row r="87" spans="8:31" ht="16.5" thickTop="1" thickBot="1">
-      <c r="K87" s="281" t="s">
+      <c r="K87" s="301" t="s">
         <v>300</v>
       </c>
-      <c r="L87" s="281"/>
-      <c r="M87" s="281"/>
-      <c r="N87" s="282"/>
+      <c r="L87" s="301"/>
+      <c r="M87" s="301"/>
+      <c r="N87" s="302"/>
       <c r="O87" s="115">
         <f>SUM(O6:O86)</f>
         <v>0</v>
@@ -22407,12 +22578,12 @@
       </c>
     </row>
     <row r="88" spans="8:31" ht="15.75" thickBot="1">
-      <c r="K88" s="272" t="s">
+      <c r="K88" s="310" t="s">
         <v>61</v>
       </c>
-      <c r="L88" s="272"/>
-      <c r="M88" s="272"/>
-      <c r="N88" s="273"/>
+      <c r="L88" s="310"/>
+      <c r="M88" s="310"/>
+      <c r="N88" s="311"/>
       <c r="O88" s="141">
         <f>O2+O3-SUM(O5:O85)-O4</f>
         <v>45106.879999999997</v>
@@ -22463,12 +22634,12 @@
       </c>
     </row>
     <row r="89" spans="8:31">
-      <c r="K89" s="274" t="s">
+      <c r="K89" s="312" t="s">
         <v>62</v>
       </c>
-      <c r="L89" s="274"/>
-      <c r="M89" s="274"/>
-      <c r="N89" s="274"/>
+      <c r="L89" s="312"/>
+      <c r="M89" s="312"/>
+      <c r="N89" s="312"/>
       <c r="O89" s="61">
         <f>O88</f>
         <v>45106.879999999997</v>
@@ -22547,22 +22718,22 @@
       <c r="L92" s="47"/>
       <c r="M92" s="47"/>
       <c r="N92" s="47"/>
-      <c r="P92" s="275"/>
-      <c r="Q92" s="275"/>
-      <c r="R92" s="275"/>
-      <c r="S92" s="275"/>
-      <c r="T92" s="275"/>
+      <c r="P92" s="313"/>
+      <c r="Q92" s="313"/>
+      <c r="R92" s="313"/>
+      <c r="S92" s="313"/>
+      <c r="T92" s="313"/>
     </row>
     <row r="93" spans="8:31">
       <c r="K93" s="47"/>
       <c r="L93" s="47"/>
       <c r="M93" s="47"/>
       <c r="N93" s="47"/>
-      <c r="P93" s="275"/>
-      <c r="Q93" s="275"/>
-      <c r="R93" s="275"/>
-      <c r="S93" s="275"/>
-      <c r="T93" s="275"/>
+      <c r="P93" s="313"/>
+      <c r="Q93" s="313"/>
+      <c r="R93" s="313"/>
+      <c r="S93" s="313"/>
+      <c r="T93" s="313"/>
     </row>
     <row r="94" spans="8:31">
       <c r="K94" s="47"/>
@@ -23009,31 +23180,28 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="AC5:AE5"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="AC49:AE49"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="AC43:AE43"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="AC48:AE48"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="P92:T92"/>
+    <mergeCell ref="P93:T93"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="AC83:AE83"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="AC85:AE85"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="AC77:AE77"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="AC79:AE79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="AC67:AE67"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="AC70:AE70"/>
     <mergeCell ref="K63:N63"/>
     <mergeCell ref="AC63:AE63"/>
     <mergeCell ref="K51:N51"/>
@@ -23047,28 +23215,31 @@
     <mergeCell ref="AC60:AE60"/>
     <mergeCell ref="K62:N62"/>
     <mergeCell ref="AC62:AE62"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="AC67:AE67"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="AC70:AE70"/>
-    <mergeCell ref="AC83:AE83"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="AC85:AE85"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="AC77:AE77"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="AC79:AE79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="P92:T92"/>
-    <mergeCell ref="P93:T93"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="AC49:AE49"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="AC43:AE43"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="AC48:AE48"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="AC5:AE5"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23079,7 +23250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B59423-65C6-41E5-9225-5D345367A685}">
   <dimension ref="A1:AE111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -23100,10 +23271,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="271" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="257"/>
+      <c r="B1" s="272"/>
       <c r="C1" s="138" t="s">
         <v>1</v>
       </c>
@@ -23115,12 +23286,12 @@
       </c>
       <c r="H1" s="180"/>
       <c r="I1" s="180"/>
-      <c r="J1" s="310" t="s">
+      <c r="J1" s="279" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="310"/>
-      <c r="L1" s="310"/>
-      <c r="M1" s="311"/>
+      <c r="K1" s="279"/>
+      <c r="L1" s="279"/>
+      <c r="M1" s="280"/>
       <c r="N1" s="50" t="s">
         <v>44</v>
       </c>
@@ -23179,18 +23350,18 @@
       <c r="F2" s="191" t="s">
         <v>465</v>
       </c>
-      <c r="G2" s="308">
+      <c r="G2" s="277">
         <f>C33+C34</f>
         <v>30018.85</v>
       </c>
-      <c r="H2" s="308"/>
-      <c r="I2" s="308"/>
-      <c r="J2" s="300" t="s">
+      <c r="H2" s="277"/>
+      <c r="I2" s="277"/>
+      <c r="J2" s="281" t="s">
         <v>543</v>
       </c>
-      <c r="K2" s="300"/>
-      <c r="L2" s="300"/>
-      <c r="M2" s="300"/>
+      <c r="K2" s="281"/>
+      <c r="L2" s="281"/>
+      <c r="M2" s="281"/>
       <c r="N2" s="47">
         <v>46239.28</v>
       </c>
@@ -23285,11 +23456,11 @@
       </c>
       <c r="Z3" s="118"/>
       <c r="AA3" s="20"/>
-      <c r="AB3" s="312" t="s">
+      <c r="AB3" s="282" t="s">
         <v>480</v>
       </c>
-      <c r="AC3" s="313"/>
-      <c r="AD3" s="313"/>
+      <c r="AC3" s="283"/>
+      <c r="AD3" s="283"/>
     </row>
     <row r="4" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="47"/>
@@ -23306,12 +23477,12 @@
       <c r="F4" s="191" t="s">
         <v>453</v>
       </c>
-      <c r="J4" s="304" t="s">
+      <c r="J4" s="273" t="s">
         <v>504</v>
       </c>
-      <c r="K4" s="316"/>
-      <c r="L4" s="316"/>
-      <c r="M4" s="317"/>
+      <c r="K4" s="317"/>
+      <c r="L4" s="317"/>
+      <c r="M4" s="318"/>
       <c r="N4" s="56">
         <v>2009</v>
       </c>
@@ -23347,11 +23518,11 @@
         <f>AVERAGE(N4:Y4)</f>
         <v>5583.6120000000001</v>
       </c>
-      <c r="AB4" s="306" t="s">
+      <c r="AB4" s="275" t="s">
         <v>63</v>
       </c>
-      <c r="AC4" s="306"/>
-      <c r="AD4" s="307"/>
+      <c r="AC4" s="275"/>
+      <c r="AD4" s="276"/>
     </row>
     <row r="5" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="125" t="s">
@@ -23371,12 +23542,12 @@
       <c r="F5" s="191" t="s">
         <v>576</v>
       </c>
-      <c r="J5" s="301" t="s">
+      <c r="J5" s="286" t="s">
         <v>149</v>
       </c>
-      <c r="K5" s="301"/>
-      <c r="L5" s="301"/>
-      <c r="M5" s="301"/>
+      <c r="K5" s="286"/>
+      <c r="L5" s="286"/>
+      <c r="M5" s="286"/>
       <c r="N5" s="202"/>
       <c r="Y5">
         <v>1</v>
@@ -23389,9 +23560,9 @@
         <f>AVERAGE(N5:Y5)</f>
         <v>1</v>
       </c>
-      <c r="AB5" s="259"/>
-      <c r="AC5" s="259"/>
-      <c r="AD5" s="259"/>
+      <c r="AB5" s="260"/>
+      <c r="AC5" s="260"/>
+      <c r="AD5" s="260"/>
     </row>
     <row r="6" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="125"/>
@@ -23412,9 +23583,9 @@
       </c>
       <c r="Z6" s="118"/>
       <c r="AA6" s="20"/>
-      <c r="AB6" s="303"/>
-      <c r="AC6" s="259"/>
-      <c r="AD6" s="259"/>
+      <c r="AB6" s="288"/>
+      <c r="AC6" s="260"/>
+      <c r="AD6" s="260"/>
     </row>
     <row r="7" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="47"/>
@@ -23904,11 +24075,11 @@
       </c>
       <c r="Z23" s="118"/>
       <c r="AA23" s="20"/>
-      <c r="AB23" s="298" t="s">
+      <c r="AB23" s="289" t="s">
         <v>471</v>
       </c>
-      <c r="AC23" s="260"/>
-      <c r="AD23" s="260"/>
+      <c r="AC23" s="261"/>
+      <c r="AD23" s="261"/>
     </row>
     <row r="24" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="47"/>
@@ -23981,12 +24152,12 @@
       </c>
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
-      <c r="J26" s="280" t="s">
+      <c r="J26" s="290" t="s">
         <v>586</v>
       </c>
-      <c r="K26" s="280"/>
-      <c r="L26" s="280"/>
-      <c r="M26" s="290"/>
+      <c r="K26" s="290"/>
+      <c r="L26" s="290"/>
+      <c r="M26" s="291"/>
       <c r="U26">
         <v>69.900000000000006</v>
       </c>
@@ -24001,11 +24172,11 @@
         <f>AVERAGE(N26:Y26)</f>
         <v>35.450000000000003</v>
       </c>
-      <c r="AB26" s="260" t="s">
+      <c r="AB26" s="261" t="s">
         <v>276</v>
       </c>
-      <c r="AC26" s="260"/>
-      <c r="AD26" s="260"/>
+      <c r="AC26" s="261"/>
+      <c r="AD26" s="261"/>
     </row>
     <row r="27" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="231">
@@ -24074,12 +24245,12 @@
         <f>C27-E27</f>
         <v>3087.4400000000005</v>
       </c>
-      <c r="J29" s="280" t="s">
+      <c r="J29" s="290" t="s">
         <v>386</v>
       </c>
-      <c r="K29" s="280"/>
-      <c r="L29" s="280"/>
-      <c r="M29" s="280"/>
+      <c r="K29" s="290"/>
+      <c r="L29" s="290"/>
+      <c r="M29" s="290"/>
       <c r="N29" s="202"/>
       <c r="Y29">
         <v>1</v>
@@ -24092,11 +24263,11 @@
         <f>AVERAGE(N29:Y29)</f>
         <v>1</v>
       </c>
-      <c r="AB29" s="261" t="s">
+      <c r="AB29" s="262" t="s">
         <v>65</v>
       </c>
-      <c r="AC29" s="261"/>
-      <c r="AD29" s="261"/>
+      <c r="AC29" s="262"/>
+      <c r="AD29" s="262"/>
     </row>
     <row r="30" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A30" s="47"/>
@@ -24207,18 +24378,18 @@
         <f>SUM(E2:E13)</f>
         <v>8645</v>
       </c>
-      <c r="G33" s="308">
+      <c r="G33" s="277">
         <f>C33+C34</f>
         <v>30018.85</v>
       </c>
-      <c r="H33" s="308"/>
-      <c r="I33" s="308"/>
-      <c r="J33" s="280" t="s">
+      <c r="H33" s="277"/>
+      <c r="I33" s="277"/>
+      <c r="J33" s="290" t="s">
         <v>500</v>
       </c>
-      <c r="K33" s="297"/>
-      <c r="L33" s="297"/>
-      <c r="M33" s="297"/>
+      <c r="K33" s="296"/>
+      <c r="L33" s="296"/>
+      <c r="M33" s="296"/>
       <c r="N33" s="202"/>
       <c r="U33">
         <v>230</v>
@@ -24357,12 +24528,12 @@
       <c r="F37" s="47"/>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
-      <c r="J37" s="300" t="s">
+      <c r="J37" s="281" t="s">
         <v>489</v>
       </c>
-      <c r="K37" s="300"/>
-      <c r="L37" s="300"/>
-      <c r="M37" s="290"/>
+      <c r="K37" s="281"/>
+      <c r="L37" s="281"/>
+      <c r="M37" s="291"/>
       <c r="N37" s="202"/>
       <c r="Y37">
         <v>1</v>
@@ -24375,11 +24546,11 @@
         <f>AVERAGE(N37:Y37)</f>
         <v>1</v>
       </c>
-      <c r="AB37" s="261" t="s">
+      <c r="AB37" s="262" t="s">
         <v>105</v>
       </c>
-      <c r="AC37" s="261"/>
-      <c r="AD37" s="295"/>
+      <c r="AC37" s="262"/>
+      <c r="AD37" s="294"/>
     </row>
     <row r="38" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A38" s="47"/>
@@ -24509,11 +24680,11 @@
       </c>
       <c r="Z42" s="118"/>
       <c r="AA42" s="20"/>
-      <c r="AB42" s="298" t="s">
+      <c r="AB42" s="289" t="s">
         <v>499</v>
       </c>
-      <c r="AC42" s="260"/>
-      <c r="AD42" s="296"/>
+      <c r="AC42" s="261"/>
+      <c r="AD42" s="293"/>
     </row>
     <row r="43" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A43" s="47"/>
@@ -24525,12 +24696,12 @@
       <c r="G43" s="47"/>
       <c r="H43" s="47"/>
       <c r="I43" s="47"/>
-      <c r="J43" s="280" t="s">
+      <c r="J43" s="290" t="s">
         <v>263</v>
       </c>
-      <c r="K43" s="280"/>
-      <c r="L43" s="280"/>
-      <c r="M43" s="280"/>
+      <c r="K43" s="290"/>
+      <c r="L43" s="290"/>
+      <c r="M43" s="290"/>
       <c r="N43" s="202"/>
       <c r="U43">
         <v>384.98</v>
@@ -24546,11 +24717,11 @@
         <f>AVERAGE(N43:Y43)</f>
         <v>192.99</v>
       </c>
-      <c r="AB43" s="260" t="s">
+      <c r="AB43" s="261" t="s">
         <v>291</v>
       </c>
-      <c r="AC43" s="260"/>
-      <c r="AD43" s="296"/>
+      <c r="AC43" s="261"/>
+      <c r="AD43" s="293"/>
     </row>
     <row r="44" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="A44" t="s">
@@ -24701,12 +24872,12 @@
         <v>524</v>
       </c>
       <c r="I48" s="47"/>
-      <c r="J48" s="280" t="s">
+      <c r="J48" s="290" t="s">
         <v>475</v>
       </c>
-      <c r="K48" s="280"/>
-      <c r="L48" s="280"/>
-      <c r="M48" s="280"/>
+      <c r="K48" s="290"/>
+      <c r="L48" s="290"/>
+      <c r="M48" s="290"/>
       <c r="N48" s="202"/>
       <c r="U48">
         <f>95.11+60.96+74.98</f>
@@ -24723,11 +24894,11 @@
         <f t="shared" ref="AA48:AA61" si="1">AVERAGE(N48:Y48)</f>
         <v>116.02500000000001</v>
       </c>
-      <c r="AB48" s="260" t="s">
+      <c r="AB48" s="261" t="s">
         <v>475</v>
       </c>
-      <c r="AC48" s="260"/>
-      <c r="AD48" s="296"/>
+      <c r="AC48" s="261"/>
+      <c r="AD48" s="293"/>
       <c r="AE48">
         <f>U22+U23+U33+U48+U55+U49+U47+U10</f>
         <v>5579.6</v>
@@ -24748,12 +24919,12 @@
         <v>523</v>
       </c>
       <c r="I49" s="47"/>
-      <c r="J49" s="299" t="s">
+      <c r="J49" s="292" t="s">
         <v>476</v>
       </c>
-      <c r="K49" s="299"/>
-      <c r="L49" s="299"/>
-      <c r="M49" s="299"/>
+      <c r="K49" s="292"/>
+      <c r="L49" s="292"/>
+      <c r="M49" s="292"/>
       <c r="N49" s="202"/>
       <c r="U49">
         <f>148.96+124.99</f>
@@ -24770,11 +24941,11 @@
         <f t="shared" si="1"/>
         <v>137.47499999999999</v>
       </c>
-      <c r="AB49" s="260" t="s">
+      <c r="AB49" s="261" t="s">
         <v>477</v>
       </c>
-      <c r="AC49" s="260"/>
-      <c r="AD49" s="296"/>
+      <c r="AC49" s="261"/>
+      <c r="AD49" s="293"/>
     </row>
     <row r="50" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="B50" s="47"/>
@@ -24809,12 +24980,12 @@
         <v>1620</v>
       </c>
       <c r="I51" s="47"/>
-      <c r="J51" s="291" t="s">
+      <c r="J51" s="295" t="s">
         <v>301</v>
       </c>
-      <c r="K51" s="291"/>
-      <c r="L51" s="291"/>
-      <c r="M51" s="291"/>
+      <c r="K51" s="295"/>
+      <c r="L51" s="295"/>
+      <c r="M51" s="295"/>
       <c r="N51" s="202"/>
       <c r="U51">
         <v>922.33</v>
@@ -24830,11 +25001,11 @@
         <f t="shared" si="1"/>
         <v>461.66500000000002</v>
       </c>
-      <c r="AB51" s="260" t="s">
+      <c r="AB51" s="261" t="s">
         <v>301</v>
       </c>
-      <c r="AC51" s="260"/>
-      <c r="AD51" s="296"/>
+      <c r="AC51" s="261"/>
+      <c r="AD51" s="293"/>
     </row>
     <row r="52" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="B52" s="47"/>
@@ -24941,12 +25112,12 @@
     </row>
     <row r="56" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I56" s="47"/>
-      <c r="J56" s="297" t="s">
+      <c r="J56" s="296" t="s">
         <v>95</v>
       </c>
-      <c r="K56" s="297"/>
-      <c r="L56" s="297"/>
-      <c r="M56" s="297"/>
+      <c r="K56" s="296"/>
+      <c r="L56" s="296"/>
+      <c r="M56" s="296"/>
       <c r="N56" s="202"/>
       <c r="Y56">
         <v>1</v>
@@ -24959,20 +25130,20 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AB56" s="261" t="s">
+      <c r="AB56" s="262" t="s">
         <v>95</v>
       </c>
-      <c r="AC56" s="261"/>
-      <c r="AD56" s="261"/>
+      <c r="AC56" s="262"/>
+      <c r="AD56" s="262"/>
     </row>
     <row r="57" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I57" s="47"/>
-      <c r="J57" s="280" t="s">
+      <c r="J57" s="290" t="s">
         <v>67</v>
       </c>
-      <c r="K57" s="280"/>
-      <c r="L57" s="280"/>
-      <c r="M57" s="280"/>
+      <c r="K57" s="290"/>
+      <c r="L57" s="290"/>
+      <c r="M57" s="290"/>
       <c r="N57" s="202"/>
       <c r="U57">
         <v>700</v>
@@ -24988,20 +25159,20 @@
         <f t="shared" si="1"/>
         <v>350.5</v>
       </c>
-      <c r="AB57" s="261" t="s">
+      <c r="AB57" s="262" t="s">
         <v>67</v>
       </c>
-      <c r="AC57" s="261"/>
-      <c r="AD57" s="261"/>
+      <c r="AC57" s="262"/>
+      <c r="AD57" s="262"/>
     </row>
     <row r="58" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I58" s="47"/>
-      <c r="J58" s="280" t="s">
+      <c r="J58" s="290" t="s">
         <v>299</v>
       </c>
-      <c r="K58" s="280"/>
-      <c r="L58" s="280"/>
-      <c r="M58" s="280"/>
+      <c r="K58" s="290"/>
+      <c r="L58" s="290"/>
+      <c r="M58" s="290"/>
       <c r="N58" s="202"/>
       <c r="T58" s="114"/>
       <c r="Y58">
@@ -25015,11 +25186,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AB58" s="260" t="s">
+      <c r="AB58" s="261" t="s">
         <v>299</v>
       </c>
-      <c r="AC58" s="260"/>
-      <c r="AD58" s="260"/>
+      <c r="AC58" s="261"/>
+      <c r="AD58" s="261"/>
     </row>
     <row r="59" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J59" s="208"/>
@@ -25065,11 +25236,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AB60" s="298" t="s">
+      <c r="AB60" s="289" t="s">
         <v>479</v>
       </c>
-      <c r="AC60" s="260"/>
-      <c r="AD60" s="260"/>
+      <c r="AC60" s="261"/>
+      <c r="AD60" s="261"/>
     </row>
     <row r="61" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="D61" s="239"/>
@@ -25098,12 +25269,12 @@
     </row>
     <row r="62" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="D62" s="44"/>
-      <c r="J62" s="280" t="s">
+      <c r="J62" s="290" t="s">
         <v>481</v>
       </c>
-      <c r="K62" s="280"/>
-      <c r="L62" s="280"/>
-      <c r="M62" s="280"/>
+      <c r="K62" s="290"/>
+      <c r="L62" s="290"/>
+      <c r="M62" s="290"/>
       <c r="N62" s="202"/>
       <c r="T62" s="114"/>
       <c r="U62">
@@ -25121,19 +25292,19 @@
         <f t="shared" ref="AA62:AA86" si="3">AVERAGE(N62:Y62)</f>
         <v>146.5</v>
       </c>
-      <c r="AB62" s="260" t="s">
+      <c r="AB62" s="261" t="s">
         <v>264</v>
       </c>
-      <c r="AC62" s="260"/>
-      <c r="AD62" s="296"/>
+      <c r="AC62" s="261"/>
+      <c r="AD62" s="293"/>
     </row>
     <row r="63" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J63" s="280" t="s">
+      <c r="J63" s="290" t="s">
         <v>387</v>
       </c>
-      <c r="K63" s="280"/>
-      <c r="L63" s="280"/>
-      <c r="M63" s="280"/>
+      <c r="K63" s="290"/>
+      <c r="L63" s="290"/>
+      <c r="M63" s="290"/>
       <c r="N63" s="202"/>
       <c r="U63">
         <v>97.6</v>
@@ -25149,11 +25320,11 @@
         <f t="shared" si="3"/>
         <v>49.3</v>
       </c>
-      <c r="AB63" s="261" t="s">
+      <c r="AB63" s="262" t="s">
         <v>58</v>
       </c>
-      <c r="AC63" s="261"/>
-      <c r="AD63" s="295"/>
+      <c r="AC63" s="262"/>
+      <c r="AD63" s="294"/>
     </row>
     <row r="64" spans="2:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J64" s="208"/>
@@ -25179,12 +25350,12 @@
       <c r="AD64" s="209"/>
     </row>
     <row r="65" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J65" s="280" t="s">
+      <c r="J65" s="290" t="s">
         <v>469</v>
       </c>
-      <c r="K65" s="280"/>
-      <c r="L65" s="280"/>
-      <c r="M65" s="290"/>
+      <c r="K65" s="290"/>
+      <c r="L65" s="290"/>
+      <c r="M65" s="291"/>
       <c r="N65" s="202"/>
       <c r="Y65">
         <v>1</v>
@@ -25204,12 +25375,12 @@
       <c r="AD65" s="209"/>
     </row>
     <row r="66" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J66" s="291" t="s">
+      <c r="J66" s="295" t="s">
         <v>527</v>
       </c>
-      <c r="K66" s="291"/>
-      <c r="L66" s="291"/>
-      <c r="M66" s="292"/>
+      <c r="K66" s="295"/>
+      <c r="L66" s="295"/>
+      <c r="M66" s="297"/>
       <c r="N66" s="202"/>
       <c r="U66">
         <v>272.39</v>
@@ -25232,12 +25403,12 @@
       <c r="AD66" s="209"/>
     </row>
     <row r="67" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J67" s="291" t="s">
+      <c r="J67" s="295" t="s">
         <v>246</v>
       </c>
-      <c r="K67" s="291"/>
-      <c r="L67" s="291"/>
-      <c r="M67" s="292"/>
+      <c r="K67" s="295"/>
+      <c r="L67" s="295"/>
+      <c r="M67" s="297"/>
       <c r="N67" s="202"/>
       <c r="U67">
         <f>323.75+568.73</f>
@@ -25254,11 +25425,11 @@
         <f t="shared" si="3"/>
         <v>446.74</v>
       </c>
-      <c r="AB67" s="293" t="s">
+      <c r="AB67" s="298" t="s">
         <v>246</v>
       </c>
-      <c r="AC67" s="293"/>
-      <c r="AD67" s="294"/>
+      <c r="AC67" s="298"/>
+      <c r="AD67" s="299"/>
     </row>
     <row r="68" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J68" s="208"/>
@@ -25307,12 +25478,12 @@
       <c r="AD69" s="216"/>
     </row>
     <row r="70" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J70" s="280" t="s">
+      <c r="J70" s="290" t="s">
         <v>268</v>
       </c>
-      <c r="K70" s="280"/>
-      <c r="L70" s="280"/>
-      <c r="M70" s="280"/>
+      <c r="K70" s="290"/>
+      <c r="L70" s="290"/>
+      <c r="M70" s="290"/>
       <c r="N70" s="202"/>
       <c r="Y70">
         <v>1</v>
@@ -25325,11 +25496,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AB70" s="293" t="s">
+      <c r="AB70" s="298" t="s">
         <v>268</v>
       </c>
-      <c r="AC70" s="293"/>
-      <c r="AD70" s="294"/>
+      <c r="AC70" s="298"/>
+      <c r="AD70" s="299"/>
     </row>
     <row r="71" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J71" s="208"/>
@@ -25446,12 +25617,12 @@
       <c r="AD76" s="216"/>
     </row>
     <row r="77" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J77" s="283" t="s">
+      <c r="J77" s="303" t="s">
         <v>6</v>
       </c>
-      <c r="K77" s="283"/>
-      <c r="L77" s="283"/>
-      <c r="M77" s="283"/>
+      <c r="K77" s="303"/>
+      <c r="L77" s="303"/>
+      <c r="M77" s="303"/>
       <c r="N77" s="202"/>
       <c r="U77">
         <f>157.99+1236.88+32+54.9+58.9+44</f>
@@ -25468,11 +25639,11 @@
         <f t="shared" si="3"/>
         <v>792.83500000000015</v>
       </c>
-      <c r="AB77" s="262" t="s">
+      <c r="AB77" s="268" t="s">
         <v>6</v>
       </c>
-      <c r="AC77" s="262"/>
-      <c r="AD77" s="284"/>
+      <c r="AC77" s="268"/>
+      <c r="AD77" s="304"/>
     </row>
     <row r="78" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J78" s="237"/>
@@ -25499,12 +25670,12 @@
     </row>
     <row r="79" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="H79" s="62"/>
-      <c r="J79" s="285" t="s">
+      <c r="J79" s="305" t="s">
         <v>60</v>
       </c>
-      <c r="K79" s="285"/>
-      <c r="L79" s="285"/>
-      <c r="M79" s="285"/>
+      <c r="K79" s="305"/>
+      <c r="L79" s="305"/>
+      <c r="M79" s="305"/>
       <c r="Y79">
         <v>1</v>
       </c>
@@ -25516,19 +25687,19 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AB79" s="286" t="s">
+      <c r="AB79" s="306" t="s">
         <v>60</v>
       </c>
-      <c r="AC79" s="286"/>
-      <c r="AD79" s="286"/>
+      <c r="AC79" s="306"/>
+      <c r="AD79" s="306"/>
     </row>
     <row r="80" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J80" s="283" t="s">
+      <c r="J80" s="303" t="s">
         <v>443</v>
       </c>
-      <c r="K80" s="283"/>
-      <c r="L80" s="283"/>
-      <c r="M80" s="283"/>
+      <c r="K80" s="303"/>
+      <c r="L80" s="303"/>
+      <c r="M80" s="303"/>
       <c r="N80" s="202"/>
       <c r="Y80">
         <v>1</v>
@@ -25546,12 +25717,12 @@
       <c r="AD80" s="187"/>
     </row>
     <row r="81" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J81" s="287" t="s">
+      <c r="J81" s="307" t="s">
         <v>539</v>
       </c>
-      <c r="K81" s="288"/>
-      <c r="L81" s="288"/>
-      <c r="M81" s="289"/>
+      <c r="K81" s="308"/>
+      <c r="L81" s="308"/>
+      <c r="M81" s="309"/>
       <c r="N81" s="202"/>
       <c r="U81">
         <f>75.3+9.2</f>
@@ -25573,12 +25744,12 @@
       <c r="AD81" s="187"/>
     </row>
     <row r="82" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J82" s="276" t="s">
+      <c r="J82" s="314" t="s">
         <v>540</v>
       </c>
-      <c r="K82" s="276"/>
-      <c r="L82" s="276"/>
-      <c r="M82" s="277"/>
+      <c r="K82" s="314"/>
+      <c r="L82" s="314"/>
+      <c r="M82" s="315"/>
       <c r="N82" s="202"/>
       <c r="Y82">
         <v>1</v>
@@ -25596,12 +25767,12 @@
       <c r="AD82" s="187"/>
     </row>
     <row r="83" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J83" s="278" t="s">
+      <c r="J83" s="316" t="s">
         <v>298</v>
       </c>
-      <c r="K83" s="278"/>
-      <c r="L83" s="278"/>
-      <c r="M83" s="278"/>
+      <c r="K83" s="316"/>
+      <c r="L83" s="316"/>
+      <c r="M83" s="316"/>
       <c r="N83" s="202"/>
       <c r="Y83">
         <v>1</v>
@@ -25614,11 +25785,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AB83" s="279" t="s">
+      <c r="AB83" s="300" t="s">
         <v>298</v>
       </c>
-      <c r="AC83" s="279"/>
-      <c r="AD83" s="279"/>
+      <c r="AC83" s="300"/>
+      <c r="AD83" s="300"/>
     </row>
     <row r="84" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J84" s="215"/>
@@ -25648,12 +25819,12 @@
     </row>
     <row r="85" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="H85" s="62"/>
-      <c r="J85" s="280" t="s">
+      <c r="J85" s="290" t="s">
         <v>297</v>
       </c>
-      <c r="K85" s="280"/>
-      <c r="L85" s="280"/>
-      <c r="M85" s="280"/>
+      <c r="K85" s="290"/>
+      <c r="L85" s="290"/>
+      <c r="M85" s="290"/>
       <c r="N85" s="203"/>
       <c r="Y85">
         <v>1</v>
@@ -25666,11 +25837,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AB85" s="260" t="s">
+      <c r="AB85" s="261" t="s">
         <v>297</v>
       </c>
-      <c r="AC85" s="260"/>
-      <c r="AD85" s="260"/>
+      <c r="AC85" s="261"/>
+      <c r="AD85" s="261"/>
     </row>
     <row r="86" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J86" s="208"/>
@@ -25734,12 +25905,12 @@
       <c r="AD86" s="207"/>
     </row>
     <row r="87" spans="8:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J87" s="281" t="s">
+      <c r="J87" s="301" t="s">
         <v>300</v>
       </c>
-      <c r="K87" s="281"/>
-      <c r="L87" s="281"/>
-      <c r="M87" s="282"/>
+      <c r="K87" s="301"/>
+      <c r="L87" s="301"/>
+      <c r="M87" s="302"/>
       <c r="N87" s="115">
         <f>SUM(N6:N86)</f>
         <v>0</v>
@@ -25798,12 +25969,12 @@
       </c>
     </row>
     <row r="88" spans="8:30" ht="15.75" thickBot="1">
-      <c r="J88" s="272" t="s">
+      <c r="J88" s="310" t="s">
         <v>61</v>
       </c>
-      <c r="K88" s="272"/>
-      <c r="L88" s="272"/>
-      <c r="M88" s="273"/>
+      <c r="K88" s="310"/>
+      <c r="L88" s="310"/>
+      <c r="M88" s="311"/>
       <c r="N88" s="141">
         <f>N2+N3-SUM(N5:N85)-N4</f>
         <v>44230.28</v>
@@ -25854,12 +26025,12 @@
       </c>
     </row>
     <row r="89" spans="8:30">
-      <c r="J89" s="274" t="s">
+      <c r="J89" s="312" t="s">
         <v>62</v>
       </c>
-      <c r="K89" s="274"/>
-      <c r="L89" s="274"/>
-      <c r="M89" s="274"/>
+      <c r="K89" s="312"/>
+      <c r="L89" s="312"/>
+      <c r="M89" s="312"/>
       <c r="N89" s="61">
         <f>N88</f>
         <v>44230.28</v>
@@ -25938,22 +26109,22 @@
       <c r="K92" s="47"/>
       <c r="L92" s="47"/>
       <c r="M92" s="47"/>
-      <c r="O92" s="275"/>
-      <c r="P92" s="275"/>
-      <c r="Q92" s="275"/>
-      <c r="R92" s="275"/>
-      <c r="S92" s="275"/>
+      <c r="O92" s="313"/>
+      <c r="P92" s="313"/>
+      <c r="Q92" s="313"/>
+      <c r="R92" s="313"/>
+      <c r="S92" s="313"/>
     </row>
     <row r="93" spans="8:30">
       <c r="J93" s="47"/>
       <c r="K93" s="47"/>
       <c r="L93" s="47"/>
       <c r="M93" s="47"/>
-      <c r="O93" s="275"/>
-      <c r="P93" s="275"/>
-      <c r="Q93" s="275"/>
-      <c r="R93" s="275"/>
-      <c r="S93" s="275"/>
+      <c r="O93" s="313"/>
+      <c r="P93" s="313"/>
+      <c r="Q93" s="313"/>
+      <c r="R93" s="313"/>
+      <c r="S93" s="313"/>
     </row>
     <row r="94" spans="8:30">
       <c r="J94" s="47"/>
@@ -26424,38 +26595,24 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AB37:AD37"/>
-    <mergeCell ref="AB42:AD42"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="AB43:AD43"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AB23:AD23"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="AB29:AD29"/>
-    <mergeCell ref="AB48:AD48"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="AB49:AD49"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="AB51:AD51"/>
-    <mergeCell ref="AB60:AD60"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="AB62:AD62"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="AB63:AD63"/>
-    <mergeCell ref="AB56:AD56"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="AB57:AD57"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="AB58:AD58"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="AB83:AD83"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="AB67:AD67"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="AB70:AD70"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="AB79:AD79"/>
+    <mergeCell ref="J80:M80"/>
+    <mergeCell ref="AB77:AD77"/>
+    <mergeCell ref="O93:S93"/>
+    <mergeCell ref="J85:M85"/>
+    <mergeCell ref="AB85:AD85"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="O92:S92"/>
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J81:M81"/>
@@ -26467,24 +26624,38 @@
     <mergeCell ref="J33:M33"/>
     <mergeCell ref="J37:M37"/>
     <mergeCell ref="J5:M5"/>
-    <mergeCell ref="O93:S93"/>
-    <mergeCell ref="J85:M85"/>
-    <mergeCell ref="AB85:AD85"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="O92:S92"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="AB83:AD83"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="AB67:AD67"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="AB70:AD70"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="AB79:AD79"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="AB77:AD77"/>
+    <mergeCell ref="AB56:AD56"/>
+    <mergeCell ref="J57:M57"/>
+    <mergeCell ref="AB57:AD57"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="AB58:AD58"/>
+    <mergeCell ref="AB60:AD60"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="AB62:AD62"/>
+    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="AB63:AD63"/>
+    <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="AB49:AD49"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="AB51:AD51"/>
+    <mergeCell ref="AB37:AD37"/>
+    <mergeCell ref="AB42:AD42"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="AB43:AD43"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AB23:AD23"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="AB29:AD29"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AB3:AD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26495,7 +26666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BED3C23-2631-4156-B8EB-A987D771E1C9}">
   <dimension ref="A1:AD102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -26507,10 +26678,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="271" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="257"/>
+      <c r="B1" s="272"/>
       <c r="C1" s="138" t="s">
         <v>1</v>
       </c>
@@ -26520,12 +26691,12 @@
       <c r="G1" s="47"/>
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
-      <c r="J1" s="310" t="s">
+      <c r="J1" s="279" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="310"/>
-      <c r="L1" s="310"/>
-      <c r="M1" s="311"/>
+      <c r="K1" s="279"/>
+      <c r="L1" s="279"/>
+      <c r="M1" s="280"/>
       <c r="N1" s="50" t="s">
         <v>44</v>
       </c>
@@ -26588,12 +26759,12 @@
       </c>
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
-      <c r="J2" s="300" t="s">
+      <c r="J2" s="281" t="s">
         <v>543</v>
       </c>
-      <c r="K2" s="300"/>
-      <c r="L2" s="300"/>
-      <c r="M2" s="300"/>
+      <c r="K2" s="281"/>
+      <c r="L2" s="281"/>
+      <c r="M2" s="281"/>
       <c r="N2" s="47">
         <f>43178.75</f>
         <v>43178.75</v>
@@ -26642,12 +26813,12 @@
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
-      <c r="J3" s="304" t="s">
+      <c r="J3" s="273" t="s">
         <v>504</v>
       </c>
-      <c r="K3" s="316"/>
-      <c r="L3" s="316"/>
-      <c r="M3" s="317"/>
+      <c r="K3" s="317"/>
+      <c r="L3" s="317"/>
+      <c r="M3" s="318"/>
       <c r="N3" s="56">
         <v>3929</v>
       </c>
@@ -26674,11 +26845,11 @@
         <f>AVERAGE(N3:Y3)</f>
         <v>2675.3333333333335</v>
       </c>
-      <c r="AB3" s="306" t="s">
+      <c r="AB3" s="275" t="s">
         <v>63</v>
       </c>
-      <c r="AC3" s="306"/>
-      <c r="AD3" s="307"/>
+      <c r="AC3" s="275"/>
+      <c r="AD3" s="276"/>
     </row>
     <row r="4" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="47"/>
@@ -26698,12 +26869,12 @@
       <c r="F4" s="191" t="s">
         <v>453</v>
       </c>
-      <c r="J4" s="301" t="s">
+      <c r="J4" s="286" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="301"/>
-      <c r="L4" s="301"/>
-      <c r="M4" s="301"/>
+      <c r="K4" s="286"/>
+      <c r="L4" s="286"/>
+      <c r="M4" s="286"/>
       <c r="N4" s="202"/>
       <c r="O4" s="118">
         <v>55000</v>
@@ -26716,11 +26887,11 @@
         <f>AVERAGE(N4:Y4)</f>
         <v>55000</v>
       </c>
-      <c r="AB4" s="259" t="s">
+      <c r="AB4" s="260" t="s">
         <v>149</v>
       </c>
-      <c r="AC4" s="259"/>
-      <c r="AD4" s="259"/>
+      <c r="AC4" s="260"/>
+      <c r="AD4" s="260"/>
     </row>
     <row r="5" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="125" t="s">
@@ -26748,11 +26919,11 @@
       </c>
       <c r="Z5" s="118"/>
       <c r="AA5" s="20"/>
-      <c r="AB5" s="303" t="s">
+      <c r="AB5" s="288" t="s">
         <v>480</v>
       </c>
-      <c r="AC5" s="259"/>
-      <c r="AD5" s="259"/>
+      <c r="AC5" s="260"/>
+      <c r="AD5" s="260"/>
     </row>
     <row r="6" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="47"/>
@@ -27162,11 +27333,11 @@
       </c>
       <c r="Z20" s="118"/>
       <c r="AA20" s="20"/>
-      <c r="AB20" s="298" t="s">
+      <c r="AB20" s="289" t="s">
         <v>471</v>
       </c>
-      <c r="AC20" s="260"/>
-      <c r="AD20" s="260"/>
+      <c r="AC20" s="261"/>
+      <c r="AD20" s="261"/>
     </row>
     <row r="21" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="47"/>
@@ -27236,12 +27407,12 @@
       </c>
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
-      <c r="J23" s="280" t="s">
+      <c r="J23" s="290" t="s">
         <v>498</v>
       </c>
-      <c r="K23" s="280"/>
-      <c r="L23" s="280"/>
-      <c r="M23" s="290"/>
+      <c r="K23" s="290"/>
+      <c r="L23" s="290"/>
+      <c r="M23" s="291"/>
       <c r="Z23" s="118">
         <f>SUM(N23:Y23)</f>
         <v>0</v>
@@ -27250,11 +27421,11 @@
         <f>AVERAGE(N23:Y23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB23" s="260" t="s">
+      <c r="AB23" s="261" t="s">
         <v>276</v>
       </c>
-      <c r="AC23" s="260"/>
-      <c r="AD23" s="260"/>
+      <c r="AC23" s="261"/>
+      <c r="AD23" s="261"/>
     </row>
     <row r="24" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="47"/>
@@ -27331,12 +27502,12 @@
       <c r="F26" s="204" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="280" t="s">
+      <c r="J26" s="290" t="s">
         <v>386</v>
       </c>
-      <c r="K26" s="280"/>
-      <c r="L26" s="280"/>
-      <c r="M26" s="280"/>
+      <c r="K26" s="290"/>
+      <c r="L26" s="290"/>
+      <c r="M26" s="290"/>
       <c r="N26" s="202"/>
       <c r="Z26" s="118">
         <f>SUM(N26:Y26)</f>
@@ -27346,11 +27517,11 @@
         <f>AVERAGE(N26:Y26)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB26" s="261" t="s">
+      <c r="AB26" s="262" t="s">
         <v>65</v>
       </c>
-      <c r="AC26" s="261"/>
-      <c r="AD26" s="261"/>
+      <c r="AC26" s="262"/>
+      <c r="AD26" s="262"/>
     </row>
     <row r="27" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="47"/>
@@ -27447,12 +27618,12 @@
       <c r="F30" s="193" t="s">
         <v>546</v>
       </c>
-      <c r="J30" s="280" t="s">
+      <c r="J30" s="290" t="s">
         <v>500</v>
       </c>
-      <c r="K30" s="297"/>
-      <c r="L30" s="297"/>
-      <c r="M30" s="297"/>
+      <c r="K30" s="296"/>
+      <c r="L30" s="296"/>
+      <c r="M30" s="296"/>
       <c r="N30" s="202"/>
       <c r="Z30" s="118"/>
       <c r="AA30" s="20"/>
@@ -27548,12 +27719,12 @@
         <v>500</v>
       </c>
       <c r="F34" s="47"/>
-      <c r="J34" s="300" t="s">
+      <c r="J34" s="281" t="s">
         <v>489</v>
       </c>
-      <c r="K34" s="300"/>
-      <c r="L34" s="300"/>
-      <c r="M34" s="290"/>
+      <c r="K34" s="281"/>
+      <c r="L34" s="281"/>
+      <c r="M34" s="291"/>
       <c r="N34" s="202"/>
       <c r="Z34" s="118">
         <f>SUM(N34:Y34)</f>
@@ -27563,11 +27734,11 @@
         <f>AVERAGE(N34:Y34)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB34" s="261" t="s">
+      <c r="AB34" s="262" t="s">
         <v>105</v>
       </c>
-      <c r="AC34" s="261"/>
-      <c r="AD34" s="295"/>
+      <c r="AC34" s="262"/>
+      <c r="AD34" s="294"/>
     </row>
     <row r="35" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A35" s="47"/>
@@ -27700,11 +27871,11 @@
       <c r="N39" s="202"/>
       <c r="Z39" s="118"/>
       <c r="AA39" s="20"/>
-      <c r="AB39" s="298" t="s">
+      <c r="AB39" s="289" t="s">
         <v>499</v>
       </c>
-      <c r="AC39" s="260"/>
-      <c r="AD39" s="296"/>
+      <c r="AC39" s="261"/>
+      <c r="AD39" s="293"/>
     </row>
     <row r="40" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A40" s="47"/>
@@ -27723,12 +27894,12 @@
       <c r="F40" s="47"/>
       <c r="H40" s="47"/>
       <c r="I40" s="47"/>
-      <c r="J40" s="280" t="s">
+      <c r="J40" s="290" t="s">
         <v>263</v>
       </c>
-      <c r="K40" s="280"/>
-      <c r="L40" s="280"/>
-      <c r="M40" s="280"/>
+      <c r="K40" s="290"/>
+      <c r="L40" s="290"/>
+      <c r="M40" s="290"/>
       <c r="N40" s="202"/>
       <c r="Z40" s="118">
         <f>SUM(N40:Y40)</f>
@@ -27738,11 +27909,11 @@
         <f>AVERAGE(N40:Y40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB40" s="260" t="s">
+      <c r="AB40" s="261" t="s">
         <v>291</v>
       </c>
-      <c r="AC40" s="260"/>
-      <c r="AD40" s="296"/>
+      <c r="AC40" s="261"/>
+      <c r="AD40" s="293"/>
     </row>
     <row r="41" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A41" s="47"/>
@@ -27872,12 +28043,12 @@
       <c r="G45" s="47"/>
       <c r="H45" s="47"/>
       <c r="I45" s="47"/>
-      <c r="J45" s="280" t="s">
+      <c r="J45" s="290" t="s">
         <v>475</v>
       </c>
-      <c r="K45" s="280"/>
-      <c r="L45" s="280"/>
-      <c r="M45" s="280"/>
+      <c r="K45" s="290"/>
+      <c r="L45" s="290"/>
+      <c r="M45" s="290"/>
       <c r="N45" s="202"/>
       <c r="Z45" s="118">
         <f t="shared" ref="Z45:Z56" si="0">SUM(N45:Y45)</f>
@@ -27887,11 +28058,11 @@
         <f t="shared" ref="AA45:AA56" si="1">AVERAGE(N45:Y45)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB45" s="260" t="s">
+      <c r="AB45" s="261" t="s">
         <v>475</v>
       </c>
-      <c r="AC45" s="260"/>
-      <c r="AD45" s="296"/>
+      <c r="AC45" s="261"/>
+      <c r="AD45" s="293"/>
     </row>
     <row r="46" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A46" s="47"/>
@@ -27908,12 +28079,12 @@
       <c r="G46" s="47"/>
       <c r="H46" s="47"/>
       <c r="I46" s="47"/>
-      <c r="J46" s="299" t="s">
+      <c r="J46" s="292" t="s">
         <v>476</v>
       </c>
-      <c r="K46" s="299"/>
-      <c r="L46" s="299"/>
-      <c r="M46" s="299"/>
+      <c r="K46" s="292"/>
+      <c r="L46" s="292"/>
+      <c r="M46" s="292"/>
       <c r="N46" s="202">
         <f>251.67+67.98+997.69</f>
         <v>1317.3400000000001</v>
@@ -27934,11 +28105,11 @@
         <f t="shared" si="1"/>
         <v>602.93333333333339</v>
       </c>
-      <c r="AB46" s="260" t="s">
+      <c r="AB46" s="261" t="s">
         <v>477</v>
       </c>
-      <c r="AC46" s="260"/>
-      <c r="AD46" s="296"/>
+      <c r="AC46" s="261"/>
+      <c r="AD46" s="293"/>
     </row>
     <row r="47" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A47" s="47"/>
@@ -27977,12 +28148,12 @@
       <c r="G48" s="47"/>
       <c r="H48" s="47"/>
       <c r="I48" s="47"/>
-      <c r="J48" s="291" t="s">
+      <c r="J48" s="295" t="s">
         <v>301</v>
       </c>
-      <c r="K48" s="291"/>
-      <c r="L48" s="291"/>
-      <c r="M48" s="291"/>
+      <c r="K48" s="295"/>
+      <c r="L48" s="295"/>
+      <c r="M48" s="295"/>
       <c r="N48" s="202">
         <f>599.4+394.27</f>
         <v>993.67</v>
@@ -27999,11 +28170,11 @@
         <f t="shared" si="1"/>
         <v>765.71</v>
       </c>
-      <c r="AB48" s="260" t="s">
+      <c r="AB48" s="261" t="s">
         <v>301</v>
       </c>
-      <c r="AC48" s="260"/>
-      <c r="AD48" s="296"/>
+      <c r="AC48" s="261"/>
+      <c r="AD48" s="293"/>
     </row>
     <row r="49" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A49" s="47"/>
@@ -28145,12 +28316,12 @@
       </c>
       <c r="H53" s="47"/>
       <c r="I53" s="47"/>
-      <c r="J53" s="297" t="s">
+      <c r="J53" s="296" t="s">
         <v>95</v>
       </c>
-      <c r="K53" s="297"/>
-      <c r="L53" s="297"/>
-      <c r="M53" s="297"/>
+      <c r="K53" s="296"/>
+      <c r="L53" s="296"/>
+      <c r="M53" s="296"/>
       <c r="N53" s="202">
         <v>600</v>
       </c>
@@ -28162,11 +28333,11 @@
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="AB53" s="261" t="s">
+      <c r="AB53" s="262" t="s">
         <v>95</v>
       </c>
-      <c r="AC53" s="261"/>
-      <c r="AD53" s="261"/>
+      <c r="AC53" s="262"/>
+      <c r="AD53" s="262"/>
     </row>
     <row r="54" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="B54" s="47">
@@ -28187,12 +28358,12 @@
       </c>
       <c r="H54" s="47"/>
       <c r="I54" s="47"/>
-      <c r="J54" s="280" t="s">
+      <c r="J54" s="290" t="s">
         <v>67</v>
       </c>
-      <c r="K54" s="280"/>
-      <c r="L54" s="280"/>
-      <c r="M54" s="280"/>
+      <c r="K54" s="290"/>
+      <c r="L54" s="290"/>
+      <c r="M54" s="290"/>
       <c r="N54" s="202"/>
       <c r="Z54" s="118">
         <f t="shared" si="0"/>
@@ -28202,11 +28373,11 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB54" s="261" t="s">
+      <c r="AB54" s="262" t="s">
         <v>67</v>
       </c>
-      <c r="AC54" s="261"/>
-      <c r="AD54" s="261"/>
+      <c r="AC54" s="262"/>
+      <c r="AD54" s="262"/>
     </row>
     <row r="55" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="B55" s="24">
@@ -28229,12 +28400,12 @@
         <v>524</v>
       </c>
       <c r="I55" s="47"/>
-      <c r="J55" s="280" t="s">
+      <c r="J55" s="290" t="s">
         <v>299</v>
       </c>
-      <c r="K55" s="280"/>
-      <c r="L55" s="280"/>
-      <c r="M55" s="280"/>
+      <c r="K55" s="290"/>
+      <c r="L55" s="290"/>
+      <c r="M55" s="290"/>
       <c r="N55" s="202"/>
       <c r="T55" s="114"/>
       <c r="Z55" s="118">
@@ -28245,11 +28416,11 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB55" s="260" t="s">
+      <c r="AB55" s="261" t="s">
         <v>299</v>
       </c>
-      <c r="AC55" s="260"/>
-      <c r="AD55" s="260"/>
+      <c r="AC55" s="261"/>
+      <c r="AD55" s="261"/>
     </row>
     <row r="56" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="B56" s="47">
@@ -28302,11 +28473,11 @@
       <c r="T57" s="114"/>
       <c r="Z57" s="118"/>
       <c r="AA57" s="20"/>
-      <c r="AB57" s="298" t="s">
+      <c r="AB57" s="289" t="s">
         <v>479</v>
       </c>
-      <c r="AC57" s="260"/>
-      <c r="AD57" s="260"/>
+      <c r="AC57" s="261"/>
+      <c r="AD57" s="261"/>
     </row>
     <row r="58" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="B58" s="47"/>
@@ -28336,12 +28507,12 @@
       <c r="B59" s="47"/>
       <c r="C59" s="47"/>
       <c r="I59" s="47"/>
-      <c r="J59" s="280" t="s">
+      <c r="J59" s="290" t="s">
         <v>481</v>
       </c>
-      <c r="K59" s="280"/>
-      <c r="L59" s="280"/>
-      <c r="M59" s="280"/>
+      <c r="K59" s="290"/>
+      <c r="L59" s="290"/>
+      <c r="M59" s="290"/>
       <c r="N59" s="202"/>
       <c r="T59" s="114"/>
       <c r="Z59" s="118">
@@ -28352,22 +28523,22 @@
         <f>AVERAGE(N59:Y59)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB59" s="260" t="s">
+      <c r="AB59" s="261" t="s">
         <v>264</v>
       </c>
-      <c r="AC59" s="260"/>
-      <c r="AD59" s="296"/>
+      <c r="AC59" s="261"/>
+      <c r="AD59" s="293"/>
     </row>
     <row r="60" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="B60" s="47"/>
       <c r="C60" s="47"/>
       <c r="I60" s="47"/>
-      <c r="J60" s="280" t="s">
+      <c r="J60" s="290" t="s">
         <v>387</v>
       </c>
-      <c r="K60" s="280"/>
-      <c r="L60" s="280"/>
-      <c r="M60" s="280"/>
+      <c r="K60" s="290"/>
+      <c r="L60" s="290"/>
+      <c r="M60" s="290"/>
       <c r="N60" s="202"/>
       <c r="Z60" s="118">
         <f>SUM(N60:Y60)</f>
@@ -28377,11 +28548,11 @@
         <f>AVERAGE(N60:Y60)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB60" s="261" t="s">
+      <c r="AB60" s="262" t="s">
         <v>58</v>
       </c>
-      <c r="AC60" s="261"/>
-      <c r="AD60" s="295"/>
+      <c r="AC60" s="262"/>
+      <c r="AD60" s="294"/>
     </row>
     <row r="61" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I61" s="47"/>
@@ -28400,12 +28571,12 @@
     </row>
     <row r="62" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I62" s="47"/>
-      <c r="J62" s="280" t="s">
+      <c r="J62" s="290" t="s">
         <v>469</v>
       </c>
-      <c r="K62" s="280"/>
-      <c r="L62" s="280"/>
-      <c r="M62" s="290"/>
+      <c r="K62" s="290"/>
+      <c r="L62" s="290"/>
+      <c r="M62" s="291"/>
       <c r="N62" s="202"/>
       <c r="Z62" s="118"/>
       <c r="AA62" s="20"/>
@@ -28417,12 +28588,12 @@
     </row>
     <row r="63" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I63" s="47"/>
-      <c r="J63" s="291" t="s">
+      <c r="J63" s="295" t="s">
         <v>527</v>
       </c>
-      <c r="K63" s="291"/>
-      <c r="L63" s="291"/>
-      <c r="M63" s="292"/>
+      <c r="K63" s="295"/>
+      <c r="L63" s="295"/>
+      <c r="M63" s="297"/>
       <c r="N63" s="202">
         <v>368.22</v>
       </c>
@@ -28440,12 +28611,12 @@
     </row>
     <row r="64" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I64" s="47"/>
-      <c r="J64" s="291" t="s">
+      <c r="J64" s="295" t="s">
         <v>246</v>
       </c>
-      <c r="K64" s="291"/>
-      <c r="L64" s="291"/>
-      <c r="M64" s="292"/>
+      <c r="K64" s="295"/>
+      <c r="L64" s="295"/>
+      <c r="M64" s="297"/>
       <c r="N64" s="202">
         <f>74.98+709.15</f>
         <v>784.13</v>
@@ -28462,11 +28633,11 @@
         <f>AVERAGE(N64:Y64)</f>
         <v>472.03999999999996</v>
       </c>
-      <c r="AB64" s="293" t="s">
+      <c r="AB64" s="298" t="s">
         <v>246</v>
       </c>
-      <c r="AC64" s="293"/>
-      <c r="AD64" s="294"/>
+      <c r="AC64" s="298"/>
+      <c r="AD64" s="299"/>
     </row>
     <row r="65" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I65" s="47"/>
@@ -28498,12 +28669,12 @@
       <c r="AD66" s="216"/>
     </row>
     <row r="67" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J67" s="280" t="s">
+      <c r="J67" s="290" t="s">
         <v>268</v>
       </c>
-      <c r="K67" s="280"/>
-      <c r="L67" s="280"/>
-      <c r="M67" s="280"/>
+      <c r="K67" s="290"/>
+      <c r="L67" s="290"/>
+      <c r="M67" s="290"/>
       <c r="N67" s="202"/>
       <c r="Z67" s="118">
         <f>SUM(N67:Y67)</f>
@@ -28513,11 +28684,11 @@
         <f>AVERAGE(N67:Y67)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB67" s="293" t="s">
+      <c r="AB67" s="298" t="s">
         <v>268</v>
       </c>
-      <c r="AC67" s="293"/>
-      <c r="AD67" s="294"/>
+      <c r="AC67" s="298"/>
+      <c r="AD67" s="299"/>
     </row>
     <row r="68" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J68" s="208"/>
@@ -28552,12 +28723,12 @@
       <c r="AD69" s="216"/>
     </row>
     <row r="70" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J70" s="283" t="s">
+      <c r="J70" s="303" t="s">
         <v>6</v>
       </c>
-      <c r="K70" s="283"/>
-      <c r="L70" s="283"/>
-      <c r="M70" s="283"/>
+      <c r="K70" s="303"/>
+      <c r="L70" s="303"/>
+      <c r="M70" s="303"/>
       <c r="N70" s="202">
         <f>511.2+827.63</f>
         <v>1338.83</v>
@@ -28574,11 +28745,11 @@
         <f>AVERAGE(N70:Y70)</f>
         <v>1186.155</v>
       </c>
-      <c r="AB70" s="262" t="s">
+      <c r="AB70" s="268" t="s">
         <v>6</v>
       </c>
-      <c r="AC70" s="262"/>
-      <c r="AD70" s="284"/>
+      <c r="AC70" s="268"/>
+      <c r="AD70" s="304"/>
     </row>
     <row r="71" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J71" s="237"/>
@@ -28597,12 +28768,12 @@
       <c r="AD71" s="236"/>
     </row>
     <row r="72" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J72" s="285" t="s">
+      <c r="J72" s="305" t="s">
         <v>60</v>
       </c>
-      <c r="K72" s="285"/>
-      <c r="L72" s="285"/>
-      <c r="M72" s="285"/>
+      <c r="K72" s="305"/>
+      <c r="L72" s="305"/>
+      <c r="M72" s="305"/>
       <c r="Z72" s="118">
         <f>SUM(N72:Y72)</f>
         <v>0</v>
@@ -28611,19 +28782,19 @@
         <f>AVERAGE(N72:Y72)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB72" s="286" t="s">
+      <c r="AB72" s="306" t="s">
         <v>60</v>
       </c>
-      <c r="AC72" s="286"/>
-      <c r="AD72" s="286"/>
+      <c r="AC72" s="306"/>
+      <c r="AD72" s="306"/>
     </row>
     <row r="73" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J73" s="283" t="s">
+      <c r="J73" s="303" t="s">
         <v>443</v>
       </c>
-      <c r="K73" s="283"/>
-      <c r="L73" s="283"/>
-      <c r="M73" s="283"/>
+      <c r="K73" s="303"/>
+      <c r="L73" s="303"/>
+      <c r="M73" s="303"/>
       <c r="N73" s="202"/>
       <c r="O73">
         <f>58+58+12.5</f>
@@ -28636,12 +28807,12 @@
       <c r="AD73" s="187"/>
     </row>
     <row r="74" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J74" s="287" t="s">
+      <c r="J74" s="307" t="s">
         <v>539</v>
       </c>
-      <c r="K74" s="288"/>
-      <c r="L74" s="288"/>
-      <c r="M74" s="289"/>
+      <c r="K74" s="308"/>
+      <c r="L74" s="308"/>
+      <c r="M74" s="309"/>
       <c r="N74" s="202"/>
       <c r="Z74" s="118"/>
       <c r="AA74" s="20"/>
@@ -28650,12 +28821,12 @@
       <c r="AD74" s="187"/>
     </row>
     <row r="75" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J75" s="276" t="s">
+      <c r="J75" s="314" t="s">
         <v>540</v>
       </c>
-      <c r="K75" s="276"/>
-      <c r="L75" s="276"/>
-      <c r="M75" s="277"/>
+      <c r="K75" s="314"/>
+      <c r="L75" s="314"/>
+      <c r="M75" s="315"/>
       <c r="N75" s="202"/>
       <c r="Z75" s="118"/>
       <c r="AA75" s="20"/>
@@ -28664,12 +28835,12 @@
       <c r="AD75" s="187"/>
     </row>
     <row r="76" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J76" s="278" t="s">
+      <c r="J76" s="316" t="s">
         <v>298</v>
       </c>
-      <c r="K76" s="278"/>
-      <c r="L76" s="278"/>
-      <c r="M76" s="278"/>
+      <c r="K76" s="316"/>
+      <c r="L76" s="316"/>
+      <c r="M76" s="316"/>
       <c r="N76" s="202">
         <f>69+209</f>
         <v>278</v>
@@ -28686,11 +28857,11 @@
         <f>AVERAGE(N76:Y76)</f>
         <v>278</v>
       </c>
-      <c r="AB76" s="279" t="s">
+      <c r="AB76" s="300" t="s">
         <v>298</v>
       </c>
-      <c r="AC76" s="279"/>
-      <c r="AD76" s="279"/>
+      <c r="AC76" s="300"/>
+      <c r="AD76" s="300"/>
     </row>
     <row r="77" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J77" s="215"/>
@@ -28709,12 +28880,12 @@
       <c r="AD77" s="214"/>
     </row>
     <row r="78" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J78" s="280" t="s">
+      <c r="J78" s="290" t="s">
         <v>297</v>
       </c>
-      <c r="K78" s="280"/>
-      <c r="L78" s="280"/>
-      <c r="M78" s="280"/>
+      <c r="K78" s="290"/>
+      <c r="L78" s="290"/>
+      <c r="M78" s="290"/>
       <c r="N78" s="203"/>
       <c r="O78">
         <v>250</v>
@@ -28727,11 +28898,11 @@
         <f>AVERAGE(N78:Y78)</f>
         <v>250</v>
       </c>
-      <c r="AB78" s="260" t="s">
+      <c r="AB78" s="261" t="s">
         <v>297</v>
       </c>
-      <c r="AC78" s="260"/>
-      <c r="AD78" s="260"/>
+      <c r="AC78" s="261"/>
+      <c r="AD78" s="261"/>
     </row>
     <row r="79" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J79" s="208"/>
@@ -28795,12 +28966,12 @@
       <c r="AD79" s="207"/>
     </row>
     <row r="80" spans="9:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J80" s="281" t="s">
+      <c r="J80" s="301" t="s">
         <v>300</v>
       </c>
-      <c r="K80" s="281"/>
-      <c r="L80" s="281"/>
-      <c r="M80" s="282"/>
+      <c r="K80" s="301"/>
+      <c r="L80" s="301"/>
+      <c r="M80" s="302"/>
       <c r="N80" s="115">
         <f>SUM(N5:N78)</f>
         <v>24594.769999999997</v>
@@ -28859,12 +29030,12 @@
       </c>
     </row>
     <row r="81" spans="8:27" ht="15.75" thickBot="1">
-      <c r="J81" s="272" t="s">
+      <c r="J81" s="310" t="s">
         <v>61</v>
       </c>
-      <c r="K81" s="272"/>
-      <c r="L81" s="272"/>
-      <c r="M81" s="273"/>
+      <c r="K81" s="310"/>
+      <c r="L81" s="310"/>
+      <c r="M81" s="311"/>
       <c r="N81" s="140">
         <f>N2-SUM(N4:N79)-N3</f>
         <v>-14526.629999999997</v>
@@ -28915,12 +29086,12 @@
       </c>
     </row>
     <row r="82" spans="8:27">
-      <c r="J82" s="274" t="s">
+      <c r="J82" s="312" t="s">
         <v>62</v>
       </c>
-      <c r="K82" s="274"/>
-      <c r="L82" s="274"/>
-      <c r="M82" s="274"/>
+      <c r="K82" s="312"/>
+      <c r="L82" s="312"/>
+      <c r="M82" s="312"/>
       <c r="N82" s="61">
         <f>N81</f>
         <v>-14526.629999999997</v>
@@ -29006,7 +29177,7 @@
       <c r="L85" s="47"/>
       <c r="M85" s="47"/>
       <c r="N85" s="16"/>
-      <c r="O85" s="318" t="s">
+      <c r="O85" s="319" t="s">
         <v>556</v>
       </c>
       <c r="P85" s="258"/>
@@ -29022,7 +29193,7 @@
       <c r="K86" s="47"/>
       <c r="L86" s="47"/>
       <c r="M86" s="47"/>
-      <c r="O86" s="318" t="s">
+      <c r="O86" s="319" t="s">
         <v>564</v>
       </c>
       <c r="P86" s="258"/>
@@ -29500,48 +29671,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="O86:S86"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="AB78:AD78"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="AB76:AD76"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="AB64:AD64"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="AB67:AD67"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="AB70:AD70"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="AB72:AD72"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="AB53:AD53"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="AB54:AD54"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="AB55:AD55"/>
-    <mergeCell ref="AB57:AD57"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="AB59:AD59"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="AB60:AD60"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="AB45:AD45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="AB46:AD46"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="AB48:AD48"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="AB34:AD34"/>
-    <mergeCell ref="AB39:AD39"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="AB40:AD40"/>
     <mergeCell ref="J63:M63"/>
     <mergeCell ref="O85:S85"/>
     <mergeCell ref="J4:M4"/>
@@ -29558,6 +29687,48 @@
     <mergeCell ref="J26:M26"/>
     <mergeCell ref="AB26:AD26"/>
     <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="AB34:AD34"/>
+    <mergeCell ref="AB39:AD39"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="AB40:AD40"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="AB45:AD45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="AB46:AD46"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="AB48:AD48"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="AB53:AD53"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="AB54:AD54"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="AB55:AD55"/>
+    <mergeCell ref="AB57:AD57"/>
+    <mergeCell ref="J59:M59"/>
+    <mergeCell ref="AB59:AD59"/>
+    <mergeCell ref="J60:M60"/>
+    <mergeCell ref="AB60:AD60"/>
+    <mergeCell ref="J76:M76"/>
+    <mergeCell ref="AB76:AD76"/>
+    <mergeCell ref="J64:M64"/>
+    <mergeCell ref="AB64:AD64"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="AB67:AD67"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="AB70:AD70"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="AB72:AD72"/>
+    <mergeCell ref="J73:M73"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J75:M75"/>
+    <mergeCell ref="O86:S86"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="AB78:AD78"/>
+    <mergeCell ref="J80:M80"/>
+    <mergeCell ref="J81:M81"/>
+    <mergeCell ref="J82:M82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29568,7 +29739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6824BDC7-15C7-4EFE-8F83-12AA4549CA14}">
   <dimension ref="A1:AD102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -29595,10 +29766,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="271" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="257"/>
+      <c r="B1" s="272"/>
       <c r="C1" s="138" t="s">
         <v>1</v>
       </c>
@@ -29608,12 +29779,12 @@
       <c r="G1" s="47"/>
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
-      <c r="J1" s="310" t="s">
+      <c r="J1" s="279" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="310"/>
-      <c r="L1" s="310"/>
-      <c r="M1" s="311"/>
+      <c r="K1" s="279"/>
+      <c r="L1" s="279"/>
+      <c r="M1" s="280"/>
       <c r="N1" s="50" t="s">
         <v>44</v>
       </c>
@@ -29678,12 +29849,12 @@
       </c>
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
-      <c r="J2" s="300" t="s">
+      <c r="J2" s="281" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="300"/>
-      <c r="L2" s="300"/>
-      <c r="M2" s="300"/>
+      <c r="K2" s="281"/>
+      <c r="L2" s="281"/>
+      <c r="M2" s="281"/>
       <c r="N2" s="47">
         <v>13553.12</v>
       </c>
@@ -29754,12 +29925,12 @@
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
-      <c r="J3" s="304" t="s">
+      <c r="J3" s="273" t="s">
         <v>504</v>
       </c>
-      <c r="K3" s="316"/>
-      <c r="L3" s="316"/>
-      <c r="M3" s="317"/>
+      <c r="K3" s="317"/>
+      <c r="L3" s="317"/>
+      <c r="M3" s="318"/>
       <c r="N3" s="56">
         <v>2808</v>
       </c>
@@ -29796,11 +29967,11 @@
         <f>AVERAGE(N3:Y3)</f>
         <v>3597.125</v>
       </c>
-      <c r="AB3" s="306" t="s">
+      <c r="AB3" s="275" t="s">
         <v>63</v>
       </c>
-      <c r="AC3" s="306"/>
-      <c r="AD3" s="307"/>
+      <c r="AC3" s="275"/>
+      <c r="AD3" s="276"/>
     </row>
     <row r="4" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="47"/>
@@ -29822,12 +29993,12 @@
       <c r="F4" s="191" t="s">
         <v>453</v>
       </c>
-      <c r="J4" s="301" t="s">
+      <c r="J4" s="286" t="s">
         <v>149</v>
       </c>
-      <c r="K4" s="301"/>
-      <c r="L4" s="301"/>
-      <c r="M4" s="301"/>
+      <c r="K4" s="286"/>
+      <c r="L4" s="286"/>
+      <c r="M4" s="286"/>
       <c r="N4">
         <v>0</v>
       </c>
@@ -29839,11 +30010,11 @@
         <f>AVERAGE(N4:Y4)</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="259" t="s">
+      <c r="AB4" s="260" t="s">
         <v>149</v>
       </c>
-      <c r="AC4" s="259"/>
-      <c r="AD4" s="259"/>
+      <c r="AC4" s="260"/>
+      <c r="AD4" s="260"/>
     </row>
     <row r="5" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="125" t="s">
@@ -29887,11 +30058,11 @@
       </c>
       <c r="Z5" s="118"/>
       <c r="AA5" s="20"/>
-      <c r="AB5" s="303" t="s">
+      <c r="AB5" s="288" t="s">
         <v>480</v>
       </c>
-      <c r="AC5" s="259"/>
-      <c r="AD5" s="259"/>
+      <c r="AC5" s="260"/>
+      <c r="AD5" s="260"/>
     </row>
     <row r="6" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="47"/>
@@ -30256,11 +30427,11 @@
       </c>
       <c r="Z16" s="118"/>
       <c r="AA16" s="20"/>
-      <c r="AB16" s="298" t="s">
+      <c r="AB16" s="289" t="s">
         <v>471</v>
       </c>
-      <c r="AC16" s="260"/>
-      <c r="AD16" s="260"/>
+      <c r="AC16" s="261"/>
+      <c r="AD16" s="261"/>
     </row>
     <row r="17" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="47"/>
@@ -30348,12 +30519,12 @@
       </c>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
-      <c r="J19" s="280" t="s">
+      <c r="J19" s="290" t="s">
         <v>498</v>
       </c>
-      <c r="K19" s="280"/>
-      <c r="L19" s="280"/>
-      <c r="M19" s="290"/>
+      <c r="K19" s="290"/>
+      <c r="L19" s="290"/>
+      <c r="M19" s="291"/>
       <c r="N19">
         <v>0</v>
       </c>
@@ -30368,11 +30539,11 @@
         <f>AVERAGE(N19:Y19)</f>
         <v>-104.7</v>
       </c>
-      <c r="AB19" s="260" t="s">
+      <c r="AB19" s="261" t="s">
         <v>276</v>
       </c>
-      <c r="AC19" s="260"/>
-      <c r="AD19" s="260"/>
+      <c r="AC19" s="261"/>
+      <c r="AD19" s="261"/>
     </row>
     <row r="20" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="47"/>
@@ -30437,12 +30608,12 @@
       </c>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
-      <c r="J21" s="280" t="s">
+      <c r="J21" s="290" t="s">
         <v>386</v>
       </c>
-      <c r="K21" s="280"/>
-      <c r="L21" s="280"/>
-      <c r="M21" s="280"/>
+      <c r="K21" s="290"/>
+      <c r="L21" s="290"/>
+      <c r="M21" s="290"/>
       <c r="N21" s="202">
         <v>0</v>
       </c>
@@ -30454,11 +30625,11 @@
         <f>AVERAGE(N21:Y21)</f>
         <v>0</v>
       </c>
-      <c r="AB21" s="261" t="s">
+      <c r="AB21" s="262" t="s">
         <v>65</v>
       </c>
-      <c r="AC21" s="261"/>
-      <c r="AD21" s="261"/>
+      <c r="AC21" s="262"/>
+      <c r="AD21" s="262"/>
     </row>
     <row r="22" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="47"/>
@@ -30526,12 +30697,12 @@
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="280" t="s">
+      <c r="J24" s="290" t="s">
         <v>500</v>
       </c>
-      <c r="K24" s="297"/>
-      <c r="L24" s="297"/>
-      <c r="M24" s="297"/>
+      <c r="K24" s="296"/>
+      <c r="L24" s="296"/>
+      <c r="M24" s="296"/>
       <c r="N24" s="202">
         <v>0</v>
       </c>
@@ -30570,12 +30741,12 @@
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
-      <c r="J25" s="300" t="s">
+      <c r="J25" s="281" t="s">
         <v>489</v>
       </c>
-      <c r="K25" s="300"/>
-      <c r="L25" s="300"/>
-      <c r="M25" s="290"/>
+      <c r="K25" s="281"/>
+      <c r="L25" s="281"/>
+      <c r="M25" s="291"/>
       <c r="N25" s="202">
         <f>-130-67</f>
         <v>-197</v>
@@ -30591,11 +30762,11 @@
         <f>AVERAGE(N25:Y25)</f>
         <v>-170.9</v>
       </c>
-      <c r="AB25" s="261" t="s">
+      <c r="AB25" s="262" t="s">
         <v>105</v>
       </c>
-      <c r="AC25" s="261"/>
-      <c r="AD25" s="295"/>
+      <c r="AC25" s="262"/>
+      <c r="AD25" s="294"/>
     </row>
     <row r="26" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="47"/>
@@ -30738,11 +30909,11 @@
       </c>
       <c r="Z30" s="118"/>
       <c r="AA30" s="20"/>
-      <c r="AB30" s="298" t="s">
+      <c r="AB30" s="289" t="s">
         <v>499</v>
       </c>
-      <c r="AC30" s="260"/>
-      <c r="AD30" s="296"/>
+      <c r="AC30" s="261"/>
+      <c r="AD30" s="293"/>
     </row>
     <row r="31" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A31" s="47"/>
@@ -30755,12 +30926,12 @@
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="47"/>
-      <c r="J31" s="280" t="s">
+      <c r="J31" s="290" t="s">
         <v>263</v>
       </c>
-      <c r="K31" s="280"/>
-      <c r="L31" s="280"/>
-      <c r="M31" s="280"/>
+      <c r="K31" s="290"/>
+      <c r="L31" s="290"/>
+      <c r="M31" s="290"/>
       <c r="N31" s="202">
         <v>0</v>
       </c>
@@ -30772,11 +30943,11 @@
         <f>AVERAGE(N31:Y31)</f>
         <v>0</v>
       </c>
-      <c r="AB31" s="260" t="s">
+      <c r="AB31" s="261" t="s">
         <v>291</v>
       </c>
-      <c r="AC31" s="260"/>
-      <c r="AD31" s="296"/>
+      <c r="AC31" s="261"/>
+      <c r="AD31" s="293"/>
     </row>
     <row r="32" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A32" s="47"/>
@@ -30930,12 +31101,12 @@
       <c r="F36" s="47"/>
       <c r="H36" s="47"/>
       <c r="I36" s="47"/>
-      <c r="J36" s="280" t="s">
+      <c r="J36" s="290" t="s">
         <v>475</v>
       </c>
-      <c r="K36" s="280"/>
-      <c r="L36" s="280"/>
-      <c r="M36" s="280"/>
+      <c r="K36" s="290"/>
+      <c r="L36" s="290"/>
+      <c r="M36" s="290"/>
       <c r="N36" s="202">
         <v>0</v>
       </c>
@@ -30954,11 +31125,11 @@
         <f t="shared" ref="AA36:AA47" si="1">AVERAGE(N36:Y36)</f>
         <v>-135.60666666666665</v>
       </c>
-      <c r="AB36" s="260" t="s">
+      <c r="AB36" s="261" t="s">
         <v>475</v>
       </c>
-      <c r="AC36" s="260"/>
-      <c r="AD36" s="296"/>
+      <c r="AC36" s="261"/>
+      <c r="AD36" s="293"/>
     </row>
     <row r="37" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A37" s="47"/>
@@ -30980,12 +31151,12 @@
       <c r="F37" s="47"/>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
-      <c r="J37" s="280" t="s">
+      <c r="J37" s="290" t="s">
         <v>476</v>
       </c>
-      <c r="K37" s="280"/>
-      <c r="L37" s="280"/>
-      <c r="M37" s="280"/>
+      <c r="K37" s="290"/>
+      <c r="L37" s="290"/>
+      <c r="M37" s="290"/>
       <c r="N37" s="202">
         <v>-264.11</v>
       </c>
@@ -31001,11 +31172,11 @@
         <f t="shared" si="1"/>
         <v>-384.68</v>
       </c>
-      <c r="AB37" s="260" t="s">
+      <c r="AB37" s="261" t="s">
         <v>477</v>
       </c>
-      <c r="AC37" s="260"/>
-      <c r="AD37" s="296"/>
+      <c r="AC37" s="261"/>
+      <c r="AD37" s="293"/>
     </row>
     <row r="38" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A38" s="47"/>
@@ -31062,12 +31233,12 @@
       <c r="F39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="47"/>
-      <c r="J39" s="260" t="s">
+      <c r="J39" s="261" t="s">
         <v>301</v>
       </c>
-      <c r="K39" s="260"/>
-      <c r="L39" s="260"/>
-      <c r="M39" s="260"/>
+      <c r="K39" s="261"/>
+      <c r="L39" s="261"/>
+      <c r="M39" s="261"/>
       <c r="N39" s="202">
         <f>-518.84-42.79</f>
         <v>-561.63</v>
@@ -31091,11 +31262,11 @@
         <f t="shared" si="1"/>
         <v>-2085.6900000000005</v>
       </c>
-      <c r="AB39" s="260" t="s">
+      <c r="AB39" s="261" t="s">
         <v>301</v>
       </c>
-      <c r="AC39" s="260"/>
-      <c r="AD39" s="296"/>
+      <c r="AC39" s="261"/>
+      <c r="AD39" s="293"/>
     </row>
     <row r="40" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A40" s="47"/>
@@ -31247,12 +31418,12 @@
       <c r="G44" s="47"/>
       <c r="H44" s="47"/>
       <c r="I44" s="47"/>
-      <c r="J44" s="297" t="s">
+      <c r="J44" s="296" t="s">
         <v>95</v>
       </c>
-      <c r="K44" s="297"/>
-      <c r="L44" s="297"/>
-      <c r="M44" s="297"/>
+      <c r="K44" s="296"/>
+      <c r="L44" s="296"/>
+      <c r="M44" s="296"/>
       <c r="N44" s="202">
         <v>0</v>
       </c>
@@ -31268,11 +31439,11 @@
         <f t="shared" si="1"/>
         <v>-750</v>
       </c>
-      <c r="AB44" s="261" t="s">
+      <c r="AB44" s="262" t="s">
         <v>95</v>
       </c>
-      <c r="AC44" s="261"/>
-      <c r="AD44" s="261"/>
+      <c r="AC44" s="262"/>
+      <c r="AD44" s="262"/>
     </row>
     <row r="45" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A45" s="47"/>
@@ -31284,12 +31455,12 @@
       <c r="G45" s="47"/>
       <c r="H45" s="47"/>
       <c r="I45" s="47"/>
-      <c r="J45" s="280" t="s">
+      <c r="J45" s="290" t="s">
         <v>67</v>
       </c>
-      <c r="K45" s="280"/>
-      <c r="L45" s="280"/>
-      <c r="M45" s="280"/>
+      <c r="K45" s="290"/>
+      <c r="L45" s="290"/>
+      <c r="M45" s="290"/>
       <c r="N45" s="202">
         <v>0</v>
       </c>
@@ -31301,11 +31472,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB45" s="261" t="s">
+      <c r="AB45" s="262" t="s">
         <v>67</v>
       </c>
-      <c r="AC45" s="261"/>
-      <c r="AD45" s="261"/>
+      <c r="AC45" s="262"/>
+      <c r="AD45" s="262"/>
     </row>
     <row r="46" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A46" s="47"/>
@@ -31317,12 +31488,12 @@
       <c r="G46" s="47"/>
       <c r="H46" s="47"/>
       <c r="I46" s="47"/>
-      <c r="J46" s="280" t="s">
+      <c r="J46" s="290" t="s">
         <v>299</v>
       </c>
-      <c r="K46" s="280"/>
-      <c r="L46" s="280"/>
-      <c r="M46" s="280"/>
+      <c r="K46" s="290"/>
+      <c r="L46" s="290"/>
+      <c r="M46" s="290"/>
       <c r="N46" s="202">
         <v>0</v>
       </c>
@@ -31341,11 +31512,11 @@
         <f t="shared" si="1"/>
         <v>-419</v>
       </c>
-      <c r="AB46" s="260" t="s">
+      <c r="AB46" s="261" t="s">
         <v>299</v>
       </c>
-      <c r="AC46" s="260"/>
-      <c r="AD46" s="260"/>
+      <c r="AC46" s="261"/>
+      <c r="AD46" s="261"/>
     </row>
     <row r="47" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A47" s="47"/>
@@ -31410,11 +31581,11 @@
       </c>
       <c r="Z48" s="118"/>
       <c r="AA48" s="20"/>
-      <c r="AB48" s="298" t="s">
+      <c r="AB48" s="289" t="s">
         <v>479</v>
       </c>
-      <c r="AC48" s="260"/>
-      <c r="AD48" s="260"/>
+      <c r="AC48" s="261"/>
+      <c r="AD48" s="261"/>
     </row>
     <row r="49" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A49" s="47"/>
@@ -31468,12 +31639,12 @@
       </c>
       <c r="H50" s="47"/>
       <c r="I50" s="47"/>
-      <c r="J50" s="280" t="s">
+      <c r="J50" s="290" t="s">
         <v>481</v>
       </c>
-      <c r="K50" s="280"/>
-      <c r="L50" s="280"/>
-      <c r="M50" s="280"/>
+      <c r="K50" s="290"/>
+      <c r="L50" s="290"/>
+      <c r="M50" s="290"/>
       <c r="N50" s="202">
         <v>0</v>
       </c>
@@ -31486,11 +31657,11 @@
         <f>AVERAGE(N50:Y50)</f>
         <v>0</v>
       </c>
-      <c r="AB50" s="260" t="s">
+      <c r="AB50" s="261" t="s">
         <v>264</v>
       </c>
-      <c r="AC50" s="260"/>
-      <c r="AD50" s="296"/>
+      <c r="AC50" s="261"/>
+      <c r="AD50" s="293"/>
     </row>
     <row r="51" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="A51" t="s">
@@ -31513,12 +31684,12 @@
         <v>524</v>
       </c>
       <c r="I51" s="47"/>
-      <c r="J51" s="280" t="s">
+      <c r="J51" s="290" t="s">
         <v>387</v>
       </c>
-      <c r="K51" s="280"/>
-      <c r="L51" s="280"/>
-      <c r="M51" s="280"/>
+      <c r="K51" s="290"/>
+      <c r="L51" s="290"/>
+      <c r="M51" s="290"/>
       <c r="N51" s="202">
         <v>0</v>
       </c>
@@ -31536,11 +31707,11 @@
         <f>AVERAGE(N51:Y51)</f>
         <v>-160.93333333333331</v>
       </c>
-      <c r="AB51" s="261" t="s">
+      <c r="AB51" s="262" t="s">
         <v>58</v>
       </c>
-      <c r="AC51" s="261"/>
-      <c r="AD51" s="295"/>
+      <c r="AC51" s="262"/>
+      <c r="AD51" s="294"/>
     </row>
     <row r="52" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="B52" s="47"/>
@@ -31575,12 +31746,12 @@
         <v>1620</v>
       </c>
       <c r="I53" s="47"/>
-      <c r="J53" s="280" t="s">
+      <c r="J53" s="290" t="s">
         <v>469</v>
       </c>
-      <c r="K53" s="280"/>
-      <c r="L53" s="280"/>
-      <c r="M53" s="290"/>
+      <c r="K53" s="290"/>
+      <c r="L53" s="290"/>
+      <c r="M53" s="291"/>
       <c r="N53" s="202">
         <v>0</v>
       </c>
@@ -31617,12 +31788,12 @@
     </row>
     <row r="55" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I55" s="47"/>
-      <c r="J55" s="260" t="s">
+      <c r="J55" s="261" t="s">
         <v>246</v>
       </c>
-      <c r="K55" s="260"/>
-      <c r="L55" s="260"/>
-      <c r="M55" s="319"/>
+      <c r="K55" s="261"/>
+      <c r="L55" s="261"/>
+      <c r="M55" s="320"/>
       <c r="N55" s="202">
         <f>-69.9-115.9</f>
         <v>-185.8</v>
@@ -31646,11 +31817,11 @@
         <f>AVERAGE(N55:Y55)</f>
         <v>-671.38000000000011</v>
       </c>
-      <c r="AB55" s="293" t="s">
+      <c r="AB55" s="298" t="s">
         <v>246</v>
       </c>
-      <c r="AC55" s="293"/>
-      <c r="AD55" s="294"/>
+      <c r="AC55" s="298"/>
+      <c r="AD55" s="299"/>
     </row>
     <row r="56" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I56" s="47"/>
@@ -31691,12 +31862,12 @@
     </row>
     <row r="58" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I58" s="47"/>
-      <c r="J58" s="280" t="s">
+      <c r="J58" s="290" t="s">
         <v>268</v>
       </c>
-      <c r="K58" s="280"/>
-      <c r="L58" s="280"/>
-      <c r="M58" s="280"/>
+      <c r="K58" s="290"/>
+      <c r="L58" s="290"/>
+      <c r="M58" s="290"/>
       <c r="N58" s="202">
         <f>-565-565-565-200-565-100</f>
         <v>-2560</v>
@@ -31709,20 +31880,20 @@
         <f>AVERAGE(N58:Y58)</f>
         <v>-2560</v>
       </c>
-      <c r="AB58" s="293" t="s">
+      <c r="AB58" s="298" t="s">
         <v>268</v>
       </c>
-      <c r="AC58" s="293"/>
-      <c r="AD58" s="294"/>
+      <c r="AC58" s="298"/>
+      <c r="AD58" s="299"/>
     </row>
     <row r="59" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="I59" s="47"/>
-      <c r="J59" s="283" t="s">
+      <c r="J59" s="303" t="s">
         <v>6</v>
       </c>
-      <c r="K59" s="283"/>
-      <c r="L59" s="283"/>
-      <c r="M59" s="283"/>
+      <c r="K59" s="303"/>
+      <c r="L59" s="303"/>
+      <c r="M59" s="303"/>
       <c r="N59" s="202">
         <f>-1003.15-786.06-996.31-981.2</f>
         <v>-3766.7200000000003</v>
@@ -31749,19 +31920,19 @@
         <f>AVERAGE(N59:Y59)</f>
         <v>-2024.58</v>
       </c>
-      <c r="AB59" s="262" t="s">
+      <c r="AB59" s="268" t="s">
         <v>6</v>
       </c>
-      <c r="AC59" s="262"/>
-      <c r="AD59" s="284"/>
+      <c r="AC59" s="268"/>
+      <c r="AD59" s="304"/>
     </row>
     <row r="60" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J60" s="285" t="s">
+      <c r="J60" s="305" t="s">
         <v>60</v>
       </c>
-      <c r="K60" s="285"/>
-      <c r="L60" s="285"/>
-      <c r="M60" s="285"/>
+      <c r="K60" s="305"/>
+      <c r="L60" s="305"/>
+      <c r="M60" s="305"/>
       <c r="N60" s="202">
         <v>0</v>
       </c>
@@ -31777,19 +31948,19 @@
         <f>AVERAGE(N60:Y60)</f>
         <v>-972.82500000000005</v>
       </c>
-      <c r="AB60" s="286" t="s">
+      <c r="AB60" s="306" t="s">
         <v>60</v>
       </c>
-      <c r="AC60" s="286"/>
-      <c r="AD60" s="286"/>
+      <c r="AC60" s="306"/>
+      <c r="AD60" s="306"/>
     </row>
     <row r="61" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J61" s="283" t="s">
+      <c r="J61" s="303" t="s">
         <v>443</v>
       </c>
-      <c r="K61" s="283"/>
-      <c r="L61" s="283"/>
-      <c r="M61" s="283"/>
+      <c r="K61" s="303"/>
+      <c r="L61" s="303"/>
+      <c r="M61" s="303"/>
       <c r="N61" s="202">
         <v>0</v>
       </c>
@@ -31800,12 +31971,12 @@
       <c r="AD61" s="187"/>
     </row>
     <row r="62" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J62" s="287" t="s">
+      <c r="J62" s="307" t="s">
         <v>539</v>
       </c>
-      <c r="K62" s="288"/>
-      <c r="L62" s="288"/>
-      <c r="M62" s="289"/>
+      <c r="K62" s="308"/>
+      <c r="L62" s="308"/>
+      <c r="M62" s="309"/>
       <c r="N62" s="202"/>
       <c r="Y62">
         <f>27.48+274.8</f>
@@ -31818,12 +31989,12 @@
       <c r="AD62" s="187"/>
     </row>
     <row r="63" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J63" s="276" t="s">
+      <c r="J63" s="314" t="s">
         <v>540</v>
       </c>
-      <c r="K63" s="276"/>
-      <c r="L63" s="276"/>
-      <c r="M63" s="277"/>
+      <c r="K63" s="314"/>
+      <c r="L63" s="314"/>
+      <c r="M63" s="315"/>
       <c r="N63" s="202"/>
       <c r="V63">
         <f>-26-5-102.44-15.36</f>
@@ -31840,12 +32011,12 @@
       <c r="AD63" s="187"/>
     </row>
     <row r="64" spans="1:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J64" s="278" t="s">
+      <c r="J64" s="316" t="s">
         <v>298</v>
       </c>
-      <c r="K64" s="278"/>
-      <c r="L64" s="278"/>
-      <c r="M64" s="278"/>
+      <c r="K64" s="316"/>
+      <c r="L64" s="316"/>
+      <c r="M64" s="316"/>
       <c r="N64" s="202">
         <v>132</v>
       </c>
@@ -31857,11 +32028,11 @@
         <f>AVERAGE(N64:Y64)</f>
         <v>132</v>
       </c>
-      <c r="AB64" s="279" t="s">
+      <c r="AB64" s="300" t="s">
         <v>298</v>
       </c>
-      <c r="AC64" s="279"/>
-      <c r="AD64" s="279"/>
+      <c r="AC64" s="300"/>
+      <c r="AD64" s="300"/>
     </row>
     <row r="65" spans="10:30" ht="16.5" thickTop="1" thickBot="1">
       <c r="J65" s="215"/>
@@ -31880,12 +32051,12 @@
       <c r="AD65" s="214"/>
     </row>
     <row r="66" spans="10:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J66" s="280" t="s">
+      <c r="J66" s="290" t="s">
         <v>297</v>
       </c>
-      <c r="K66" s="280"/>
-      <c r="L66" s="280"/>
-      <c r="M66" s="280"/>
+      <c r="K66" s="290"/>
+      <c r="L66" s="290"/>
+      <c r="M66" s="290"/>
       <c r="N66" s="203">
         <v>0</v>
       </c>
@@ -31897,19 +32068,19 @@
         <f>AVERAGE(N66:Y66)</f>
         <v>0</v>
       </c>
-      <c r="AB66" s="260" t="s">
+      <c r="AB66" s="261" t="s">
         <v>297</v>
       </c>
-      <c r="AC66" s="260"/>
-      <c r="AD66" s="260"/>
+      <c r="AC66" s="261"/>
+      <c r="AD66" s="261"/>
     </row>
     <row r="67" spans="10:30" ht="16.5" thickTop="1" thickBot="1">
-      <c r="J67" s="281" t="s">
+      <c r="J67" s="301" t="s">
         <v>300</v>
       </c>
-      <c r="K67" s="281"/>
-      <c r="L67" s="281"/>
-      <c r="M67" s="282"/>
+      <c r="K67" s="301"/>
+      <c r="L67" s="301"/>
+      <c r="M67" s="302"/>
       <c r="N67" s="115">
         <f>SUM(N5:N66)</f>
         <v>-18236.870000000003</v>
@@ -31968,12 +32139,12 @@
       </c>
     </row>
     <row r="68" spans="10:30" ht="15.75" thickBot="1">
-      <c r="J68" s="272" t="s">
+      <c r="J68" s="310" t="s">
         <v>61</v>
       </c>
-      <c r="K68" s="272"/>
-      <c r="L68" s="272"/>
-      <c r="M68" s="273"/>
+      <c r="K68" s="310"/>
+      <c r="L68" s="310"/>
+      <c r="M68" s="311"/>
       <c r="N68" s="140">
         <f>N2+SUM(N4:N66)-N3</f>
         <v>-7491.7500000000018</v>
@@ -32024,12 +32195,12 @@
       </c>
     </row>
     <row r="69" spans="10:30">
-      <c r="J69" s="274" t="s">
+      <c r="J69" s="312" t="s">
         <v>62</v>
       </c>
-      <c r="K69" s="274"/>
-      <c r="L69" s="274"/>
-      <c r="M69" s="274"/>
+      <c r="K69" s="312"/>
+      <c r="L69" s="312"/>
+      <c r="M69" s="312"/>
       <c r="N69" s="61">
         <f>N68</f>
         <v>-7491.7500000000018</v>
@@ -32372,8 +32543,8 @@
       <c r="N85" s="47"/>
       <c r="O85" s="47"/>
       <c r="P85" s="47"/>
-      <c r="Q85" s="275"/>
-      <c r="R85" s="275"/>
+      <c r="Q85" s="313"/>
+      <c r="R85" s="313"/>
       <c r="V85" s="47"/>
       <c r="W85" s="47"/>
       <c r="X85" s="47"/>
@@ -33030,17 +33201,35 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="J63:M63"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AB31:AD31"/>
+    <mergeCell ref="AB37:AD37"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="AB36:AD36"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AB19:AD19"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="AB51:AD51"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="AB39:AD39"/>
+    <mergeCell ref="AB44:AD44"/>
+    <mergeCell ref="AB45:AD45"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="AB48:AD48"/>
     <mergeCell ref="Q85:R85"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="AB60:AD60"/>
@@ -33057,35 +33246,17 @@
     <mergeCell ref="J59:M59"/>
     <mergeCell ref="AB46:AD46"/>
     <mergeCell ref="AB50:AD50"/>
-    <mergeCell ref="AB51:AD51"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="AB39:AD39"/>
-    <mergeCell ref="AB44:AD44"/>
-    <mergeCell ref="AB45:AD45"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="AB48:AD48"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AB19:AD19"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AB31:AD31"/>
-    <mergeCell ref="AB37:AD37"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="AB36:AD36"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J62:M62"/>
+    <mergeCell ref="J63:M63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/finansiele berekeninge 2015.xlsx
+++ b/finansiele berekeninge 2015.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repo\Umbopo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBED1D57-C842-4A1B-BBC7-688593BBE5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79BC9C2-CA5E-4031-883B-11873B5BBD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="695" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SALARIS" sheetId="22" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="700">
   <si>
     <t>Maandlikse salaris</t>
   </si>
@@ -2054,9 +2054,6 @@
     <t>MOES TEGNIES AL BEGIN HET TOE SY GEBORE WAS</t>
   </si>
   <si>
-    <t>Money transfer (Was 10k, maar 5k terug omdat nie Krugerrand kan koop met SHARES ZERO</t>
-  </si>
-  <si>
     <t>Omu Cash Div @ZAR0,32 p/s</t>
   </si>
   <si>
@@ -2066,9 +2063,6 @@
     <t>ELYSSA - KOS en R2000 se speelgeld</t>
   </si>
   <si>
-    <t>SAV1: 1250 SAV2: 750 INV: 500 texfree: 300</t>
-  </si>
-  <si>
     <t>Whyness</t>
   </si>
   <si>
@@ -2121,6 +2115,36 @@
   </si>
   <si>
     <t>POSITIVE MEANS GAIN</t>
+  </si>
+  <si>
+    <t>BUY 20 IMP @ 70,39 - ORDER# 9</t>
+  </si>
+  <si>
+    <t>Impala Platinum</t>
+  </si>
+  <si>
+    <t>Aftreeaftrekking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAV1: 1250 SAV2: 750 INV: 500 </t>
+  </si>
+  <si>
+    <t>taxfree: 300</t>
+  </si>
+  <si>
+    <t>10x S&amp;p 500</t>
+  </si>
+  <si>
+    <t>Climbed</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>BUY 20 CSP500 (10x S&amp;p500)@ 87.36.</t>
+  </si>
+  <si>
+    <t>Money transfer (Was 10k, maar 5k terug omdat nie Krugerrand kan koop met SHARES ZERO)</t>
   </si>
 </sst>
 </file>
@@ -5192,16 +5216,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5609,10 +5633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D37CFB-3750-4140-B070-A288E4BD3B86}">
-  <dimension ref="B2:AA62"/>
+  <dimension ref="B1:AC65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5621,892 +5645,1045 @@
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" customWidth="1"/>
-    <col min="15" max="15" width="7" customWidth="1"/>
-    <col min="16" max="16" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" customWidth="1"/>
+    <col min="20" max="21" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26">
+    <row r="1" spans="2:28">
+      <c r="D1">
+        <f>AVERAGE(D4:D18)</f>
+        <v>3146.748</v>
+      </c>
+    </row>
+    <row r="2" spans="2:28">
       <c r="B2" s="180" t="s">
         <v>593</v>
       </c>
       <c r="C2" s="180" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="3" spans="2:26">
+      <c r="D2" t="s">
+        <v>696</v>
+      </c>
+      <c r="E2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28">
       <c r="B3" s="180">
         <v>2008</v>
       </c>
       <c r="C3" s="180">
         <v>5000</v>
       </c>
-      <c r="P3" t="s">
+      <c r="D3" s="180"/>
+      <c r="R3" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="4" spans="2:26">
+    <row r="4" spans="2:28">
       <c r="B4">
         <v>2009</v>
       </c>
       <c r="C4" s="42">
         <v>11800</v>
       </c>
-      <c r="P4" t="s">
+      <c r="D4" s="42">
+        <f t="shared" ref="D4:D18" si="0">C4-C3</f>
+        <v>6800</v>
+      </c>
+      <c r="E4">
+        <f>D4/C3*100</f>
+        <v>136</v>
+      </c>
+      <c r="R4" t="s">
         <v>648</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>660</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>649</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>652</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="5" spans="2:26">
+    <row r="5" spans="2:28">
       <c r="B5">
         <v>2010</v>
       </c>
       <c r="C5" s="42">
         <v>12500</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="D5" s="42">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E18" si="1">D5/C4*100</f>
+        <v>5.9322033898305087</v>
+      </c>
+      <c r="S5" t="s">
         <v>650</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>59</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="6" spans="2:26">
+    <row r="6" spans="2:28">
       <c r="B6">
         <v>2011</v>
       </c>
       <c r="C6" s="42">
         <v>15000</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="D6" s="42">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="S6" t="s">
         <v>652</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="7" spans="2:26">
+    <row r="7" spans="2:28">
       <c r="B7">
         <v>2012</v>
       </c>
       <c r="C7" s="42">
         <v>18000</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="D7" s="42">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="S7" t="s">
         <v>652</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="8" spans="2:26">
+    <row r="8" spans="2:28">
       <c r="B8">
         <v>2013</v>
       </c>
       <c r="C8" s="42">
         <v>19000</v>
       </c>
-      <c r="R8" t="s">
+      <c r="D8" s="42">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="T8" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="9" spans="2:26">
+    <row r="9" spans="2:28">
       <c r="B9">
         <v>2014</v>
       </c>
       <c r="C9" s="42">
         <v>21000</v>
       </c>
-      <c r="R9" t="s">
+      <c r="D9" s="42">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>10.526315789473683</v>
+      </c>
+      <c r="T9" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="10" spans="2:26">
+    <row r="10" spans="2:28">
       <c r="B10">
         <v>2015</v>
       </c>
       <c r="C10">
         <v>22802.21</v>
       </c>
-      <c r="R10" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26">
+      <c r="D10" s="42">
+        <f t="shared" si="0"/>
+        <v>1802.2099999999991</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>8.5819523809523766</v>
+      </c>
+      <c r="T10" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28">
       <c r="B11">
         <v>2016</v>
       </c>
       <c r="C11">
         <v>24571.22</v>
       </c>
-      <c r="R11" t="s">
+      <c r="D11" s="42">
+        <f t="shared" si="0"/>
+        <v>1769.010000000002</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>7.758063801710458</v>
+      </c>
+      <c r="T11" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="12" spans="2:26">
+    <row r="12" spans="2:28">
       <c r="B12">
         <v>2017</v>
       </c>
       <c r="C12">
         <v>31519.33</v>
       </c>
-      <c r="R12" t="s">
+      <c r="D12" s="42">
+        <f t="shared" si="0"/>
+        <v>6948.1100000000006</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>28.277431889828836</v>
+      </c>
+      <c r="T12" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="13" spans="2:26">
+    <row r="13" spans="2:28">
       <c r="B13">
         <v>2018</v>
       </c>
       <c r="C13">
         <v>36617.354169999999</v>
       </c>
-      <c r="R13" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="14" spans="2:26">
+      <c r="D13" s="42">
+        <f t="shared" si="0"/>
+        <v>5098.024169999997</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>16.174278355536099</v>
+      </c>
+      <c r="T13" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28">
       <c r="B14">
         <v>2019</v>
       </c>
       <c r="C14">
         <v>42465.77</v>
       </c>
-      <c r="R14" t="s">
+      <c r="D14" s="42">
+        <f t="shared" si="0"/>
+        <v>5848.4158299999981</v>
+      </c>
+      <c r="E14">
+        <f>D14/C13*100</f>
+        <v>15.971705117874164</v>
+      </c>
+      <c r="T14" t="s">
         <v>661</v>
       </c>
-      <c r="W14" t="s">
+      <c r="Y14" t="s">
         <v>32</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Z14" t="s">
         <v>636</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="AA14" t="s">
         <v>34</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AB14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:26">
+    <row r="15" spans="2:28">
       <c r="B15">
         <v>2020</v>
       </c>
       <c r="C15">
         <v>43178.75</v>
       </c>
-      <c r="R15" t="s">
-        <v>677</v>
-      </c>
-      <c r="W15">
+      <c r="D15" s="42">
+        <f t="shared" si="0"/>
+        <v>712.9800000000032</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1.6789522478928398</v>
+      </c>
+      <c r="T15" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y15">
         <v>1400</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>1650</v>
       </c>
-      <c r="Y15">
+      <c r="AA15">
         <v>1900</v>
       </c>
-      <c r="Z15">
+      <c r="AB15">
         <v>2150</v>
       </c>
     </row>
-    <row r="16" spans="2:26">
+    <row r="16" spans="2:28">
       <c r="B16">
         <v>2021</v>
       </c>
       <c r="C16">
         <v>45893.11</v>
       </c>
-    </row>
-    <row r="17" spans="2:27">
+      <c r="D16" s="42">
+        <f t="shared" si="0"/>
+        <v>2714.3600000000006</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>6.2863329762904225</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29">
       <c r="B17">
         <v>2022</v>
       </c>
       <c r="C17">
         <v>48929.4</v>
       </c>
-    </row>
-    <row r="18" spans="2:27">
+      <c r="D17" s="42">
+        <f t="shared" si="0"/>
+        <v>3036.2900000000009</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>6.6160040145459762</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29">
       <c r="B18">
         <v>2023</v>
       </c>
       <c r="C18" s="24">
         <v>52201.22</v>
       </c>
-    </row>
-    <row r="19" spans="2:27">
+      <c r="D18" s="24">
+        <f t="shared" si="0"/>
+        <v>3271.8199999999997</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>6.6868181502327833</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29">
       <c r="B19">
         <v>2024</v>
       </c>
       <c r="C19" s="42">
         <v>55855.31</v>
       </c>
-    </row>
-    <row r="20" spans="2:27">
+      <c r="D19" s="42"/>
+    </row>
+    <row r="20" spans="2:29">
       <c r="B20">
         <v>2025</v>
       </c>
       <c r="C20" s="42">
         <v>59765.18</v>
       </c>
-    </row>
-    <row r="21" spans="2:27">
+      <c r="D20" s="42"/>
+    </row>
+    <row r="21" spans="2:29">
       <c r="B21">
         <v>2026</v>
       </c>
       <c r="C21" s="42">
         <v>63948.74</v>
       </c>
-    </row>
-    <row r="22" spans="2:27">
+      <c r="D21" s="42"/>
+    </row>
+    <row r="22" spans="2:29">
       <c r="B22">
         <v>2027</v>
       </c>
       <c r="C22" s="42">
         <v>68425.149999999994</v>
       </c>
-      <c r="W22" s="26" t="s">
+      <c r="D22" s="42"/>
+      <c r="Y22" s="26" t="s">
         <v>621</v>
       </c>
-      <c r="X22" s="255" t="s">
+      <c r="Z22" s="255" t="s">
         <v>667</v>
       </c>
-      <c r="Y22" s="255"/>
-      <c r="Z22" s="255"/>
-      <c r="AA22" t="s">
+      <c r="AA22" s="255"/>
+      <c r="AB22" s="255"/>
+      <c r="AC22" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="23" spans="2:27">
+    <row r="23" spans="2:29">
       <c r="B23">
         <v>2028</v>
       </c>
       <c r="C23" s="42">
         <v>73214.91</v>
       </c>
-      <c r="W23" t="s">
+      <c r="D23" s="42"/>
+      <c r="Y23" t="s">
         <v>410</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Z23" t="s">
         <v>618</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="AA23" t="s">
         <v>619</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AB23" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="24" spans="2:27" ht="23.25">
-      <c r="B24" s="253" t="s">
+    <row r="24" spans="2:29">
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="N24" s="254" t="s">
+        <v>606</v>
+      </c>
+      <c r="O24" s="254"/>
+      <c r="P24" s="254"/>
+      <c r="T24" s="243" t="s">
+        <v>613</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>50</v>
+      </c>
+      <c r="Z24">
+        <v>200</v>
+      </c>
+      <c r="AA24">
+        <f>Z24+(Y24*12)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" ht="23.25">
+      <c r="B25" s="253" t="s">
         <v>602</v>
       </c>
-      <c r="C24" s="253"/>
-      <c r="D24" s="253"/>
-      <c r="E24" s="253"/>
-      <c r="F24" s="253"/>
-      <c r="M24" s="254" t="s">
-        <v>606</v>
-      </c>
-      <c r="N24" s="254"/>
-      <c r="O24" s="254"/>
-      <c r="S24" s="243" t="s">
-        <v>613</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>50</v>
-      </c>
-      <c r="Y24">
-        <v>200</v>
-      </c>
-      <c r="Z24">
-        <f>Y24+(X24*12)</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="25" spans="2:27">
-      <c r="C25" s="180" t="s">
+      <c r="C25" s="253"/>
+      <c r="D25" s="253"/>
+      <c r="E25" s="253"/>
+      <c r="F25" s="253"/>
+      <c r="N25">
+        <v>52201.22</v>
+      </c>
+      <c r="O25" s="180" t="s">
+        <v>236</v>
+      </c>
+      <c r="U25" t="s">
+        <v>615</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>100</v>
+      </c>
+      <c r="Z25">
+        <v>5000</v>
+      </c>
+      <c r="AA25">
+        <f>Z25+(Y25*12)</f>
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29">
+      <c r="C26" s="180" t="s">
         <v>600</v>
       </c>
-      <c r="D25" s="180" t="s">
+      <c r="D26" s="180" t="s">
         <v>597</v>
       </c>
-      <c r="E25" s="180" t="s">
+      <c r="E26" s="180" t="s">
         <v>603</v>
       </c>
-      <c r="M25">
-        <v>52201.22</v>
-      </c>
-      <c r="N25" s="180" t="s">
-        <v>236</v>
-      </c>
-      <c r="T25" t="s">
-        <v>615</v>
-      </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
-      <c r="X25">
-        <v>100</v>
-      </c>
-      <c r="Y25">
-        <v>5000</v>
-      </c>
-      <c r="Z25">
-        <f>Y25+(X25*12)</f>
-        <v>6200</v>
-      </c>
-    </row>
-    <row r="26" spans="2:27">
-      <c r="D26" t="s">
+      <c r="N26">
+        <f>N25*0.3</f>
+        <v>15660.366</v>
+      </c>
+      <c r="O26" t="s">
+        <v>607</v>
+      </c>
+      <c r="T26">
+        <v>20332.669999999998</v>
+      </c>
+      <c r="U26">
+        <f>T26/N25*100</f>
+        <v>38.950564756915639</v>
+      </c>
+      <c r="X26">
+        <v>2</v>
+      </c>
+      <c r="Y26">
+        <v>350</v>
+      </c>
+      <c r="Z26">
+        <v>1000</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" ref="AA26:AA31" si="2">AA25+Z26++(Y26*12)</f>
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29">
+      <c r="D27" t="s">
         <v>596</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>598</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>599</v>
       </c>
-      <c r="M26">
-        <f>M25*0.3</f>
-        <v>15660.366</v>
-      </c>
-      <c r="N26" t="s">
-        <v>607</v>
-      </c>
-      <c r="S26">
-        <v>20332.669999999998</v>
-      </c>
-      <c r="T26">
-        <f>S26/M25*100</f>
-        <v>38.950564756915639</v>
-      </c>
-      <c r="W26">
-        <v>2</v>
-      </c>
-      <c r="X26">
-        <v>350</v>
-      </c>
-      <c r="Y26">
+      <c r="N27">
+        <f>N25*0.15</f>
+        <v>7830.183</v>
+      </c>
+      <c r="O27" t="s">
+        <v>608</v>
+      </c>
+      <c r="T27">
+        <v>7000</v>
+      </c>
+      <c r="U27">
+        <f>T27/N25*100</f>
+        <v>13.409648280250922</v>
+      </c>
+      <c r="X27">
+        <v>3</v>
+      </c>
+      <c r="Y27">
+        <v>500</v>
+      </c>
+      <c r="Z27">
         <v>1000</v>
       </c>
-      <c r="Z26">
-        <f t="shared" ref="Z26:Z31" si="0">Z25+Y26++(X26*12)</f>
-        <v>11400</v>
-      </c>
-    </row>
-    <row r="27" spans="2:27">
-      <c r="B27" s="242">
+      <c r="AA27">
+        <f t="shared" si="2"/>
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29">
+      <c r="B28" s="242">
         <v>44835</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>75000</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>1000</v>
       </c>
-      <c r="E27">
-        <f t="shared" ref="E27:E32" si="1">C27/D27</f>
+      <c r="E28">
+        <f t="shared" ref="E28:E33" si="3">C28/D28</f>
         <v>75</v>
       </c>
-      <c r="F27">
-        <f t="shared" ref="F27:F32" si="2">ROUNDUP(E27/12,1)</f>
+      <c r="F28">
+        <f t="shared" ref="F28:F33" si="4">ROUNDUP(E28/12,1)</f>
         <v>6.3</v>
       </c>
-      <c r="M27">
-        <f>M25*0.15</f>
+      <c r="N28">
+        <f>N25*0.15</f>
         <v>7830.183</v>
       </c>
-      <c r="N27" t="s">
-        <v>608</v>
-      </c>
-      <c r="S27">
-        <v>7000</v>
-      </c>
-      <c r="T27">
-        <f>S27/M25*100</f>
-        <v>13.409648280250922</v>
-      </c>
-      <c r="W27">
-        <v>3</v>
-      </c>
-      <c r="X27">
-        <v>500</v>
-      </c>
-      <c r="Y27">
-        <v>1000</v>
-      </c>
-      <c r="Z27">
-        <f t="shared" si="0"/>
-        <v>18400</v>
-      </c>
-    </row>
-    <row r="28" spans="2:27">
-      <c r="B28" s="242">
-        <v>44866</v>
-      </c>
-      <c r="C28">
-        <v>74000</v>
-      </c>
-      <c r="D28">
-        <v>3500</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>21.142857142857142</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="2"/>
-        <v>1.8</v>
-      </c>
-      <c r="M28">
-        <f>M25*0.15</f>
-        <v>7830.183</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>609</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <f>2800</f>
         <v>2800</v>
       </c>
-      <c r="T28">
-        <f>S28/M25*100</f>
+      <c r="U28">
+        <f>T28/N25*100</f>
         <v>5.3638593121003684</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>4</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>350</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>1000</v>
       </c>
-      <c r="Z28">
-        <f t="shared" si="0"/>
+      <c r="AA28">
+        <f t="shared" si="2"/>
         <v>23600</v>
       </c>
     </row>
-    <row r="29" spans="2:27">
+    <row r="29" spans="2:29">
       <c r="B29" s="242">
-        <v>44896</v>
-      </c>
-      <c r="C29" s="244">
-        <v>66000</v>
+        <v>44866</v>
+      </c>
+      <c r="C29">
+        <v>74000</v>
       </c>
       <c r="D29">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f t="shared" si="3"/>
+        <v>21.142857142857142</v>
       </c>
       <c r="F29">
-        <f t="shared" si="2"/>
-        <v>1.9000000000000001</v>
+        <f t="shared" si="4"/>
+        <v>1.8</v>
       </c>
       <c r="G29" s="244" t="s">
         <v>623</v>
       </c>
-      <c r="M29">
-        <f>M25*0.2</f>
+      <c r="N29">
+        <f>N25*0.2</f>
         <v>10440.244000000001</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>610</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <f>754.37+312.8+2139.86</f>
         <v>3207.03</v>
       </c>
-      <c r="T29">
-        <f>S29/M25*100</f>
+      <c r="U29">
+        <f>T29/N25*100</f>
         <v>6.1435920463161589</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>5</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>350</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>1000</v>
       </c>
-      <c r="Z29">
-        <f t="shared" si="0"/>
+      <c r="AA29">
+        <f t="shared" si="2"/>
         <v>28800</v>
       </c>
     </row>
-    <row r="30" spans="2:27">
+    <row r="30" spans="2:29">
       <c r="B30" s="242">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="C30" s="244">
-        <v>71000</v>
+        <v>66000</v>
       </c>
       <c r="D30">
         <v>3000</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
-        <v>23.666666666666668</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
       </c>
       <c r="F30">
+        <f t="shared" si="4"/>
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="N30">
+        <f>N25*0.1</f>
+        <v>5220.1220000000003</v>
+      </c>
+      <c r="O30" t="s">
+        <v>611</v>
+      </c>
+      <c r="T30">
+        <v>3500</v>
+      </c>
+      <c r="U30">
+        <f>T30/N25*100</f>
+        <v>6.7048241401254609</v>
+      </c>
+      <c r="X30">
+        <v>6</v>
+      </c>
+      <c r="Y30">
+        <v>350</v>
+      </c>
+      <c r="Z30">
+        <v>1000</v>
+      </c>
+      <c r="AA30">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="M30">
-        <f>M25*0.1</f>
-        <v>5220.1220000000003</v>
-      </c>
-      <c r="N30" t="s">
-        <v>611</v>
-      </c>
-      <c r="S30">
-        <v>3500</v>
-      </c>
-      <c r="T30">
-        <f>S30/M25*100</f>
-        <v>6.7048241401254609</v>
-      </c>
-      <c r="W30">
-        <v>6</v>
-      </c>
-      <c r="X30">
-        <v>350</v>
-      </c>
-      <c r="Y30">
-        <v>1000</v>
-      </c>
-      <c r="Z30">
-        <f t="shared" si="0"/>
         <v>34000</v>
       </c>
     </row>
-    <row r="31" spans="2:27">
+    <row r="31" spans="2:29">
       <c r="B31" s="242">
-        <v>44958</v>
-      </c>
-      <c r="C31">
-        <v>74000</v>
+        <v>44927</v>
+      </c>
+      <c r="C31" s="244">
+        <v>71000</v>
       </c>
       <c r="D31">
         <v>3000</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
-        <v>24.666666666666668</v>
+        <f t="shared" si="3"/>
+        <v>23.666666666666668</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
-        <v>2.1</v>
-      </c>
-      <c r="M31">
-        <f>M25*0.05</f>
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <f>N25*0.05</f>
         <v>2610.0610000000001</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>612</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <f>727+159+1000</f>
         <v>1886</v>
       </c>
-      <c r="T31">
-        <f>S31/M25*100</f>
+      <c r="U31">
+        <f>T31/N25*100</f>
         <v>3.6129423795076052</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>7</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>350</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>1000</v>
       </c>
-      <c r="Z31">
-        <f t="shared" si="0"/>
+      <c r="AA31">
+        <f t="shared" si="2"/>
         <v>39200</v>
       </c>
     </row>
-    <row r="32" spans="2:27">
+    <row r="32" spans="2:29">
       <c r="B32" s="242">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>74000</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>24.666666666666668</v>
       </c>
       <c r="F32">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2.1</v>
       </c>
       <c r="G32" t="s">
         <v>627</v>
       </c>
-      <c r="M32">
-        <f>M25*0.05</f>
+      <c r="N32">
+        <f>N25*0.05</f>
         <v>2610.0610000000001</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>614</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <f>4000+495+3080</f>
         <v>7575</v>
       </c>
-      <c r="T32">
-        <f>S32/M25*100</f>
+      <c r="U32">
+        <f>T32/N25*100</f>
         <v>14.511155103271534</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>8</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>350</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>1000</v>
       </c>
-      <c r="Z32">
-        <f t="shared" ref="Z32:Z33" si="3">Z31+Y32++(X32*12)</f>
+      <c r="AA32">
+        <f t="shared" ref="AA32:AA33" si="5">AA31+Z32++(Y32*12)</f>
         <v>44400</v>
       </c>
     </row>
-    <row r="33" spans="2:26">
+    <row r="33" spans="2:27">
+      <c r="B33" s="242">
+        <v>44986</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="G33" s="126">
         <v>74000</v>
       </c>
-      <c r="S33" s="180" t="s">
+      <c r="T33" s="180" t="s">
         <v>159</v>
       </c>
-      <c r="T33">
-        <f>M25-SUM(S26:S32)</f>
+      <c r="U33">
+        <f>N25-SUM(T26:T32)</f>
         <v>5900.5200000000041</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>9</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>350</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>1000</v>
       </c>
-      <c r="Z33">
-        <f t="shared" si="3"/>
+      <c r="AA33">
+        <f t="shared" si="5"/>
         <v>49600</v>
       </c>
     </row>
-    <row r="34" spans="2:26">
-      <c r="W34">
+    <row r="34" spans="2:27">
+      <c r="X34">
         <v>10</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>350</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>1000</v>
       </c>
-      <c r="Z34">
-        <f t="shared" ref="Z34" si="4">Z33+Y34++(X34*12)</f>
+      <c r="AA34">
+        <f t="shared" ref="AA34" si="6">AA33+Z34++(Y34*12)</f>
         <v>54800</v>
       </c>
     </row>
-    <row r="35" spans="2:26">
-      <c r="F35">
+    <row r="36" spans="2:27">
+      <c r="F36">
         <f>48929.4*1.07</f>
         <v>52354.458000000006</v>
       </c>
     </row>
-    <row r="37" spans="2:26">
-      <c r="C37" s="169" t="s">
+    <row r="38" spans="2:27">
+      <c r="C38" s="169" t="s">
         <v>643</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="38" spans="2:26">
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
+    <row r="39" spans="2:27">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="39" spans="2:26">
-      <c r="C39">
+    <row r="40" spans="2:27">
+      <c r="C40">
         <v>14</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="40" spans="2:26">
-      <c r="C40">
+    <row r="41" spans="2:27">
+      <c r="C41">
         <v>85</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="42" spans="2:26">
-      <c r="D42" t="s">
-        <v>678</v>
-      </c>
+    <row r="42" spans="2:27">
       <c r="G42" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="43" spans="2:26">
-      <c r="D43">
-        <f>SUM(C46:C1048576)</f>
+        <v>677</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27">
+      <c r="D43" t="s">
+        <v>676</v>
+      </c>
+      <c r="G43">
+        <f>SUM(E47:E1048576)</f>
+        <v>7609.3099999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27">
+      <c r="D44">
+        <f>SUM(C47:C1048576)</f>
         <v>9606.69</v>
       </c>
-      <c r="G43">
-        <f>SUM(E46:E1048576)</f>
-        <v>4425.3899999999994</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26">
-      <c r="B44" t="s">
+    </row>
+    <row r="45" spans="2:27">
+      <c r="B45" t="s">
         <v>637</v>
       </c>
-      <c r="D44">
-        <f>SUM(C46:C1000)</f>
+      <c r="D45">
+        <f>SUM(C47:C1002)</f>
         <v>9606.69</v>
       </c>
     </row>
-    <row r="45" spans="2:26">
-      <c r="C45" t="s">
+    <row r="46" spans="2:27" ht="15.75" thickBot="1">
+      <c r="C46" t="s">
         <v>644</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="46" spans="2:26" ht="15.75" thickBot="1">
-      <c r="B46" t="s">
-        <v>638</v>
-      </c>
-      <c r="C46">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" ht="16.5" thickTop="1" thickBot="1">
+    <row r="47" spans="2:27" ht="16.5" thickTop="1" thickBot="1">
       <c r="B47" t="s">
         <v>638</v>
       </c>
       <c r="C47">
+        <v>500</v>
+      </c>
+      <c r="H47" s="118" t="s">
+        <v>678</v>
+      </c>
+      <c r="I47" s="118" t="s">
+        <v>679</v>
+      </c>
+      <c r="J47" s="118" t="s">
+        <v>691</v>
+      </c>
+      <c r="M47" s="118" t="s">
+        <v>680</v>
+      </c>
+      <c r="N47" s="118" t="s">
+        <v>681</v>
+      </c>
+      <c r="O47" s="118" t="s">
+        <v>682</v>
+      </c>
+      <c r="P47" s="118" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q47" s="118" t="s">
+        <v>685</v>
+      </c>
+      <c r="R47" s="118" t="s">
+        <v>684</v>
+      </c>
+      <c r="S47" s="118" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B48" t="s">
+        <v>638</v>
+      </c>
+      <c r="C48">
         <v>1500</v>
       </c>
-      <c r="H47" s="118" t="s">
-        <v>680</v>
-      </c>
-      <c r="I47" s="118" t="s">
-        <v>681</v>
-      </c>
-      <c r="J47" s="118"/>
-      <c r="K47" s="118" t="s">
-        <v>682</v>
-      </c>
-      <c r="L47" s="118" t="s">
-        <v>683</v>
-      </c>
-      <c r="M47" s="118" t="s">
-        <v>684</v>
-      </c>
-      <c r="N47" s="118" t="s">
+      <c r="G48" s="118" t="s">
         <v>687</v>
       </c>
-      <c r="O47" s="118" t="s">
-        <v>686</v>
-      </c>
-      <c r="P47" s="118" t="s">
+      <c r="H48">
+        <f>E49+E60</f>
+        <v>964.79</v>
+      </c>
+      <c r="I48">
+        <f>E51+E59</f>
+        <v>2109.56</v>
+      </c>
+      <c r="J48">
+        <v>1423.51</v>
+      </c>
+      <c r="K48">
+        <f>SUM(H48:J48)</f>
+        <v>4497.8599999999997</v>
+      </c>
+      <c r="L48">
+        <f>SUM(M48:P48)</f>
+        <v>3101.79</v>
+      </c>
+      <c r="M48">
+        <f>E52</f>
+        <v>431.52000000000004</v>
+      </c>
+      <c r="N48">
+        <f>E56</f>
+        <v>534.66</v>
+      </c>
+      <c r="O48">
+        <f>E53</f>
+        <v>375.20000000000005</v>
+      </c>
+      <c r="P48">
+        <v>1760.41</v>
+      </c>
+      <c r="S48" s="42" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="48" spans="2:26" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B48" s="250">
+    <row r="49" spans="2:20" ht="15.75" thickTop="1">
+      <c r="B49" s="250">
         <v>45050</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D49" s="16" t="s">
         <v>639</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <f>40*11.56</f>
         <v>462.40000000000003</v>
       </c>
-      <c r="G48" s="118" t="s">
-        <v>689</v>
-      </c>
-      <c r="H48">
-        <f>E48+E59</f>
-        <v>964.79</v>
-      </c>
-      <c r="I48">
-        <f>E50+E58</f>
-        <v>2109.56</v>
-      </c>
-      <c r="K48">
-        <f>E51</f>
-        <v>431.52000000000004</v>
-      </c>
-      <c r="L48">
-        <f>E55</f>
-        <v>534.66</v>
-      </c>
-      <c r="M48">
-        <f>E52</f>
-        <v>375.20000000000005</v>
-      </c>
-      <c r="P48" s="42" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="49" spans="2:17" ht="15.75" thickTop="1">
-      <c r="B49" s="250">
-        <v>45050</v>
-      </c>
-      <c r="C49">
-        <v>500</v>
-      </c>
       <c r="G49" s="250">
         <v>45223</v>
       </c>
@@ -6516,32 +6693,39 @@
       <c r="I49">
         <v>2008</v>
       </c>
+      <c r="J49">
+        <v>1423.51</v>
+      </c>
       <c r="K49">
+        <f>SUM(H49:J49)</f>
+        <v>4375.51</v>
+      </c>
+      <c r="L49">
+        <f>SUM(M49:P49)</f>
+        <v>1319</v>
+      </c>
+      <c r="M49">
         <v>459</v>
       </c>
-      <c r="L49">
+      <c r="N49">
         <v>501</v>
       </c>
-      <c r="M49">
+      <c r="O49">
         <v>359</v>
       </c>
-      <c r="P49" s="24" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="50" spans="2:17">
+      <c r="S49" s="24" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20">
       <c r="B50" s="250">
-        <v>45054</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>640</v>
-      </c>
-      <c r="E50">
-        <f>10*103.4</f>
-        <v>1034</v>
+        <v>45050</v>
+      </c>
+      <c r="C50">
+        <v>500</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H50">
         <f>H48-H49</f>
@@ -6551,167 +6735,289 @@
         <f>I48-I49</f>
         <v>101.55999999999995</v>
       </c>
-      <c r="K50">
-        <f>K48-K49</f>
-        <v>-27.479999999999961</v>
-      </c>
-      <c r="L50">
-        <f>L48-L49</f>
-        <v>33.659999999999968</v>
+      <c r="J50">
+        <f>J48-J49</f>
+        <v>0</v>
       </c>
       <c r="M50">
         <f>M48-M49</f>
+        <v>-27.479999999999961</v>
+      </c>
+      <c r="N50">
+        <f>N48-N49</f>
+        <v>33.659999999999968</v>
+      </c>
+      <c r="O50">
+        <f>O48-O49</f>
         <v>16.200000000000045</v>
       </c>
-      <c r="N50">
-        <f>SUMIF(H50:M50,"&lt;0")</f>
-        <v>-27.479999999999961</v>
-      </c>
-      <c r="O50">
-        <f>SUMIF(I50:N50,"&gt;0")</f>
-        <v>151.41999999999996</v>
-      </c>
-      <c r="P50">
-        <f>(O50+N50)*-1</f>
-        <v>-123.94</v>
-      </c>
-      <c r="Q50" s="250">
+      <c r="Q50">
+        <f>SUMIF(H50:O50,"&lt;0")*-1</f>
+        <v>27.479999999999961</v>
+      </c>
+      <c r="R50">
+        <f>SUMIF(I50:Q50,"&gt;0")</f>
+        <v>178.89999999999992</v>
+      </c>
+      <c r="S50">
+        <f>(Q50-R50)</f>
+        <v>-151.41999999999996</v>
+      </c>
+      <c r="T50" s="250">
         <v>45223</v>
       </c>
     </row>
-    <row r="51" spans="2:17">
+    <row r="51" spans="2:20">
       <c r="B51" s="250">
+        <v>45054</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>640</v>
+      </c>
+      <c r="E51">
+        <f>10*103.4</f>
+        <v>1034</v>
+      </c>
+      <c r="S51" s="42" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20">
+      <c r="B52" s="250">
         <v>45055</v>
       </c>
-      <c r="D51" s="252" t="s">
+      <c r="D52" s="252" t="s">
         <v>641</v>
       </c>
-      <c r="E51">
+      <c r="E52">
         <f>29*14.88</f>
         <v>431.52000000000004</v>
       </c>
-    </row>
-    <row r="52" spans="2:17">
-      <c r="B52" s="250">
+      <c r="G52" s="250">
+        <v>45255</v>
+      </c>
+      <c r="H52">
+        <v>972</v>
+      </c>
+      <c r="I52">
+        <v>2116</v>
+      </c>
+      <c r="J52">
+        <v>1621</v>
+      </c>
+      <c r="K52">
+        <f>SUM(H52:J52)</f>
+        <v>4709</v>
+      </c>
+      <c r="L52">
+        <f>SUM(M52:P52)</f>
+        <v>3205</v>
+      </c>
+      <c r="M52">
+        <v>504</v>
+      </c>
+      <c r="N52">
+        <v>561</v>
+      </c>
+      <c r="O52">
+        <v>393</v>
+      </c>
+      <c r="P52">
+        <v>1747</v>
+      </c>
+      <c r="S52" s="24" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20">
+      <c r="B53" s="250">
         <v>45085</v>
       </c>
-      <c r="D52" s="252" t="s">
+      <c r="D53" s="252" t="s">
         <v>642</v>
       </c>
-      <c r="E52">
+      <c r="E53">
         <f>40*9.38</f>
         <v>375.20000000000005</v>
       </c>
-    </row>
-    <row r="53" spans="2:17">
-      <c r="B53" s="250">
+      <c r="G53" s="20" t="s">
+        <v>683</v>
+      </c>
+      <c r="H53">
+        <f>H48-H52</f>
+        <v>-7.2100000000000364</v>
+      </c>
+      <c r="I53">
+        <f>I48-I52</f>
+        <v>-6.4400000000000546</v>
+      </c>
+      <c r="J53">
+        <f>J48-J52</f>
+        <v>-197.49</v>
+      </c>
+      <c r="M53">
+        <f>M48-M52</f>
+        <v>-72.479999999999961</v>
+      </c>
+      <c r="N53">
+        <f>N48-N52</f>
+        <v>-26.340000000000032</v>
+      </c>
+      <c r="O53">
+        <f>O48-O52</f>
+        <v>-17.799999999999955</v>
+      </c>
+      <c r="P53">
+        <f>P48-P52</f>
+        <v>13.410000000000082</v>
+      </c>
+      <c r="Q53">
+        <f>SUMIF(H53:O53,"&lt;0")</f>
+        <v>-327.76000000000005</v>
+      </c>
+      <c r="R53">
+        <f>SUMIF(I53:Q53,"&gt;0")</f>
+        <v>13.410000000000082</v>
+      </c>
+      <c r="S53">
+        <f>(R53+Q53)*-1</f>
+        <v>314.34999999999997</v>
+      </c>
+      <c r="T53" s="250">
+        <v>45257</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20">
+      <c r="B54" s="250">
         <v>45110</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="2:17">
-      <c r="B54" s="250">
-        <v>45113</v>
-      </c>
-      <c r="D54" s="44" t="s">
-        <v>662</v>
-      </c>
-      <c r="E54">
-        <v>9.66</v>
-      </c>
-    </row>
-    <row r="55" spans="2:17">
+    <row r="55" spans="2:20">
       <c r="B55" s="250">
         <v>45113</v>
       </c>
-      <c r="C55">
+      <c r="D55" s="44" t="s">
+        <v>662</v>
+      </c>
+      <c r="E55">
+        <v>9.66</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20">
+      <c r="B56" s="250">
+        <v>45113</v>
+      </c>
+      <c r="C56">
         <v>525</v>
       </c>
-      <c r="D55" s="252" t="s">
+      <c r="D56" s="252" t="s">
         <v>663</v>
       </c>
-      <c r="E55">
+      <c r="E56">
         <v>534.66</v>
       </c>
     </row>
-    <row r="56" spans="2:17">
-      <c r="B56" s="250">
+    <row r="57" spans="2:20">
+      <c r="B57" s="250">
         <v>45191</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <v>56.09</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D57" s="16" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="57" spans="2:17" ht="39">
-      <c r="B57" s="250">
-        <v>45215</v>
-      </c>
-      <c r="C57">
-        <v>5000</v>
-      </c>
-      <c r="D57" s="251" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="58" spans="2:17">
+    <row r="58" spans="2:20" ht="39">
       <c r="B58" s="250">
         <v>45215</v>
       </c>
-      <c r="D58" s="16" t="s">
-        <v>665</v>
-      </c>
-      <c r="E58">
-        <v>1075.56</v>
-      </c>
-    </row>
-    <row r="59" spans="2:17">
+      <c r="C58">
+        <v>5000</v>
+      </c>
+      <c r="D58" s="251" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20">
       <c r="B59" s="250">
         <v>45215</v>
       </c>
       <c r="D59" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="E59">
+        <v>1075.56</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20">
+      <c r="B60" s="250">
+        <v>45215</v>
+      </c>
+      <c r="D60" s="16" t="s">
         <v>666</v>
       </c>
-      <c r="E59">
+      <c r="E60">
         <v>502.39</v>
       </c>
     </row>
-    <row r="60" spans="2:17">
-      <c r="B60" s="250">
+    <row r="61" spans="2:20">
+      <c r="B61" s="250">
         <v>45222</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <v>25.6</v>
       </c>
-      <c r="D60" s="16" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="61" spans="2:17">
-      <c r="B61" s="250">
+      <c r="D61" s="16" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20">
+      <c r="B62" s="250">
         <v>45223</v>
-      </c>
-      <c r="C61">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="62" spans="2:17">
-      <c r="B62" s="250">
-        <v>45255</v>
       </c>
       <c r="C62">
         <v>500</v>
       </c>
     </row>
+    <row r="63" spans="2:20">
+      <c r="B63" s="250">
+        <v>45225</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="E63">
+        <v>1423.51</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20">
+      <c r="B64" s="250">
+        <v>45255</v>
+      </c>
+      <c r="C64">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="250">
+        <v>45257</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>698</v>
+      </c>
+      <c r="E65">
+        <v>1760.41</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Z22:AB22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -19855,8 +20161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33331D36-B2E1-4FAB-B650-B9E2B082374C}">
   <dimension ref="A1:AF111"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I4" sqref="H4:I4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19961,7 +20267,7 @@
       </c>
       <c r="H2" s="180">
         <f>C33+C34</f>
-        <v>25799.699999999997</v>
+        <v>26232.739999999998</v>
       </c>
       <c r="I2" s="180"/>
       <c r="J2" s="180"/>
@@ -20021,7 +20327,9 @@
       <c r="B3" s="47">
         <v>52354.46</v>
       </c>
-      <c r="C3" s="191"/>
+      <c r="C3" s="191">
+        <v>300</v>
+      </c>
       <c r="D3" s="191">
         <v>2891.88</v>
       </c>
@@ -20029,7 +20337,7 @@
         <v>2891.88</v>
       </c>
       <c r="F3" s="191" t="s">
-        <v>278</v>
+        <v>692</v>
       </c>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
@@ -20130,7 +20438,7 @@
     </row>
     <row r="5" spans="1:31" ht="16.5" thickTop="1" thickBot="1">
       <c r="C5" s="191">
-        <v>754.37</v>
+        <v>887.41</v>
       </c>
       <c r="D5" s="191">
         <v>754.37</v>
@@ -20203,6 +20511,10 @@
       <c r="F7" s="191" t="s">
         <v>138</v>
       </c>
+      <c r="H7">
+        <f>A2-48929.4</f>
+        <v>3271.8199999999997</v>
+      </c>
       <c r="K7" s="213"/>
       <c r="L7" s="213"/>
       <c r="M7" s="213"/>
@@ -20290,7 +20602,7 @@
         <v>598</v>
       </c>
       <c r="F10" s="191" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K10" s="213"/>
       <c r="L10" s="213"/>
@@ -20410,7 +20722,7 @@
       </c>
       <c r="E14" s="134"/>
       <c r="F14" s="134" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G14" s="47"/>
       <c r="K14" s="213"/>
@@ -20876,7 +21188,7 @@
         <v>461</v>
       </c>
       <c r="C30" s="206">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="D30" s="206">
         <v>1500</v>
@@ -20885,7 +21197,7 @@
         <v>1500</v>
       </c>
       <c r="F30" t="s">
-        <v>673</v>
+        <v>693</v>
       </c>
       <c r="K30" s="24"/>
       <c r="L30" s="208"/>
@@ -20953,7 +21265,9 @@
         <f>SUM(E19:E25)</f>
         <v>13076</v>
       </c>
-      <c r="F32" s="47"/>
+      <c r="F32" t="s">
+        <v>694</v>
+      </c>
       <c r="H32" s="180" t="s">
         <v>582</v>
       </c>
@@ -20982,7 +21296,7 @@
       </c>
       <c r="C33" s="200">
         <f>SUM(C2:C13)</f>
-        <v>5467.03</v>
+        <v>5900.0700000000006</v>
       </c>
       <c r="D33" s="200">
         <f>SUM(D2:D13)</f>
@@ -20997,7 +21311,7 @@
       </c>
       <c r="H33" s="180">
         <f>C33+C34</f>
-        <v>25799.699999999997</v>
+        <v>26232.739999999998</v>
       </c>
       <c r="I33" s="180"/>
       <c r="J33" s="180"/>
@@ -21090,7 +21404,7 @@
       </c>
       <c r="C36" s="245">
         <f>SUM(C30:C35)</f>
-        <v>48179.7</v>
+        <v>48312.74</v>
       </c>
       <c r="D36" s="245">
         <f>SUM(D30:D35)</f>
@@ -21126,7 +21440,7 @@
       </c>
       <c r="C37" s="154">
         <f>A2-C36</f>
-        <v>4021.5200000000041</v>
+        <v>3888.4800000000032</v>
       </c>
       <c r="D37" s="154">
         <f>A2-D36</f>
@@ -21401,9 +21715,11 @@
     </row>
     <row r="46" spans="1:32" ht="16.5" thickTop="1" thickBot="1">
       <c r="A46" t="s">
-        <v>674</v>
-      </c>
-      <c r="B46" s="47"/>
+        <v>672</v>
+      </c>
+      <c r="B46" s="47">
+        <v>27761040927</v>
+      </c>
       <c r="C46" s="47">
         <v>4</v>
       </c>
@@ -21529,7 +21845,10 @@
       </c>
       <c r="D49" s="47"/>
       <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
+      <c r="F49" s="47">
+        <f>270*3</f>
+        <v>810</v>
+      </c>
       <c r="H49" t="s">
         <v>523</v>
       </c>
@@ -22486,7 +22805,7 @@
       </c>
       <c r="V86" s="235">
         <f>C2+E3+C4+C5+C26+C10+C11+C12+C17+C16+C22+C8+C6+C34</f>
-        <v>34192.58</v>
+        <v>34325.619999999995</v>
       </c>
       <c r="W86" s="235" t="e">
         <f>E2+#REF!+E4+E7+E26+E10+E11+E12+E13+E15+E17+E23+E8+E6+E27</f>
@@ -22550,7 +22869,7 @@
       </c>
       <c r="V87" s="115">
         <f>SUM(V5:V86)</f>
-        <v>34192.58</v>
+        <v>34325.619999999995</v>
       </c>
       <c r="W87" s="115">
         <f>SUM(W5:W85)</f>
@@ -22614,7 +22933,7 @@
       </c>
       <c r="V88" s="141">
         <f>V2-V87-V4+V3</f>
-        <v>114.7599999999984</v>
+        <v>-18.279999999995198</v>
       </c>
       <c r="W88" s="141">
         <f>W2+SUM(W5:W85)-W4</f>
@@ -22670,23 +22989,23 @@
       </c>
       <c r="V89" s="61">
         <f>SUM(O88:V88)</f>
-        <v>309393.75</v>
+        <v>309260.71000000002</v>
       </c>
       <c r="W89" s="61">
         <f>SUM(O88:W88)</f>
-        <v>358323.15</v>
+        <v>358190.11000000004</v>
       </c>
       <c r="X89" s="61">
         <f>SUM(O88:X88)</f>
-        <v>407252.55000000005</v>
+        <v>407119.51000000007</v>
       </c>
       <c r="Y89" s="61">
         <f>SUM(O88:Y88)</f>
-        <v>456181.95000000007</v>
+        <v>456048.91000000009</v>
       </c>
       <c r="Z89" s="61">
         <f>SUM(O88:Z88)</f>
-        <v>505186.35000000009</v>
+        <v>505053.31000000011</v>
       </c>
     </row>
     <row r="90" spans="8:31">
@@ -23250,8 +23569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B59423-65C6-41E5-9225-5D345367A685}">
   <dimension ref="A1:AE111"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
